--- a/2. WBS/5조_WBS_현대이지웰_최종프로젝트.xlsx
+++ b/2. WBS/5조_WBS_현대이지웰_최종프로젝트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\redgu\OneDrive\Desktop\study\개인 공부\Re_View_Doc\2. WBS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1116DB6A-FF97-4CA0-A80E-1FA2B19E73EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8730336-3879-4B3B-901D-BB1AB8045717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="126">
   <si>
     <t>팀명</t>
   </si>
@@ -402,29 +402,13 @@
   </si>
   <si>
     <t>주요기능 개발 단계</t>
-  </si>
-  <si>
-    <t>10일</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>메인 페이지 프로토타입 구현</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>2일</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>김석현, 이재빈, 정윤성</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>3일</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>6일</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
@@ -973,6 +957,9 @@
     <xf numFmtId="0" fontId="9" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1005,9 +992,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1229,8 +1213,8 @@
   </sheetPr>
   <dimension ref="A1:BN66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -1245,31 +1229,31 @@
       <c r="B1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="48" t="s">
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
       <c r="X1" s="6"/>
       <c r="Y1" s="6"/>
       <c r="Z1" s="6"/>
@@ -1333,7 +1317,7 @@
       <c r="F2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="50" t="s">
         <v>13</v>
       </c>
       <c r="H2" s="15" t="s">
@@ -1521,7 +1505,7 @@
       <c r="D3" s="20"/>
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
-      <c r="G3" s="50"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="21">
         <v>45951</v>
       </c>
@@ -1701,7 +1685,7 @@
       </c>
     </row>
     <row r="4" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="52" t="s">
         <v>73</v>
       </c>
       <c r="B4" s="25" t="s">
@@ -1710,8 +1694,9 @@
       <c r="C4" s="26">
         <v>1</v>
       </c>
-      <c r="D4" s="27" t="s">
-        <v>15</v>
+      <c r="D4" s="27">
+        <f>IF(AND(F4&lt;&gt;"", E4&lt;&gt;""), F4-E4+1, "")</f>
+        <v>2</v>
       </c>
       <c r="E4" s="28">
         <v>45951</v>
@@ -1783,15 +1768,16 @@
       <c r="BN4" s="31"/>
     </row>
     <row r="5" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A5" s="52"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="25" t="s">
         <v>75</v>
       </c>
       <c r="C5" s="26">
         <v>1</v>
       </c>
-      <c r="D5" s="27" t="s">
-        <v>15</v>
+      <c r="D5" s="27">
+        <f>IF(AND(F5&lt;&gt;"", E5&lt;&gt;""), F5-E5+1, "")</f>
+        <v>2</v>
       </c>
       <c r="E5" s="28">
         <v>45951</v>
@@ -1863,15 +1849,16 @@
       <c r="BN5" s="31"/>
     </row>
     <row r="6" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A6" s="52"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="25" t="s">
         <v>76</v>
       </c>
       <c r="C6" s="26">
         <v>1</v>
       </c>
-      <c r="D6" s="27" t="s">
-        <v>15</v>
+      <c r="D6" s="27">
+        <f>IF(AND(F6&lt;&gt;"", E6&lt;&gt;""), F6-E6+1, "")</f>
+        <v>2</v>
       </c>
       <c r="E6" s="28">
         <v>45951</v>
@@ -1943,15 +1930,16 @@
       <c r="BN6" s="31"/>
     </row>
     <row r="7" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A7" s="52"/>
+      <c r="A7" s="53"/>
       <c r="B7" s="34" t="s">
         <v>77</v>
       </c>
       <c r="C7" s="26">
         <v>0.5</v>
       </c>
-      <c r="D7" s="27" t="s">
-        <v>24</v>
+      <c r="D7" s="27">
+        <f>IF(AND(F7&lt;&gt;"", E7&lt;&gt;""), F7-E7+1, "")</f>
+        <v>11</v>
       </c>
       <c r="E7" s="28">
         <v>45951</v>
@@ -2023,15 +2011,16 @@
       <c r="BN7" s="31"/>
     </row>
     <row r="8" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A8" s="52"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="35" t="s">
         <v>78</v>
       </c>
       <c r="C8" s="26">
         <v>0</v>
       </c>
-      <c r="D8" s="27" t="s">
-        <v>26</v>
+      <c r="D8" s="27">
+        <f>IF(AND(F8&lt;&gt;"", E8&lt;&gt;""), F8-E8+1, "")</f>
+        <v>13</v>
       </c>
       <c r="E8" s="28">
         <v>45954</v>
@@ -2103,15 +2092,16 @@
       <c r="BN8" s="31"/>
     </row>
     <row r="9" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A9" s="52"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="36" t="s">
         <v>79</v>
       </c>
       <c r="C9" s="26">
         <v>0</v>
       </c>
-      <c r="D9" s="27" t="s">
-        <v>14</v>
+      <c r="D9" s="27">
+        <f>IF(AND(F9&lt;&gt;"", E9&lt;&gt;""), F9-E9+1, "")</f>
+        <v>1</v>
       </c>
       <c r="E9" s="28">
         <v>45962</v>
@@ -2183,15 +2173,16 @@
       <c r="BN9" s="31"/>
     </row>
     <row r="10" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A10" s="52"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="34" t="s">
         <v>80</v>
       </c>
       <c r="C10" s="26">
         <v>0</v>
       </c>
-      <c r="D10" s="27" t="s">
-        <v>23</v>
+      <c r="D10" s="27">
+        <f>IF(AND(F10&lt;&gt;"", E10&lt;&gt;""), F10-E10+1, "")</f>
+        <v>10</v>
       </c>
       <c r="E10" s="28">
         <v>45952</v>
@@ -2263,15 +2254,16 @@
       <c r="BN10" s="31"/>
     </row>
     <row r="11" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A11" s="53"/>
+      <c r="A11" s="54"/>
       <c r="B11" s="37" t="s">
         <v>81</v>
       </c>
       <c r="C11" s="26">
         <v>0</v>
       </c>
-      <c r="D11" s="27" t="s">
-        <v>15</v>
+      <c r="D11" s="27">
+        <f>IF(AND(F11&lt;&gt;"", E11&lt;&gt;""), F11-E11+1, "")</f>
+        <v>2</v>
       </c>
       <c r="E11" s="28">
         <v>45957</v>
@@ -2343,7 +2335,7 @@
       <c r="BN11" s="31"/>
     </row>
     <row r="12" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="44" t="s">
         <v>82</v>
       </c>
       <c r="B12" s="38" t="s">
@@ -2352,8 +2344,9 @@
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="27" t="s">
-        <v>14</v>
+      <c r="D12" s="27">
+        <f>IF(AND(F12&lt;&gt;"", E12&lt;&gt;""), F12-E12+1, "")</f>
+        <v>1</v>
       </c>
       <c r="E12" s="28">
         <v>45959</v>
@@ -2423,15 +2416,16 @@
       <c r="BN12" s="31"/>
     </row>
     <row r="13" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A13" s="44"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="25" t="s">
         <v>84</v>
       </c>
       <c r="C13" s="26">
         <v>0</v>
       </c>
-      <c r="D13" s="27" t="s">
-        <v>14</v>
+      <c r="D13" s="27">
+        <f>IF(AND(F13&lt;&gt;"", E13&lt;&gt;""), F13-E13+1, "")</f>
+        <v>1</v>
       </c>
       <c r="E13" s="28">
         <v>45959</v>
@@ -2503,15 +2497,16 @@
       <c r="BN13" s="31"/>
     </row>
     <row r="14" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A14" s="44"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="25" t="s">
         <v>85</v>
       </c>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="27" t="s">
-        <v>14</v>
+      <c r="D14" s="27">
+        <f>IF(AND(F14&lt;&gt;"", E14&lt;&gt;""), F14-E14+1, "")</f>
+        <v>1</v>
       </c>
       <c r="E14" s="28">
         <v>45959</v>
@@ -2583,15 +2578,16 @@
       <c r="BN14" s="31"/>
     </row>
     <row r="15" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A15" s="44"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="38" t="s">
         <v>86</v>
       </c>
       <c r="C15" s="26">
         <v>0</v>
       </c>
-      <c r="D15" s="27" t="s">
-        <v>31</v>
+      <c r="D15" s="27">
+        <f>IF(AND(F15&lt;&gt;"", E15&lt;&gt;""), F15-E15+1, "")</f>
+        <v>18</v>
       </c>
       <c r="E15" s="28">
         <v>45964</v>
@@ -2661,15 +2657,16 @@
       <c r="BN15" s="31"/>
     </row>
     <row r="16" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A16" s="44"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="41" t="s">
         <v>87</v>
       </c>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="27" t="s">
-        <v>14</v>
+      <c r="D16" s="27">
+        <f>IF(AND(F16&lt;&gt;"", E16&lt;&gt;""), F16-E16+1, "")</f>
+        <v>1</v>
       </c>
       <c r="E16" s="28">
         <v>45966</v>
@@ -2741,15 +2738,16 @@
       <c r="BN16" s="31"/>
     </row>
     <row r="17" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A17" s="44"/>
-      <c r="B17" s="54" t="s">
-        <v>124</v>
+      <c r="A17" s="45"/>
+      <c r="B17" s="43" t="s">
+        <v>123</v>
       </c>
       <c r="C17" s="26">
         <v>0</v>
       </c>
-      <c r="D17" s="27" t="s">
-        <v>125</v>
+      <c r="D17" s="27">
+        <f>IF(AND(F17&lt;&gt;"", E17&lt;&gt;""), F17-E17+1, "")</f>
+        <v>3</v>
       </c>
       <c r="E17" s="28">
         <v>45966</v>
@@ -2758,7 +2756,7 @@
         <v>45968</v>
       </c>
       <c r="G17" s="29" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H17" s="31"/>
       <c r="I17" s="31"/>
@@ -2821,15 +2819,16 @@
       <c r="BN17" s="31"/>
     </row>
     <row r="18" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A18" s="44"/>
+      <c r="A18" s="45"/>
       <c r="B18" s="41" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="27" t="s">
-        <v>127</v>
+      <c r="D18" s="27">
+        <f>IF(AND(F18&lt;&gt;"", E18&lt;&gt;""), F18-E18+1, "")</f>
+        <v>4</v>
       </c>
       <c r="E18" s="28">
         <v>45968</v>
@@ -2901,15 +2900,16 @@
       <c r="BN18" s="31"/>
     </row>
     <row r="19" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A19" s="44"/>
+      <c r="A19" s="45"/>
       <c r="B19" s="41" t="s">
         <v>114</v>
       </c>
       <c r="C19" s="26">
         <v>0</v>
       </c>
-      <c r="D19" s="27" t="s">
-        <v>127</v>
+      <c r="D19" s="27">
+        <f>IF(AND(F19&lt;&gt;"", E19&lt;&gt;""), F19-E19+1, "")</f>
+        <v>4</v>
       </c>
       <c r="E19" s="28">
         <v>45968</v>
@@ -2981,15 +2981,16 @@
       <c r="BN19" s="31"/>
     </row>
     <row r="20" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A20" s="44"/>
+      <c r="A20" s="45"/>
       <c r="B20" s="41" t="s">
         <v>116</v>
       </c>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="27" t="s">
-        <v>127</v>
+      <c r="D20" s="27">
+        <f>IF(AND(F20&lt;&gt;"", E20&lt;&gt;""), F20-E20+1, "")</f>
+        <v>4</v>
       </c>
       <c r="E20" s="28">
         <v>45968</v>
@@ -3061,15 +3062,16 @@
       <c r="BN20" s="31"/>
     </row>
     <row r="21" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A21" s="44"/>
+      <c r="A21" s="45"/>
       <c r="B21" s="41" t="s">
         <v>88</v>
       </c>
       <c r="C21" s="26">
         <v>0</v>
       </c>
-      <c r="D21" s="27" t="s">
-        <v>128</v>
+      <c r="D21" s="27">
+        <f>IF(AND(F21&lt;&gt;"", E21&lt;&gt;""), F21-E21+1, "")</f>
+        <v>6</v>
       </c>
       <c r="E21" s="28">
         <v>45972</v>
@@ -3141,15 +3143,16 @@
       <c r="BN21" s="31"/>
     </row>
     <row r="22" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A22" s="44"/>
+      <c r="A22" s="45"/>
       <c r="B22" s="41" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="26">
         <v>0</v>
       </c>
-      <c r="D22" s="27" t="s">
-        <v>128</v>
+      <c r="D22" s="27">
+        <f>IF(AND(F22&lt;&gt;"", E22&lt;&gt;""), F22-E22+1, "")</f>
+        <v>6</v>
       </c>
       <c r="E22" s="28">
         <v>45972</v>
@@ -3221,15 +3224,16 @@
       <c r="BN22" s="31"/>
     </row>
     <row r="23" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A23" s="44"/>
+      <c r="A23" s="45"/>
       <c r="B23" s="41" t="s">
         <v>89</v>
       </c>
       <c r="C23" s="26">
         <v>0</v>
       </c>
-      <c r="D23" s="27" t="s">
-        <v>128</v>
+      <c r="D23" s="27">
+        <f>IF(AND(F23&lt;&gt;"", E23&lt;&gt;""), F23-E23+1, "")</f>
+        <v>6</v>
       </c>
       <c r="E23" s="28">
         <v>45972</v>
@@ -3301,15 +3305,16 @@
       <c r="BN23" s="31"/>
     </row>
     <row r="24" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A24" s="44"/>
+      <c r="A24" s="45"/>
       <c r="B24" s="37" t="s">
         <v>92</v>
       </c>
       <c r="C24" s="26">
         <v>0</v>
       </c>
-      <c r="D24" s="27" t="s">
-        <v>125</v>
+      <c r="D24" s="27">
+        <f>IF(AND(F24&lt;&gt;"", E24&lt;&gt;""), F24-E24+1, "")</f>
+        <v>2</v>
       </c>
       <c r="E24" s="28">
         <v>45964</v>
@@ -3318,7 +3323,7 @@
         <v>45965</v>
       </c>
       <c r="G24" s="29" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H24" s="31"/>
       <c r="I24" s="31"/>
@@ -3381,15 +3386,16 @@
       <c r="BN24" s="31"/>
     </row>
     <row r="25" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A25" s="44"/>
+      <c r="A25" s="45"/>
       <c r="B25" s="37" t="s">
         <v>91</v>
       </c>
       <c r="C25" s="26">
         <v>0</v>
       </c>
-      <c r="D25" s="27" t="s">
-        <v>21</v>
+      <c r="D25" s="27">
+        <f>IF(AND(F25&lt;&gt;"", E25&lt;&gt;""), F25-E25+1, "")</f>
+        <v>7</v>
       </c>
       <c r="E25" s="28">
         <v>45965</v>
@@ -3461,15 +3467,16 @@
       <c r="BN25" s="31"/>
     </row>
     <row r="26" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A26" s="44"/>
+      <c r="A26" s="45"/>
       <c r="B26" s="37" t="s">
         <v>120</v>
       </c>
       <c r="C26" s="26">
         <v>0</v>
       </c>
-      <c r="D26" s="27" t="s">
-        <v>21</v>
+      <c r="D26" s="27">
+        <f>IF(AND(F26&lt;&gt;"", E26&lt;&gt;""), F26-E26+1, "")</f>
+        <v>7</v>
       </c>
       <c r="E26" s="28">
         <v>45965</v>
@@ -3541,15 +3548,16 @@
       <c r="BN26" s="31"/>
     </row>
     <row r="27" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A27" s="44"/>
+      <c r="A27" s="45"/>
       <c r="B27" s="42" t="s">
         <v>90</v>
       </c>
       <c r="C27" s="26">
         <v>0</v>
       </c>
-      <c r="D27" s="27" t="s">
-        <v>20</v>
+      <c r="D27" s="27">
+        <f>IF(AND(F27&lt;&gt;"", E27&lt;&gt;""), F27-E27+1, "")</f>
+        <v>6</v>
       </c>
       <c r="E27" s="28">
         <v>45965</v>
@@ -3621,15 +3629,16 @@
       <c r="BN27" s="31"/>
     </row>
     <row r="28" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A28" s="44"/>
+      <c r="A28" s="45"/>
       <c r="B28" s="37" t="s">
         <v>93</v>
       </c>
       <c r="C28" s="26">
         <v>0</v>
       </c>
-      <c r="D28" s="27" t="s">
-        <v>17</v>
+      <c r="D28" s="27">
+        <f>IF(AND(F28&lt;&gt;"", E28&lt;&gt;""), F28-E28+1, "")</f>
+        <v>3</v>
       </c>
       <c r="E28" s="28">
         <v>45965</v>
@@ -3701,15 +3710,16 @@
       <c r="BN28" s="31"/>
     </row>
     <row r="29" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A29" s="44"/>
+      <c r="A29" s="45"/>
       <c r="B29" s="37" t="s">
         <v>94</v>
       </c>
       <c r="C29" s="26">
         <v>0</v>
       </c>
-      <c r="D29" s="27" t="s">
-        <v>17</v>
+      <c r="D29" s="27">
+        <f>IF(AND(F29&lt;&gt;"", E29&lt;&gt;""), F29-E29+1, "")</f>
+        <v>4</v>
       </c>
       <c r="E29" s="28">
         <v>45968</v>
@@ -3781,15 +3791,16 @@
       <c r="BN29" s="31"/>
     </row>
     <row r="30" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A30" s="44"/>
+      <c r="A30" s="45"/>
       <c r="B30" s="37" t="s">
         <v>89</v>
       </c>
       <c r="C30" s="26">
         <v>0</v>
       </c>
-      <c r="D30" s="27" t="s">
-        <v>23</v>
+      <c r="D30" s="27">
+        <f>IF(AND(F30&lt;&gt;"", E30&lt;&gt;""), F30-E30+1, "")</f>
+        <v>10</v>
       </c>
       <c r="E30" s="28">
         <v>45972</v>
@@ -3861,15 +3872,16 @@
       <c r="BN30" s="31"/>
     </row>
     <row r="31" spans="1:66" ht="15.75" thickBot="1">
-      <c r="A31" s="44"/>
+      <c r="A31" s="45"/>
       <c r="B31" s="38" t="s">
         <v>122</v>
       </c>
       <c r="C31" s="26">
         <v>0</v>
       </c>
-      <c r="D31" s="27" t="s">
-        <v>48</v>
+      <c r="D31" s="27">
+        <f>IF(AND(F31&lt;&gt;"", E31&lt;&gt;""), F31-E31+1, "")</f>
+        <v>35</v>
       </c>
       <c r="E31" s="28">
         <v>45964</v>
@@ -3939,15 +3951,16 @@
       <c r="BN31" s="31"/>
     </row>
     <row r="32" spans="1:66" ht="24.75" thickBot="1">
-      <c r="A32" s="44"/>
+      <c r="A32" s="45"/>
       <c r="B32" s="41" t="s">
         <v>95</v>
       </c>
       <c r="C32" s="26">
         <v>0</v>
       </c>
-      <c r="D32" s="27" t="s">
-        <v>27</v>
+      <c r="D32" s="27">
+        <f>IF(AND(F32&lt;&gt;"", E32&lt;&gt;""), F32-E32+1, "")</f>
+        <v>14</v>
       </c>
       <c r="E32" s="28">
         <v>45978</v>
@@ -4019,15 +4032,16 @@
       <c r="BN32" s="31"/>
     </row>
     <row r="33" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A33" s="44"/>
+      <c r="A33" s="45"/>
       <c r="B33" s="41" t="s">
         <v>96</v>
       </c>
       <c r="C33" s="26">
         <v>0</v>
       </c>
-      <c r="D33" s="27" t="s">
-        <v>27</v>
+      <c r="D33" s="27">
+        <f>IF(AND(F33&lt;&gt;"", E33&lt;&gt;""), F33-E33+1, "")</f>
+        <v>14</v>
       </c>
       <c r="E33" s="28">
         <v>45978</v>
@@ -4099,15 +4113,16 @@
       <c r="BN33" s="31"/>
     </row>
     <row r="34" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A34" s="44"/>
+      <c r="A34" s="45"/>
       <c r="B34" s="41" t="s">
         <v>97</v>
       </c>
       <c r="C34" s="26">
         <v>0</v>
       </c>
-      <c r="D34" s="27" t="s">
-        <v>27</v>
+      <c r="D34" s="27">
+        <f>IF(AND(F34&lt;&gt;"", E34&lt;&gt;""), F34-E34+1, "")</f>
+        <v>14</v>
       </c>
       <c r="E34" s="28">
         <v>45978</v>
@@ -4179,15 +4194,16 @@
       <c r="BN34" s="31"/>
     </row>
     <row r="35" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A35" s="44"/>
+      <c r="A35" s="45"/>
       <c r="B35" s="41" t="s">
         <v>98</v>
       </c>
       <c r="C35" s="26">
         <v>0</v>
       </c>
-      <c r="D35" s="27" t="s">
-        <v>20</v>
+      <c r="D35" s="27">
+        <f>IF(AND(F35&lt;&gt;"", E35&lt;&gt;""), F35-E35+1, "")</f>
+        <v>7</v>
       </c>
       <c r="E35" s="28">
         <v>45992</v>
@@ -4259,15 +4275,16 @@
       <c r="BN35" s="31"/>
     </row>
     <row r="36" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A36" s="44"/>
+      <c r="A36" s="45"/>
       <c r="B36" s="41" t="s">
         <v>99</v>
       </c>
       <c r="C36" s="26">
         <v>0</v>
       </c>
-      <c r="D36" s="27" t="s">
-        <v>20</v>
+      <c r="D36" s="27">
+        <f>IF(AND(F36&lt;&gt;"", E36&lt;&gt;""), F36-E36+1, "")</f>
+        <v>7</v>
       </c>
       <c r="E36" s="28">
         <v>45992</v>
@@ -4339,15 +4356,16 @@
       <c r="BN36" s="31"/>
     </row>
     <row r="37" spans="1:66" ht="24.75" thickBot="1">
-      <c r="A37" s="44"/>
+      <c r="A37" s="45"/>
       <c r="B37" s="37" t="s">
         <v>4</v>
       </c>
       <c r="C37" s="26">
         <v>0</v>
       </c>
-      <c r="D37" s="27" t="s">
-        <v>45</v>
+      <c r="D37" s="27">
+        <f>IF(AND(F37&lt;&gt;"", E37&lt;&gt;""), F37-E37+1, "")</f>
+        <v>32</v>
       </c>
       <c r="E37" s="28">
         <v>45964</v>
@@ -4419,15 +4437,16 @@
       <c r="BN37" s="31"/>
     </row>
     <row r="38" spans="1:66" ht="24.75" thickBot="1">
-      <c r="A38" s="44"/>
+      <c r="A38" s="45"/>
       <c r="B38" s="42" t="s">
         <v>100</v>
       </c>
       <c r="C38" s="26">
         <v>0</v>
       </c>
-      <c r="D38" s="27" t="s">
-        <v>14</v>
+      <c r="D38" s="27">
+        <f>IF(AND(F38&lt;&gt;"", E38&lt;&gt;""), F38-E38+1, "")</f>
+        <v>1</v>
       </c>
       <c r="E38" s="28">
         <v>45996</v>
@@ -4499,15 +4518,16 @@
       <c r="BN38" s="31"/>
     </row>
     <row r="39" spans="1:66" ht="24.75" thickBot="1">
-      <c r="A39" s="45"/>
+      <c r="A39" s="46"/>
       <c r="B39" s="42" t="s">
         <v>101</v>
       </c>
       <c r="C39" s="26">
         <v>0</v>
       </c>
-      <c r="D39" s="27" t="s">
-        <v>15</v>
+      <c r="D39" s="27">
+        <f>IF(AND(F39&lt;&gt;"", E39&lt;&gt;""), F39-E39+1, "")</f>
+        <v>2</v>
       </c>
       <c r="E39" s="28">
         <v>45997</v>
@@ -4579,7 +4599,7 @@
       <c r="BN39" s="31"/>
     </row>
     <row r="40" spans="1:66" ht="15.75" thickBot="1">
-      <c r="A40" s="43" t="s">
+      <c r="A40" s="44" t="s">
         <v>102</v>
       </c>
       <c r="B40" s="38" t="s">
@@ -4588,8 +4608,9 @@
       <c r="C40" s="26">
         <v>0</v>
       </c>
-      <c r="D40" s="27" t="s">
-        <v>25</v>
+      <c r="D40" s="27">
+        <f>IF(AND(F40&lt;&gt;"", E40&lt;&gt;""), F40-E40+1, "")</f>
+        <v>12</v>
       </c>
       <c r="E40" s="28">
         <v>45999</v>
@@ -4659,15 +4680,16 @@
       <c r="BN40" s="40"/>
     </row>
     <row r="41" spans="1:66" ht="15.75" thickBot="1">
-      <c r="A41" s="44"/>
+      <c r="A41" s="45"/>
       <c r="B41" s="25" t="s">
         <v>103</v>
       </c>
       <c r="C41" s="26">
         <v>0</v>
       </c>
-      <c r="D41" s="27" t="s">
-        <v>23</v>
+      <c r="D41" s="27">
+        <f>IF(AND(F41&lt;&gt;"", E41&lt;&gt;""), F41-E41+1, "")</f>
+        <v>10</v>
       </c>
       <c r="E41" s="28">
         <v>45999</v>
@@ -4739,15 +4761,16 @@
       <c r="BN41" s="31"/>
     </row>
     <row r="42" spans="1:66" ht="15.75" thickBot="1">
-      <c r="A42" s="44"/>
+      <c r="A42" s="45"/>
       <c r="B42" s="25" t="s">
         <v>5</v>
       </c>
       <c r="C42" s="26">
         <v>0</v>
       </c>
-      <c r="D42" s="27" t="s">
-        <v>123</v>
+      <c r="D42" s="27">
+        <f>IF(AND(F42&lt;&gt;"", E42&lt;&gt;""), F42-E42+1, "")</f>
+        <v>10</v>
       </c>
       <c r="E42" s="28">
         <v>45999</v>
@@ -4819,15 +4842,16 @@
       <c r="BN42" s="31"/>
     </row>
     <row r="43" spans="1:66" ht="15.75" thickBot="1">
-      <c r="A43" s="44"/>
+      <c r="A43" s="45"/>
       <c r="B43" s="25" t="s">
         <v>104</v>
       </c>
       <c r="C43" s="26">
         <v>0</v>
       </c>
-      <c r="D43" s="27" t="s">
-        <v>14</v>
+      <c r="D43" s="27">
+        <f>IF(AND(F43&lt;&gt;"", E43&lt;&gt;""), F43-E43+1, "")</f>
+        <v>1</v>
       </c>
       <c r="E43" s="28">
         <v>46010</v>
@@ -4899,15 +4923,16 @@
       <c r="BN43" s="31"/>
     </row>
     <row r="44" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A44" s="45"/>
+      <c r="A44" s="46"/>
       <c r="B44" s="25" t="s">
         <v>105</v>
       </c>
       <c r="C44" s="26">
         <v>0</v>
       </c>
-      <c r="D44" s="27" t="s">
-        <v>14</v>
+      <c r="D44" s="27">
+        <f>IF(AND(F44&lt;&gt;"", E44&lt;&gt;""), F44-E44+1, "")</f>
+        <v>1</v>
       </c>
       <c r="E44" s="28">
         <v>46010</v>
@@ -5073,5 +5098,6 @@
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/2. WBS/5조_WBS_현대이지웰_최종프로젝트.xlsx
+++ b/2. WBS/5조_WBS_현대이지웰_최종프로젝트.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\redgu\OneDrive\Desktop\study\개인 공부\Re_View_Doc\2. WBS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\redgu\OneDrive\Desktop\related Re_View\Re_View_Doc\2. WBS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8730336-3879-4B3B-901D-BB1AB8045717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DCC612-50F1-40C5-9DBF-4A15F14B9C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="130">
   <si>
     <t>팀명</t>
   </si>
@@ -41,12 +41,6 @@
     <t>구분</t>
   </si>
   <si>
-    <t>회원가입 및 로그인 구현</t>
-  </si>
-  <si>
-    <t>상품 목록 및 상세보기 구현</t>
-  </si>
-  <si>
     <t>UI/UX 개선 및 디자인 보완</t>
   </si>
   <si>
@@ -296,12 +290,6 @@
     <t>필수 기능 개발 단계</t>
   </si>
   <si>
-    <t>데이터 DB에 반영</t>
-  </si>
-  <si>
-    <t>제품 결제 및 배송</t>
-  </si>
-  <si>
     <t>리뷰 작성 조회 삭제 CRUD</t>
   </si>
   <si>
@@ -311,30 +299,12 @@
     <t>관리자 페이지 ui</t>
   </si>
   <si>
-    <t>메인페이지, 마이페이지 UI</t>
-  </si>
-  <si>
     <t>검색 페이지 UI</t>
   </si>
   <si>
     <t>상세페이지 UI</t>
   </si>
   <si>
-    <t>보상 체계 관련( 혜택 시스템 )</t>
-  </si>
-  <si>
-    <t>리뷰 커뮤니티 시스템 강화(추천, 비추천, 신고, 태그, 별점, 댓글)</t>
-  </si>
-  <si>
-    <t>리뷰 검색,정렬 기능</t>
-  </si>
-  <si>
-    <t>구매 기록 기반 상품 리뷰 추천</t>
-  </si>
-  <si>
-    <t>회원의 타입과 비슷한 고객들이 구매한 상품 리뷰 추천</t>
-  </si>
-  <si>
     <t>프론트 엔드 기능 고도화(상세 ui 반응 개선)</t>
   </si>
   <si>
@@ -377,18 +347,6 @@
     <t>이재빈</t>
   </si>
   <si>
-    <t>마이 페이지 구현</t>
-  </si>
-  <si>
-    <t>김석현</t>
-  </si>
-  <si>
-    <t>메인페이지 및 관리 페이지 구현</t>
-  </si>
-  <si>
-    <t>정윤성</t>
-  </si>
-  <si>
     <t>오승환</t>
   </si>
   <si>
@@ -402,10 +360,6 @@
   </si>
   <si>
     <t>주요기능 개발 단계</t>
-  </si>
-  <si>
-    <t>메인 페이지 프로토타입 구현</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>김석현, 이재빈, 정윤성</t>
@@ -413,6 +367,917 @@
   </si>
   <si>
     <t>오승환, 김시연, 박진성</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>메인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>페이지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기본적인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> header, body, footer </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구현</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원의 피부 타입에 추천되는 상품 추천 알고리즘</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구매</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기반</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>리뷰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추천</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>알고리즘</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>정렬, 검색 기능(리뷰, 상품 등)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>리뷰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>커뮤니티</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시스템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>강화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추천</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비추천</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>신고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>태그</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>별점</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>댓글</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 페이지</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">관리자 페이지 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">API </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및 비즈니스 로직 구현</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 상세보기 및 목록 조회 API 및 비즈니스 로직 구현</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 정보 조회, 수정 API 및 비즈니스 로직 구현</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매내역 조회 및 상풍 확인(배송중 등) 조회 API 및 비즈니스 로직 구현</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰 내역 조회 및 찜목록 조회 API 및 비즈니스 로직 구현</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데이터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> DB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>반영</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 상품 API, 검색API 및 비즈니스 로직 API 및 비즈니스 로직 구현</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회원가입</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로그인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로직 구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> API </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비즈니스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로직</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구현</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>리뷰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조회</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삭제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> CRUD API </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비즈니스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로직</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구현</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 페이지 및 상품 페이지</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지 및 로그인페이지</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보상</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>체계</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관련</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>혜택</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시스템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> )</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인페이지 프로토타입 구현</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -423,7 +1288,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -594,8 +1459,28 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -680,8 +1565,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -825,11 +1716,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -951,9 +1879,6 @@
     <xf numFmtId="0" fontId="10" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -992,6 +1917,42 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1211,15 +2172,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BN66"/>
+  <dimension ref="A1:BN71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="38.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="16.5" thickBot="1">
@@ -1227,33 +2189,33 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
       <c r="X1" s="6"/>
       <c r="Y1" s="6"/>
       <c r="Z1" s="6"/>
@@ -1303,199 +2265,199 @@
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="F2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="G2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="H2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="I2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="J2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="K2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="L2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="M2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="N2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="O2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="P2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="Q2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="15" t="s">
+      <c r="R2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="15" t="s">
+      <c r="S2" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="15" t="s">
+      <c r="T2" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="S2" s="16" t="s">
+      <c r="U2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="T2" s="17" t="s">
+      <c r="V2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="15" t="s">
+      <c r="W2" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="V2" s="15" t="s">
+      <c r="X2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="W2" s="15" t="s">
+      <c r="Y2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="X2" s="15" t="s">
+      <c r="Z2" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="Y2" s="15" t="s">
+      <c r="AA2" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="Z2" s="16" t="s">
+      <c r="AB2" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="AA2" s="17" t="s">
+      <c r="AC2" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="AB2" s="15" t="s">
+      <c r="AD2" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="AC2" s="15" t="s">
+      <c r="AE2" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AD2" s="15" t="s">
+      <c r="AF2" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="AE2" s="15" t="s">
+      <c r="AG2" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="AF2" s="15" t="s">
+      <c r="AH2" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="AG2" s="16" t="s">
+      <c r="AI2" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="AH2" s="17" t="s">
+      <c r="AJ2" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="AI2" s="15" t="s">
+      <c r="AK2" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="AJ2" s="15" t="s">
+      <c r="AL2" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="AK2" s="15" t="s">
+      <c r="AM2" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="AL2" s="15" t="s">
+      <c r="AN2" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="AM2" s="15" t="s">
+      <c r="AO2" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="AN2" s="16" t="s">
+      <c r="AP2" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="AO2" s="17" t="s">
+      <c r="AQ2" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="AP2" s="15" t="s">
+      <c r="AR2" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="15" t="s">
+      <c r="AS2" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="AR2" s="15" t="s">
+      <c r="AT2" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="AS2" s="15" t="s">
+      <c r="AU2" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="AT2" s="15" t="s">
+      <c r="AV2" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="AU2" s="16" t="s">
+      <c r="AW2" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AV2" s="17" t="s">
+      <c r="AX2" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AW2" s="15" t="s">
+      <c r="AY2" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="AX2" s="15" t="s">
+      <c r="AZ2" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AY2" s="15" t="s">
+      <c r="BA2" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AZ2" s="15" t="s">
+      <c r="BB2" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="BA2" s="15" t="s">
+      <c r="BC2" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="BB2" s="16" t="s">
+      <c r="BD2" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="BC2" s="17" t="s">
+      <c r="BE2" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="BD2" s="15" t="s">
+      <c r="BF2" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="BE2" s="15" t="s">
+      <c r="BG2" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="BF2" s="15" t="s">
+      <c r="BH2" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="BG2" s="15" t="s">
+      <c r="BI2" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="BH2" s="15" t="s">
+      <c r="BJ2" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="BI2" s="16" t="s">
+      <c r="BK2" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="BJ2" s="18" t="s">
+      <c r="BL2" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="BK2" s="15" t="s">
+      <c r="BM2" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="BL2" s="15" t="s">
+      <c r="BN2" s="15" t="s">
         <v>70</v>
-      </c>
-      <c r="BM2" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="BN2" s="15" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:66" ht="15" customHeight="1" thickBot="1">
@@ -1505,7 +2467,7 @@
       <c r="D3" s="20"/>
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
-      <c r="G3" s="51"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="21">
         <v>45951</v>
       </c>
@@ -1685,17 +2647,18 @@
       </c>
     </row>
     <row r="4" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="52" t="s">
-        <v>73</v>
+      <c r="A4" s="51" t="s">
+        <v>71</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="26">
-        <v>1</v>
+        <v>72</v>
+      </c>
+      <c r="C4" s="26" t="str">
+        <f ca="1">ROUND(MAX(0, MIN(TODAY(), F4) - E4) / (F4 - E4) * 100, 1) &amp; "%"</f>
+        <v>100%</v>
       </c>
       <c r="D4" s="27">
-        <f>IF(AND(F4&lt;&gt;"", E4&lt;&gt;""), F4-E4+1, "")</f>
+        <f t="shared" ref="D4:D49" si="0">IF(AND(F4&lt;&gt;"", E4&lt;&gt;""), F4-E4+1, "")</f>
         <v>2</v>
       </c>
       <c r="E4" s="28">
@@ -1705,7 +2668,7 @@
         <v>45952</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="H4" s="30"/>
       <c r="I4" s="30"/>
@@ -1768,15 +2731,16 @@
       <c r="BN4" s="31"/>
     </row>
     <row r="5" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A5" s="53"/>
+      <c r="A5" s="52"/>
       <c r="B5" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="26">
-        <v>1</v>
+        <v>73</v>
+      </c>
+      <c r="C5" s="26" t="str">
+        <f ca="1">ROUND(MAX(0, MIN(TODAY(), F5) - E5) / (F5 - E5) * 100, 1) &amp; "%"</f>
+        <v>100%</v>
       </c>
       <c r="D5" s="27">
-        <f>IF(AND(F5&lt;&gt;"", E5&lt;&gt;""), F5-E5+1, "")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E5" s="28">
@@ -1786,7 +2750,7 @@
         <v>45952</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="H5" s="30"/>
       <c r="I5" s="30"/>
@@ -1849,15 +2813,16 @@
       <c r="BN5" s="31"/>
     </row>
     <row r="6" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A6" s="53"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="26">
-        <v>1</v>
+        <v>74</v>
+      </c>
+      <c r="C6" s="26" t="str">
+        <f ca="1">ROUND(MAX(0, MIN(TODAY(), F6) - E6) / (F6 - E6) * 100, 1) &amp; "%"</f>
+        <v>100%</v>
       </c>
       <c r="D6" s="27">
-        <f>IF(AND(F6&lt;&gt;"", E6&lt;&gt;""), F6-E6+1, "")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E6" s="28">
@@ -1867,7 +2832,7 @@
         <v>45952</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
@@ -1930,15 +2895,16 @@
       <c r="BN6" s="31"/>
     </row>
     <row r="7" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A7" s="53"/>
+      <c r="A7" s="52"/>
       <c r="B7" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="26">
-        <v>0.5</v>
+        <v>75</v>
+      </c>
+      <c r="C7" s="26" t="str">
+        <f ca="1">ROUND(MAX(0, MIN(TODAY(), F7) - E7) / (F7 - E7) * 100, 1) &amp; "%"</f>
+        <v>100%</v>
       </c>
       <c r="D7" s="27">
-        <f>IF(AND(F7&lt;&gt;"", E7&lt;&gt;""), F7-E7+1, "")</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="E7" s="28">
@@ -1948,7 +2914,7 @@
         <v>45961</v>
       </c>
       <c r="G7" s="29" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="H7" s="30"/>
       <c r="I7" s="30"/>
@@ -2011,15 +2977,16 @@
       <c r="BN7" s="31"/>
     </row>
     <row r="8" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A8" s="53"/>
+      <c r="A8" s="52"/>
       <c r="B8" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" s="26">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="C8" s="26" t="str">
+        <f ca="1">ROUND(MAX(0, MIN(TODAY(), F8) - E8) / (F8 - E8) * 100, 1) &amp; "%"</f>
+        <v>100%</v>
       </c>
       <c r="D8" s="27">
-        <f>IF(AND(F8&lt;&gt;"", E8&lt;&gt;""), F8-E8+1, "")</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="E8" s="28">
@@ -2029,7 +2996,7 @@
         <v>45966</v>
       </c>
       <c r="G8" s="29" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="H8" s="31"/>
       <c r="I8" s="31"/>
@@ -2092,15 +3059,16 @@
       <c r="BN8" s="31"/>
     </row>
     <row r="9" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A9" s="53"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="26">
-        <v>0</v>
+        <v>77</v>
+      </c>
+      <c r="C9" s="26" t="e">
+        <f>B17+B21,B28,B33</f>
+        <v>#VALUE!</v>
       </c>
       <c r="D9" s="27">
-        <f>IF(AND(F9&lt;&gt;"", E9&lt;&gt;""), F9-E9+1, "")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E9" s="28">
@@ -2110,7 +3078,7 @@
         <v>45962</v>
       </c>
       <c r="G9" s="29" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="H9" s="31"/>
       <c r="I9" s="31"/>
@@ -2173,15 +3141,16 @@
       <c r="BN9" s="31"/>
     </row>
     <row r="10" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A10" s="53"/>
+      <c r="A10" s="52"/>
       <c r="B10" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" s="26">
-        <v>0</v>
+        <v>78</v>
+      </c>
+      <c r="C10" s="26" t="str">
+        <f ca="1">IF(F10=E10, IF(TODAY()&gt;F10, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F10) - E10) / (F10 - E10) * 100, 1) &amp; "%")</f>
+        <v>100%</v>
       </c>
       <c r="D10" s="27">
-        <f>IF(AND(F10&lt;&gt;"", E10&lt;&gt;""), F10-E10+1, "")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E10" s="28">
@@ -2191,7 +3160,7 @@
         <v>45961</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="H10" s="31"/>
       <c r="I10" s="30"/>
@@ -2254,15 +3223,16 @@
       <c r="BN10" s="31"/>
     </row>
     <row r="11" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A11" s="54"/>
+      <c r="A11" s="53"/>
       <c r="B11" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="26">
-        <v>0</v>
+        <v>79</v>
+      </c>
+      <c r="C11" s="26" t="str">
+        <f ca="1">IF(F11=E11, IF(TODAY()&gt;F11, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F11) - E11) / (F11 - E11) * 100, 1) &amp; "%")</f>
+        <v>100%</v>
       </c>
       <c r="D11" s="27">
-        <f>IF(AND(F11&lt;&gt;"", E11&lt;&gt;""), F11-E11+1, "")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E11" s="28">
@@ -2272,7 +3242,7 @@
         <v>45958</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="H11" s="31"/>
       <c r="I11" s="31"/>
@@ -2335,17 +3305,18 @@
       <c r="BN11" s="31"/>
     </row>
     <row r="12" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A12" s="44" t="s">
-        <v>82</v>
+      <c r="A12" s="63" t="s">
+        <v>80</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="26">
-        <v>0</v>
+        <v>81</v>
+      </c>
+      <c r="C12" s="26" t="str">
+        <f ca="1">IF(F12=E12, IF(TODAY()&gt;F12, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F12) - E12) / (F12 - E12) * 100, 1) &amp; "%")</f>
+        <v>100%</v>
       </c>
       <c r="D12" s="27">
-        <f>IF(AND(F12&lt;&gt;"", E12&lt;&gt;""), F12-E12+1, "")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E12" s="28">
@@ -2416,15 +3387,16 @@
       <c r="BN12" s="31"/>
     </row>
     <row r="13" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A13" s="45"/>
+      <c r="A13" s="64"/>
       <c r="B13" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" s="26">
-        <v>0</v>
+        <v>82</v>
+      </c>
+      <c r="C13" s="26" t="str">
+        <f ca="1">IF(F13=E13, IF(TODAY()&gt;F13, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F13) - E13) / (F13 - E13) * 100, 1) &amp; "%")</f>
+        <v>100%</v>
       </c>
       <c r="D13" s="27">
-        <f>IF(AND(F13&lt;&gt;"", E13&lt;&gt;""), F13-E13+1, "")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E13" s="28">
@@ -2434,7 +3406,7 @@
         <v>45959</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="H13" s="31"/>
       <c r="I13" s="31"/>
@@ -2497,15 +3469,16 @@
       <c r="BN13" s="31"/>
     </row>
     <row r="14" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A14" s="45"/>
+      <c r="A14" s="64"/>
       <c r="B14" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" s="26">
-        <v>0</v>
+        <v>83</v>
+      </c>
+      <c r="C14" s="26" t="str">
+        <f ca="1">IF(F14=E14, IF(TODAY()&gt;F14, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F14) - E14) / (F14 - E14) * 100, 1) &amp; "%")</f>
+        <v>100%</v>
       </c>
       <c r="D14" s="27">
-        <f>IF(AND(F14&lt;&gt;"", E14&lt;&gt;""), F14-E14+1, "")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E14" s="28">
@@ -2515,7 +3488,7 @@
         <v>45959</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="H14" s="31"/>
       <c r="I14" s="31"/>
@@ -2578,15 +3551,16 @@
       <c r="BN14" s="31"/>
     </row>
     <row r="15" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A15" s="45"/>
+      <c r="A15" s="64"/>
       <c r="B15" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="26">
-        <v>0</v>
+        <v>84</v>
+      </c>
+      <c r="C15" s="26" t="str">
+        <f ca="1">IF(F15=E15, IF(TODAY()&gt;F15, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F15) - E15) / (F15 - E15) * 100, 1) &amp; "%")</f>
+        <v>11.8%</v>
       </c>
       <c r="D15" s="27">
-        <f>IF(AND(F15&lt;&gt;"", E15&lt;&gt;""), F15-E15+1, "")</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="E15" s="28">
@@ -2657,15 +3631,16 @@
       <c r="BN15" s="31"/>
     </row>
     <row r="16" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A16" s="45"/>
-      <c r="B16" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" s="26">
-        <v>0</v>
+      <c r="A16" s="64"/>
+      <c r="B16" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="26" t="str">
+        <f ca="1">IF(F16=E16, IF(TODAY()&gt;F16, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F16) - E16) / (F16 - E16) * 100, 1) &amp; "%")</f>
+        <v>0%</v>
       </c>
       <c r="D16" s="27">
-        <f>IF(AND(F16&lt;&gt;"", E16&lt;&gt;""), F16-E16+1, "")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E16" s="28">
@@ -2675,7 +3650,7 @@
         <v>45966</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="H16" s="31"/>
       <c r="I16" s="31"/>
@@ -2738,26 +3713,15 @@
       <c r="BN16" s="31"/>
     </row>
     <row r="17" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A17" s="45"/>
-      <c r="B17" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="C17" s="26">
-        <v>0</v>
-      </c>
-      <c r="D17" s="27">
-        <f>IF(AND(F17&lt;&gt;"", E17&lt;&gt;""), F17-E17+1, "")</f>
-        <v>3</v>
-      </c>
-      <c r="E17" s="28">
-        <v>45966</v>
-      </c>
-      <c r="F17" s="28">
-        <v>45968</v>
-      </c>
-      <c r="G17" s="29" t="s">
-        <v>124</v>
-      </c>
+      <c r="A17" s="64"/>
+      <c r="B17" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="59"/>
       <c r="H17" s="31"/>
       <c r="I17" s="31"/>
       <c r="J17" s="31"/>
@@ -2819,25 +3783,26 @@
       <c r="BN17" s="31"/>
     </row>
     <row r="18" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A18" s="45"/>
-      <c r="B18" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="26">
-        <v>0</v>
+      <c r="A18" s="64"/>
+      <c r="B18" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" s="26" t="str">
+        <f ca="1">IF(F18=E18, IF(TODAY()&gt;F18, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F18) - E18) / (F18 - E18) * 100, 1) &amp; "%")</f>
+        <v>100%</v>
       </c>
       <c r="D18" s="27">
         <f>IF(AND(F18&lt;&gt;"", E18&lt;&gt;""), F18-E18+1, "")</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E18" s="28">
-        <v>45968</v>
+        <v>45964</v>
       </c>
       <c r="F18" s="28">
-        <v>45971</v>
+        <v>45965</v>
       </c>
       <c r="G18" s="29" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H18" s="31"/>
       <c r="I18" s="31"/>
@@ -2852,14 +3817,14 @@
       <c r="R18" s="31"/>
       <c r="S18" s="32"/>
       <c r="T18" s="33"/>
-      <c r="U18" s="31"/>
-      <c r="V18" s="31"/>
+      <c r="U18" s="30"/>
+      <c r="V18" s="30"/>
       <c r="W18" s="30"/>
       <c r="X18" s="30"/>
       <c r="Y18" s="30"/>
       <c r="Z18" s="30"/>
       <c r="AA18" s="30"/>
-      <c r="AB18" s="30"/>
+      <c r="AB18" s="31"/>
       <c r="AC18" s="31"/>
       <c r="AD18" s="31"/>
       <c r="AE18" s="31"/>
@@ -2900,25 +3865,26 @@
       <c r="BN18" s="31"/>
     </row>
     <row r="19" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A19" s="45"/>
-      <c r="B19" s="41" t="s">
-        <v>114</v>
-      </c>
-      <c r="C19" s="26">
-        <v>0</v>
+      <c r="A19" s="64"/>
+      <c r="B19" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="26" t="str">
+        <f ca="1">IF(F19=E19, IF(TODAY()&gt;F19, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F19) - E19) / (F19 - E19) * 100, 1) &amp; "%")</f>
+        <v>50%</v>
       </c>
       <c r="D19" s="27">
         <f>IF(AND(F19&lt;&gt;"", E19&lt;&gt;""), F19-E19+1, "")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E19" s="28">
-        <v>45968</v>
+        <v>45965</v>
       </c>
       <c r="F19" s="28">
-        <v>45971</v>
+        <v>45967</v>
       </c>
       <c r="G19" s="29" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="H19" s="31"/>
       <c r="I19" s="31"/>
@@ -2933,14 +3899,14 @@
       <c r="R19" s="31"/>
       <c r="S19" s="32"/>
       <c r="T19" s="33"/>
-      <c r="U19" s="31"/>
-      <c r="V19" s="31"/>
+      <c r="U19" s="30"/>
+      <c r="V19" s="30"/>
       <c r="W19" s="30"/>
       <c r="X19" s="30"/>
-      <c r="Y19" s="30"/>
-      <c r="Z19" s="30"/>
-      <c r="AA19" s="30"/>
-      <c r="AB19" s="30"/>
+      <c r="Y19" s="31"/>
+      <c r="Z19" s="32"/>
+      <c r="AA19" s="33"/>
+      <c r="AB19" s="31"/>
       <c r="AC19" s="31"/>
       <c r="AD19" s="31"/>
       <c r="AE19" s="31"/>
@@ -2981,25 +3947,26 @@
       <c r="BN19" s="31"/>
     </row>
     <row r="20" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A20" s="45"/>
-      <c r="B20" s="41" t="s">
-        <v>116</v>
-      </c>
-      <c r="C20" s="26">
-        <v>0</v>
+      <c r="A20" s="64"/>
+      <c r="B20" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" s="26" t="str">
+        <f ca="1">IF(F20=E20, IF(TODAY()&gt;F20, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F20) - E20) / (F20 - E20) * 100, 1) &amp; "%")</f>
+        <v>0%</v>
       </c>
       <c r="D20" s="27">
-        <f>IF(AND(F20&lt;&gt;"", E20&lt;&gt;""), F20-E20+1, "")</f>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="E20" s="28">
-        <v>45968</v>
+        <v>45966</v>
       </c>
       <c r="F20" s="28">
-        <v>45971</v>
+        <v>45967</v>
       </c>
       <c r="G20" s="29" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
@@ -3017,11 +3984,11 @@
       <c r="U20" s="31"/>
       <c r="V20" s="31"/>
       <c r="W20" s="30"/>
-      <c r="X20" s="30"/>
-      <c r="Y20" s="30"/>
-      <c r="Z20" s="30"/>
-      <c r="AA20" s="30"/>
-      <c r="AB20" s="30"/>
+      <c r="X20" s="31"/>
+      <c r="Y20" s="31"/>
+      <c r="Z20" s="32"/>
+      <c r="AA20" s="33"/>
+      <c r="AB20" s="31"/>
       <c r="AC20" s="31"/>
       <c r="AD20" s="31"/>
       <c r="AE20" s="31"/>
@@ -3062,26 +4029,15 @@
       <c r="BN20" s="31"/>
     </row>
     <row r="21" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A21" s="45"/>
-      <c r="B21" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="C21" s="26">
-        <v>0</v>
-      </c>
-      <c r="D21" s="27">
-        <f>IF(AND(F21&lt;&gt;"", E21&lt;&gt;""), F21-E21+1, "")</f>
-        <v>6</v>
-      </c>
-      <c r="E21" s="28">
-        <v>45972</v>
-      </c>
-      <c r="F21" s="28">
-        <v>45977</v>
-      </c>
-      <c r="G21" s="29" t="s">
-        <v>115</v>
-      </c>
+      <c r="A21" s="64"/>
+      <c r="B21" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="59"/>
       <c r="H21" s="31"/>
       <c r="I21" s="31"/>
       <c r="J21" s="31"/>
@@ -3097,18 +4053,18 @@
       <c r="T21" s="33"/>
       <c r="U21" s="31"/>
       <c r="V21" s="31"/>
-      <c r="W21" s="31"/>
-      <c r="X21" s="31"/>
-      <c r="Y21" s="31"/>
-      <c r="Z21" s="32"/>
-      <c r="AA21" s="33"/>
-      <c r="AB21" s="31"/>
+      <c r="W21" s="30"/>
+      <c r="X21" s="30"/>
+      <c r="Y21" s="30"/>
+      <c r="Z21" s="30"/>
+      <c r="AA21" s="30"/>
+      <c r="AB21" s="30"/>
       <c r="AC21" s="31"/>
-      <c r="AD21" s="30"/>
-      <c r="AE21" s="30"/>
-      <c r="AF21" s="30"/>
-      <c r="AG21" s="30"/>
-      <c r="AH21" s="30"/>
+      <c r="AD21" s="31"/>
+      <c r="AE21" s="31"/>
+      <c r="AF21" s="31"/>
+      <c r="AG21" s="32"/>
+      <c r="AH21" s="33"/>
       <c r="AI21" s="31"/>
       <c r="AJ21" s="31"/>
       <c r="AK21" s="31"/>
@@ -3143,26 +4099,25 @@
       <c r="BN21" s="31"/>
     </row>
     <row r="22" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A22" s="45"/>
-      <c r="B22" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="26">
-        <v>0</v>
+      <c r="A22" s="64"/>
+      <c r="B22" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="26" t="str">
+        <f ca="1">IF(F22=E22, IF(TODAY()&gt;F22, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F22) - E22) / (F22 - E22) * 100, 1) &amp; "%")</f>
+        <v>0%</v>
       </c>
       <c r="D22" s="27">
         <f>IF(AND(F22&lt;&gt;"", E22&lt;&gt;""), F22-E22+1, "")</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E22" s="28">
-        <v>45972</v>
+        <v>45968</v>
       </c>
       <c r="F22" s="28">
-        <v>45977</v>
-      </c>
-      <c r="G22" s="29" t="s">
-        <v>117</v>
-      </c>
+        <v>45969</v>
+      </c>
+      <c r="G22" s="29"/>
       <c r="H22" s="31"/>
       <c r="I22" s="31"/>
       <c r="J22" s="31"/>
@@ -3178,18 +4133,18 @@
       <c r="T22" s="33"/>
       <c r="U22" s="31"/>
       <c r="V22" s="31"/>
-      <c r="W22" s="31"/>
-      <c r="X22" s="31"/>
-      <c r="Y22" s="31"/>
-      <c r="Z22" s="32"/>
-      <c r="AA22" s="33"/>
-      <c r="AB22" s="31"/>
+      <c r="W22" s="30"/>
+      <c r="X22" s="30"/>
+      <c r="Y22" s="30"/>
+      <c r="Z22" s="30"/>
+      <c r="AA22" s="30"/>
+      <c r="AB22" s="30"/>
       <c r="AC22" s="31"/>
-      <c r="AD22" s="30"/>
-      <c r="AE22" s="30"/>
-      <c r="AF22" s="30"/>
-      <c r="AG22" s="30"/>
-      <c r="AH22" s="30"/>
+      <c r="AD22" s="31"/>
+      <c r="AE22" s="31"/>
+      <c r="AF22" s="31"/>
+      <c r="AG22" s="32"/>
+      <c r="AH22" s="33"/>
       <c r="AI22" s="31"/>
       <c r="AJ22" s="31"/>
       <c r="AK22" s="31"/>
@@ -3224,25 +4179,26 @@
       <c r="BN22" s="31"/>
     </row>
     <row r="23" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A23" s="45"/>
+      <c r="A23" s="64"/>
       <c r="B23" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="C23" s="26">
-        <v>0</v>
+        <v>86</v>
+      </c>
+      <c r="C23" s="26" t="str">
+        <f ca="1">IF(F23=E23, IF(TODAY()&gt;F23, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F23) - E23) / (F23 - E23) * 100, 1) &amp; "%")</f>
+        <v>20%</v>
       </c>
       <c r="D23" s="27">
         <f>IF(AND(F23&lt;&gt;"", E23&lt;&gt;""), F23-E23+1, "")</f>
         <v>6</v>
       </c>
       <c r="E23" s="28">
-        <v>45972</v>
+        <v>45965</v>
       </c>
       <c r="F23" s="28">
-        <v>45977</v>
+        <v>45970</v>
       </c>
       <c r="G23" s="29" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="H23" s="31"/>
       <c r="I23" s="31"/>
@@ -3257,7 +4213,7 @@
       <c r="R23" s="31"/>
       <c r="S23" s="32"/>
       <c r="T23" s="33"/>
-      <c r="U23" s="31"/>
+      <c r="U23" s="30"/>
       <c r="V23" s="31"/>
       <c r="W23" s="31"/>
       <c r="X23" s="31"/>
@@ -3266,11 +4222,11 @@
       <c r="AA23" s="33"/>
       <c r="AB23" s="31"/>
       <c r="AC23" s="31"/>
-      <c r="AD23" s="30"/>
-      <c r="AE23" s="30"/>
-      <c r="AF23" s="30"/>
-      <c r="AG23" s="30"/>
-      <c r="AH23" s="30"/>
+      <c r="AD23" s="31"/>
+      <c r="AE23" s="31"/>
+      <c r="AF23" s="31"/>
+      <c r="AG23" s="32"/>
+      <c r="AH23" s="33"/>
       <c r="AI23" s="31"/>
       <c r="AJ23" s="31"/>
       <c r="AK23" s="31"/>
@@ -3305,25 +4261,26 @@
       <c r="BN23" s="31"/>
     </row>
     <row r="24" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A24" s="45"/>
+      <c r="A24" s="64"/>
       <c r="B24" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24" s="26">
-        <v>0</v>
+        <v>106</v>
+      </c>
+      <c r="C24" s="26" t="str">
+        <f ca="1">IF(F24=E24, IF(TODAY()&gt;F24, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F24) - E24) / (F24 - E24) * 100, 1) &amp; "%")</f>
+        <v>16.7%</v>
       </c>
       <c r="D24" s="27">
         <f>IF(AND(F24&lt;&gt;"", E24&lt;&gt;""), F24-E24+1, "")</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E24" s="28">
-        <v>45964</v>
+        <v>45965</v>
       </c>
       <c r="F24" s="28">
-        <v>45965</v>
+        <v>45971</v>
       </c>
       <c r="G24" s="29" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="H24" s="31"/>
       <c r="I24" s="31"/>
@@ -3345,7 +4302,7 @@
       <c r="Y24" s="30"/>
       <c r="Z24" s="30"/>
       <c r="AA24" s="30"/>
-      <c r="AB24" s="31"/>
+      <c r="AB24" s="30"/>
       <c r="AC24" s="31"/>
       <c r="AD24" s="31"/>
       <c r="AE24" s="31"/>
@@ -3386,26 +4343,25 @@
       <c r="BN24" s="31"/>
     </row>
     <row r="25" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A25" s="45"/>
-      <c r="B25" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="C25" s="26">
-        <v>0</v>
+      <c r="A25" s="64"/>
+      <c r="B25" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" s="26" t="str">
+        <f ca="1">IF(F25=E25, IF(TODAY()&gt;F25, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F25) - E25) / (F25 - E25) * 100, 1) &amp; "%")</f>
+        <v>0%</v>
       </c>
       <c r="D25" s="27">
-        <f>IF(AND(F25&lt;&gt;"", E25&lt;&gt;""), F25-E25+1, "")</f>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="E25" s="28">
-        <v>45965</v>
+        <v>45968</v>
       </c>
       <c r="F25" s="28">
-        <v>45971</v>
-      </c>
-      <c r="G25" s="29" t="s">
-        <v>119</v>
-      </c>
+        <v>45969</v>
+      </c>
+      <c r="G25" s="29"/>
       <c r="H25" s="31"/>
       <c r="I25" s="31"/>
       <c r="J25" s="31"/>
@@ -3419,8 +4375,8 @@
       <c r="R25" s="31"/>
       <c r="S25" s="32"/>
       <c r="T25" s="33"/>
-      <c r="U25" s="30"/>
-      <c r="V25" s="30"/>
+      <c r="U25" s="31"/>
+      <c r="V25" s="31"/>
       <c r="W25" s="30"/>
       <c r="X25" s="30"/>
       <c r="Y25" s="30"/>
@@ -3467,26 +4423,25 @@
       <c r="BN25" s="31"/>
     </row>
     <row r="26" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A26" s="45"/>
-      <c r="B26" s="37" t="s">
+      <c r="A26" s="64"/>
+      <c r="B26" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="C26" s="26">
-        <v>0</v>
+      <c r="C26" s="26" t="str">
+        <f ca="1">IF(F26=E26, IF(TODAY()&gt;F26, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F26) - E26) / (F26 - E26) * 100, 1) &amp; "%")</f>
+        <v>0%</v>
       </c>
       <c r="D26" s="27">
-        <f>IF(AND(F26&lt;&gt;"", E26&lt;&gt;""), F26-E26+1, "")</f>
-        <v>7</v>
+        <f t="shared" ref="D26:D27" si="1">IF(AND(F26&lt;&gt;"", E26&lt;&gt;""), F26-E26+1, "")</f>
+        <v>2</v>
       </c>
       <c r="E26" s="28">
-        <v>45965</v>
+        <v>45968</v>
       </c>
       <c r="F26" s="28">
-        <v>45971</v>
-      </c>
-      <c r="G26" s="29" t="s">
-        <v>119</v>
-      </c>
+        <v>45969</v>
+      </c>
+      <c r="G26" s="29"/>
       <c r="H26" s="31"/>
       <c r="I26" s="31"/>
       <c r="J26" s="31"/>
@@ -3500,8 +4455,8 @@
       <c r="R26" s="31"/>
       <c r="S26" s="32"/>
       <c r="T26" s="33"/>
-      <c r="U26" s="30"/>
-      <c r="V26" s="30"/>
+      <c r="U26" s="31"/>
+      <c r="V26" s="31"/>
       <c r="W26" s="30"/>
       <c r="X26" s="30"/>
       <c r="Y26" s="30"/>
@@ -3548,26 +4503,25 @@
       <c r="BN26" s="31"/>
     </row>
     <row r="27" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A27" s="45"/>
+      <c r="A27" s="64"/>
       <c r="B27" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="C27" s="26">
-        <v>0</v>
+        <v>121</v>
+      </c>
+      <c r="C27" s="26" t="str">
+        <f ca="1">IF(F27=E27, IF(TODAY()&gt;F27, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F27) - E27) / (F27 - E27) * 100, 1) &amp; "%")</f>
+        <v>0%</v>
       </c>
       <c r="D27" s="27">
-        <f>IF(AND(F27&lt;&gt;"", E27&lt;&gt;""), F27-E27+1, "")</f>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="E27" s="28">
-        <v>45965</v>
+        <v>45968</v>
       </c>
       <c r="F27" s="28">
-        <v>45970</v>
-      </c>
-      <c r="G27" s="29" t="s">
-        <v>118</v>
-      </c>
+        <v>45969</v>
+      </c>
+      <c r="G27" s="29"/>
       <c r="H27" s="31"/>
       <c r="I27" s="31"/>
       <c r="J27" s="31"/>
@@ -3581,14 +4535,14 @@
       <c r="R27" s="31"/>
       <c r="S27" s="32"/>
       <c r="T27" s="33"/>
-      <c r="U27" s="30"/>
+      <c r="U27" s="31"/>
       <c r="V27" s="31"/>
-      <c r="W27" s="31"/>
-      <c r="X27" s="31"/>
-      <c r="Y27" s="31"/>
-      <c r="Z27" s="32"/>
-      <c r="AA27" s="33"/>
-      <c r="AB27" s="31"/>
+      <c r="W27" s="30"/>
+      <c r="X27" s="30"/>
+      <c r="Y27" s="30"/>
+      <c r="Z27" s="30"/>
+      <c r="AA27" s="30"/>
+      <c r="AB27" s="30"/>
       <c r="AC27" s="31"/>
       <c r="AD27" s="31"/>
       <c r="AE27" s="31"/>
@@ -3629,26 +4583,15 @@
       <c r="BN27" s="31"/>
     </row>
     <row r="28" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A28" s="45"/>
-      <c r="B28" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="C28" s="26">
-        <v>0</v>
-      </c>
-      <c r="D28" s="27">
-        <f>IF(AND(F28&lt;&gt;"", E28&lt;&gt;""), F28-E28+1, "")</f>
-        <v>3</v>
-      </c>
-      <c r="E28" s="28">
-        <v>45965</v>
-      </c>
-      <c r="F28" s="28">
-        <v>45967</v>
-      </c>
-      <c r="G28" s="29" t="s">
-        <v>121</v>
-      </c>
+      <c r="A28" s="64"/>
+      <c r="B28" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="62"/>
       <c r="H28" s="31"/>
       <c r="I28" s="31"/>
       <c r="J28" s="31"/>
@@ -3662,14 +4605,14 @@
       <c r="R28" s="31"/>
       <c r="S28" s="32"/>
       <c r="T28" s="33"/>
-      <c r="U28" s="30"/>
-      <c r="V28" s="30"/>
+      <c r="U28" s="31"/>
+      <c r="V28" s="31"/>
       <c r="W28" s="30"/>
       <c r="X28" s="30"/>
-      <c r="Y28" s="31"/>
-      <c r="Z28" s="32"/>
-      <c r="AA28" s="33"/>
-      <c r="AB28" s="31"/>
+      <c r="Y28" s="30"/>
+      <c r="Z28" s="30"/>
+      <c r="AA28" s="30"/>
+      <c r="AB28" s="30"/>
       <c r="AC28" s="31"/>
       <c r="AD28" s="31"/>
       <c r="AE28" s="31"/>
@@ -3710,26 +4653,25 @@
       <c r="BN28" s="31"/>
     </row>
     <row r="29" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A29" s="45"/>
-      <c r="B29" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="C29" s="26">
-        <v>0</v>
+      <c r="A29" s="64"/>
+      <c r="B29" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" s="26" t="str">
+        <f ca="1">IF(F29=E29, IF(TODAY()&gt;F29, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F29) - E29) / (F29 - E29) * 100, 1) &amp; "%")</f>
+        <v>0%</v>
       </c>
       <c r="D29" s="27">
-        <f>IF(AND(F29&lt;&gt;"", E29&lt;&gt;""), F29-E29+1, "")</f>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="E29" s="28">
-        <v>45968</v>
+        <v>45972</v>
       </c>
       <c r="F29" s="28">
-        <v>45971</v>
-      </c>
-      <c r="G29" s="29" t="s">
-        <v>121</v>
-      </c>
+        <v>45977</v>
+      </c>
+      <c r="G29" s="29"/>
       <c r="H29" s="31"/>
       <c r="I29" s="31"/>
       <c r="J29" s="31"/>
@@ -3747,16 +4689,16 @@
       <c r="V29" s="31"/>
       <c r="W29" s="31"/>
       <c r="X29" s="31"/>
-      <c r="Y29" s="30"/>
-      <c r="Z29" s="30"/>
-      <c r="AA29" s="30"/>
-      <c r="AB29" s="30"/>
+      <c r="Y29" s="31"/>
+      <c r="Z29" s="32"/>
+      <c r="AA29" s="33"/>
+      <c r="AB29" s="31"/>
       <c r="AC29" s="31"/>
-      <c r="AD29" s="31"/>
-      <c r="AE29" s="31"/>
-      <c r="AF29" s="31"/>
-      <c r="AG29" s="32"/>
-      <c r="AH29" s="33"/>
+      <c r="AD29" s="30"/>
+      <c r="AE29" s="30"/>
+      <c r="AF29" s="30"/>
+      <c r="AG29" s="30"/>
+      <c r="AH29" s="30"/>
       <c r="AI29" s="31"/>
       <c r="AJ29" s="31"/>
       <c r="AK29" s="31"/>
@@ -3791,26 +4733,25 @@
       <c r="BN29" s="31"/>
     </row>
     <row r="30" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A30" s="45"/>
-      <c r="B30" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30" s="26">
-        <v>0</v>
+      <c r="A30" s="64"/>
+      <c r="B30" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30" s="26" t="str">
+        <f ca="1">IF(F30=E30, IF(TODAY()&gt;F30, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F30) - E30) / (F30 - E30) * 100, 1) &amp; "%")</f>
+        <v>0%</v>
       </c>
       <c r="D30" s="27">
-        <f>IF(AND(F30&lt;&gt;"", E30&lt;&gt;""), F30-E30+1, "")</f>
-        <v>10</v>
+        <f t="shared" ref="D30" si="2">IF(AND(F30&lt;&gt;"", E30&lt;&gt;""), F30-E30+1, "")</f>
+        <v>6</v>
       </c>
       <c r="E30" s="28">
         <v>45972</v>
       </c>
       <c r="F30" s="28">
-        <v>45981</v>
-      </c>
-      <c r="G30" s="29" t="s">
-        <v>121</v>
-      </c>
+        <v>45977</v>
+      </c>
+      <c r="G30" s="29"/>
       <c r="H30" s="31"/>
       <c r="I30" s="31"/>
       <c r="J30" s="31"/>
@@ -3832,16 +4773,16 @@
       <c r="Z30" s="32"/>
       <c r="AA30" s="33"/>
       <c r="AB30" s="31"/>
-      <c r="AC30" s="30"/>
+      <c r="AC30" s="31"/>
       <c r="AD30" s="30"/>
       <c r="AE30" s="30"/>
       <c r="AF30" s="30"/>
       <c r="AG30" s="30"/>
       <c r="AH30" s="30"/>
-      <c r="AI30" s="30"/>
-      <c r="AJ30" s="30"/>
-      <c r="AK30" s="30"/>
-      <c r="AL30" s="30"/>
+      <c r="AI30" s="31"/>
+      <c r="AJ30" s="31"/>
+      <c r="AK30" s="31"/>
+      <c r="AL30" s="31"/>
       <c r="AM30" s="31"/>
       <c r="AN30" s="32"/>
       <c r="AO30" s="33"/>
@@ -3871,25 +4812,28 @@
       <c r="BM30" s="31"/>
       <c r="BN30" s="31"/>
     </row>
-    <row r="31" spans="1:66" ht="15.75" thickBot="1">
-      <c r="A31" s="45"/>
-      <c r="B31" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="C31" s="26">
-        <v>0</v>
+    <row r="31" spans="1:66" ht="15" customHeight="1" thickBot="1">
+      <c r="A31" s="64"/>
+      <c r="B31" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="26" t="str">
+        <f ca="1">IF(F31=E31, IF(TODAY()&gt;F31, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F31) - E31) / (F31 - E31) * 100, 1) &amp; "%")</f>
+        <v>0%</v>
       </c>
       <c r="D31" s="27">
         <f>IF(AND(F31&lt;&gt;"", E31&lt;&gt;""), F31-E31+1, "")</f>
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="E31" s="28">
-        <v>45964</v>
+        <v>45968</v>
       </c>
       <c r="F31" s="28">
-        <v>45998</v>
-      </c>
-      <c r="G31" s="39"/>
+        <v>45971</v>
+      </c>
+      <c r="G31" s="29" t="s">
+        <v>107</v>
+      </c>
       <c r="H31" s="31"/>
       <c r="I31" s="31"/>
       <c r="J31" s="31"/>
@@ -3903,41 +4847,41 @@
       <c r="R31" s="31"/>
       <c r="S31" s="32"/>
       <c r="T31" s="33"/>
-      <c r="U31" s="40"/>
-      <c r="V31" s="40"/>
-      <c r="W31" s="40"/>
-      <c r="X31" s="40"/>
-      <c r="Y31" s="40"/>
-      <c r="Z31" s="40"/>
-      <c r="AA31" s="40"/>
-      <c r="AB31" s="40"/>
-      <c r="AC31" s="40"/>
-      <c r="AD31" s="40"/>
-      <c r="AE31" s="40"/>
-      <c r="AF31" s="40"/>
-      <c r="AG31" s="40"/>
-      <c r="AH31" s="40"/>
-      <c r="AI31" s="40"/>
-      <c r="AJ31" s="40"/>
-      <c r="AK31" s="40"/>
-      <c r="AL31" s="40"/>
-      <c r="AM31" s="40"/>
-      <c r="AN31" s="40"/>
-      <c r="AO31" s="40"/>
-      <c r="AP31" s="40"/>
-      <c r="AQ31" s="40"/>
-      <c r="AR31" s="40"/>
-      <c r="AS31" s="40"/>
-      <c r="AT31" s="40"/>
-      <c r="AU31" s="40"/>
-      <c r="AV31" s="40"/>
-      <c r="AW31" s="40"/>
-      <c r="AX31" s="40"/>
-      <c r="AY31" s="40"/>
-      <c r="AZ31" s="40"/>
-      <c r="BA31" s="40"/>
-      <c r="BB31" s="40"/>
-      <c r="BC31" s="40"/>
+      <c r="U31" s="31"/>
+      <c r="V31" s="31"/>
+      <c r="W31" s="31"/>
+      <c r="X31" s="31"/>
+      <c r="Y31" s="30"/>
+      <c r="Z31" s="30"/>
+      <c r="AA31" s="30"/>
+      <c r="AB31" s="30"/>
+      <c r="AC31" s="31"/>
+      <c r="AD31" s="31"/>
+      <c r="AE31" s="31"/>
+      <c r="AF31" s="31"/>
+      <c r="AG31" s="32"/>
+      <c r="AH31" s="33"/>
+      <c r="AI31" s="31"/>
+      <c r="AJ31" s="31"/>
+      <c r="AK31" s="31"/>
+      <c r="AL31" s="31"/>
+      <c r="AM31" s="31"/>
+      <c r="AN31" s="32"/>
+      <c r="AO31" s="33"/>
+      <c r="AP31" s="31"/>
+      <c r="AQ31" s="31"/>
+      <c r="AR31" s="31"/>
+      <c r="AS31" s="31"/>
+      <c r="AT31" s="31"/>
+      <c r="AU31" s="32"/>
+      <c r="AV31" s="33"/>
+      <c r="AW31" s="31"/>
+      <c r="AX31" s="31"/>
+      <c r="AY31" s="31"/>
+      <c r="AZ31" s="31"/>
+      <c r="BA31" s="31"/>
+      <c r="BB31" s="32"/>
+      <c r="BC31" s="33"/>
       <c r="BD31" s="31"/>
       <c r="BE31" s="31"/>
       <c r="BF31" s="31"/>
@@ -3950,26 +4894,27 @@
       <c r="BM31" s="31"/>
       <c r="BN31" s="31"/>
     </row>
-    <row r="32" spans="1:66" ht="24.75" thickBot="1">
-      <c r="A32" s="45"/>
-      <c r="B32" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="C32" s="26">
-        <v>0</v>
+    <row r="32" spans="1:66" ht="15" customHeight="1" thickBot="1">
+      <c r="A32" s="64"/>
+      <c r="B32" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="26" t="str">
+        <f ca="1">IF(F32=E32, IF(TODAY()&gt;F32, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F32) - E32) / (F32 - E32) * 100, 1) &amp; "%")</f>
+        <v>0%</v>
       </c>
       <c r="D32" s="27">
         <f>IF(AND(F32&lt;&gt;"", E32&lt;&gt;""), F32-E32+1, "")</f>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E32" s="28">
-        <v>45978</v>
+        <v>45972</v>
       </c>
       <c r="F32" s="28">
-        <v>45991</v>
+        <v>45981</v>
       </c>
       <c r="G32" s="29" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H32" s="31"/>
       <c r="I32" s="31"/>
@@ -3992,26 +4937,26 @@
       <c r="Z32" s="32"/>
       <c r="AA32" s="33"/>
       <c r="AB32" s="31"/>
-      <c r="AC32" s="31"/>
-      <c r="AD32" s="31"/>
-      <c r="AE32" s="31"/>
-      <c r="AF32" s="31"/>
-      <c r="AG32" s="32"/>
-      <c r="AH32" s="33"/>
+      <c r="AC32" s="30"/>
+      <c r="AD32" s="30"/>
+      <c r="AE32" s="30"/>
+      <c r="AF32" s="30"/>
+      <c r="AG32" s="30"/>
+      <c r="AH32" s="30"/>
       <c r="AI32" s="30"/>
       <c r="AJ32" s="30"/>
       <c r="AK32" s="30"/>
       <c r="AL32" s="30"/>
-      <c r="AM32" s="30"/>
-      <c r="AN32" s="30"/>
-      <c r="AO32" s="30"/>
-      <c r="AP32" s="30"/>
-      <c r="AQ32" s="30"/>
-      <c r="AR32" s="30"/>
-      <c r="AS32" s="30"/>
-      <c r="AT32" s="30"/>
-      <c r="AU32" s="30"/>
-      <c r="AV32" s="30"/>
+      <c r="AM32" s="31"/>
+      <c r="AN32" s="32"/>
+      <c r="AO32" s="33"/>
+      <c r="AP32" s="31"/>
+      <c r="AQ32" s="31"/>
+      <c r="AR32" s="31"/>
+      <c r="AS32" s="31"/>
+      <c r="AT32" s="31"/>
+      <c r="AU32" s="32"/>
+      <c r="AV32" s="33"/>
       <c r="AW32" s="31"/>
       <c r="AX32" s="31"/>
       <c r="AY32" s="31"/>
@@ -4032,26 +4977,15 @@
       <c r="BN32" s="31"/>
     </row>
     <row r="33" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A33" s="45"/>
-      <c r="B33" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="C33" s="26">
-        <v>0</v>
-      </c>
-      <c r="D33" s="27">
-        <f>IF(AND(F33&lt;&gt;"", E33&lt;&gt;""), F33-E33+1, "")</f>
-        <v>14</v>
-      </c>
-      <c r="E33" s="28">
-        <v>45978</v>
-      </c>
-      <c r="F33" s="28">
-        <v>45991</v>
-      </c>
-      <c r="G33" s="29" t="s">
-        <v>111</v>
-      </c>
+      <c r="A33" s="64"/>
+      <c r="B33" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="62"/>
       <c r="H33" s="31"/>
       <c r="I33" s="31"/>
       <c r="J33" s="31"/>
@@ -4074,25 +5008,25 @@
       <c r="AA33" s="33"/>
       <c r="AB33" s="31"/>
       <c r="AC33" s="31"/>
-      <c r="AD33" s="31"/>
-      <c r="AE33" s="31"/>
-      <c r="AF33" s="31"/>
-      <c r="AG33" s="32"/>
-      <c r="AH33" s="33"/>
-      <c r="AI33" s="30"/>
-      <c r="AJ33" s="30"/>
-      <c r="AK33" s="30"/>
-      <c r="AL33" s="30"/>
-      <c r="AM33" s="30"/>
-      <c r="AN33" s="30"/>
-      <c r="AO33" s="30"/>
-      <c r="AP33" s="30"/>
-      <c r="AQ33" s="30"/>
-      <c r="AR33" s="30"/>
-      <c r="AS33" s="30"/>
-      <c r="AT33" s="30"/>
-      <c r="AU33" s="30"/>
-      <c r="AV33" s="30"/>
+      <c r="AD33" s="30"/>
+      <c r="AE33" s="30"/>
+      <c r="AF33" s="30"/>
+      <c r="AG33" s="30"/>
+      <c r="AH33" s="30"/>
+      <c r="AI33" s="31"/>
+      <c r="AJ33" s="31"/>
+      <c r="AK33" s="31"/>
+      <c r="AL33" s="31"/>
+      <c r="AM33" s="31"/>
+      <c r="AN33" s="32"/>
+      <c r="AO33" s="33"/>
+      <c r="AP33" s="31"/>
+      <c r="AQ33" s="31"/>
+      <c r="AR33" s="31"/>
+      <c r="AS33" s="31"/>
+      <c r="AT33" s="31"/>
+      <c r="AU33" s="32"/>
+      <c r="AV33" s="33"/>
       <c r="AW33" s="31"/>
       <c r="AX33" s="31"/>
       <c r="AY33" s="31"/>
@@ -4113,25 +5047,26 @@
       <c r="BN33" s="31"/>
     </row>
     <row r="34" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A34" s="45"/>
-      <c r="B34" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="C34" s="26">
-        <v>0</v>
+      <c r="A34" s="64"/>
+      <c r="B34" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="C34" s="26" t="str">
+        <f ca="1">IF(F34=E34, IF(TODAY()&gt;F34, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F34) - E34) / (F34 - E34) * 100, 1) &amp; "%")</f>
+        <v>0%</v>
       </c>
       <c r="D34" s="27">
-        <f>IF(AND(F34&lt;&gt;"", E34&lt;&gt;""), F34-E34+1, "")</f>
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="E34" s="28">
-        <v>45978</v>
+        <v>45972</v>
       </c>
       <c r="F34" s="28">
-        <v>45991</v>
+        <v>45977</v>
       </c>
       <c r="G34" s="29" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="H34" s="31"/>
       <c r="I34" s="31"/>
@@ -4155,25 +5090,25 @@
       <c r="AA34" s="33"/>
       <c r="AB34" s="31"/>
       <c r="AC34" s="31"/>
-      <c r="AD34" s="31"/>
-      <c r="AE34" s="31"/>
-      <c r="AF34" s="31"/>
-      <c r="AG34" s="32"/>
-      <c r="AH34" s="33"/>
-      <c r="AI34" s="30"/>
-      <c r="AJ34" s="30"/>
-      <c r="AK34" s="30"/>
-      <c r="AL34" s="30"/>
-      <c r="AM34" s="30"/>
-      <c r="AN34" s="30"/>
-      <c r="AO34" s="30"/>
-      <c r="AP34" s="30"/>
-      <c r="AQ34" s="30"/>
-      <c r="AR34" s="30"/>
-      <c r="AS34" s="30"/>
-      <c r="AT34" s="30"/>
-      <c r="AU34" s="30"/>
-      <c r="AV34" s="30"/>
+      <c r="AD34" s="30"/>
+      <c r="AE34" s="30"/>
+      <c r="AF34" s="30"/>
+      <c r="AG34" s="30"/>
+      <c r="AH34" s="30"/>
+      <c r="AI34" s="31"/>
+      <c r="AJ34" s="31"/>
+      <c r="AK34" s="31"/>
+      <c r="AL34" s="31"/>
+      <c r="AM34" s="31"/>
+      <c r="AN34" s="32"/>
+      <c r="AO34" s="33"/>
+      <c r="AP34" s="31"/>
+      <c r="AQ34" s="31"/>
+      <c r="AR34" s="31"/>
+      <c r="AS34" s="31"/>
+      <c r="AT34" s="31"/>
+      <c r="AU34" s="32"/>
+      <c r="AV34" s="33"/>
       <c r="AW34" s="31"/>
       <c r="AX34" s="31"/>
       <c r="AY34" s="31"/>
@@ -4194,25 +5129,26 @@
       <c r="BN34" s="31"/>
     </row>
     <row r="35" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A35" s="45"/>
-      <c r="B35" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="C35" s="26">
-        <v>0</v>
+      <c r="A35" s="64"/>
+      <c r="B35" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="26" t="str">
+        <f ca="1">IF(F35=E35, IF(TODAY()&gt;F35, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F35) - E35) / (F35 - E35) * 100, 1) &amp; "%")</f>
+        <v>16.7%</v>
       </c>
       <c r="D35" s="27">
-        <f>IF(AND(F35&lt;&gt;"", E35&lt;&gt;""), F35-E35+1, "")</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="E35" s="28">
-        <v>45992</v>
+        <v>45965</v>
       </c>
       <c r="F35" s="28">
-        <v>45998</v>
+        <v>45971</v>
       </c>
       <c r="G35" s="29" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="H35" s="31"/>
       <c r="I35" s="31"/>
@@ -4227,14 +5163,14 @@
       <c r="R35" s="31"/>
       <c r="S35" s="32"/>
       <c r="T35" s="33"/>
-      <c r="U35" s="31"/>
-      <c r="V35" s="31"/>
-      <c r="W35" s="31"/>
-      <c r="X35" s="31"/>
-      <c r="Y35" s="31"/>
-      <c r="Z35" s="32"/>
-      <c r="AA35" s="33"/>
-      <c r="AB35" s="31"/>
+      <c r="U35" s="30"/>
+      <c r="V35" s="30"/>
+      <c r="W35" s="30"/>
+      <c r="X35" s="30"/>
+      <c r="Y35" s="30"/>
+      <c r="Z35" s="30"/>
+      <c r="AA35" s="30"/>
+      <c r="AB35" s="30"/>
       <c r="AC35" s="31"/>
       <c r="AD35" s="31"/>
       <c r="AE35" s="31"/>
@@ -4255,13 +5191,13 @@
       <c r="AT35" s="31"/>
       <c r="AU35" s="32"/>
       <c r="AV35" s="33"/>
-      <c r="AW35" s="30"/>
-      <c r="AX35" s="30"/>
-      <c r="AY35" s="30"/>
-      <c r="AZ35" s="30"/>
-      <c r="BA35" s="30"/>
-      <c r="BB35" s="30"/>
-      <c r="BC35" s="30"/>
+      <c r="AW35" s="31"/>
+      <c r="AX35" s="31"/>
+      <c r="AY35" s="31"/>
+      <c r="AZ35" s="31"/>
+      <c r="BA35" s="31"/>
+      <c r="BB35" s="32"/>
+      <c r="BC35" s="33"/>
       <c r="BD35" s="31"/>
       <c r="BE35" s="31"/>
       <c r="BF35" s="31"/>
@@ -4274,27 +5210,26 @@
       <c r="BM35" s="31"/>
       <c r="BN35" s="31"/>
     </row>
-    <row r="36" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A36" s="45"/>
-      <c r="B36" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="C36" s="26">
-        <v>0</v>
+    <row r="36" spans="1:66" ht="15.75" thickBot="1">
+      <c r="A36" s="64"/>
+      <c r="B36" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" s="26" t="str">
+        <f ca="1">IF(F36=E36, IF(TODAY()&gt;F36, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F36) - E36) / (F36 - E36) * 100, 1) &amp; "%")</f>
+        <v>5.9%</v>
       </c>
       <c r="D36" s="27">
-        <f>IF(AND(F36&lt;&gt;"", E36&lt;&gt;""), F36-E36+1, "")</f>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>35</v>
       </c>
       <c r="E36" s="28">
-        <v>45992</v>
+        <v>45964</v>
       </c>
       <c r="F36" s="28">
         <v>45998</v>
       </c>
-      <c r="G36" s="29" t="s">
-        <v>111</v>
-      </c>
+      <c r="G36" s="39"/>
       <c r="H36" s="31"/>
       <c r="I36" s="31"/>
       <c r="J36" s="31"/>
@@ -4308,41 +5243,41 @@
       <c r="R36" s="31"/>
       <c r="S36" s="32"/>
       <c r="T36" s="33"/>
-      <c r="U36" s="31"/>
-      <c r="V36" s="31"/>
-      <c r="W36" s="31"/>
-      <c r="X36" s="31"/>
-      <c r="Y36" s="31"/>
-      <c r="Z36" s="32"/>
-      <c r="AA36" s="33"/>
-      <c r="AB36" s="31"/>
-      <c r="AC36" s="31"/>
-      <c r="AD36" s="31"/>
-      <c r="AE36" s="31"/>
-      <c r="AF36" s="31"/>
-      <c r="AG36" s="32"/>
-      <c r="AH36" s="33"/>
-      <c r="AI36" s="31"/>
-      <c r="AJ36" s="31"/>
-      <c r="AK36" s="31"/>
-      <c r="AL36" s="31"/>
-      <c r="AM36" s="31"/>
-      <c r="AN36" s="32"/>
-      <c r="AO36" s="33"/>
-      <c r="AP36" s="31"/>
-      <c r="AQ36" s="31"/>
-      <c r="AR36" s="31"/>
-      <c r="AS36" s="31"/>
-      <c r="AT36" s="31"/>
-      <c r="AU36" s="32"/>
-      <c r="AV36" s="33"/>
-      <c r="AW36" s="30"/>
-      <c r="AX36" s="30"/>
-      <c r="AY36" s="30"/>
-      <c r="AZ36" s="30"/>
-      <c r="BA36" s="30"/>
-      <c r="BB36" s="30"/>
-      <c r="BC36" s="30"/>
+      <c r="U36" s="40"/>
+      <c r="V36" s="40"/>
+      <c r="W36" s="40"/>
+      <c r="X36" s="40"/>
+      <c r="Y36" s="40"/>
+      <c r="Z36" s="40"/>
+      <c r="AA36" s="40"/>
+      <c r="AB36" s="40"/>
+      <c r="AC36" s="40"/>
+      <c r="AD36" s="40"/>
+      <c r="AE36" s="40"/>
+      <c r="AF36" s="40"/>
+      <c r="AG36" s="40"/>
+      <c r="AH36" s="40"/>
+      <c r="AI36" s="40"/>
+      <c r="AJ36" s="40"/>
+      <c r="AK36" s="40"/>
+      <c r="AL36" s="40"/>
+      <c r="AM36" s="40"/>
+      <c r="AN36" s="40"/>
+      <c r="AO36" s="40"/>
+      <c r="AP36" s="40"/>
+      <c r="AQ36" s="40"/>
+      <c r="AR36" s="40"/>
+      <c r="AS36" s="40"/>
+      <c r="AT36" s="40"/>
+      <c r="AU36" s="40"/>
+      <c r="AV36" s="40"/>
+      <c r="AW36" s="40"/>
+      <c r="AX36" s="40"/>
+      <c r="AY36" s="40"/>
+      <c r="AZ36" s="40"/>
+      <c r="BA36" s="40"/>
+      <c r="BB36" s="40"/>
+      <c r="BC36" s="40"/>
       <c r="BD36" s="31"/>
       <c r="BE36" s="31"/>
       <c r="BF36" s="31"/>
@@ -4355,26 +5290,27 @@
       <c r="BM36" s="31"/>
       <c r="BN36" s="31"/>
     </row>
-    <row r="37" spans="1:66" ht="24.75" thickBot="1">
-      <c r="A37" s="45"/>
-      <c r="B37" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="26">
-        <v>0</v>
+    <row r="37" spans="1:66" ht="15.75" thickBot="1">
+      <c r="A37" s="64"/>
+      <c r="B37" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="C37" s="26" t="str">
+        <f ca="1">IF(F37=E37, IF(TODAY()&gt;F37, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F37) - E37) / (F37 - E37) * 100, 1) &amp; "%")</f>
+        <v>0%</v>
       </c>
       <c r="D37" s="27">
-        <f>IF(AND(F37&lt;&gt;"", E37&lt;&gt;""), F37-E37+1, "")</f>
-        <v>32</v>
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="E37" s="28">
-        <v>45964</v>
+        <v>45978</v>
       </c>
       <c r="F37" s="28">
-        <v>45995</v>
+        <v>45991</v>
       </c>
       <c r="G37" s="29" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H37" s="31"/>
       <c r="I37" s="31"/>
@@ -4389,20 +5325,20 @@
       <c r="R37" s="31"/>
       <c r="S37" s="32"/>
       <c r="T37" s="33"/>
-      <c r="U37" s="30"/>
-      <c r="V37" s="30"/>
-      <c r="W37" s="30"/>
-      <c r="X37" s="30"/>
-      <c r="Y37" s="30"/>
-      <c r="Z37" s="30"/>
-      <c r="AA37" s="30"/>
-      <c r="AB37" s="30"/>
-      <c r="AC37" s="30"/>
-      <c r="AD37" s="30"/>
-      <c r="AE37" s="30"/>
-      <c r="AF37" s="30"/>
-      <c r="AG37" s="30"/>
-      <c r="AH37" s="30"/>
+      <c r="U37" s="31"/>
+      <c r="V37" s="31"/>
+      <c r="W37" s="31"/>
+      <c r="X37" s="31"/>
+      <c r="Y37" s="31"/>
+      <c r="Z37" s="32"/>
+      <c r="AA37" s="33"/>
+      <c r="AB37" s="31"/>
+      <c r="AC37" s="31"/>
+      <c r="AD37" s="31"/>
+      <c r="AE37" s="31"/>
+      <c r="AF37" s="31"/>
+      <c r="AG37" s="32"/>
+      <c r="AH37" s="33"/>
       <c r="AI37" s="30"/>
       <c r="AJ37" s="30"/>
       <c r="AK37" s="30"/>
@@ -4417,10 +5353,10 @@
       <c r="AT37" s="30"/>
       <c r="AU37" s="30"/>
       <c r="AV37" s="30"/>
-      <c r="AW37" s="30"/>
-      <c r="AX37" s="30"/>
-      <c r="AY37" s="30"/>
-      <c r="AZ37" s="30"/>
+      <c r="AW37" s="31"/>
+      <c r="AX37" s="31"/>
+      <c r="AY37" s="31"/>
+      <c r="AZ37" s="31"/>
       <c r="BA37" s="31"/>
       <c r="BB37" s="32"/>
       <c r="BC37" s="33"/>
@@ -4436,26 +5372,27 @@
       <c r="BM37" s="31"/>
       <c r="BN37" s="31"/>
     </row>
-    <row r="38" spans="1:66" ht="24.75" thickBot="1">
-      <c r="A38" s="45"/>
-      <c r="B38" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="C38" s="26">
-        <v>0</v>
+    <row r="38" spans="1:66" ht="15" customHeight="1" thickBot="1">
+      <c r="A38" s="64"/>
+      <c r="B38" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38" s="26" t="str">
+        <f ca="1">IF(F38=E38, IF(TODAY()&gt;F38, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F38) - E38) / (F38 - E38) * 100, 1) &amp; "%")</f>
+        <v>0%</v>
       </c>
       <c r="D38" s="27">
-        <f>IF(AND(F38&lt;&gt;"", E38&lt;&gt;""), F38-E38+1, "")</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="E38" s="28">
-        <v>45996</v>
+        <v>45978</v>
       </c>
       <c r="F38" s="28">
-        <v>45996</v>
+        <v>45991</v>
       </c>
       <c r="G38" s="29" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="H38" s="31"/>
       <c r="I38" s="31"/>
@@ -4484,25 +5421,25 @@
       <c r="AF38" s="31"/>
       <c r="AG38" s="32"/>
       <c r="AH38" s="33"/>
-      <c r="AI38" s="31"/>
-      <c r="AJ38" s="31"/>
-      <c r="AK38" s="31"/>
-      <c r="AL38" s="31"/>
-      <c r="AM38" s="31"/>
-      <c r="AN38" s="32"/>
-      <c r="AO38" s="33"/>
-      <c r="AP38" s="31"/>
-      <c r="AQ38" s="31"/>
-      <c r="AR38" s="31"/>
-      <c r="AS38" s="31"/>
-      <c r="AT38" s="31"/>
-      <c r="AU38" s="32"/>
-      <c r="AV38" s="33"/>
+      <c r="AI38" s="30"/>
+      <c r="AJ38" s="30"/>
+      <c r="AK38" s="30"/>
+      <c r="AL38" s="30"/>
+      <c r="AM38" s="30"/>
+      <c r="AN38" s="30"/>
+      <c r="AO38" s="30"/>
+      <c r="AP38" s="30"/>
+      <c r="AQ38" s="30"/>
+      <c r="AR38" s="30"/>
+      <c r="AS38" s="30"/>
+      <c r="AT38" s="30"/>
+      <c r="AU38" s="30"/>
+      <c r="AV38" s="30"/>
       <c r="AW38" s="31"/>
       <c r="AX38" s="31"/>
       <c r="AY38" s="31"/>
       <c r="AZ38" s="31"/>
-      <c r="BA38" s="30"/>
+      <c r="BA38" s="31"/>
       <c r="BB38" s="32"/>
       <c r="BC38" s="33"/>
       <c r="BD38" s="31"/>
@@ -4517,26 +5454,27 @@
       <c r="BM38" s="31"/>
       <c r="BN38" s="31"/>
     </row>
-    <row r="39" spans="1:66" ht="24.75" thickBot="1">
-      <c r="A39" s="46"/>
-      <c r="B39" s="42" t="s">
+    <row r="39" spans="1:66" ht="15" customHeight="1" thickBot="1">
+      <c r="A39" s="64"/>
+      <c r="B39" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" s="26" t="str">
+        <f ca="1">IF(F39=E39, IF(TODAY()&gt;F39, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F39) - E39) / (F39 - E39) * 100, 1) &amp; "%")</f>
+        <v>0%</v>
+      </c>
+      <c r="D39" s="27">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E39" s="28">
+        <v>45978</v>
+      </c>
+      <c r="F39" s="28">
+        <v>45991</v>
+      </c>
+      <c r="G39" s="29" t="s">
         <v>101</v>
-      </c>
-      <c r="C39" s="26">
-        <v>0</v>
-      </c>
-      <c r="D39" s="27">
-        <f>IF(AND(F39&lt;&gt;"", E39&lt;&gt;""), F39-E39+1, "")</f>
-        <v>2</v>
-      </c>
-      <c r="E39" s="28">
-        <v>45997</v>
-      </c>
-      <c r="F39" s="28">
-        <v>45998</v>
-      </c>
-      <c r="G39" s="29" t="s">
-        <v>112</v>
       </c>
       <c r="H39" s="31"/>
       <c r="I39" s="31"/>
@@ -4565,27 +5503,27 @@
       <c r="AF39" s="31"/>
       <c r="AG39" s="32"/>
       <c r="AH39" s="33"/>
-      <c r="AI39" s="31"/>
-      <c r="AJ39" s="31"/>
-      <c r="AK39" s="31"/>
-      <c r="AL39" s="31"/>
-      <c r="AM39" s="31"/>
-      <c r="AN39" s="32"/>
-      <c r="AO39" s="33"/>
-      <c r="AP39" s="31"/>
-      <c r="AQ39" s="31"/>
-      <c r="AR39" s="31"/>
-      <c r="AS39" s="31"/>
-      <c r="AT39" s="31"/>
-      <c r="AU39" s="32"/>
-      <c r="AV39" s="33"/>
+      <c r="AI39" s="30"/>
+      <c r="AJ39" s="30"/>
+      <c r="AK39" s="30"/>
+      <c r="AL39" s="30"/>
+      <c r="AM39" s="30"/>
+      <c r="AN39" s="30"/>
+      <c r="AO39" s="30"/>
+      <c r="AP39" s="30"/>
+      <c r="AQ39" s="30"/>
+      <c r="AR39" s="30"/>
+      <c r="AS39" s="30"/>
+      <c r="AT39" s="30"/>
+      <c r="AU39" s="30"/>
+      <c r="AV39" s="30"/>
       <c r="AW39" s="31"/>
       <c r="AX39" s="31"/>
       <c r="AY39" s="31"/>
       <c r="AZ39" s="31"/>
       <c r="BA39" s="31"/>
-      <c r="BB39" s="30"/>
-      <c r="BC39" s="30"/>
+      <c r="BB39" s="32"/>
+      <c r="BC39" s="33"/>
       <c r="BD39" s="31"/>
       <c r="BE39" s="31"/>
       <c r="BF39" s="31"/>
@@ -4598,27 +5536,28 @@
       <c r="BM39" s="31"/>
       <c r="BN39" s="31"/>
     </row>
-    <row r="40" spans="1:66" ht="15.75" thickBot="1">
-      <c r="A40" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="B40" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="C40" s="26">
-        <v>0</v>
+    <row r="40" spans="1:66" ht="15" customHeight="1" thickBot="1">
+      <c r="A40" s="64"/>
+      <c r="B40" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="C40" s="26" t="str">
+        <f ca="1">IF(F40=E40, IF(TODAY()&gt;F40, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F40) - E40) / (F40 - E40) * 100, 1) &amp; "%")</f>
+        <v>0%</v>
       </c>
       <c r="D40" s="27">
-        <f>IF(AND(F40&lt;&gt;"", E40&lt;&gt;""), F40-E40+1, "")</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="E40" s="28">
-        <v>45999</v>
+        <v>45992</v>
       </c>
       <c r="F40" s="28">
-        <v>46010</v>
-      </c>
-      <c r="G40" s="39"/>
+        <v>45998</v>
+      </c>
+      <c r="G40" s="29" t="s">
+        <v>101</v>
+      </c>
       <c r="H40" s="31"/>
       <c r="I40" s="31"/>
       <c r="J40" s="31"/>
@@ -4660,45 +5599,46 @@
       <c r="AT40" s="31"/>
       <c r="AU40" s="32"/>
       <c r="AV40" s="33"/>
-      <c r="AW40" s="31"/>
-      <c r="AX40" s="31"/>
-      <c r="AY40" s="31"/>
-      <c r="AZ40" s="31"/>
-      <c r="BA40" s="31"/>
-      <c r="BB40" s="32"/>
-      <c r="BC40" s="33"/>
-      <c r="BD40" s="40"/>
-      <c r="BE40" s="40"/>
-      <c r="BF40" s="40"/>
-      <c r="BG40" s="40"/>
-      <c r="BH40" s="40"/>
-      <c r="BI40" s="40"/>
-      <c r="BJ40" s="40"/>
-      <c r="BK40" s="40"/>
-      <c r="BL40" s="40"/>
-      <c r="BM40" s="40"/>
-      <c r="BN40" s="40"/>
-    </row>
-    <row r="41" spans="1:66" ht="15.75" thickBot="1">
-      <c r="A41" s="45"/>
-      <c r="B41" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="C41" s="26">
-        <v>0</v>
+      <c r="AW40" s="30"/>
+      <c r="AX40" s="30"/>
+      <c r="AY40" s="30"/>
+      <c r="AZ40" s="30"/>
+      <c r="BA40" s="30"/>
+      <c r="BB40" s="30"/>
+      <c r="BC40" s="30"/>
+      <c r="BD40" s="31"/>
+      <c r="BE40" s="31"/>
+      <c r="BF40" s="31"/>
+      <c r="BG40" s="31"/>
+      <c r="BH40" s="31"/>
+      <c r="BI40" s="31"/>
+      <c r="BJ40" s="31"/>
+      <c r="BK40" s="31"/>
+      <c r="BL40" s="31"/>
+      <c r="BM40" s="31"/>
+      <c r="BN40" s="31"/>
+    </row>
+    <row r="41" spans="1:66" ht="15" customHeight="1" thickBot="1">
+      <c r="A41" s="64"/>
+      <c r="B41" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41" s="26" t="str">
+        <f ca="1">IF(F41=E41, IF(TODAY()&gt;F41, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F41) - E41) / (F41 - E41) * 100, 1) &amp; "%")</f>
+        <v>0%</v>
       </c>
       <c r="D41" s="27">
-        <f>IF(AND(F41&lt;&gt;"", E41&lt;&gt;""), F41-E41+1, "")</f>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="E41" s="28">
-        <v>45999</v>
+        <v>45992</v>
       </c>
       <c r="F41" s="28">
-        <v>46008</v>
+        <v>45998</v>
       </c>
       <c r="G41" s="29" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="H41" s="31"/>
       <c r="I41" s="31"/>
@@ -4741,45 +5681,46 @@
       <c r="AT41" s="31"/>
       <c r="AU41" s="32"/>
       <c r="AV41" s="33"/>
-      <c r="AW41" s="31"/>
-      <c r="AX41" s="31"/>
-      <c r="AY41" s="31"/>
-      <c r="AZ41" s="31"/>
-      <c r="BA41" s="31"/>
-      <c r="BB41" s="32"/>
-      <c r="BC41" s="33"/>
-      <c r="BD41" s="30"/>
-      <c r="BE41" s="30"/>
-      <c r="BF41" s="30"/>
-      <c r="BG41" s="30"/>
-      <c r="BH41" s="30"/>
-      <c r="BI41" s="30"/>
-      <c r="BJ41" s="30"/>
-      <c r="BK41" s="30"/>
-      <c r="BL41" s="30"/>
-      <c r="BM41" s="30"/>
+      <c r="AW41" s="30"/>
+      <c r="AX41" s="30"/>
+      <c r="AY41" s="30"/>
+      <c r="AZ41" s="30"/>
+      <c r="BA41" s="30"/>
+      <c r="BB41" s="30"/>
+      <c r="BC41" s="30"/>
+      <c r="BD41" s="31"/>
+      <c r="BE41" s="31"/>
+      <c r="BF41" s="31"/>
+      <c r="BG41" s="31"/>
+      <c r="BH41" s="31"/>
+      <c r="BI41" s="31"/>
+      <c r="BJ41" s="31"/>
+      <c r="BK41" s="31"/>
+      <c r="BL41" s="31"/>
+      <c r="BM41" s="31"/>
       <c r="BN41" s="31"/>
     </row>
     <row r="42" spans="1:66" ht="15.75" thickBot="1">
-      <c r="A42" s="45"/>
-      <c r="B42" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C42" s="26">
-        <v>0</v>
+      <c r="A42" s="64"/>
+      <c r="B42" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="26" t="str">
+        <f ca="1">IF(F42=E42, IF(TODAY()&gt;F42, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F42) - E42) / (F42 - E42) * 100, 1) &amp; "%")</f>
+        <v>6.5%</v>
       </c>
       <c r="D42" s="27">
-        <f>IF(AND(F42&lt;&gt;"", E42&lt;&gt;""), F42-E42+1, "")</f>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>32</v>
       </c>
       <c r="E42" s="28">
-        <v>45999</v>
+        <v>45964</v>
       </c>
       <c r="F42" s="28">
-        <v>46008</v>
+        <v>45995</v>
       </c>
       <c r="G42" s="29" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="H42" s="31"/>
       <c r="I42" s="31"/>
@@ -4794,73 +5735,74 @@
       <c r="R42" s="31"/>
       <c r="S42" s="32"/>
       <c r="T42" s="33"/>
-      <c r="U42" s="31"/>
-      <c r="V42" s="31"/>
-      <c r="W42" s="31"/>
-      <c r="X42" s="31"/>
-      <c r="Y42" s="31"/>
-      <c r="Z42" s="32"/>
-      <c r="AA42" s="33"/>
-      <c r="AB42" s="31"/>
-      <c r="AC42" s="31"/>
-      <c r="AD42" s="31"/>
-      <c r="AE42" s="31"/>
-      <c r="AF42" s="31"/>
-      <c r="AG42" s="32"/>
-      <c r="AH42" s="33"/>
-      <c r="AI42" s="31"/>
-      <c r="AJ42" s="31"/>
-      <c r="AK42" s="31"/>
-      <c r="AL42" s="31"/>
-      <c r="AM42" s="31"/>
-      <c r="AN42" s="32"/>
-      <c r="AO42" s="33"/>
-      <c r="AP42" s="31"/>
-      <c r="AQ42" s="31"/>
-      <c r="AR42" s="31"/>
-      <c r="AS42" s="31"/>
-      <c r="AT42" s="31"/>
-      <c r="AU42" s="32"/>
-      <c r="AV42" s="33"/>
-      <c r="AW42" s="31"/>
-      <c r="AX42" s="31"/>
-      <c r="AY42" s="31"/>
-      <c r="AZ42" s="31"/>
+      <c r="U42" s="30"/>
+      <c r="V42" s="30"/>
+      <c r="W42" s="30"/>
+      <c r="X42" s="30"/>
+      <c r="Y42" s="30"/>
+      <c r="Z42" s="30"/>
+      <c r="AA42" s="30"/>
+      <c r="AB42" s="30"/>
+      <c r="AC42" s="30"/>
+      <c r="AD42" s="30"/>
+      <c r="AE42" s="30"/>
+      <c r="AF42" s="30"/>
+      <c r="AG42" s="30"/>
+      <c r="AH42" s="30"/>
+      <c r="AI42" s="30"/>
+      <c r="AJ42" s="30"/>
+      <c r="AK42" s="30"/>
+      <c r="AL42" s="30"/>
+      <c r="AM42" s="30"/>
+      <c r="AN42" s="30"/>
+      <c r="AO42" s="30"/>
+      <c r="AP42" s="30"/>
+      <c r="AQ42" s="30"/>
+      <c r="AR42" s="30"/>
+      <c r="AS42" s="30"/>
+      <c r="AT42" s="30"/>
+      <c r="AU42" s="30"/>
+      <c r="AV42" s="30"/>
+      <c r="AW42" s="30"/>
+      <c r="AX42" s="30"/>
+      <c r="AY42" s="30"/>
+      <c r="AZ42" s="30"/>
       <c r="BA42" s="31"/>
       <c r="BB42" s="32"/>
       <c r="BC42" s="33"/>
-      <c r="BD42" s="30"/>
-      <c r="BE42" s="30"/>
-      <c r="BF42" s="30"/>
-      <c r="BG42" s="30"/>
-      <c r="BH42" s="30"/>
-      <c r="BI42" s="30"/>
-      <c r="BJ42" s="30"/>
-      <c r="BK42" s="30"/>
-      <c r="BL42" s="30"/>
-      <c r="BM42" s="30"/>
+      <c r="BD42" s="31"/>
+      <c r="BE42" s="31"/>
+      <c r="BF42" s="31"/>
+      <c r="BG42" s="31"/>
+      <c r="BH42" s="31"/>
+      <c r="BI42" s="31"/>
+      <c r="BJ42" s="31"/>
+      <c r="BK42" s="31"/>
+      <c r="BL42" s="31"/>
+      <c r="BM42" s="31"/>
       <c r="BN42" s="31"/>
     </row>
     <row r="43" spans="1:66" ht="15.75" thickBot="1">
-      <c r="A43" s="45"/>
-      <c r="B43" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="C43" s="26">
-        <v>0</v>
+      <c r="A43" s="64"/>
+      <c r="B43" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" s="26" t="str">
+        <f ca="1">IF(F43=E43, IF(TODAY()&gt;F43, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F43) - E43) / (F43 - E43) * 100, 1) &amp; "%")</f>
+        <v>0%</v>
       </c>
       <c r="D43" s="27">
-        <f>IF(AND(F43&lt;&gt;"", E43&lt;&gt;""), F43-E43+1, "")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E43" s="28">
-        <v>46010</v>
+        <v>45996</v>
       </c>
       <c r="F43" s="28">
-        <v>46010</v>
+        <v>45996</v>
       </c>
       <c r="G43" s="29" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="H43" s="31"/>
       <c r="I43" s="31"/>
@@ -4907,7 +5849,7 @@
       <c r="AX43" s="31"/>
       <c r="AY43" s="31"/>
       <c r="AZ43" s="31"/>
-      <c r="BA43" s="31"/>
+      <c r="BA43" s="30"/>
       <c r="BB43" s="32"/>
       <c r="BC43" s="33"/>
       <c r="BD43" s="31"/>
@@ -4922,26 +5864,27 @@
       <c r="BM43" s="31"/>
       <c r="BN43" s="31"/>
     </row>
-    <row r="44" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A44" s="46"/>
-      <c r="B44" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="C44" s="26">
-        <v>0</v>
+    <row r="44" spans="1:66" ht="15.75" thickBot="1">
+      <c r="A44" s="65"/>
+      <c r="B44" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" s="26" t="str">
+        <f ca="1">IF(F44=E44, IF(TODAY()&gt;F44, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F44) - E44) / (F44 - E44) * 100, 1) &amp; "%")</f>
+        <v>0%</v>
       </c>
       <c r="D44" s="27">
-        <f>IF(AND(F44&lt;&gt;"", E44&lt;&gt;""), F44-E44+1, "")</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="E44" s="28">
-        <v>46010</v>
+        <v>45997</v>
       </c>
       <c r="F44" s="28">
-        <v>46010</v>
+        <v>45998</v>
       </c>
       <c r="G44" s="29" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="H44" s="31"/>
       <c r="I44" s="31"/>
@@ -4989,8 +5932,8 @@
       <c r="AY44" s="31"/>
       <c r="AZ44" s="31"/>
       <c r="BA44" s="31"/>
-      <c r="BB44" s="32"/>
-      <c r="BC44" s="33"/>
+      <c r="BB44" s="30"/>
+      <c r="BC44" s="30"/>
       <c r="BD44" s="31"/>
       <c r="BE44" s="31"/>
       <c r="BF44" s="31"/>
@@ -5003,81 +5946,474 @@
       <c r="BM44" s="31"/>
       <c r="BN44" s="31"/>
     </row>
-    <row r="45" spans="1:66">
-      <c r="E45" s="7"/>
-      <c r="F45" s="1"/>
-      <c r="I45" s="3"/>
-    </row>
-    <row r="46" spans="1:66">
-      <c r="I46" s="3"/>
-    </row>
-    <row r="47" spans="1:66">
-      <c r="E47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="I47" s="3"/>
-    </row>
-    <row r="48" spans="1:66">
-      <c r="I48" s="3"/>
-    </row>
-    <row r="49" spans="2:9">
-      <c r="I49" s="3"/>
-    </row>
-    <row r="50" spans="2:9">
-      <c r="B50" s="8" t="s">
-        <v>106</v>
-      </c>
+    <row r="45" spans="1:66" ht="15.75" thickBot="1">
+      <c r="A45" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" s="26" t="str">
+        <f ca="1">IF(F45=E45, IF(TODAY()&gt;F45, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F45) - E45) / (F45 - E45) * 100, 1) &amp; "%")</f>
+        <v>0%</v>
+      </c>
+      <c r="D45" s="27">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E45" s="28">
+        <v>45999</v>
+      </c>
+      <c r="F45" s="28">
+        <v>46010</v>
+      </c>
+      <c r="G45" s="39"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="31"/>
+      <c r="L45" s="32"/>
+      <c r="M45" s="33"/>
+      <c r="N45" s="31"/>
+      <c r="O45" s="31"/>
+      <c r="P45" s="31"/>
+      <c r="Q45" s="31"/>
+      <c r="R45" s="31"/>
+      <c r="S45" s="32"/>
+      <c r="T45" s="33"/>
+      <c r="U45" s="31"/>
+      <c r="V45" s="31"/>
+      <c r="W45" s="31"/>
+      <c r="X45" s="31"/>
+      <c r="Y45" s="31"/>
+      <c r="Z45" s="32"/>
+      <c r="AA45" s="33"/>
+      <c r="AB45" s="31"/>
+      <c r="AC45" s="31"/>
+      <c r="AD45" s="31"/>
+      <c r="AE45" s="31"/>
+      <c r="AF45" s="31"/>
+      <c r="AG45" s="32"/>
+      <c r="AH45" s="33"/>
+      <c r="AI45" s="31"/>
+      <c r="AJ45" s="31"/>
+      <c r="AK45" s="31"/>
+      <c r="AL45" s="31"/>
+      <c r="AM45" s="31"/>
+      <c r="AN45" s="32"/>
+      <c r="AO45" s="33"/>
+      <c r="AP45" s="31"/>
+      <c r="AQ45" s="31"/>
+      <c r="AR45" s="31"/>
+      <c r="AS45" s="31"/>
+      <c r="AT45" s="31"/>
+      <c r="AU45" s="32"/>
+      <c r="AV45" s="33"/>
+      <c r="AW45" s="31"/>
+      <c r="AX45" s="31"/>
+      <c r="AY45" s="31"/>
+      <c r="AZ45" s="31"/>
+      <c r="BA45" s="31"/>
+      <c r="BB45" s="32"/>
+      <c r="BC45" s="33"/>
+      <c r="BD45" s="40"/>
+      <c r="BE45" s="40"/>
+      <c r="BF45" s="40"/>
+      <c r="BG45" s="40"/>
+      <c r="BH45" s="40"/>
+      <c r="BI45" s="40"/>
+      <c r="BJ45" s="40"/>
+      <c r="BK45" s="40"/>
+      <c r="BL45" s="40"/>
+      <c r="BM45" s="40"/>
+      <c r="BN45" s="40"/>
+    </row>
+    <row r="46" spans="1:66" ht="15.75" thickBot="1">
+      <c r="A46" s="44"/>
+      <c r="B46" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" s="26" t="str">
+        <f ca="1">IF(F46=E46, IF(TODAY()&gt;F46, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F46) - E46) / (F46 - E46) * 100, 1) &amp; "%")</f>
+        <v>0%</v>
+      </c>
+      <c r="D46" s="27">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E46" s="28">
+        <v>45999</v>
+      </c>
+      <c r="F46" s="28">
+        <v>46008</v>
+      </c>
+      <c r="G46" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="H46" s="31"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="31"/>
+      <c r="K46" s="31"/>
+      <c r="L46" s="32"/>
+      <c r="M46" s="33"/>
+      <c r="N46" s="31"/>
+      <c r="O46" s="31"/>
+      <c r="P46" s="31"/>
+      <c r="Q46" s="31"/>
+      <c r="R46" s="31"/>
+      <c r="S46" s="32"/>
+      <c r="T46" s="33"/>
+      <c r="U46" s="31"/>
+      <c r="V46" s="31"/>
+      <c r="W46" s="31"/>
+      <c r="X46" s="31"/>
+      <c r="Y46" s="31"/>
+      <c r="Z46" s="32"/>
+      <c r="AA46" s="33"/>
+      <c r="AB46" s="31"/>
+      <c r="AC46" s="31"/>
+      <c r="AD46" s="31"/>
+      <c r="AE46" s="31"/>
+      <c r="AF46" s="31"/>
+      <c r="AG46" s="32"/>
+      <c r="AH46" s="33"/>
+      <c r="AI46" s="31"/>
+      <c r="AJ46" s="31"/>
+      <c r="AK46" s="31"/>
+      <c r="AL46" s="31"/>
+      <c r="AM46" s="31"/>
+      <c r="AN46" s="32"/>
+      <c r="AO46" s="33"/>
+      <c r="AP46" s="31"/>
+      <c r="AQ46" s="31"/>
+      <c r="AR46" s="31"/>
+      <c r="AS46" s="31"/>
+      <c r="AT46" s="31"/>
+      <c r="AU46" s="32"/>
+      <c r="AV46" s="33"/>
+      <c r="AW46" s="31"/>
+      <c r="AX46" s="31"/>
+      <c r="AY46" s="31"/>
+      <c r="AZ46" s="31"/>
+      <c r="BA46" s="31"/>
+      <c r="BB46" s="32"/>
+      <c r="BC46" s="33"/>
+      <c r="BD46" s="30"/>
+      <c r="BE46" s="30"/>
+      <c r="BF46" s="30"/>
+      <c r="BG46" s="30"/>
+      <c r="BH46" s="30"/>
+      <c r="BI46" s="30"/>
+      <c r="BJ46" s="30"/>
+      <c r="BK46" s="30"/>
+      <c r="BL46" s="30"/>
+      <c r="BM46" s="30"/>
+      <c r="BN46" s="31"/>
+    </row>
+    <row r="47" spans="1:66" ht="15.75" thickBot="1">
+      <c r="A47" s="44"/>
+      <c r="B47" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="26" t="str">
+        <f ca="1">IF(F47=E47, IF(TODAY()&gt;F47, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F47) - E47) / (F47 - E47) * 100, 1) &amp; "%")</f>
+        <v>0%</v>
+      </c>
+      <c r="D47" s="27">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E47" s="28">
+        <v>45999</v>
+      </c>
+      <c r="F47" s="28">
+        <v>46008</v>
+      </c>
+      <c r="G47" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="31"/>
+      <c r="K47" s="31"/>
+      <c r="L47" s="32"/>
+      <c r="M47" s="33"/>
+      <c r="N47" s="31"/>
+      <c r="O47" s="31"/>
+      <c r="P47" s="31"/>
+      <c r="Q47" s="31"/>
+      <c r="R47" s="31"/>
+      <c r="S47" s="32"/>
+      <c r="T47" s="33"/>
+      <c r="U47" s="31"/>
+      <c r="V47" s="31"/>
+      <c r="W47" s="31"/>
+      <c r="X47" s="31"/>
+      <c r="Y47" s="31"/>
+      <c r="Z47" s="32"/>
+      <c r="AA47" s="33"/>
+      <c r="AB47" s="31"/>
+      <c r="AC47" s="31"/>
+      <c r="AD47" s="31"/>
+      <c r="AE47" s="31"/>
+      <c r="AF47" s="31"/>
+      <c r="AG47" s="32"/>
+      <c r="AH47" s="33"/>
+      <c r="AI47" s="31"/>
+      <c r="AJ47" s="31"/>
+      <c r="AK47" s="31"/>
+      <c r="AL47" s="31"/>
+      <c r="AM47" s="31"/>
+      <c r="AN47" s="32"/>
+      <c r="AO47" s="33"/>
+      <c r="AP47" s="31"/>
+      <c r="AQ47" s="31"/>
+      <c r="AR47" s="31"/>
+      <c r="AS47" s="31"/>
+      <c r="AT47" s="31"/>
+      <c r="AU47" s="32"/>
+      <c r="AV47" s="33"/>
+      <c r="AW47" s="31"/>
+      <c r="AX47" s="31"/>
+      <c r="AY47" s="31"/>
+      <c r="AZ47" s="31"/>
+      <c r="BA47" s="31"/>
+      <c r="BB47" s="32"/>
+      <c r="BC47" s="33"/>
+      <c r="BD47" s="30"/>
+      <c r="BE47" s="30"/>
+      <c r="BF47" s="30"/>
+      <c r="BG47" s="30"/>
+      <c r="BH47" s="30"/>
+      <c r="BI47" s="30"/>
+      <c r="BJ47" s="30"/>
+      <c r="BK47" s="30"/>
+      <c r="BL47" s="30"/>
+      <c r="BM47" s="30"/>
+      <c r="BN47" s="31"/>
+    </row>
+    <row r="48" spans="1:66" ht="15.75" thickBot="1">
+      <c r="A48" s="44"/>
+      <c r="B48" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" s="26" t="str">
+        <f ca="1">IF(F48=E48, IF(TODAY()&gt;F48, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F48) - E48) / (F48 - E48) * 100, 1) &amp; "%")</f>
+        <v>0%</v>
+      </c>
+      <c r="D48" s="27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E48" s="28">
+        <v>46010</v>
+      </c>
+      <c r="F48" s="28">
+        <v>46010</v>
+      </c>
+      <c r="G48" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="32"/>
+      <c r="M48" s="33"/>
+      <c r="N48" s="31"/>
+      <c r="O48" s="31"/>
+      <c r="P48" s="31"/>
+      <c r="Q48" s="31"/>
+      <c r="R48" s="31"/>
+      <c r="S48" s="32"/>
+      <c r="T48" s="33"/>
+      <c r="U48" s="31"/>
+      <c r="V48" s="31"/>
+      <c r="W48" s="31"/>
+      <c r="X48" s="31"/>
+      <c r="Y48" s="31"/>
+      <c r="Z48" s="32"/>
+      <c r="AA48" s="33"/>
+      <c r="AB48" s="31"/>
+      <c r="AC48" s="31"/>
+      <c r="AD48" s="31"/>
+      <c r="AE48" s="31"/>
+      <c r="AF48" s="31"/>
+      <c r="AG48" s="32"/>
+      <c r="AH48" s="33"/>
+      <c r="AI48" s="31"/>
+      <c r="AJ48" s="31"/>
+      <c r="AK48" s="31"/>
+      <c r="AL48" s="31"/>
+      <c r="AM48" s="31"/>
+      <c r="AN48" s="32"/>
+      <c r="AO48" s="33"/>
+      <c r="AP48" s="31"/>
+      <c r="AQ48" s="31"/>
+      <c r="AR48" s="31"/>
+      <c r="AS48" s="31"/>
+      <c r="AT48" s="31"/>
+      <c r="AU48" s="32"/>
+      <c r="AV48" s="33"/>
+      <c r="AW48" s="31"/>
+      <c r="AX48" s="31"/>
+      <c r="AY48" s="31"/>
+      <c r="AZ48" s="31"/>
+      <c r="BA48" s="31"/>
+      <c r="BB48" s="32"/>
+      <c r="BC48" s="33"/>
+      <c r="BD48" s="31"/>
+      <c r="BE48" s="31"/>
+      <c r="BF48" s="31"/>
+      <c r="BG48" s="31"/>
+      <c r="BH48" s="31"/>
+      <c r="BI48" s="31"/>
+      <c r="BJ48" s="31"/>
+      <c r="BK48" s="31"/>
+      <c r="BL48" s="31"/>
+      <c r="BM48" s="31"/>
+      <c r="BN48" s="31"/>
+    </row>
+    <row r="49" spans="1:66" ht="15" customHeight="1" thickBot="1">
+      <c r="A49" s="45"/>
+      <c r="B49" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" s="26" t="str">
+        <f ca="1">IF(F49=E49, IF(TODAY()&gt;F49, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F49) - E49) / (F49 - E49) * 100, 1) &amp; "%")</f>
+        <v>0%</v>
+      </c>
+      <c r="D49" s="27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E49" s="28">
+        <v>46010</v>
+      </c>
+      <c r="F49" s="28">
+        <v>46010</v>
+      </c>
+      <c r="G49" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="31"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="32"/>
+      <c r="M49" s="33"/>
+      <c r="N49" s="31"/>
+      <c r="O49" s="31"/>
+      <c r="P49" s="31"/>
+      <c r="Q49" s="31"/>
+      <c r="R49" s="31"/>
+      <c r="S49" s="32"/>
+      <c r="T49" s="33"/>
+      <c r="U49" s="31"/>
+      <c r="V49" s="31"/>
+      <c r="W49" s="31"/>
+      <c r="X49" s="31"/>
+      <c r="Y49" s="31"/>
+      <c r="Z49" s="32"/>
+      <c r="AA49" s="33"/>
+      <c r="AB49" s="31"/>
+      <c r="AC49" s="31"/>
+      <c r="AD49" s="31"/>
+      <c r="AE49" s="31"/>
+      <c r="AF49" s="31"/>
+      <c r="AG49" s="32"/>
+      <c r="AH49" s="33"/>
+      <c r="AI49" s="31"/>
+      <c r="AJ49" s="31"/>
+      <c r="AK49" s="31"/>
+      <c r="AL49" s="31"/>
+      <c r="AM49" s="31"/>
+      <c r="AN49" s="32"/>
+      <c r="AO49" s="33"/>
+      <c r="AP49" s="31"/>
+      <c r="AQ49" s="31"/>
+      <c r="AR49" s="31"/>
+      <c r="AS49" s="31"/>
+      <c r="AT49" s="31"/>
+      <c r="AU49" s="32"/>
+      <c r="AV49" s="33"/>
+      <c r="AW49" s="31"/>
+      <c r="AX49" s="31"/>
+      <c r="AY49" s="31"/>
+      <c r="AZ49" s="31"/>
+      <c r="BA49" s="31"/>
+      <c r="BB49" s="32"/>
+      <c r="BC49" s="33"/>
+      <c r="BD49" s="31"/>
+      <c r="BE49" s="31"/>
+      <c r="BF49" s="31"/>
+      <c r="BG49" s="31"/>
+      <c r="BH49" s="31"/>
+      <c r="BI49" s="31"/>
+      <c r="BJ49" s="31"/>
+      <c r="BK49" s="31"/>
+      <c r="BL49" s="31"/>
+      <c r="BM49" s="31"/>
+      <c r="BN49" s="31"/>
+    </row>
+    <row r="50" spans="1:66">
+      <c r="E50" s="7"/>
+      <c r="F50" s="1"/>
       <c r="I50" s="3"/>
     </row>
-    <row r="51" spans="2:9" ht="16.5">
-      <c r="B51" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="E51" s="2"/>
-      <c r="F51" s="3"/>
+    <row r="51" spans="1:66">
       <c r="I51" s="3"/>
     </row>
-    <row r="52" spans="2:9">
-      <c r="B52" s="10" t="s">
-        <v>108</v>
-      </c>
+    <row r="52" spans="1:66">
+      <c r="E52" s="1"/>
+      <c r="G52" s="1"/>
       <c r="I52" s="3"/>
     </row>
-    <row r="53" spans="2:9">
-      <c r="C53" s="3"/>
-    </row>
-    <row r="54" spans="2:9">
-      <c r="C54" s="3"/>
-    </row>
-    <row r="55" spans="2:9"/>
-    <row r="56" spans="2:9"/>
-    <row r="57" spans="2:9" ht="16.5">
-      <c r="B57" s="2"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-    </row>
-    <row r="58" spans="2:9">
+    <row r="53" spans="1:66">
+      <c r="I53" s="3"/>
+    </row>
+    <row r="54" spans="1:66">
+      <c r="I54" s="3"/>
+    </row>
+    <row r="55" spans="1:66">
+      <c r="B55" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="I55" s="3"/>
+    </row>
+    <row r="56" spans="1:66" ht="16.5">
+      <c r="B56" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" s="3"/>
+      <c r="I56" s="3"/>
+    </row>
+    <row r="57" spans="1:66">
+      <c r="B57" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="I57" s="3"/>
+    </row>
+    <row r="58" spans="1:66">
       <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-    </row>
-    <row r="59" spans="2:9" ht="16.5">
-      <c r="B59" s="2"/>
-      <c r="D59" s="3"/>
-    </row>
-    <row r="60" spans="2:9">
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-    </row>
-    <row r="61" spans="2:9">
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-    </row>
-    <row r="62" spans="2:9">
+    </row>
+    <row r="59" spans="1:66">
+      <c r="C59" s="3"/>
+    </row>
+    <row r="60" spans="1:66"/>
+    <row r="61" spans="1:66"/>
+    <row r="62" spans="1:66" ht="16.5">
+      <c r="B62" s="2"/>
+      <c r="C62" s="3"/>
       <c r="D62" s="3"/>
     </row>
-    <row r="63" spans="2:9">
+    <row r="63" spans="1:66">
+      <c r="C63" s="3"/>
       <c r="D63" s="3"/>
     </row>
-    <row r="64" spans="2:9">
+    <row r="64" spans="1:66" ht="16.5">
+      <c r="B64" s="2"/>
       <c r="D64" s="3"/>
     </row>
     <row r="65" spans="3:8">
@@ -5085,16 +6421,36 @@
       <c r="D65" s="3"/>
     </row>
     <row r="66" spans="3:8">
-      <c r="H66" s="11"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+    </row>
+    <row r="67" spans="3:8">
+      <c r="D67" s="3"/>
+    </row>
+    <row r="68" spans="3:8">
+      <c r="D68" s="3"/>
+    </row>
+    <row r="69" spans="3:8">
+      <c r="D69" s="3"/>
+    </row>
+    <row r="70" spans="3:8">
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+    </row>
+    <row r="71" spans="3:8">
+      <c r="H71" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A12:A39"/>
-    <mergeCell ref="A40:A44"/>
+  <mergeCells count="9">
+    <mergeCell ref="A45:A49"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:W1"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="A4:A11"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B17:G17"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2. WBS/5조_WBS_현대이지웰_최종프로젝트.xlsx
+++ b/2. WBS/5조_WBS_현대이지웰_최종프로젝트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\redgu\OneDrive\Desktop\related Re_View\Re_View_Doc\2. WBS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DCC612-50F1-40C5-9DBF-4A15F14B9C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69AE8477-5D9E-40EA-BE18-1A5865BF7FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="133">
   <si>
     <t>팀명</t>
   </si>
@@ -1277,7 +1277,18 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
+    <t>이재빈</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>김석현</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
     <t>메인페이지 프로토타입 구현</t>
+  </si>
+  <si>
+    <t>정윤성</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1480,7 +1491,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1555,19 +1566,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFBBC04"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC5E0B3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4A7D6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1757,7 +1774,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1870,21 +1887,33 @@
     <xf numFmtId="0" fontId="20" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1918,41 +1947,53 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="21" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1960,6 +2001,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF9FC5E8"/>
+      <color rgb="FFB4A7D6"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2174,13 +2221,13 @@
   </sheetPr>
   <dimension ref="A1:BN71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42:G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="38.140625" customWidth="1"/>
+    <col min="2" max="2" width="60.5703125" customWidth="1"/>
     <col min="7" max="7" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2191,31 +2238,31 @@
       <c r="B1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="48" t="s">
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
       <c r="X1" s="6"/>
       <c r="Y1" s="6"/>
       <c r="Z1" s="6"/>
@@ -2279,7 +2326,7 @@
       <c r="F2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="53" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="15" t="s">
@@ -2467,7 +2514,7 @@
       <c r="D3" s="20"/>
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
-      <c r="G3" s="50"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="21">
         <v>45951</v>
       </c>
@@ -2647,7 +2694,7 @@
       </c>
     </row>
     <row r="4" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="55" t="s">
         <v>71</v>
       </c>
       <c r="B4" s="25" t="s">
@@ -2667,7 +2714,7 @@
       <c r="F4" s="28">
         <v>45952</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="62" t="s">
         <v>100</v>
       </c>
       <c r="H4" s="30"/>
@@ -2731,7 +2778,7 @@
       <c r="BN4" s="31"/>
     </row>
     <row r="5" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A5" s="52"/>
+      <c r="A5" s="56"/>
       <c r="B5" s="25" t="s">
         <v>73</v>
       </c>
@@ -2749,7 +2796,7 @@
       <c r="F5" s="28">
         <v>45952</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="62" t="s">
         <v>100</v>
       </c>
       <c r="H5" s="30"/>
@@ -2813,7 +2860,7 @@
       <c r="BN5" s="31"/>
     </row>
     <row r="6" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A6" s="52"/>
+      <c r="A6" s="56"/>
       <c r="B6" s="25" t="s">
         <v>74</v>
       </c>
@@ -2831,7 +2878,7 @@
       <c r="F6" s="28">
         <v>45952</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="G6" s="62" t="s">
         <v>100</v>
       </c>
       <c r="H6" s="30"/>
@@ -2895,7 +2942,7 @@
       <c r="BN6" s="31"/>
     </row>
     <row r="7" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A7" s="52"/>
+      <c r="A7" s="56"/>
       <c r="B7" s="34" t="s">
         <v>75</v>
       </c>
@@ -2913,7 +2960,7 @@
       <c r="F7" s="28">
         <v>45961</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="G7" s="62" t="s">
         <v>100</v>
       </c>
       <c r="H7" s="30"/>
@@ -2977,12 +3024,12 @@
       <c r="BN7" s="31"/>
     </row>
     <row r="8" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A8" s="52"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="35" t="s">
         <v>76</v>
       </c>
       <c r="C8" s="26" t="str">
-        <f ca="1">ROUND(MAX(0, MIN(TODAY(), F8) - E8) / (F8 - E8) * 100, 1) &amp; "%"</f>
+        <f t="shared" ref="C8:C16" ca="1" si="1">IF(F8=E8, IF(TODAY()&gt;F8, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F8) - E8) / (F8 - E8) * 100, 1) &amp; "%")</f>
         <v>100%</v>
       </c>
       <c r="D8" s="27">
@@ -3059,13 +3106,13 @@
       <c r="BN8" s="31"/>
     </row>
     <row r="9" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A9" s="52"/>
+      <c r="A9" s="56"/>
       <c r="B9" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="26" t="e">
-        <f>B17+B21,B28,B33</f>
-        <v>#VALUE!</v>
+      <c r="C9" s="26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>100%</v>
       </c>
       <c r="D9" s="27">
         <f t="shared" si="0"/>
@@ -3077,7 +3124,7 @@
       <c r="F9" s="28">
         <v>45962</v>
       </c>
-      <c r="G9" s="29" t="s">
+      <c r="G9" s="62" t="s">
         <v>100</v>
       </c>
       <c r="H9" s="31"/>
@@ -3141,12 +3188,12 @@
       <c r="BN9" s="31"/>
     </row>
     <row r="10" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A10" s="52"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="34" t="s">
         <v>78</v>
       </c>
       <c r="C10" s="26" t="str">
-        <f ca="1">IF(F10=E10, IF(TODAY()&gt;F10, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F10) - E10) / (F10 - E10) * 100, 1) &amp; "%")</f>
+        <f t="shared" ca="1" si="1"/>
         <v>100%</v>
       </c>
       <c r="D10" s="27">
@@ -3159,7 +3206,7 @@
       <c r="F10" s="28">
         <v>45961</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="G10" s="62" t="s">
         <v>100</v>
       </c>
       <c r="H10" s="31"/>
@@ -3223,12 +3270,12 @@
       <c r="BN10" s="31"/>
     </row>
     <row r="11" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A11" s="53"/>
+      <c r="A11" s="57"/>
       <c r="B11" s="37" t="s">
         <v>79</v>
       </c>
       <c r="C11" s="26" t="str">
-        <f ca="1">IF(F11=E11, IF(TODAY()&gt;F11, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F11) - E11) / (F11 - E11) * 100, 1) &amp; "%")</f>
+        <f t="shared" ca="1" si="1"/>
         <v>100%</v>
       </c>
       <c r="D11" s="27">
@@ -3241,8 +3288,8 @@
       <c r="F11" s="28">
         <v>45958</v>
       </c>
-      <c r="G11" s="29" t="s">
-        <v>102</v>
+      <c r="G11" s="63" t="s">
+        <v>110</v>
       </c>
       <c r="H11" s="31"/>
       <c r="I11" s="31"/>
@@ -3305,27 +3352,29 @@
       <c r="BN11" s="31"/>
     </row>
     <row r="12" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A12" s="63" t="s">
+      <c r="A12" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="26" t="str">
-        <f ca="1">IF(F12=E12, IF(TODAY()&gt;F12, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F12) - E12) / (F12 - E12) * 100, 1) &amp; "%")</f>
+      <c r="C12" s="59" t="str">
+        <f t="shared" ca="1" si="1"/>
         <v>100%</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="60">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="61">
         <v>45959</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="61">
         <v>45959</v>
       </c>
-      <c r="G12" s="39"/>
+      <c r="G12" s="62" t="s">
+        <v>100</v>
+      </c>
       <c r="H12" s="31"/>
       <c r="I12" s="31"/>
       <c r="J12" s="31"/>
@@ -3334,7 +3383,7 @@
       <c r="M12" s="33"/>
       <c r="N12" s="31"/>
       <c r="O12" s="31"/>
-      <c r="P12" s="40"/>
+      <c r="P12" s="38"/>
       <c r="Q12" s="31"/>
       <c r="R12" s="31"/>
       <c r="S12" s="32"/>
@@ -3387,12 +3436,12 @@
       <c r="BN12" s="31"/>
     </row>
     <row r="13" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A13" s="64"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="25" t="s">
         <v>82</v>
       </c>
       <c r="C13" s="26" t="str">
-        <f ca="1">IF(F13=E13, IF(TODAY()&gt;F13, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F13) - E13) / (F13 - E13) * 100, 1) &amp; "%")</f>
+        <f t="shared" ca="1" si="1"/>
         <v>100%</v>
       </c>
       <c r="D13" s="27">
@@ -3405,7 +3454,7 @@
       <c r="F13" s="28">
         <v>45959</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="G13" s="62" t="s">
         <v>100</v>
       </c>
       <c r="H13" s="31"/>
@@ -3469,12 +3518,12 @@
       <c r="BN13" s="31"/>
     </row>
     <row r="14" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A14" s="64"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="25" t="s">
         <v>83</v>
       </c>
       <c r="C14" s="26" t="str">
-        <f ca="1">IF(F14=E14, IF(TODAY()&gt;F14, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F14) - E14) / (F14 - E14) * 100, 1) &amp; "%")</f>
+        <f t="shared" ca="1" si="1"/>
         <v>100%</v>
       </c>
       <c r="D14" s="27">
@@ -3487,7 +3536,7 @@
       <c r="F14" s="28">
         <v>45959</v>
       </c>
-      <c r="G14" s="29" t="s">
+      <c r="G14" s="62" t="s">
         <v>100</v>
       </c>
       <c r="H14" s="31"/>
@@ -3551,25 +3600,27 @@
       <c r="BN14" s="31"/>
     </row>
     <row r="15" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A15" s="64"/>
-      <c r="B15" s="38" t="s">
+      <c r="A15" s="45"/>
+      <c r="B15" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="26" t="str">
-        <f ca="1">IF(F15=E15, IF(TODAY()&gt;F15, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F15) - E15) / (F15 - E15) * 100, 1) &amp; "%")</f>
+      <c r="C15" s="59" t="str">
+        <f t="shared" ca="1" si="1"/>
         <v>11.8%</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="60">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="E15" s="28">
+      <c r="E15" s="61">
         <v>45964</v>
       </c>
-      <c r="F15" s="28">
+      <c r="F15" s="61">
         <v>45981</v>
       </c>
-      <c r="G15" s="39"/>
+      <c r="G15" s="62" t="s">
+        <v>100</v>
+      </c>
       <c r="H15" s="31"/>
       <c r="I15" s="31"/>
       <c r="J15" s="31"/>
@@ -3583,24 +3634,24 @@
       <c r="R15" s="31"/>
       <c r="S15" s="32"/>
       <c r="T15" s="33"/>
-      <c r="U15" s="40"/>
-      <c r="V15" s="40"/>
-      <c r="W15" s="40"/>
-      <c r="X15" s="40"/>
-      <c r="Y15" s="40"/>
-      <c r="Z15" s="40"/>
-      <c r="AA15" s="40"/>
-      <c r="AB15" s="40"/>
-      <c r="AC15" s="40"/>
-      <c r="AD15" s="40"/>
-      <c r="AE15" s="40"/>
-      <c r="AF15" s="40"/>
-      <c r="AG15" s="40"/>
-      <c r="AH15" s="40"/>
-      <c r="AI15" s="40"/>
-      <c r="AJ15" s="40"/>
-      <c r="AK15" s="40"/>
-      <c r="AL15" s="40"/>
+      <c r="U15" s="38"/>
+      <c r="V15" s="38"/>
+      <c r="W15" s="38"/>
+      <c r="X15" s="38"/>
+      <c r="Y15" s="38"/>
+      <c r="Z15" s="38"/>
+      <c r="AA15" s="38"/>
+      <c r="AB15" s="38"/>
+      <c r="AC15" s="38"/>
+      <c r="AD15" s="38"/>
+      <c r="AE15" s="38"/>
+      <c r="AF15" s="38"/>
+      <c r="AG15" s="38"/>
+      <c r="AH15" s="38"/>
+      <c r="AI15" s="38"/>
+      <c r="AJ15" s="38"/>
+      <c r="AK15" s="38"/>
+      <c r="AL15" s="38"/>
       <c r="AM15" s="31"/>
       <c r="AN15" s="32"/>
       <c r="AO15" s="33"/>
@@ -3631,12 +3682,12 @@
       <c r="BN15" s="31"/>
     </row>
     <row r="16" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A16" s="64"/>
-      <c r="B16" s="54" t="s">
+      <c r="A16" s="45"/>
+      <c r="B16" s="41" t="s">
         <v>122</v>
       </c>
       <c r="C16" s="26" t="str">
-        <f ca="1">IF(F16=E16, IF(TODAY()&gt;F16, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F16) - E16) / (F16 - E16) * 100, 1) &amp; "%")</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0%</v>
       </c>
       <c r="D16" s="27">
@@ -3713,15 +3764,15 @@
       <c r="BN16" s="31"/>
     </row>
     <row r="17" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A17" s="64"/>
-      <c r="B17" s="57" t="s">
-        <v>129</v>
-      </c>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="59"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="65" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="67"/>
       <c r="H17" s="31"/>
       <c r="I17" s="31"/>
       <c r="J17" s="31"/>
@@ -3783,8 +3834,8 @@
       <c r="BN17" s="31"/>
     </row>
     <row r="18" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A18" s="64"/>
-      <c r="B18" s="56" t="s">
+      <c r="A18" s="45"/>
+      <c r="B18" s="43" t="s">
         <v>111</v>
       </c>
       <c r="C18" s="26" t="str">
@@ -3801,7 +3852,7 @@
       <c r="F18" s="28">
         <v>45965</v>
       </c>
-      <c r="G18" s="29" t="s">
+      <c r="G18" s="64" t="s">
         <v>110</v>
       </c>
       <c r="H18" s="31"/>
@@ -3865,7 +3916,7 @@
       <c r="BN18" s="31"/>
     </row>
     <row r="19" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A19" s="64"/>
+      <c r="A19" s="45"/>
       <c r="B19" s="37" t="s">
         <v>88</v>
       </c>
@@ -3883,7 +3934,7 @@
       <c r="F19" s="28">
         <v>45967</v>
       </c>
-      <c r="G19" s="29" t="s">
+      <c r="G19" s="64" t="s">
         <v>107</v>
       </c>
       <c r="H19" s="31"/>
@@ -3947,8 +3998,8 @@
       <c r="BN19" s="31"/>
     </row>
     <row r="20" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A20" s="64"/>
-      <c r="B20" s="42" t="s">
+      <c r="A20" s="45"/>
+      <c r="B20" s="40" t="s">
         <v>123</v>
       </c>
       <c r="C20" s="26" t="str">
@@ -4029,15 +4080,15 @@
       <c r="BN20" s="31"/>
     </row>
     <row r="21" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A21" s="64"/>
-      <c r="B21" s="57" t="s">
+      <c r="A21" s="45"/>
+      <c r="B21" s="68" t="s">
         <v>127</v>
       </c>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="59"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="70"/>
       <c r="H21" s="31"/>
       <c r="I21" s="31"/>
       <c r="J21" s="31"/>
@@ -4099,12 +4150,12 @@
       <c r="BN21" s="31"/>
     </row>
     <row r="22" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A22" s="64"/>
-      <c r="B22" s="54" t="s">
+      <c r="A22" s="45"/>
+      <c r="B22" s="41" t="s">
         <v>124</v>
       </c>
       <c r="C22" s="26" t="str">
-        <f ca="1">IF(F22=E22, IF(TODAY()&gt;F22, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F22) - E22) / (F22 - E22) * 100, 1) &amp; "%")</f>
+        <f t="shared" ref="C22:C27" ca="1" si="2">IF(F22=E22, IF(TODAY()&gt;F22, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F22) - E22) / (F22 - E22) * 100, 1) &amp; "%")</f>
         <v>0%</v>
       </c>
       <c r="D22" s="27">
@@ -4117,7 +4168,9 @@
       <c r="F22" s="28">
         <v>45969</v>
       </c>
-      <c r="G22" s="29"/>
+      <c r="G22" s="29" t="s">
+        <v>129</v>
+      </c>
       <c r="H22" s="31"/>
       <c r="I22" s="31"/>
       <c r="J22" s="31"/>
@@ -4179,12 +4232,12 @@
       <c r="BN22" s="31"/>
     </row>
     <row r="23" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A23" s="64"/>
-      <c r="B23" s="41" t="s">
+      <c r="A23" s="45"/>
+      <c r="B23" s="39" t="s">
         <v>86</v>
       </c>
       <c r="C23" s="26" t="str">
-        <f ca="1">IF(F23=E23, IF(TODAY()&gt;F23, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F23) - E23) / (F23 - E23) * 100, 1) &amp; "%")</f>
+        <f t="shared" ca="1" si="2"/>
         <v>20%</v>
       </c>
       <c r="D23" s="27">
@@ -4197,7 +4250,7 @@
       <c r="F23" s="28">
         <v>45970</v>
       </c>
-      <c r="G23" s="29" t="s">
+      <c r="G23" s="64" t="s">
         <v>104</v>
       </c>
       <c r="H23" s="31"/>
@@ -4261,12 +4314,12 @@
       <c r="BN23" s="31"/>
     </row>
     <row r="24" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A24" s="64"/>
+      <c r="A24" s="45"/>
       <c r="B24" s="37" t="s">
         <v>106</v>
       </c>
       <c r="C24" s="26" t="str">
-        <f ca="1">IF(F24=E24, IF(TODAY()&gt;F24, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F24) - E24) / (F24 - E24) * 100, 1) &amp; "%")</f>
+        <f t="shared" ca="1" si="2"/>
         <v>16.7%</v>
       </c>
       <c r="D24" s="27">
@@ -4279,7 +4332,7 @@
       <c r="F24" s="28">
         <v>45971</v>
       </c>
-      <c r="G24" s="29" t="s">
+      <c r="G24" s="64" t="s">
         <v>105</v>
       </c>
       <c r="H24" s="31"/>
@@ -4343,12 +4396,12 @@
       <c r="BN24" s="31"/>
     </row>
     <row r="25" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A25" s="64"/>
-      <c r="B25" s="42" t="s">
+      <c r="A25" s="45"/>
+      <c r="B25" s="40" t="s">
         <v>119</v>
       </c>
       <c r="C25" s="26" t="str">
-        <f ca="1">IF(F25=E25, IF(TODAY()&gt;F25, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F25) - E25) / (F25 - E25) * 100, 1) &amp; "%")</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0%</v>
       </c>
       <c r="D25" s="27">
@@ -4361,7 +4414,9 @@
       <c r="F25" s="28">
         <v>45969</v>
       </c>
-      <c r="G25" s="29"/>
+      <c r="G25" s="29" t="s">
+        <v>130</v>
+      </c>
       <c r="H25" s="31"/>
       <c r="I25" s="31"/>
       <c r="J25" s="31"/>
@@ -4423,16 +4478,16 @@
       <c r="BN25" s="31"/>
     </row>
     <row r="26" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A26" s="64"/>
-      <c r="B26" s="42" t="s">
+      <c r="A26" s="45"/>
+      <c r="B26" s="40" t="s">
         <v>120</v>
       </c>
       <c r="C26" s="26" t="str">
-        <f ca="1">IF(F26=E26, IF(TODAY()&gt;F26, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F26) - E26) / (F26 - E26) * 100, 1) &amp; "%")</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0%</v>
       </c>
       <c r="D26" s="27">
-        <f t="shared" ref="D26:D27" si="1">IF(AND(F26&lt;&gt;"", E26&lt;&gt;""), F26-E26+1, "")</f>
+        <f t="shared" ref="D26:D27" si="3">IF(AND(F26&lt;&gt;"", E26&lt;&gt;""), F26-E26+1, "")</f>
         <v>2</v>
       </c>
       <c r="E26" s="28">
@@ -4441,7 +4496,9 @@
       <c r="F26" s="28">
         <v>45969</v>
       </c>
-      <c r="G26" s="29"/>
+      <c r="G26" s="29" t="s">
+        <v>130</v>
+      </c>
       <c r="H26" s="31"/>
       <c r="I26" s="31"/>
       <c r="J26" s="31"/>
@@ -4503,16 +4560,16 @@
       <c r="BN26" s="31"/>
     </row>
     <row r="27" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A27" s="64"/>
-      <c r="B27" s="42" t="s">
+      <c r="A27" s="45"/>
+      <c r="B27" s="40" t="s">
         <v>121</v>
       </c>
       <c r="C27" s="26" t="str">
-        <f ca="1">IF(F27=E27, IF(TODAY()&gt;F27, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F27) - E27) / (F27 - E27) * 100, 1) &amp; "%")</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0%</v>
       </c>
       <c r="D27" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E27" s="28">
@@ -4521,7 +4578,9 @@
       <c r="F27" s="28">
         <v>45969</v>
       </c>
-      <c r="G27" s="29"/>
+      <c r="G27" s="29" t="s">
+        <v>130</v>
+      </c>
       <c r="H27" s="31"/>
       <c r="I27" s="31"/>
       <c r="J27" s="31"/>
@@ -4583,15 +4642,15 @@
       <c r="BN27" s="31"/>
     </row>
     <row r="28" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A28" s="64"/>
-      <c r="B28" s="60" t="s">
+      <c r="A28" s="45"/>
+      <c r="B28" s="71" t="s">
         <v>126</v>
       </c>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="62"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="73"/>
       <c r="H28" s="31"/>
       <c r="I28" s="31"/>
       <c r="J28" s="31"/>
@@ -4653,8 +4712,8 @@
       <c r="BN28" s="31"/>
     </row>
     <row r="29" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A29" s="64"/>
-      <c r="B29" s="42" t="s">
+      <c r="A29" s="45"/>
+      <c r="B29" s="40" t="s">
         <v>118</v>
       </c>
       <c r="C29" s="26" t="str">
@@ -4671,7 +4730,9 @@
       <c r="F29" s="28">
         <v>45977</v>
       </c>
-      <c r="G29" s="29"/>
+      <c r="G29" s="29" t="s">
+        <v>132</v>
+      </c>
       <c r="H29" s="31"/>
       <c r="I29" s="31"/>
       <c r="J29" s="31"/>
@@ -4733,8 +4794,8 @@
       <c r="BN29" s="31"/>
     </row>
     <row r="30" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A30" s="64"/>
-      <c r="B30" s="54" t="s">
+      <c r="A30" s="45"/>
+      <c r="B30" s="41" t="s">
         <v>125</v>
       </c>
       <c r="C30" s="26" t="str">
@@ -4742,7 +4803,7 @@
         <v>0%</v>
       </c>
       <c r="D30" s="27">
-        <f t="shared" ref="D30" si="2">IF(AND(F30&lt;&gt;"", E30&lt;&gt;""), F30-E30+1, "")</f>
+        <f t="shared" ref="D30" si="4">IF(AND(F30&lt;&gt;"", E30&lt;&gt;""), F30-E30+1, "")</f>
         <v>6</v>
       </c>
       <c r="E30" s="28">
@@ -4751,7 +4812,9 @@
       <c r="F30" s="28">
         <v>45977</v>
       </c>
-      <c r="G30" s="29"/>
+      <c r="G30" s="29" t="s">
+        <v>132</v>
+      </c>
       <c r="H30" s="31"/>
       <c r="I30" s="31"/>
       <c r="J30" s="31"/>
@@ -4813,7 +4876,7 @@
       <c r="BN30" s="31"/>
     </row>
     <row r="31" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A31" s="64"/>
+      <c r="A31" s="45"/>
       <c r="B31" s="37" t="s">
         <v>89</v>
       </c>
@@ -4831,7 +4894,7 @@
       <c r="F31" s="28">
         <v>45971</v>
       </c>
-      <c r="G31" s="29" t="s">
+      <c r="G31" s="64" t="s">
         <v>107</v>
       </c>
       <c r="H31" s="31"/>
@@ -4895,7 +4958,7 @@
       <c r="BN31" s="31"/>
     </row>
     <row r="32" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A32" s="64"/>
+      <c r="A32" s="45"/>
       <c r="B32" s="37" t="s">
         <v>85</v>
       </c>
@@ -4913,7 +4976,7 @@
       <c r="F32" s="28">
         <v>45981</v>
       </c>
-      <c r="G32" s="29" t="s">
+      <c r="G32" s="64" t="s">
         <v>107</v>
       </c>
       <c r="H32" s="31"/>
@@ -4977,15 +5040,15 @@
       <c r="BN32" s="31"/>
     </row>
     <row r="33" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A33" s="64"/>
-      <c r="B33" s="60" t="s">
+      <c r="A33" s="45"/>
+      <c r="B33" s="71" t="s">
         <v>116</v>
       </c>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="62"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="73"/>
       <c r="H33" s="31"/>
       <c r="I33" s="31"/>
       <c r="J33" s="31"/>
@@ -5047,12 +5110,12 @@
       <c r="BN33" s="31"/>
     </row>
     <row r="34" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A34" s="64"/>
-      <c r="B34" s="54" t="s">
+      <c r="A34" s="45"/>
+      <c r="B34" s="41" t="s">
         <v>117</v>
       </c>
       <c r="C34" s="26" t="str">
-        <f ca="1">IF(F34=E34, IF(TODAY()&gt;F34, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F34) - E34) / (F34 - E34) * 100, 1) &amp; "%")</f>
+        <f t="shared" ref="C34:C49" ca="1" si="5">IF(F34=E34, IF(TODAY()&gt;F34, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F34) - E34) / (F34 - E34) * 100, 1) &amp; "%")</f>
         <v>0%</v>
       </c>
       <c r="D34" s="27">
@@ -5129,12 +5192,12 @@
       <c r="BN34" s="31"/>
     </row>
     <row r="35" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A35" s="64"/>
+      <c r="A35" s="45"/>
       <c r="B35" s="37" t="s">
         <v>87</v>
       </c>
       <c r="C35" s="26" t="str">
-        <f ca="1">IF(F35=E35, IF(TODAY()&gt;F35, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F35) - E35) / (F35 - E35) * 100, 1) &amp; "%")</f>
+        <f t="shared" ca="1" si="5"/>
         <v>16.7%</v>
       </c>
       <c r="D35" s="27">
@@ -5147,7 +5210,7 @@
       <c r="F35" s="28">
         <v>45971</v>
       </c>
-      <c r="G35" s="29" t="s">
+      <c r="G35" s="64" t="s">
         <v>105</v>
       </c>
       <c r="H35" s="31"/>
@@ -5211,25 +5274,27 @@
       <c r="BN35" s="31"/>
     </row>
     <row r="36" spans="1:66" ht="15.75" thickBot="1">
-      <c r="A36" s="64"/>
-      <c r="B36" s="38" t="s">
+      <c r="A36" s="45"/>
+      <c r="B36" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="C36" s="26" t="str">
-        <f ca="1">IF(F36=E36, IF(TODAY()&gt;F36, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F36) - E36) / (F36 - E36) * 100, 1) &amp; "%")</f>
+      <c r="C36" s="59" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>5.9%</v>
       </c>
-      <c r="D36" s="27">
+      <c r="D36" s="60">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="E36" s="28">
+      <c r="E36" s="61">
         <v>45964</v>
       </c>
-      <c r="F36" s="28">
+      <c r="F36" s="61">
         <v>45998</v>
       </c>
-      <c r="G36" s="39"/>
+      <c r="G36" s="62" t="s">
+        <v>100</v>
+      </c>
       <c r="H36" s="31"/>
       <c r="I36" s="31"/>
       <c r="J36" s="31"/>
@@ -5243,41 +5308,41 @@
       <c r="R36" s="31"/>
       <c r="S36" s="32"/>
       <c r="T36" s="33"/>
-      <c r="U36" s="40"/>
-      <c r="V36" s="40"/>
-      <c r="W36" s="40"/>
-      <c r="X36" s="40"/>
-      <c r="Y36" s="40"/>
-      <c r="Z36" s="40"/>
-      <c r="AA36" s="40"/>
-      <c r="AB36" s="40"/>
-      <c r="AC36" s="40"/>
-      <c r="AD36" s="40"/>
-      <c r="AE36" s="40"/>
-      <c r="AF36" s="40"/>
-      <c r="AG36" s="40"/>
-      <c r="AH36" s="40"/>
-      <c r="AI36" s="40"/>
-      <c r="AJ36" s="40"/>
-      <c r="AK36" s="40"/>
-      <c r="AL36" s="40"/>
-      <c r="AM36" s="40"/>
-      <c r="AN36" s="40"/>
-      <c r="AO36" s="40"/>
-      <c r="AP36" s="40"/>
-      <c r="AQ36" s="40"/>
-      <c r="AR36" s="40"/>
-      <c r="AS36" s="40"/>
-      <c r="AT36" s="40"/>
-      <c r="AU36" s="40"/>
-      <c r="AV36" s="40"/>
-      <c r="AW36" s="40"/>
-      <c r="AX36" s="40"/>
-      <c r="AY36" s="40"/>
-      <c r="AZ36" s="40"/>
-      <c r="BA36" s="40"/>
-      <c r="BB36" s="40"/>
-      <c r="BC36" s="40"/>
+      <c r="U36" s="38"/>
+      <c r="V36" s="38"/>
+      <c r="W36" s="38"/>
+      <c r="X36" s="38"/>
+      <c r="Y36" s="38"/>
+      <c r="Z36" s="38"/>
+      <c r="AA36" s="38"/>
+      <c r="AB36" s="38"/>
+      <c r="AC36" s="38"/>
+      <c r="AD36" s="38"/>
+      <c r="AE36" s="38"/>
+      <c r="AF36" s="38"/>
+      <c r="AG36" s="38"/>
+      <c r="AH36" s="38"/>
+      <c r="AI36" s="38"/>
+      <c r="AJ36" s="38"/>
+      <c r="AK36" s="38"/>
+      <c r="AL36" s="38"/>
+      <c r="AM36" s="38"/>
+      <c r="AN36" s="38"/>
+      <c r="AO36" s="38"/>
+      <c r="AP36" s="38"/>
+      <c r="AQ36" s="38"/>
+      <c r="AR36" s="38"/>
+      <c r="AS36" s="38"/>
+      <c r="AT36" s="38"/>
+      <c r="AU36" s="38"/>
+      <c r="AV36" s="38"/>
+      <c r="AW36" s="38"/>
+      <c r="AX36" s="38"/>
+      <c r="AY36" s="38"/>
+      <c r="AZ36" s="38"/>
+      <c r="BA36" s="38"/>
+      <c r="BB36" s="38"/>
+      <c r="BC36" s="38"/>
       <c r="BD36" s="31"/>
       <c r="BE36" s="31"/>
       <c r="BF36" s="31"/>
@@ -5291,12 +5356,12 @@
       <c r="BN36" s="31"/>
     </row>
     <row r="37" spans="1:66" ht="15.75" thickBot="1">
-      <c r="A37" s="64"/>
-      <c r="B37" s="54" t="s">
+      <c r="A37" s="45"/>
+      <c r="B37" s="41" t="s">
         <v>128</v>
       </c>
       <c r="C37" s="26" t="str">
-        <f ca="1">IF(F37=E37, IF(TODAY()&gt;F37, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F37) - E37) / (F37 - E37) * 100, 1) &amp; "%")</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0%</v>
       </c>
       <c r="D37" s="27">
@@ -5373,12 +5438,12 @@
       <c r="BN37" s="31"/>
     </row>
     <row r="38" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A38" s="64"/>
-      <c r="B38" s="54" t="s">
+      <c r="A38" s="45"/>
+      <c r="B38" s="41" t="s">
         <v>115</v>
       </c>
       <c r="C38" s="26" t="str">
-        <f ca="1">IF(F38=E38, IF(TODAY()&gt;F38, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F38) - E38) / (F38 - E38) * 100, 1) &amp; "%")</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0%</v>
       </c>
       <c r="D38" s="27">
@@ -5455,12 +5520,12 @@
       <c r="BN38" s="31"/>
     </row>
     <row r="39" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A39" s="64"/>
-      <c r="B39" s="55" t="s">
+      <c r="A39" s="45"/>
+      <c r="B39" s="42" t="s">
         <v>114</v>
       </c>
       <c r="C39" s="26" t="str">
-        <f ca="1">IF(F39=E39, IF(TODAY()&gt;F39, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F39) - E39) / (F39 - E39) * 100, 1) &amp; "%")</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0%</v>
       </c>
       <c r="D39" s="27">
@@ -5537,12 +5602,12 @@
       <c r="BN39" s="31"/>
     </row>
     <row r="40" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A40" s="64"/>
-      <c r="B40" s="54" t="s">
+      <c r="A40" s="45"/>
+      <c r="B40" s="41" t="s">
         <v>113</v>
       </c>
       <c r="C40" s="26" t="str">
-        <f ca="1">IF(F40=E40, IF(TODAY()&gt;F40, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F40) - E40) / (F40 - E40) * 100, 1) &amp; "%")</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0%</v>
       </c>
       <c r="D40" s="27">
@@ -5619,12 +5684,12 @@
       <c r="BN40" s="31"/>
     </row>
     <row r="41" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A41" s="64"/>
-      <c r="B41" s="55" t="s">
+      <c r="A41" s="45"/>
+      <c r="B41" s="42" t="s">
         <v>112</v>
       </c>
       <c r="C41" s="26" t="str">
-        <f ca="1">IF(F41=E41, IF(TODAY()&gt;F41, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F41) - E41) / (F41 - E41) * 100, 1) &amp; "%")</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0%</v>
       </c>
       <c r="D41" s="27">
@@ -5701,12 +5766,12 @@
       <c r="BN41" s="31"/>
     </row>
     <row r="42" spans="1:66" ht="15.75" thickBot="1">
-      <c r="A42" s="64"/>
+      <c r="A42" s="45"/>
       <c r="B42" s="37" t="s">
         <v>2</v>
       </c>
       <c r="C42" s="26" t="str">
-        <f ca="1">IF(F42=E42, IF(TODAY()&gt;F42, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F42) - E42) / (F42 - E42) * 100, 1) &amp; "%")</f>
+        <f t="shared" ca="1" si="5"/>
         <v>6.5%</v>
       </c>
       <c r="D42" s="27">
@@ -5719,7 +5784,7 @@
       <c r="F42" s="28">
         <v>45995</v>
       </c>
-      <c r="G42" s="29" t="s">
+      <c r="G42" s="64" t="s">
         <v>102</v>
       </c>
       <c r="H42" s="31"/>
@@ -5783,12 +5848,12 @@
       <c r="BN42" s="31"/>
     </row>
     <row r="43" spans="1:66" ht="15.75" thickBot="1">
-      <c r="A43" s="64"/>
-      <c r="B43" s="41" t="s">
+      <c r="A43" s="45"/>
+      <c r="B43" s="39" t="s">
         <v>90</v>
       </c>
       <c r="C43" s="26" t="str">
-        <f ca="1">IF(F43=E43, IF(TODAY()&gt;F43, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F43) - E43) / (F43 - E43) * 100, 1) &amp; "%")</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0%</v>
       </c>
       <c r="D43" s="27">
@@ -5801,7 +5866,7 @@
       <c r="F43" s="28">
         <v>45996</v>
       </c>
-      <c r="G43" s="29" t="s">
+      <c r="G43" s="64" t="s">
         <v>102</v>
       </c>
       <c r="H43" s="31"/>
@@ -5865,12 +5930,12 @@
       <c r="BN43" s="31"/>
     </row>
     <row r="44" spans="1:66" ht="15.75" thickBot="1">
-      <c r="A44" s="65"/>
-      <c r="B44" s="41" t="s">
+      <c r="A44" s="46"/>
+      <c r="B44" s="39" t="s">
         <v>91</v>
       </c>
       <c r="C44" s="26" t="str">
-        <f ca="1">IF(F44=E44, IF(TODAY()&gt;F44, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F44) - E44) / (F44 - E44) * 100, 1) &amp; "%")</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0%</v>
       </c>
       <c r="D44" s="27">
@@ -5883,7 +5948,7 @@
       <c r="F44" s="28">
         <v>45998</v>
       </c>
-      <c r="G44" s="29" t="s">
+      <c r="G44" s="64" t="s">
         <v>102</v>
       </c>
       <c r="H44" s="31"/>
@@ -5947,27 +6012,29 @@
       <c r="BN44" s="31"/>
     </row>
     <row r="45" spans="1:66" ht="15.75" thickBot="1">
-      <c r="A45" s="43" t="s">
+      <c r="A45" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="B45" s="38" t="s">
+      <c r="B45" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="C45" s="26" t="str">
-        <f ca="1">IF(F45=E45, IF(TODAY()&gt;F45, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F45) - E45) / (F45 - E45) * 100, 1) &amp; "%")</f>
+      <c r="C45" s="59" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>0%</v>
       </c>
-      <c r="D45" s="27">
+      <c r="D45" s="60">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E45" s="28">
+      <c r="E45" s="61">
         <v>45999</v>
       </c>
-      <c r="F45" s="28">
+      <c r="F45" s="61">
         <v>46010</v>
       </c>
-      <c r="G45" s="39"/>
+      <c r="G45" s="62" t="s">
+        <v>100</v>
+      </c>
       <c r="H45" s="31"/>
       <c r="I45" s="31"/>
       <c r="J45" s="31"/>
@@ -6016,25 +6083,25 @@
       <c r="BA45" s="31"/>
       <c r="BB45" s="32"/>
       <c r="BC45" s="33"/>
-      <c r="BD45" s="40"/>
-      <c r="BE45" s="40"/>
-      <c r="BF45" s="40"/>
-      <c r="BG45" s="40"/>
-      <c r="BH45" s="40"/>
-      <c r="BI45" s="40"/>
-      <c r="BJ45" s="40"/>
-      <c r="BK45" s="40"/>
-      <c r="BL45" s="40"/>
-      <c r="BM45" s="40"/>
-      <c r="BN45" s="40"/>
+      <c r="BD45" s="38"/>
+      <c r="BE45" s="38"/>
+      <c r="BF45" s="38"/>
+      <c r="BG45" s="38"/>
+      <c r="BH45" s="38"/>
+      <c r="BI45" s="38"/>
+      <c r="BJ45" s="38"/>
+      <c r="BK45" s="38"/>
+      <c r="BL45" s="38"/>
+      <c r="BM45" s="38"/>
+      <c r="BN45" s="38"/>
     </row>
     <row r="46" spans="1:66" ht="15.75" thickBot="1">
-      <c r="A46" s="44"/>
+      <c r="A46" s="48"/>
       <c r="B46" s="25" t="s">
         <v>93</v>
       </c>
       <c r="C46" s="26" t="str">
-        <f ca="1">IF(F46=E46, IF(TODAY()&gt;F46, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F46) - E46) / (F46 - E46) * 100, 1) &amp; "%")</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0%</v>
       </c>
       <c r="D46" s="27">
@@ -6047,7 +6114,7 @@
       <c r="F46" s="28">
         <v>46008</v>
       </c>
-      <c r="G46" s="29" t="s">
+      <c r="G46" s="62" t="s">
         <v>100</v>
       </c>
       <c r="H46" s="31"/>
@@ -6111,12 +6178,12 @@
       <c r="BN46" s="31"/>
     </row>
     <row r="47" spans="1:66" ht="15.75" thickBot="1">
-      <c r="A47" s="44"/>
+      <c r="A47" s="48"/>
       <c r="B47" s="25" t="s">
         <v>3</v>
       </c>
       <c r="C47" s="26" t="str">
-        <f ca="1">IF(F47=E47, IF(TODAY()&gt;F47, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F47) - E47) / (F47 - E47) * 100, 1) &amp; "%")</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0%</v>
       </c>
       <c r="D47" s="27">
@@ -6129,7 +6196,7 @@
       <c r="F47" s="28">
         <v>46008</v>
       </c>
-      <c r="G47" s="29" t="s">
+      <c r="G47" s="62" t="s">
         <v>100</v>
       </c>
       <c r="H47" s="31"/>
@@ -6193,12 +6260,12 @@
       <c r="BN47" s="31"/>
     </row>
     <row r="48" spans="1:66" ht="15.75" thickBot="1">
-      <c r="A48" s="44"/>
+      <c r="A48" s="48"/>
       <c r="B48" s="25" t="s">
         <v>94</v>
       </c>
       <c r="C48" s="26" t="str">
-        <f ca="1">IF(F48=E48, IF(TODAY()&gt;F48, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F48) - E48) / (F48 - E48) * 100, 1) &amp; "%")</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0%</v>
       </c>
       <c r="D48" s="27">
@@ -6211,7 +6278,7 @@
       <c r="F48" s="28">
         <v>46010</v>
       </c>
-      <c r="G48" s="29" t="s">
+      <c r="G48" s="62" t="s">
         <v>100</v>
       </c>
       <c r="H48" s="31"/>
@@ -6275,12 +6342,12 @@
       <c r="BN48" s="31"/>
     </row>
     <row r="49" spans="1:66" ht="15" customHeight="1" thickBot="1">
-      <c r="A49" s="45"/>
+      <c r="A49" s="49"/>
       <c r="B49" s="25" t="s">
         <v>95</v>
       </c>
       <c r="C49" s="26" t="str">
-        <f ca="1">IF(F49=E49, IF(TODAY()&gt;F49, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F49) - E49) / (F49 - E49) * 100, 1) &amp; "%")</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0%</v>
       </c>
       <c r="D49" s="27">
@@ -6293,7 +6360,7 @@
       <c r="F49" s="28">
         <v>46010</v>
       </c>
-      <c r="G49" s="29" t="s">
+      <c r="G49" s="62" t="s">
         <v>100</v>
       </c>
       <c r="H49" s="31"/>

--- a/2. WBS/5조_WBS_현대이지웰_최종프로젝트.xlsx
+++ b/2. WBS/5조_WBS_현대이지웰_최종프로젝트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\redgu\OneDrive\Desktop\related_Re_View\Re_View_Doc\2. WBS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FAE9705-F8D9-493B-A02C-5DCB3A65B575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82040947-ACDA-4725-BA7C-11BF0E3143A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="285" yWindow="555" windowWidth="21315" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1216,11 +1216,11 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>구매 하기 페이지 UI</t>
+    <t>오승환</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>오승환</t>
+    <t>마이페이지 배송지 UI</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -2824,8 +2824,8 @@
   </sheetPr>
   <dimension ref="A1:BO90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -6754,7 +6754,7 @@
     <row r="46" spans="1:67" ht="15" customHeight="1" thickBot="1">
       <c r="A46" s="103"/>
       <c r="B46" s="93" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C46" s="20" t="str">
         <f t="shared" ref="C46" ca="1" si="12">IF(F46=E46, IF(TODAY()&gt;F46, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F46) - E46) / (F46 - E46) * 100, 1) &amp; "%")</f>
@@ -6771,7 +6771,7 @@
         <v>45980</v>
       </c>
       <c r="G46" s="31" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H46" s="60"/>
       <c r="I46" s="61"/>

--- a/2. WBS/5조_WBS_현대이지웰_최종프로젝트.xlsx
+++ b/2. WBS/5조_WBS_현대이지웰_최종프로젝트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\redgu\OneDrive\Desktop\related_Re_View\Re_View_Doc\2. WBS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A14E15-0BA5-4F7E-955F-A0C7C9FF1242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3D8518-8EFD-492C-8141-F01F6849223F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="157">
   <si>
     <t>팀명</t>
   </si>
@@ -1292,6 +1292,10 @@
     </r>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
+  <si>
+    <t>이미지 업로드 기능</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1300,7 +1304,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="44">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1575,6 +1579,27 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF00B0F0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF00B0F0"/>
       <name val="Malgun Gothic"/>
       <family val="3"/>
       <charset val="129"/>
@@ -2239,7 +2264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2547,12 +2572,6 @@
     <xf numFmtId="0" fontId="28" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2574,9 +2593,6 @@
     <xf numFmtId="0" fontId="22" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="21" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2598,6 +2614,9 @@
     <xf numFmtId="0" fontId="28" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2658,8 +2677,26 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="37" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="42" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2885,10 +2922,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BO90"/>
+  <dimension ref="A1:BO91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -2905,31 +2942,31 @@
       <c r="B1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="126" t="s">
+      <c r="C1" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="128" t="s">
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="127"/>
-      <c r="O1" s="127"/>
-      <c r="P1" s="127"/>
-      <c r="Q1" s="127"/>
-      <c r="R1" s="127"/>
-      <c r="S1" s="127"/>
-      <c r="T1" s="127"/>
-      <c r="U1" s="127"/>
-      <c r="V1" s="127"/>
-      <c r="W1" s="127"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="125"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="125"/>
+      <c r="Q1" s="125"/>
+      <c r="R1" s="125"/>
+      <c r="S1" s="125"/>
+      <c r="T1" s="125"/>
+      <c r="U1" s="125"/>
+      <c r="V1" s="125"/>
+      <c r="W1" s="125"/>
       <c r="X1" s="6"/>
       <c r="Y1" s="6"/>
       <c r="Z1" s="6"/>
@@ -2993,7 +3030,7 @@
       <c r="F2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="129" t="s">
+      <c r="G2" s="127" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="15" t="s">
@@ -3184,7 +3221,7 @@
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
-      <c r="G3" s="130"/>
+      <c r="G3" s="128"/>
       <c r="H3" s="24">
         <v>45951</v>
       </c>
@@ -3367,7 +3404,7 @@
       </c>
     </row>
     <row r="4" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="131" t="s">
+      <c r="A4" s="129" t="s">
         <v>71</v>
       </c>
       <c r="B4" s="77" t="s">
@@ -3452,7 +3489,7 @@
       <c r="BO4" s="55"/>
     </row>
     <row r="5" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A5" s="132"/>
+      <c r="A5" s="130"/>
       <c r="B5" s="77" t="s">
         <v>73</v>
       </c>
@@ -3535,7 +3572,7 @@
       <c r="BO5" s="60"/>
     </row>
     <row r="6" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A6" s="132"/>
+      <c r="A6" s="130"/>
       <c r="B6" s="77" t="s">
         <v>74</v>
       </c>
@@ -3618,7 +3655,7 @@
       <c r="BO6" s="60"/>
     </row>
     <row r="7" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A7" s="132"/>
+      <c r="A7" s="130"/>
       <c r="B7" s="78" t="s">
         <v>75</v>
       </c>
@@ -3701,7 +3738,7 @@
       <c r="BO7" s="60"/>
     </row>
     <row r="8" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A8" s="132"/>
+      <c r="A8" s="130"/>
       <c r="B8" s="79" t="s">
         <v>76</v>
       </c>
@@ -3784,7 +3821,7 @@
       <c r="BO8" s="60"/>
     </row>
     <row r="9" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A9" s="132"/>
+      <c r="A9" s="130"/>
       <c r="B9" s="77" t="s">
         <v>77</v>
       </c>
@@ -3867,7 +3904,7 @@
       <c r="BO9" s="60"/>
     </row>
     <row r="10" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A10" s="132"/>
+      <c r="A10" s="130"/>
       <c r="B10" s="78" t="s">
         <v>78</v>
       </c>
@@ -3950,7 +3987,7 @@
       <c r="BO10" s="60"/>
     </row>
     <row r="11" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A11" s="133"/>
+      <c r="A11" s="131"/>
       <c r="B11" s="80" t="s">
         <v>79</v>
       </c>
@@ -4033,7 +4070,7 @@
       <c r="BO11" s="60"/>
     </row>
     <row r="12" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A12" s="120" t="s">
+      <c r="A12" s="118" t="s">
         <v>80</v>
       </c>
       <c r="B12" s="81" t="s">
@@ -4118,7 +4155,7 @@
       <c r="BO12" s="60"/>
     </row>
     <row r="13" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A13" s="121"/>
+      <c r="A13" s="119"/>
       <c r="B13" s="82" t="s">
         <v>82</v>
       </c>
@@ -4201,7 +4238,7 @@
       <c r="BO13" s="60"/>
     </row>
     <row r="14" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A14" s="121"/>
+      <c r="A14" s="119"/>
       <c r="B14" s="83" t="s">
         <v>83</v>
       </c>
@@ -4284,7 +4321,7 @@
       <c r="BO14" s="60"/>
     </row>
     <row r="15" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A15" s="121"/>
+      <c r="A15" s="119"/>
       <c r="B15" s="81" t="s">
         <v>84</v>
       </c>
@@ -4367,7 +4404,7 @@
       <c r="BO15" s="38"/>
     </row>
     <row r="16" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A16" s="121"/>
+      <c r="A16" s="119"/>
       <c r="B16" s="84" t="s">
         <v>123</v>
       </c>
@@ -4450,78 +4487,78 @@
       <c r="BO16" s="53"/>
     </row>
     <row r="17" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A17" s="121"/>
-      <c r="B17" s="136" t="s">
+      <c r="A17" s="119"/>
+      <c r="B17" s="134" t="s">
         <v>118</v>
       </c>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="136"/>
-      <c r="F17" s="136"/>
-      <c r="G17" s="137"/>
-      <c r="H17" s="123"/>
-      <c r="I17" s="124"/>
-      <c r="J17" s="124"/>
-      <c r="K17" s="124"/>
-      <c r="L17" s="124"/>
-      <c r="M17" s="124"/>
-      <c r="N17" s="124"/>
-      <c r="O17" s="124"/>
-      <c r="P17" s="124"/>
-      <c r="Q17" s="124"/>
-      <c r="R17" s="124"/>
-      <c r="S17" s="124"/>
-      <c r="T17" s="124"/>
-      <c r="U17" s="124"/>
-      <c r="V17" s="124"/>
-      <c r="W17" s="124"/>
-      <c r="X17" s="124"/>
-      <c r="Y17" s="124"/>
-      <c r="Z17" s="124"/>
-      <c r="AA17" s="124"/>
-      <c r="AB17" s="124"/>
-      <c r="AC17" s="124"/>
-      <c r="AD17" s="124"/>
-      <c r="AE17" s="124"/>
-      <c r="AF17" s="124"/>
-      <c r="AG17" s="124"/>
-      <c r="AH17" s="124"/>
-      <c r="AI17" s="124"/>
-      <c r="AJ17" s="124"/>
-      <c r="AK17" s="124"/>
-      <c r="AL17" s="124"/>
-      <c r="AM17" s="124"/>
-      <c r="AN17" s="124"/>
-      <c r="AO17" s="124"/>
-      <c r="AP17" s="124"/>
-      <c r="AQ17" s="124"/>
-      <c r="AR17" s="124"/>
-      <c r="AS17" s="124"/>
-      <c r="AT17" s="124"/>
-      <c r="AU17" s="124"/>
-      <c r="AV17" s="124"/>
-      <c r="AW17" s="124"/>
-      <c r="AX17" s="124"/>
-      <c r="AY17" s="124"/>
-      <c r="AZ17" s="124"/>
-      <c r="BA17" s="124"/>
-      <c r="BB17" s="124"/>
-      <c r="BC17" s="124"/>
-      <c r="BD17" s="124"/>
-      <c r="BE17" s="124"/>
-      <c r="BF17" s="124"/>
-      <c r="BG17" s="124"/>
-      <c r="BH17" s="124"/>
-      <c r="BI17" s="124"/>
-      <c r="BJ17" s="124"/>
-      <c r="BK17" s="124"/>
-      <c r="BL17" s="124"/>
-      <c r="BM17" s="124"/>
-      <c r="BN17" s="124"/>
-      <c r="BO17" s="125"/>
+      <c r="C17" s="134"/>
+      <c r="D17" s="134"/>
+      <c r="E17" s="134"/>
+      <c r="F17" s="134"/>
+      <c r="G17" s="135"/>
+      <c r="H17" s="121"/>
+      <c r="I17" s="122"/>
+      <c r="J17" s="122"/>
+      <c r="K17" s="122"/>
+      <c r="L17" s="122"/>
+      <c r="M17" s="122"/>
+      <c r="N17" s="122"/>
+      <c r="O17" s="122"/>
+      <c r="P17" s="122"/>
+      <c r="Q17" s="122"/>
+      <c r="R17" s="122"/>
+      <c r="S17" s="122"/>
+      <c r="T17" s="122"/>
+      <c r="U17" s="122"/>
+      <c r="V17" s="122"/>
+      <c r="W17" s="122"/>
+      <c r="X17" s="122"/>
+      <c r="Y17" s="122"/>
+      <c r="Z17" s="122"/>
+      <c r="AA17" s="122"/>
+      <c r="AB17" s="122"/>
+      <c r="AC17" s="122"/>
+      <c r="AD17" s="122"/>
+      <c r="AE17" s="122"/>
+      <c r="AF17" s="122"/>
+      <c r="AG17" s="122"/>
+      <c r="AH17" s="122"/>
+      <c r="AI17" s="122"/>
+      <c r="AJ17" s="122"/>
+      <c r="AK17" s="122"/>
+      <c r="AL17" s="122"/>
+      <c r="AM17" s="122"/>
+      <c r="AN17" s="122"/>
+      <c r="AO17" s="122"/>
+      <c r="AP17" s="122"/>
+      <c r="AQ17" s="122"/>
+      <c r="AR17" s="122"/>
+      <c r="AS17" s="122"/>
+      <c r="AT17" s="122"/>
+      <c r="AU17" s="122"/>
+      <c r="AV17" s="122"/>
+      <c r="AW17" s="122"/>
+      <c r="AX17" s="122"/>
+      <c r="AY17" s="122"/>
+      <c r="AZ17" s="122"/>
+      <c r="BA17" s="122"/>
+      <c r="BB17" s="122"/>
+      <c r="BC17" s="122"/>
+      <c r="BD17" s="122"/>
+      <c r="BE17" s="122"/>
+      <c r="BF17" s="122"/>
+      <c r="BG17" s="122"/>
+      <c r="BH17" s="122"/>
+      <c r="BI17" s="122"/>
+      <c r="BJ17" s="122"/>
+      <c r="BK17" s="122"/>
+      <c r="BL17" s="122"/>
+      <c r="BM17" s="122"/>
+      <c r="BN17" s="122"/>
+      <c r="BO17" s="123"/>
     </row>
     <row r="18" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A18" s="121"/>
+      <c r="A18" s="119"/>
       <c r="B18" s="85" t="s">
         <v>124</v>
       </c>
@@ -4604,7 +4641,7 @@
       <c r="BO18" s="55"/>
     </row>
     <row r="19" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A19" s="121"/>
+      <c r="A19" s="119"/>
       <c r="B19" s="86" t="s">
         <v>87</v>
       </c>
@@ -4687,7 +4724,7 @@
       <c r="BO19" s="60"/>
     </row>
     <row r="20" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A20" s="121"/>
+      <c r="A20" s="119"/>
       <c r="B20" s="87" t="s">
         <v>113</v>
       </c>
@@ -4770,78 +4807,78 @@
       <c r="BO20" s="60"/>
     </row>
     <row r="21" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A21" s="121"/>
-      <c r="B21" s="134" t="s">
+      <c r="A21" s="119"/>
+      <c r="B21" s="132" t="s">
         <v>115</v>
       </c>
-      <c r="C21" s="134"/>
-      <c r="D21" s="134"/>
-      <c r="E21" s="134"/>
-      <c r="F21" s="134"/>
-      <c r="G21" s="134"/>
-      <c r="H21" s="123"/>
-      <c r="I21" s="124"/>
-      <c r="J21" s="124"/>
-      <c r="K21" s="124"/>
-      <c r="L21" s="124"/>
-      <c r="M21" s="124"/>
-      <c r="N21" s="124"/>
-      <c r="O21" s="124"/>
-      <c r="P21" s="124"/>
-      <c r="Q21" s="124"/>
-      <c r="R21" s="124"/>
-      <c r="S21" s="124"/>
-      <c r="T21" s="124"/>
-      <c r="U21" s="124"/>
-      <c r="V21" s="124"/>
-      <c r="W21" s="124"/>
-      <c r="X21" s="124"/>
-      <c r="Y21" s="124"/>
-      <c r="Z21" s="124"/>
-      <c r="AA21" s="124"/>
-      <c r="AB21" s="124"/>
-      <c r="AC21" s="124"/>
-      <c r="AD21" s="124"/>
-      <c r="AE21" s="124"/>
-      <c r="AF21" s="124"/>
-      <c r="AG21" s="124"/>
-      <c r="AH21" s="124"/>
-      <c r="AI21" s="124"/>
-      <c r="AJ21" s="124"/>
-      <c r="AK21" s="124"/>
-      <c r="AL21" s="124"/>
-      <c r="AM21" s="124"/>
-      <c r="AN21" s="124"/>
-      <c r="AO21" s="124"/>
-      <c r="AP21" s="124"/>
-      <c r="AQ21" s="124"/>
-      <c r="AR21" s="124"/>
-      <c r="AS21" s="124"/>
-      <c r="AT21" s="124"/>
-      <c r="AU21" s="124"/>
-      <c r="AV21" s="124"/>
-      <c r="AW21" s="124"/>
-      <c r="AX21" s="124"/>
-      <c r="AY21" s="124"/>
-      <c r="AZ21" s="124"/>
-      <c r="BA21" s="124"/>
-      <c r="BB21" s="124"/>
-      <c r="BC21" s="124"/>
-      <c r="BD21" s="124"/>
-      <c r="BE21" s="124"/>
-      <c r="BF21" s="124"/>
-      <c r="BG21" s="124"/>
-      <c r="BH21" s="124"/>
-      <c r="BI21" s="124"/>
-      <c r="BJ21" s="124"/>
-      <c r="BK21" s="124"/>
-      <c r="BL21" s="124"/>
-      <c r="BM21" s="124"/>
-      <c r="BN21" s="124"/>
-      <c r="BO21" s="125"/>
+      <c r="C21" s="132"/>
+      <c r="D21" s="132"/>
+      <c r="E21" s="132"/>
+      <c r="F21" s="132"/>
+      <c r="G21" s="132"/>
+      <c r="H21" s="121"/>
+      <c r="I21" s="122"/>
+      <c r="J21" s="122"/>
+      <c r="K21" s="122"/>
+      <c r="L21" s="122"/>
+      <c r="M21" s="122"/>
+      <c r="N21" s="122"/>
+      <c r="O21" s="122"/>
+      <c r="P21" s="122"/>
+      <c r="Q21" s="122"/>
+      <c r="R21" s="122"/>
+      <c r="S21" s="122"/>
+      <c r="T21" s="122"/>
+      <c r="U21" s="122"/>
+      <c r="V21" s="122"/>
+      <c r="W21" s="122"/>
+      <c r="X21" s="122"/>
+      <c r="Y21" s="122"/>
+      <c r="Z21" s="122"/>
+      <c r="AA21" s="122"/>
+      <c r="AB21" s="122"/>
+      <c r="AC21" s="122"/>
+      <c r="AD21" s="122"/>
+      <c r="AE21" s="122"/>
+      <c r="AF21" s="122"/>
+      <c r="AG21" s="122"/>
+      <c r="AH21" s="122"/>
+      <c r="AI21" s="122"/>
+      <c r="AJ21" s="122"/>
+      <c r="AK21" s="122"/>
+      <c r="AL21" s="122"/>
+      <c r="AM21" s="122"/>
+      <c r="AN21" s="122"/>
+      <c r="AO21" s="122"/>
+      <c r="AP21" s="122"/>
+      <c r="AQ21" s="122"/>
+      <c r="AR21" s="122"/>
+      <c r="AS21" s="122"/>
+      <c r="AT21" s="122"/>
+      <c r="AU21" s="122"/>
+      <c r="AV21" s="122"/>
+      <c r="AW21" s="122"/>
+      <c r="AX21" s="122"/>
+      <c r="AY21" s="122"/>
+      <c r="AZ21" s="122"/>
+      <c r="BA21" s="122"/>
+      <c r="BB21" s="122"/>
+      <c r="BC21" s="122"/>
+      <c r="BD21" s="122"/>
+      <c r="BE21" s="122"/>
+      <c r="BF21" s="122"/>
+      <c r="BG21" s="122"/>
+      <c r="BH21" s="122"/>
+      <c r="BI21" s="122"/>
+      <c r="BJ21" s="122"/>
+      <c r="BK21" s="122"/>
+      <c r="BL21" s="122"/>
+      <c r="BM21" s="122"/>
+      <c r="BN21" s="122"/>
+      <c r="BO21" s="123"/>
     </row>
     <row r="22" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A22" s="121"/>
+      <c r="A22" s="119"/>
       <c r="B22" s="88" t="s">
         <v>125</v>
       </c>
@@ -4924,7 +4961,7 @@
       <c r="BO22" s="60"/>
     </row>
     <row r="23" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A23" s="121"/>
+      <c r="A23" s="119"/>
       <c r="B23" s="89" t="s">
         <v>85</v>
       </c>
@@ -5007,7 +5044,7 @@
       <c r="BO23" s="60"/>
     </row>
     <row r="24" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A24" s="121"/>
+      <c r="A24" s="119"/>
       <c r="B24" s="90" t="s">
         <v>151</v>
       </c>
@@ -5090,7 +5127,7 @@
       <c r="BO24" s="60"/>
     </row>
     <row r="25" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A25" s="121"/>
+      <c r="A25" s="119"/>
       <c r="B25" s="90" t="s">
         <v>147</v>
       </c>
@@ -5173,7 +5210,7 @@
       <c r="BO25" s="60"/>
     </row>
     <row r="26" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A26" s="121"/>
+      <c r="A26" s="119"/>
       <c r="B26" s="91" t="s">
         <v>139</v>
       </c>
@@ -5254,7 +5291,7 @@
       <c r="BO26" s="60"/>
     </row>
     <row r="27" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A27" s="121"/>
+      <c r="A27" s="119"/>
       <c r="B27" s="92" t="s">
         <v>140</v>
       </c>
@@ -5335,7 +5372,7 @@
       <c r="BO27" s="60"/>
     </row>
     <row r="28" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A28" s="121"/>
+      <c r="A28" s="119"/>
       <c r="B28" s="92" t="s">
         <v>152</v>
       </c>
@@ -5416,7 +5453,7 @@
       <c r="BO28" s="60"/>
     </row>
     <row r="29" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A29" s="121"/>
+      <c r="A29" s="119"/>
       <c r="B29" s="93" t="s">
         <v>104</v>
       </c>
@@ -5499,7 +5536,7 @@
       <c r="BO29" s="28"/>
     </row>
     <row r="30" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A30" s="121"/>
+      <c r="A30" s="119"/>
       <c r="B30" s="87" t="s">
         <v>111</v>
       </c>
@@ -5582,7 +5619,7 @@
       <c r="BO30" s="60"/>
     </row>
     <row r="31" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A31" s="121"/>
+      <c r="A31" s="119"/>
       <c r="B31" s="88" t="s">
         <v>126</v>
       </c>
@@ -5665,7 +5702,7 @@
       <c r="BO31" s="60"/>
     </row>
     <row r="32" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A32" s="121"/>
+      <c r="A32" s="119"/>
       <c r="B32" s="87" t="s">
         <v>112</v>
       </c>
@@ -5748,7 +5785,7 @@
       <c r="BO32" s="60"/>
     </row>
     <row r="33" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A33" s="121"/>
+      <c r="A33" s="119"/>
       <c r="B33" s="100" t="s">
         <v>143</v>
       </c>
@@ -5831,7 +5868,7 @@
       <c r="BO33" s="60"/>
     </row>
     <row r="34" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A34" s="121"/>
+      <c r="A34" s="119"/>
       <c r="B34" s="100" t="s">
         <v>146</v>
       </c>
@@ -5914,8 +5951,8 @@
       <c r="BO34" s="60"/>
     </row>
     <row r="35" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A35" s="121"/>
-      <c r="B35" s="140" t="s">
+      <c r="A35" s="119"/>
+      <c r="B35" s="117" t="s">
         <v>121</v>
       </c>
       <c r="C35" s="39" t="str">
@@ -5997,7 +6034,7 @@
       <c r="BO35" s="60"/>
     </row>
     <row r="36" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A36" s="121"/>
+      <c r="A36" s="119"/>
       <c r="B36" s="72" t="s">
         <v>122</v>
       </c>
@@ -6080,7 +6117,7 @@
       <c r="BO36" s="60"/>
     </row>
     <row r="37" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A37" s="121"/>
+      <c r="A37" s="119"/>
       <c r="B37" s="72" t="s">
         <v>133</v>
       </c>
@@ -6163,7 +6200,7 @@
       <c r="BO37" s="60"/>
     </row>
     <row r="38" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A38" s="121"/>
+      <c r="A38" s="119"/>
       <c r="B38" s="88" t="s">
         <v>142</v>
       </c>
@@ -6246,78 +6283,78 @@
       <c r="BO38" s="60"/>
     </row>
     <row r="39" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A39" s="121"/>
-      <c r="B39" s="135" t="s">
+      <c r="A39" s="119"/>
+      <c r="B39" s="133" t="s">
         <v>114</v>
       </c>
-      <c r="C39" s="135"/>
-      <c r="D39" s="135"/>
-      <c r="E39" s="135"/>
-      <c r="F39" s="135"/>
-      <c r="G39" s="135"/>
-      <c r="H39" s="123"/>
-      <c r="I39" s="124"/>
-      <c r="J39" s="124"/>
-      <c r="K39" s="124"/>
-      <c r="L39" s="124"/>
-      <c r="M39" s="124"/>
-      <c r="N39" s="124"/>
-      <c r="O39" s="124"/>
-      <c r="P39" s="124"/>
-      <c r="Q39" s="124"/>
-      <c r="R39" s="124"/>
-      <c r="S39" s="124"/>
-      <c r="T39" s="124"/>
-      <c r="U39" s="124"/>
-      <c r="V39" s="124"/>
-      <c r="W39" s="124"/>
-      <c r="X39" s="124"/>
-      <c r="Y39" s="124"/>
-      <c r="Z39" s="124"/>
-      <c r="AA39" s="124"/>
-      <c r="AB39" s="124"/>
-      <c r="AC39" s="124"/>
-      <c r="AD39" s="124"/>
-      <c r="AE39" s="124"/>
-      <c r="AF39" s="124"/>
-      <c r="AG39" s="124"/>
-      <c r="AH39" s="124"/>
-      <c r="AI39" s="124"/>
-      <c r="AJ39" s="124"/>
-      <c r="AK39" s="124"/>
-      <c r="AL39" s="124"/>
-      <c r="AM39" s="124"/>
-      <c r="AN39" s="124"/>
-      <c r="AO39" s="124"/>
-      <c r="AP39" s="124"/>
-      <c r="AQ39" s="124"/>
-      <c r="AR39" s="124"/>
-      <c r="AS39" s="124"/>
-      <c r="AT39" s="124"/>
-      <c r="AU39" s="124"/>
-      <c r="AV39" s="124"/>
-      <c r="AW39" s="124"/>
-      <c r="AX39" s="124"/>
-      <c r="AY39" s="124"/>
-      <c r="AZ39" s="124"/>
-      <c r="BA39" s="124"/>
-      <c r="BB39" s="124"/>
-      <c r="BC39" s="124"/>
-      <c r="BD39" s="124"/>
-      <c r="BE39" s="124"/>
-      <c r="BF39" s="124"/>
-      <c r="BG39" s="124"/>
-      <c r="BH39" s="124"/>
-      <c r="BI39" s="124"/>
-      <c r="BJ39" s="124"/>
-      <c r="BK39" s="124"/>
-      <c r="BL39" s="124"/>
-      <c r="BM39" s="124"/>
-      <c r="BN39" s="124"/>
-      <c r="BO39" s="125"/>
+      <c r="C39" s="133"/>
+      <c r="D39" s="133"/>
+      <c r="E39" s="133"/>
+      <c r="F39" s="133"/>
+      <c r="G39" s="133"/>
+      <c r="H39" s="121"/>
+      <c r="I39" s="122"/>
+      <c r="J39" s="122"/>
+      <c r="K39" s="122"/>
+      <c r="L39" s="122"/>
+      <c r="M39" s="122"/>
+      <c r="N39" s="122"/>
+      <c r="O39" s="122"/>
+      <c r="P39" s="122"/>
+      <c r="Q39" s="122"/>
+      <c r="R39" s="122"/>
+      <c r="S39" s="122"/>
+      <c r="T39" s="122"/>
+      <c r="U39" s="122"/>
+      <c r="V39" s="122"/>
+      <c r="W39" s="122"/>
+      <c r="X39" s="122"/>
+      <c r="Y39" s="122"/>
+      <c r="Z39" s="122"/>
+      <c r="AA39" s="122"/>
+      <c r="AB39" s="122"/>
+      <c r="AC39" s="122"/>
+      <c r="AD39" s="122"/>
+      <c r="AE39" s="122"/>
+      <c r="AF39" s="122"/>
+      <c r="AG39" s="122"/>
+      <c r="AH39" s="122"/>
+      <c r="AI39" s="122"/>
+      <c r="AJ39" s="122"/>
+      <c r="AK39" s="122"/>
+      <c r="AL39" s="122"/>
+      <c r="AM39" s="122"/>
+      <c r="AN39" s="122"/>
+      <c r="AO39" s="122"/>
+      <c r="AP39" s="122"/>
+      <c r="AQ39" s="122"/>
+      <c r="AR39" s="122"/>
+      <c r="AS39" s="122"/>
+      <c r="AT39" s="122"/>
+      <c r="AU39" s="122"/>
+      <c r="AV39" s="122"/>
+      <c r="AW39" s="122"/>
+      <c r="AX39" s="122"/>
+      <c r="AY39" s="122"/>
+      <c r="AZ39" s="122"/>
+      <c r="BA39" s="122"/>
+      <c r="BB39" s="122"/>
+      <c r="BC39" s="122"/>
+      <c r="BD39" s="122"/>
+      <c r="BE39" s="122"/>
+      <c r="BF39" s="122"/>
+      <c r="BG39" s="122"/>
+      <c r="BH39" s="122"/>
+      <c r="BI39" s="122"/>
+      <c r="BJ39" s="122"/>
+      <c r="BK39" s="122"/>
+      <c r="BL39" s="122"/>
+      <c r="BM39" s="122"/>
+      <c r="BN39" s="122"/>
+      <c r="BO39" s="123"/>
     </row>
     <row r="40" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A40" s="121"/>
+      <c r="A40" s="119"/>
       <c r="B40" s="87" t="s">
         <v>110</v>
       </c>
@@ -6400,7 +6437,7 @@
       <c r="BO40" s="60"/>
     </row>
     <row r="41" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A41" s="121"/>
+      <c r="A41" s="119"/>
       <c r="B41" s="88" t="s">
         <v>127</v>
       </c>
@@ -6483,7 +6520,7 @@
       <c r="BO41" s="60"/>
     </row>
     <row r="42" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A42" s="121"/>
+      <c r="A42" s="119"/>
       <c r="B42" s="88" t="s">
         <v>134</v>
       </c>
@@ -6566,7 +6603,7 @@
       <c r="BO42" s="60"/>
     </row>
     <row r="43" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A43" s="121"/>
+      <c r="A43" s="119"/>
       <c r="B43" s="93" t="s">
         <v>136</v>
       </c>
@@ -6649,7 +6686,7 @@
       <c r="BO43" s="60"/>
     </row>
     <row r="44" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A44" s="121"/>
+      <c r="A44" s="119"/>
       <c r="B44" s="91" t="s">
         <v>144</v>
       </c>
@@ -6732,7 +6769,7 @@
       <c r="BO44" s="60"/>
     </row>
     <row r="45" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A45" s="121"/>
+      <c r="A45" s="119"/>
       <c r="B45" s="91" t="s">
         <v>138</v>
       </c>
@@ -6815,7 +6852,7 @@
       <c r="BO45" s="60"/>
     </row>
     <row r="46" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A46" s="121"/>
+      <c r="A46" s="119"/>
       <c r="B46" s="92" t="s">
         <v>154</v>
       </c>
@@ -6898,7 +6935,7 @@
       <c r="BO46" s="60"/>
     </row>
     <row r="47" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A47" s="121"/>
+      <c r="A47" s="119"/>
       <c r="B47" s="91" t="s">
         <v>148</v>
       </c>
@@ -6972,7 +7009,7 @@
       <c r="BO47" s="60"/>
     </row>
     <row r="48" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A48" s="121"/>
+      <c r="A48" s="119"/>
       <c r="B48" s="92" t="s">
         <v>141</v>
       </c>
@@ -7049,7 +7086,7 @@
       <c r="BO48" s="60"/>
     </row>
     <row r="49" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A49" s="121"/>
+      <c r="A49" s="119"/>
       <c r="B49" s="92" t="s">
         <v>149</v>
       </c>
@@ -7126,7 +7163,7 @@
       <c r="BO49" s="60"/>
     </row>
     <row r="50" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A50" s="121"/>
+      <c r="A50" s="119"/>
       <c r="B50" s="92" t="s">
         <v>150</v>
       </c>
@@ -7203,87 +7240,87 @@
       <c r="BO50" s="29"/>
     </row>
     <row r="51" spans="1:67" ht="15.75" thickBot="1">
-      <c r="A51" s="121"/>
-      <c r="B51" s="135" t="s">
+      <c r="A51" s="119"/>
+      <c r="B51" s="133" t="s">
         <v>109</v>
       </c>
-      <c r="C51" s="135"/>
-      <c r="D51" s="135"/>
-      <c r="E51" s="135"/>
-      <c r="F51" s="135"/>
-      <c r="G51" s="135"/>
-      <c r="H51" s="123"/>
-      <c r="I51" s="124"/>
-      <c r="J51" s="124"/>
-      <c r="K51" s="124"/>
-      <c r="L51" s="124"/>
-      <c r="M51" s="124"/>
-      <c r="N51" s="124"/>
-      <c r="O51" s="124"/>
-      <c r="P51" s="124"/>
-      <c r="Q51" s="124"/>
-      <c r="R51" s="124"/>
-      <c r="S51" s="124"/>
-      <c r="T51" s="124"/>
-      <c r="U51" s="124"/>
-      <c r="V51" s="124"/>
-      <c r="W51" s="124"/>
-      <c r="X51" s="124"/>
-      <c r="Y51" s="124"/>
-      <c r="Z51" s="124"/>
-      <c r="AA51" s="124"/>
-      <c r="AB51" s="124"/>
-      <c r="AC51" s="124"/>
-      <c r="AD51" s="124"/>
-      <c r="AE51" s="124"/>
-      <c r="AF51" s="124"/>
-      <c r="AG51" s="124"/>
-      <c r="AH51" s="124"/>
-      <c r="AI51" s="124"/>
-      <c r="AJ51" s="124"/>
-      <c r="AK51" s="124"/>
-      <c r="AL51" s="124"/>
-      <c r="AM51" s="124"/>
-      <c r="AN51" s="124"/>
-      <c r="AO51" s="124"/>
-      <c r="AP51" s="124"/>
-      <c r="AQ51" s="124"/>
-      <c r="AR51" s="124"/>
-      <c r="AS51" s="124"/>
-      <c r="AT51" s="124"/>
-      <c r="AU51" s="124"/>
-      <c r="AV51" s="124"/>
-      <c r="AW51" s="124"/>
-      <c r="AX51" s="124"/>
-      <c r="AY51" s="124"/>
-      <c r="AZ51" s="124"/>
-      <c r="BA51" s="124"/>
-      <c r="BB51" s="124"/>
-      <c r="BC51" s="124"/>
-      <c r="BD51" s="124"/>
-      <c r="BE51" s="124"/>
-      <c r="BF51" s="124"/>
-      <c r="BG51" s="124"/>
-      <c r="BH51" s="124"/>
-      <c r="BI51" s="124"/>
-      <c r="BJ51" s="124"/>
-      <c r="BK51" s="124"/>
-      <c r="BL51" s="124"/>
-      <c r="BM51" s="124"/>
-      <c r="BN51" s="124"/>
-      <c r="BO51" s="125"/>
+      <c r="C51" s="133"/>
+      <c r="D51" s="133"/>
+      <c r="E51" s="133"/>
+      <c r="F51" s="133"/>
+      <c r="G51" s="133"/>
+      <c r="H51" s="121"/>
+      <c r="I51" s="122"/>
+      <c r="J51" s="122"/>
+      <c r="K51" s="122"/>
+      <c r="L51" s="122"/>
+      <c r="M51" s="122"/>
+      <c r="N51" s="122"/>
+      <c r="O51" s="122"/>
+      <c r="P51" s="122"/>
+      <c r="Q51" s="122"/>
+      <c r="R51" s="122"/>
+      <c r="S51" s="122"/>
+      <c r="T51" s="122"/>
+      <c r="U51" s="122"/>
+      <c r="V51" s="122"/>
+      <c r="W51" s="122"/>
+      <c r="X51" s="122"/>
+      <c r="Y51" s="122"/>
+      <c r="Z51" s="122"/>
+      <c r="AA51" s="122"/>
+      <c r="AB51" s="122"/>
+      <c r="AC51" s="122"/>
+      <c r="AD51" s="122"/>
+      <c r="AE51" s="122"/>
+      <c r="AF51" s="122"/>
+      <c r="AG51" s="122"/>
+      <c r="AH51" s="122"/>
+      <c r="AI51" s="122"/>
+      <c r="AJ51" s="122"/>
+      <c r="AK51" s="122"/>
+      <c r="AL51" s="122"/>
+      <c r="AM51" s="122"/>
+      <c r="AN51" s="122"/>
+      <c r="AO51" s="122"/>
+      <c r="AP51" s="122"/>
+      <c r="AQ51" s="122"/>
+      <c r="AR51" s="122"/>
+      <c r="AS51" s="122"/>
+      <c r="AT51" s="122"/>
+      <c r="AU51" s="122"/>
+      <c r="AV51" s="122"/>
+      <c r="AW51" s="122"/>
+      <c r="AX51" s="122"/>
+      <c r="AY51" s="122"/>
+      <c r="AZ51" s="122"/>
+      <c r="BA51" s="122"/>
+      <c r="BB51" s="122"/>
+      <c r="BC51" s="122"/>
+      <c r="BD51" s="122"/>
+      <c r="BE51" s="122"/>
+      <c r="BF51" s="122"/>
+      <c r="BG51" s="122"/>
+      <c r="BH51" s="122"/>
+      <c r="BI51" s="122"/>
+      <c r="BJ51" s="122"/>
+      <c r="BK51" s="122"/>
+      <c r="BL51" s="122"/>
+      <c r="BM51" s="122"/>
+      <c r="BN51" s="122"/>
+      <c r="BO51" s="123"/>
     </row>
     <row r="52" spans="1:67" ht="15.75" thickBot="1">
-      <c r="A52" s="121"/>
+      <c r="A52" s="119"/>
       <c r="B52" s="101" t="s">
         <v>128</v>
       </c>
       <c r="C52" s="44" t="str">
-        <f t="shared" ref="C52:C69" ca="1" si="16">IF(F52=E52, IF(TODAY()&gt;F52, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F52) - E52) / (F52 - E52) * 100, 1) &amp; "%")</f>
+        <f t="shared" ref="C52:C70" ca="1" si="16">IF(F52=E52, IF(TODAY()&gt;F52, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F52) - E52) / (F52 - E52) * 100, 1) &amp; "%")</f>
         <v>100%</v>
       </c>
-      <c r="D52" s="106" t="str">
-        <f t="shared" ref="D52:D69" si="17">IF(AND(F52&lt;&gt;"", E52&lt;&gt;""), F52 - E52 + 1 &amp; "일", "")</f>
+      <c r="D52" s="104" t="str">
+        <f t="shared" ref="D52:D70" si="17">IF(AND(F52&lt;&gt;"", E52&lt;&gt;""), F52 - E52 + 1 &amp; "일", "")</f>
         <v>7일</v>
       </c>
       <c r="E52" s="45">
@@ -7357,28 +7394,28 @@
       <c r="BO52" s="60"/>
     </row>
     <row r="53" spans="1:67" ht="15.75" thickBot="1">
-      <c r="A53" s="138"/>
-      <c r="B53" s="113" t="s">
+      <c r="A53" s="136"/>
+      <c r="B53" s="110" t="s">
         <v>86</v>
       </c>
-      <c r="C53" s="115" t="str">
+      <c r="C53" s="112" t="str">
         <f t="shared" ref="C53" ca="1" si="18">IF(F53=E53, IF(TODAY()&gt;F53, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F53) - E53) / (F53 - E53) * 100, 1) &amp; "%")</f>
         <v>100%</v>
       </c>
-      <c r="D53" s="116" t="str">
+      <c r="D53" s="113" t="str">
         <f t="shared" ref="D53:D54" si="19">IF(AND(F53&lt;&gt;"", E53&lt;&gt;""), F53 - E53 + 1 &amp; "일", "")</f>
         <v>9일</v>
       </c>
-      <c r="E53" s="117">
+      <c r="E53" s="114">
         <v>45971</v>
       </c>
-      <c r="F53" s="117">
+      <c r="F53" s="114">
         <v>45979</v>
       </c>
-      <c r="G53" s="119" t="s">
+      <c r="G53" s="116" t="s">
         <v>103</v>
       </c>
-      <c r="H53" s="105"/>
+      <c r="H53" s="103"/>
       <c r="I53" s="60"/>
       <c r="J53" s="60"/>
       <c r="K53" s="60"/>
@@ -7440,28 +7477,28 @@
       <c r="BO53" s="60"/>
     </row>
     <row r="54" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A54" s="138"/>
-      <c r="B54" s="114" t="s">
+      <c r="A54" s="136"/>
+      <c r="B54" s="111" t="s">
         <v>145</v>
       </c>
-      <c r="C54" s="115" t="str">
+      <c r="C54" s="112" t="str">
         <f t="shared" ca="1" si="16"/>
         <v>100%</v>
       </c>
-      <c r="D54" s="116" t="str">
+      <c r="D54" s="113" t="str">
         <f t="shared" si="19"/>
         <v>2일</v>
       </c>
-      <c r="E54" s="117">
+      <c r="E54" s="114">
         <v>45979</v>
       </c>
-      <c r="F54" s="117">
+      <c r="F54" s="114">
         <v>45980</v>
       </c>
-      <c r="G54" s="118" t="s">
+      <c r="G54" s="115" t="s">
         <v>117</v>
       </c>
-      <c r="H54" s="105"/>
+      <c r="H54" s="103"/>
       <c r="I54" s="60"/>
       <c r="J54" s="60"/>
       <c r="K54" s="60"/>
@@ -7523,25 +7560,25 @@
       <c r="BO54" s="60"/>
     </row>
     <row r="55" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A55" s="121"/>
-      <c r="B55" s="107" t="s">
+      <c r="A55" s="119"/>
+      <c r="B55" s="105" t="s">
         <v>106</v>
       </c>
-      <c r="C55" s="108" t="str">
+      <c r="C55" s="106" t="str">
         <f t="shared" ca="1" si="16"/>
         <v>0%</v>
       </c>
-      <c r="D55" s="109" t="str">
+      <c r="D55" s="107" t="str">
         <f t="shared" si="17"/>
         <v>19일</v>
       </c>
-      <c r="E55" s="110">
+      <c r="E55" s="108">
         <v>45980</v>
       </c>
-      <c r="F55" s="110">
+      <c r="F55" s="108">
         <v>45998</v>
       </c>
-      <c r="G55" s="111" t="s">
+      <c r="G55" s="109" t="s">
         <v>135</v>
       </c>
       <c r="H55" s="59"/>
@@ -7606,25 +7643,25 @@
       <c r="BO55" s="60"/>
     </row>
     <row r="56" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A56" s="121"/>
-      <c r="B56" s="103" t="s">
-        <v>129</v>
-      </c>
-      <c r="C56" s="112" t="str">
-        <f t="shared" ca="1" si="16"/>
+      <c r="A56" s="119"/>
+      <c r="B56" s="142" t="s">
+        <v>156</v>
+      </c>
+      <c r="C56" s="143" t="str">
+        <f t="shared" ref="C56" ca="1" si="20">IF(F56=E56, IF(TODAY()&gt;F56, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F56) - E56) / (F56 - E56) * 100, 1) &amp; "%")</f>
         <v>0%</v>
       </c>
-      <c r="D56" s="104" t="str">
-        <f t="shared" si="17"/>
-        <v>3일</v>
-      </c>
-      <c r="E56" s="22">
+      <c r="D56" s="144" t="str">
+        <f t="shared" ref="D56" si="21">IF(AND(F56&lt;&gt;"", E56&lt;&gt;""), F56 - E56 + 1 &amp; "일", "")</f>
+        <v>2일</v>
+      </c>
+      <c r="E56" s="75">
         <v>45980</v>
       </c>
-      <c r="F56" s="22">
-        <v>45982</v>
-      </c>
-      <c r="G56" s="69" t="s">
+      <c r="F56" s="75">
+        <v>45981</v>
+      </c>
+      <c r="G56" s="141" t="s">
         <v>117</v>
       </c>
       <c r="H56" s="59"/>
@@ -7689,21 +7726,27 @@
       <c r="BO56" s="60"/>
     </row>
     <row r="57" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A57" s="121"/>
-      <c r="B57" s="94" t="s">
-        <v>130</v>
-      </c>
-      <c r="C57" s="32" t="str">
+      <c r="A57" s="119"/>
+      <c r="B57" s="138" t="s">
+        <v>129</v>
+      </c>
+      <c r="C57" s="139" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>100%</v>
-      </c>
-      <c r="D57" s="21" t="str">
+        <v>0%</v>
+      </c>
+      <c r="D57" s="140" t="str">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="E57" s="22"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="69"/>
+        <v>2일</v>
+      </c>
+      <c r="E57" s="75">
+        <v>45980</v>
+      </c>
+      <c r="F57" s="75">
+        <v>45981</v>
+      </c>
+      <c r="G57" s="141" t="s">
+        <v>117</v>
+      </c>
       <c r="H57" s="59"/>
       <c r="I57" s="60"/>
       <c r="J57" s="60"/>
@@ -7765,12 +7808,12 @@
       <c r="BN57" s="60"/>
       <c r="BO57" s="60"/>
     </row>
-    <row r="58" spans="1:67" ht="15.75" thickBot="1">
-      <c r="A58" s="121"/>
+    <row r="58" spans="1:67" ht="15" customHeight="1" thickBot="1">
+      <c r="A58" s="119"/>
       <c r="B58" s="94" t="s">
-        <v>131</v>
-      </c>
-      <c r="C58" s="20" t="str">
+        <v>130</v>
+      </c>
+      <c r="C58" s="32" t="str">
         <f t="shared" ca="1" si="16"/>
         <v>100%</v>
       </c>
@@ -7843,9 +7886,9 @@
       <c r="BO58" s="60"/>
     </row>
     <row r="59" spans="1:67" ht="15.75" thickBot="1">
-      <c r="A59" s="121"/>
+      <c r="A59" s="119"/>
       <c r="B59" s="94" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C59" s="20" t="str">
         <f t="shared" ca="1" si="16"/>
@@ -7920,27 +7963,21 @@
       <c r="BO59" s="60"/>
     </row>
     <row r="60" spans="1:67" ht="15.75" thickBot="1">
-      <c r="A60" s="121"/>
-      <c r="B60" s="95" t="s">
-        <v>155</v>
+      <c r="A60" s="119"/>
+      <c r="B60" s="94" t="s">
+        <v>132</v>
       </c>
       <c r="C60" s="20" t="str">
-        <f t="shared" ref="C60" ca="1" si="20">IF(F60=E60, IF(TODAY()&gt;F60, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F60) - E60) / (F60 - E60) * 100, 1) &amp; "%")</f>
-        <v>0%</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>100%</v>
       </c>
       <c r="D60" s="21" t="str">
-        <f>IF(AND(F60&lt;&gt;"", E60&lt;&gt;""), F60 - E60 + 1 &amp; "일", "")</f>
-        <v>10일</v>
-      </c>
-      <c r="E60" s="22">
-        <v>45989</v>
-      </c>
-      <c r="F60" s="22">
-        <v>45998</v>
-      </c>
-      <c r="G60" s="68" t="s">
-        <v>117</v>
-      </c>
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="69"/>
       <c r="H60" s="59"/>
       <c r="I60" s="60"/>
       <c r="J60" s="60"/>
@@ -8003,22 +8040,26 @@
       <c r="BO60" s="60"/>
     </row>
     <row r="61" spans="1:67" ht="15.75" thickBot="1">
-      <c r="A61" s="139"/>
+      <c r="A61" s="119"/>
       <c r="B61" s="95" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="C61" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v>100%</v>
+        <f t="shared" ref="C61" ca="1" si="22">IF(F61=E61, IF(TODAY()&gt;F61, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F61) - E61) / (F61 - E61) * 100, 1) &amp; "%")</f>
+        <v>0%</v>
       </c>
       <c r="D61" s="21" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="E61" s="22"/>
-      <c r="F61" s="22"/>
+        <f>IF(AND(F61&lt;&gt;"", E61&lt;&gt;""), F61 - E61 + 1 &amp; "일", "")</f>
+        <v>10일</v>
+      </c>
+      <c r="E61" s="22">
+        <v>45989</v>
+      </c>
+      <c r="F61" s="22">
+        <v>45998</v>
+      </c>
       <c r="G61" s="68" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="H61" s="59"/>
       <c r="I61" s="60"/>
@@ -8079,14 +8120,12 @@
       <c r="BL61" s="60"/>
       <c r="BM61" s="60"/>
       <c r="BN61" s="60"/>
-      <c r="BO61" s="29"/>
+      <c r="BO61" s="60"/>
     </row>
-    <row r="62" spans="1:67" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A62" s="120" t="s">
-        <v>90</v>
-      </c>
-      <c r="B62" s="96" t="s">
-        <v>2</v>
+    <row r="62" spans="1:67" ht="15.75" thickBot="1">
+      <c r="A62" s="137"/>
+      <c r="B62" s="95" t="s">
+        <v>137</v>
       </c>
       <c r="C62" s="20" t="str">
         <f t="shared" ca="1" si="16"/>
@@ -8098,8 +8137,8 @@
       </c>
       <c r="E62" s="22"/>
       <c r="F62" s="22"/>
-      <c r="G62" s="70" t="s">
-        <v>100</v>
+      <c r="G62" s="68" t="s">
+        <v>135</v>
       </c>
       <c r="H62" s="59"/>
       <c r="I62" s="60"/>
@@ -8160,15 +8199,17 @@
       <c r="BL62" s="60"/>
       <c r="BM62" s="60"/>
       <c r="BN62" s="60"/>
-      <c r="BO62" s="60"/>
+      <c r="BO62" s="29"/>
     </row>
-    <row r="63" spans="1:67" ht="15.75" thickBot="1">
-      <c r="A63" s="121"/>
-      <c r="B63" s="97" t="s">
-        <v>88</v>
-      </c>
-      <c r="C63" s="31" t="str">
-        <f t="shared" ref="C63" ca="1" si="21">IF(F63=E63, IF(TODAY()&gt;F63, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F63) - E63) / (F63 - E63) * 100, 1) &amp; "%")</f>
+    <row r="63" spans="1:67" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A63" s="118" t="s">
+        <v>90</v>
+      </c>
+      <c r="B63" s="96" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63" s="20" t="str">
+        <f t="shared" ca="1" si="16"/>
         <v>100%</v>
       </c>
       <c r="D63" s="21" t="str">
@@ -8242,11 +8283,14 @@
       <c r="BO63" s="60"/>
     </row>
     <row r="64" spans="1:67" ht="15.75" thickBot="1">
-      <c r="A64" s="121"/>
+      <c r="A64" s="119"/>
       <c r="B64" s="97" t="s">
-        <v>89</v>
-      </c>
-      <c r="C64" s="67"/>
+        <v>88</v>
+      </c>
+      <c r="C64" s="31" t="str">
+        <f t="shared" ref="C64" ca="1" si="23">IF(F64=E64, IF(TODAY()&gt;F64, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F64) - E64) / (F64 - E64) * 100, 1) &amp; "%")</f>
+        <v>100%</v>
+      </c>
       <c r="D64" s="21" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -8318,26 +8362,19 @@
       <c r="BO64" s="60"/>
     </row>
     <row r="65" spans="1:67" ht="15.75" thickBot="1">
-      <c r="A65" s="121"/>
-      <c r="B65" s="81" t="s">
-        <v>90</v>
-      </c>
-      <c r="C65" s="35" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v>0%</v>
-      </c>
-      <c r="D65" s="71" t="str">
+      <c r="A65" s="119"/>
+      <c r="B65" s="97" t="s">
+        <v>89</v>
+      </c>
+      <c r="C65" s="67"/>
+      <c r="D65" s="21" t="str">
         <f t="shared" si="17"/>
-        <v>12일</v>
-      </c>
-      <c r="E65" s="36">
-        <v>45999</v>
-      </c>
-      <c r="F65" s="36">
-        <v>46010</v>
-      </c>
-      <c r="G65" s="37" t="s">
-        <v>98</v>
+        <v/>
+      </c>
+      <c r="E65" s="22"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="70" t="s">
+        <v>100</v>
       </c>
       <c r="H65" s="59"/>
       <c r="I65" s="60"/>
@@ -8400,26 +8437,26 @@
       <c r="BN65" s="60"/>
       <c r="BO65" s="60"/>
     </row>
-    <row r="66" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A66" s="121"/>
-      <c r="B66" s="98" t="s">
-        <v>91</v>
-      </c>
-      <c r="C66" s="32" t="str">
+    <row r="66" spans="1:67" ht="15.75" thickBot="1">
+      <c r="A66" s="119"/>
+      <c r="B66" s="81" t="s">
+        <v>90</v>
+      </c>
+      <c r="C66" s="35" t="str">
         <f t="shared" ca="1" si="16"/>
         <v>0%</v>
       </c>
-      <c r="D66" s="21" t="str">
+      <c r="D66" s="71" t="str">
         <f t="shared" si="17"/>
-        <v>10일</v>
-      </c>
-      <c r="E66" s="33">
+        <v>12일</v>
+      </c>
+      <c r="E66" s="36">
         <v>45999</v>
       </c>
-      <c r="F66" s="33">
-        <v>46008</v>
-      </c>
-      <c r="G66" s="34" t="s">
+      <c r="F66" s="36">
+        <v>46010</v>
+      </c>
+      <c r="G66" s="37" t="s">
         <v>98</v>
       </c>
       <c r="H66" s="59"/>
@@ -8483,12 +8520,12 @@
       <c r="BN66" s="60"/>
       <c r="BO66" s="60"/>
     </row>
-    <row r="67" spans="1:67" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A67" s="121"/>
-      <c r="B67" s="95" t="s">
-        <v>3</v>
-      </c>
-      <c r="C67" s="20" t="str">
+    <row r="67" spans="1:67" ht="15" customHeight="1" thickBot="1">
+      <c r="A67" s="119"/>
+      <c r="B67" s="98" t="s">
+        <v>91</v>
+      </c>
+      <c r="C67" s="32" t="str">
         <f t="shared" ca="1" si="16"/>
         <v>0%</v>
       </c>
@@ -8496,13 +8533,13 @@
         <f t="shared" si="17"/>
         <v>10일</v>
       </c>
-      <c r="E67" s="22">
+      <c r="E67" s="33">
         <v>45999</v>
       </c>
-      <c r="F67" s="22">
+      <c r="F67" s="33">
         <v>46008</v>
       </c>
-      <c r="G67" s="23" t="s">
+      <c r="G67" s="34" t="s">
         <v>98</v>
       </c>
       <c r="H67" s="59"/>
@@ -8566,10 +8603,10 @@
       <c r="BN67" s="60"/>
       <c r="BO67" s="60"/>
     </row>
-    <row r="68" spans="1:67" ht="15.75" thickBot="1">
-      <c r="A68" s="121"/>
+    <row r="68" spans="1:67" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A68" s="119"/>
       <c r="B68" s="95" t="s">
-        <v>92</v>
+        <v>3</v>
       </c>
       <c r="C68" s="20" t="str">
         <f t="shared" ca="1" si="16"/>
@@ -8577,13 +8614,13 @@
       </c>
       <c r="D68" s="21" t="str">
         <f t="shared" si="17"/>
-        <v>1일</v>
+        <v>10일</v>
       </c>
       <c r="E68" s="22">
-        <v>46010</v>
+        <v>45999</v>
       </c>
       <c r="F68" s="22">
-        <v>46010</v>
+        <v>46008</v>
       </c>
       <c r="G68" s="23" t="s">
         <v>98</v>
@@ -8650,9 +8687,9 @@
       <c r="BO68" s="60"/>
     </row>
     <row r="69" spans="1:67" ht="15.75" thickBot="1">
-      <c r="A69" s="122"/>
+      <c r="A69" s="119"/>
       <c r="B69" s="95" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C69" s="20" t="str">
         <f t="shared" ca="1" si="16"/>
@@ -8732,12 +8769,92 @@
       <c r="BN69" s="60"/>
       <c r="BO69" s="60"/>
     </row>
-    <row r="70" spans="1:67">
-      <c r="E70" s="7"/>
-      <c r="F70" s="1"/>
-      <c r="I70" s="3"/>
+    <row r="70" spans="1:67" ht="15.75" thickBot="1">
+      <c r="A70" s="120"/>
+      <c r="B70" s="95" t="s">
+        <v>93</v>
+      </c>
+      <c r="C70" s="20" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>0%</v>
+      </c>
+      <c r="D70" s="21" t="str">
+        <f t="shared" si="17"/>
+        <v>1일</v>
+      </c>
+      <c r="E70" s="22">
+        <v>46010</v>
+      </c>
+      <c r="F70" s="22">
+        <v>46010</v>
+      </c>
+      <c r="G70" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="H70" s="59"/>
+      <c r="I70" s="60"/>
+      <c r="J70" s="60"/>
+      <c r="K70" s="60"/>
+      <c r="L70" s="61"/>
+      <c r="M70" s="62"/>
+      <c r="N70" s="60"/>
+      <c r="O70" s="60"/>
+      <c r="P70" s="60"/>
+      <c r="Q70" s="60"/>
+      <c r="R70" s="60"/>
+      <c r="S70" s="61"/>
+      <c r="T70" s="62"/>
+      <c r="U70" s="60"/>
+      <c r="V70" s="60"/>
+      <c r="W70" s="60"/>
+      <c r="X70" s="60"/>
+      <c r="Y70" s="60"/>
+      <c r="Z70" s="61"/>
+      <c r="AA70" s="62"/>
+      <c r="AB70" s="60"/>
+      <c r="AC70" s="60"/>
+      <c r="AD70" s="60"/>
+      <c r="AE70" s="60"/>
+      <c r="AF70" s="60"/>
+      <c r="AG70" s="61"/>
+      <c r="AH70" s="62"/>
+      <c r="AI70" s="60"/>
+      <c r="AJ70" s="60"/>
+      <c r="AK70" s="60"/>
+      <c r="AL70" s="60"/>
+      <c r="AM70" s="60"/>
+      <c r="AN70" s="61"/>
+      <c r="AO70" s="62"/>
+      <c r="AP70" s="60"/>
+      <c r="AQ70" s="60"/>
+      <c r="AR70" s="60"/>
+      <c r="AS70" s="60"/>
+      <c r="AT70" s="60"/>
+      <c r="AU70" s="61"/>
+      <c r="AV70" s="62"/>
+      <c r="AW70" s="60"/>
+      <c r="AX70" s="60"/>
+      <c r="AY70" s="60"/>
+      <c r="AZ70" s="60"/>
+      <c r="BA70" s="60"/>
+      <c r="BB70" s="61"/>
+      <c r="BC70" s="62"/>
+      <c r="BD70" s="60"/>
+      <c r="BE70" s="60"/>
+      <c r="BF70" s="60"/>
+      <c r="BG70" s="60"/>
+      <c r="BH70" s="60"/>
+      <c r="BI70" s="61"/>
+      <c r="BJ70" s="62"/>
+      <c r="BK70" s="60"/>
+      <c r="BL70" s="60"/>
+      <c r="BM70" s="60"/>
+      <c r="BN70" s="60"/>
+      <c r="BO70" s="60"/>
     </row>
     <row r="71" spans="1:67">
+      <c r="E71" s="7"/>
+      <c r="F71" s="1"/>
       <c r="I71" s="3"/>
     </row>
     <row r="72" spans="1:67">
@@ -8750,45 +8867,44 @@
       <c r="I74" s="3"/>
     </row>
     <row r="75" spans="1:67">
-      <c r="B75" s="8" t="s">
+      <c r="I75" s="3"/>
+    </row>
+    <row r="76" spans="1:67">
+      <c r="B76" s="8" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="76" spans="1:67" ht="16.5">
-      <c r="B76" s="9" t="s">
+    <row r="77" spans="1:67" ht="16.5">
+      <c r="B77" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E76" s="2"/>
-      <c r="F76" s="3"/>
-    </row>
-    <row r="77" spans="1:67">
-      <c r="B77" s="10" t="s">
-        <v>96</v>
-      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" s="3"/>
     </row>
     <row r="78" spans="1:67">
-      <c r="C78" s="3"/>
+      <c r="B78" s="10" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="79" spans="1:67">
       <c r="C79" s="3"/>
     </row>
-    <row r="80" spans="1:67"/>
+    <row r="80" spans="1:67">
+      <c r="C80" s="3"/>
+    </row>
     <row r="81" spans="2:8"/>
-    <row r="82" spans="2:8" ht="16.5">
-      <c r="B82" s="2"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
-    </row>
-    <row r="83" spans="2:8">
+    <row r="82" spans="2:8"/>
+    <row r="83" spans="2:8" ht="16.5">
+      <c r="B83" s="2"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
     </row>
-    <row r="84" spans="2:8" ht="16.5">
-      <c r="B84" s="2"/>
+    <row r="84" spans="2:8">
+      <c r="C84" s="3"/>
       <c r="D84" s="3"/>
     </row>
-    <row r="85" spans="2:8">
-      <c r="C85" s="3"/>
+    <row r="85" spans="2:8" ht="16.5">
+      <c r="B85" s="2"/>
       <c r="D85" s="3"/>
     </row>
     <row r="86" spans="2:8">
@@ -8796,22 +8912,26 @@
       <c r="D86" s="3"/>
     </row>
     <row r="87" spans="2:8">
+      <c r="C87" s="3"/>
       <c r="D87" s="3"/>
     </row>
     <row r="88" spans="2:8">
       <c r="D88" s="3"/>
-      <c r="H88" s="11"/>
     </row>
-    <row r="89" spans="2:8" ht="15" customHeight="1">
+    <row r="89" spans="2:8">
       <c r="D89" s="3"/>
+      <c r="H89" s="11"/>
     </row>
     <row r="90" spans="2:8" ht="15" customHeight="1">
-      <c r="C90" s="3"/>
       <c r="D90" s="3"/>
+    </row>
+    <row r="91" spans="2:8" ht="15" customHeight="1">
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A62:A69"/>
+    <mergeCell ref="A63:A70"/>
     <mergeCell ref="H51:BO51"/>
     <mergeCell ref="H39:BO39"/>
     <mergeCell ref="C1:E1"/>
@@ -8822,7 +8942,7 @@
     <mergeCell ref="B39:G39"/>
     <mergeCell ref="B51:G51"/>
     <mergeCell ref="B17:G17"/>
-    <mergeCell ref="A12:A61"/>
+    <mergeCell ref="A12:A62"/>
     <mergeCell ref="H17:BO17"/>
     <mergeCell ref="H21:BO21"/>
   </mergeCells>

--- a/2. WBS/5조_WBS_현대이지웰_최종프로젝트.xlsx
+++ b/2. WBS/5조_WBS_현대이지웰_최종프로젝트.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\redgu\OneDrive\Desktop\related_Re_View\Re_View_Doc\2. WBS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3D8518-8EFD-492C-8141-F01F6849223F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D88C988-5A55-4DA9-AA79-A643A42263FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="285" yWindow="555" windowWidth="21315" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="156">
   <si>
     <t>팀명</t>
   </si>
@@ -895,9 +895,6 @@
     <t>리뷰 커뮤니티 시스템 강화(추천, 비추천, 신고, 별점, 댓글)</t>
   </si>
   <si>
-    <t>정렬, 검색 기능(리뷰, 상품 등)</t>
-  </si>
-  <si>
     <t>회원의 피부 타입에 추천되는 상품 추천 알고리즘</t>
   </si>
   <si>
@@ -1017,33 +1014,7 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">마이페이지 찜 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t>UI</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>마이페이지 결제수단 UI</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품 상세 UI(QnA,리뷰 포함)</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
@@ -1115,28 +1086,6 @@
     <r>
       <rPr>
         <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상품 상세페이지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> UI</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
         <color rgb="FFFF0000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
@@ -1171,32 +1120,6 @@
   </si>
   <si>
     <t>마이페이지 장바구니 UI</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">리뷰 작성 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t>UI</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인 페이지와 연결되는 리뷰 UI</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
@@ -1296,6 +1219,117 @@
     <t>이미지 업로드 기능</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관리자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>페이지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> CRUD</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="7"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품 상세페이지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> UI</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">마이페이지 찜 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>UI</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>김시연</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">리뷰 작성 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>UI</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1304,7 +1338,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="44">
+  <fonts count="46">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1604,6 +1638,20 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="7"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="7"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="20">
     <fill>
@@ -1721,7 +1769,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -2249,22 +2297,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2581,9 +2618,6 @@
     <xf numFmtId="0" fontId="14" fillId="18" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="21" fillId="13" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2617,6 +2651,36 @@
     <xf numFmtId="0" fontId="26" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="37" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="42" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2675,27 +2739,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="37" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="42" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2922,10 +2965,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BO91"/>
+  <dimension ref="A1:BO89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -2942,31 +2985,31 @@
       <c r="B1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="124" t="s">
+      <c r="C1" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="126" t="s">
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
-      <c r="L1" s="125"/>
-      <c r="M1" s="125"/>
-      <c r="N1" s="125"/>
-      <c r="O1" s="125"/>
-      <c r="P1" s="125"/>
-      <c r="Q1" s="125"/>
-      <c r="R1" s="125"/>
-      <c r="S1" s="125"/>
-      <c r="T1" s="125"/>
-      <c r="U1" s="125"/>
-      <c r="V1" s="125"/>
-      <c r="W1" s="125"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="134"/>
+      <c r="L1" s="134"/>
+      <c r="M1" s="134"/>
+      <c r="N1" s="134"/>
+      <c r="O1" s="134"/>
+      <c r="P1" s="134"/>
+      <c r="Q1" s="134"/>
+      <c r="R1" s="134"/>
+      <c r="S1" s="134"/>
+      <c r="T1" s="134"/>
+      <c r="U1" s="134"/>
+      <c r="V1" s="134"/>
+      <c r="W1" s="134"/>
       <c r="X1" s="6"/>
       <c r="Y1" s="6"/>
       <c r="Z1" s="6"/>
@@ -3030,7 +3073,7 @@
       <c r="F2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="127" t="s">
+      <c r="G2" s="136" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="15" t="s">
@@ -3221,7 +3264,7 @@
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
-      <c r="G3" s="128"/>
+      <c r="G3" s="137"/>
       <c r="H3" s="24">
         <v>45951</v>
       </c>
@@ -3404,7 +3447,7 @@
       </c>
     </row>
     <row r="4" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="129" t="s">
+      <c r="A4" s="138" t="s">
         <v>71</v>
       </c>
       <c r="B4" s="77" t="s">
@@ -3489,7 +3532,7 @@
       <c r="BO4" s="55"/>
     </row>
     <row r="5" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A5" s="130"/>
+      <c r="A5" s="139"/>
       <c r="B5" s="77" t="s">
         <v>73</v>
       </c>
@@ -3572,7 +3615,7 @@
       <c r="BO5" s="60"/>
     </row>
     <row r="6" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A6" s="130"/>
+      <c r="A6" s="139"/>
       <c r="B6" s="77" t="s">
         <v>74</v>
       </c>
@@ -3655,7 +3698,7 @@
       <c r="BO6" s="60"/>
     </row>
     <row r="7" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A7" s="130"/>
+      <c r="A7" s="139"/>
       <c r="B7" s="78" t="s">
         <v>75</v>
       </c>
@@ -3738,7 +3781,7 @@
       <c r="BO7" s="60"/>
     </row>
     <row r="8" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A8" s="130"/>
+      <c r="A8" s="139"/>
       <c r="B8" s="79" t="s">
         <v>76</v>
       </c>
@@ -3821,7 +3864,7 @@
       <c r="BO8" s="60"/>
     </row>
     <row r="9" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A9" s="130"/>
+      <c r="A9" s="139"/>
       <c r="B9" s="77" t="s">
         <v>77</v>
       </c>
@@ -3904,7 +3947,7 @@
       <c r="BO9" s="60"/>
     </row>
     <row r="10" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A10" s="130"/>
+      <c r="A10" s="139"/>
       <c r="B10" s="78" t="s">
         <v>78</v>
       </c>
@@ -3987,7 +4030,7 @@
       <c r="BO10" s="60"/>
     </row>
     <row r="11" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A11" s="131"/>
+      <c r="A11" s="140"/>
       <c r="B11" s="80" t="s">
         <v>79</v>
       </c>
@@ -4070,7 +4113,7 @@
       <c r="BO11" s="60"/>
     </row>
     <row r="12" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A12" s="118" t="s">
+      <c r="A12" s="127" t="s">
         <v>80</v>
       </c>
       <c r="B12" s="81" t="s">
@@ -4155,7 +4198,7 @@
       <c r="BO12" s="60"/>
     </row>
     <row r="13" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A13" s="119"/>
+      <c r="A13" s="128"/>
       <c r="B13" s="82" t="s">
         <v>82</v>
       </c>
@@ -4238,7 +4281,7 @@
       <c r="BO13" s="60"/>
     </row>
     <row r="14" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A14" s="119"/>
+      <c r="A14" s="128"/>
       <c r="B14" s="83" t="s">
         <v>83</v>
       </c>
@@ -4321,13 +4364,13 @@
       <c r="BO14" s="60"/>
     </row>
     <row r="15" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A15" s="119"/>
+      <c r="A15" s="128"/>
       <c r="B15" s="81" t="s">
         <v>84</v>
       </c>
       <c r="C15" s="35" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>94.1%</v>
+        <v>100%</v>
       </c>
       <c r="D15" s="21" t="str">
         <f t="shared" si="0"/>
@@ -4404,7 +4447,7 @@
       <c r="BO15" s="38"/>
     </row>
     <row r="16" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A16" s="119"/>
+      <c r="A16" s="128"/>
       <c r="B16" s="84" t="s">
         <v>123</v>
       </c>
@@ -4487,78 +4530,78 @@
       <c r="BO16" s="53"/>
     </row>
     <row r="17" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A17" s="119"/>
-      <c r="B17" s="134" t="s">
+      <c r="A17" s="128"/>
+      <c r="B17" s="143" t="s">
         <v>118</v>
       </c>
-      <c r="C17" s="134"/>
-      <c r="D17" s="134"/>
-      <c r="E17" s="134"/>
-      <c r="F17" s="134"/>
-      <c r="G17" s="135"/>
-      <c r="H17" s="121"/>
-      <c r="I17" s="122"/>
-      <c r="J17" s="122"/>
-      <c r="K17" s="122"/>
-      <c r="L17" s="122"/>
-      <c r="M17" s="122"/>
-      <c r="N17" s="122"/>
-      <c r="O17" s="122"/>
-      <c r="P17" s="122"/>
-      <c r="Q17" s="122"/>
-      <c r="R17" s="122"/>
-      <c r="S17" s="122"/>
-      <c r="T17" s="122"/>
-      <c r="U17" s="122"/>
-      <c r="V17" s="122"/>
-      <c r="W17" s="122"/>
-      <c r="X17" s="122"/>
-      <c r="Y17" s="122"/>
-      <c r="Z17" s="122"/>
-      <c r="AA17" s="122"/>
-      <c r="AB17" s="122"/>
-      <c r="AC17" s="122"/>
-      <c r="AD17" s="122"/>
-      <c r="AE17" s="122"/>
-      <c r="AF17" s="122"/>
-      <c r="AG17" s="122"/>
-      <c r="AH17" s="122"/>
-      <c r="AI17" s="122"/>
-      <c r="AJ17" s="122"/>
-      <c r="AK17" s="122"/>
-      <c r="AL17" s="122"/>
-      <c r="AM17" s="122"/>
-      <c r="AN17" s="122"/>
-      <c r="AO17" s="122"/>
-      <c r="AP17" s="122"/>
-      <c r="AQ17" s="122"/>
-      <c r="AR17" s="122"/>
-      <c r="AS17" s="122"/>
-      <c r="AT17" s="122"/>
-      <c r="AU17" s="122"/>
-      <c r="AV17" s="122"/>
-      <c r="AW17" s="122"/>
-      <c r="AX17" s="122"/>
-      <c r="AY17" s="122"/>
-      <c r="AZ17" s="122"/>
-      <c r="BA17" s="122"/>
-      <c r="BB17" s="122"/>
-      <c r="BC17" s="122"/>
-      <c r="BD17" s="122"/>
-      <c r="BE17" s="122"/>
-      <c r="BF17" s="122"/>
-      <c r="BG17" s="122"/>
-      <c r="BH17" s="122"/>
-      <c r="BI17" s="122"/>
-      <c r="BJ17" s="122"/>
-      <c r="BK17" s="122"/>
-      <c r="BL17" s="122"/>
-      <c r="BM17" s="122"/>
-      <c r="BN17" s="122"/>
-      <c r="BO17" s="123"/>
+      <c r="C17" s="143"/>
+      <c r="D17" s="143"/>
+      <c r="E17" s="143"/>
+      <c r="F17" s="143"/>
+      <c r="G17" s="144"/>
+      <c r="H17" s="130"/>
+      <c r="I17" s="131"/>
+      <c r="J17" s="131"/>
+      <c r="K17" s="131"/>
+      <c r="L17" s="131"/>
+      <c r="M17" s="131"/>
+      <c r="N17" s="131"/>
+      <c r="O17" s="131"/>
+      <c r="P17" s="131"/>
+      <c r="Q17" s="131"/>
+      <c r="R17" s="131"/>
+      <c r="S17" s="131"/>
+      <c r="T17" s="131"/>
+      <c r="U17" s="131"/>
+      <c r="V17" s="131"/>
+      <c r="W17" s="131"/>
+      <c r="X17" s="131"/>
+      <c r="Y17" s="131"/>
+      <c r="Z17" s="131"/>
+      <c r="AA17" s="131"/>
+      <c r="AB17" s="131"/>
+      <c r="AC17" s="131"/>
+      <c r="AD17" s="131"/>
+      <c r="AE17" s="131"/>
+      <c r="AF17" s="131"/>
+      <c r="AG17" s="131"/>
+      <c r="AH17" s="131"/>
+      <c r="AI17" s="131"/>
+      <c r="AJ17" s="131"/>
+      <c r="AK17" s="131"/>
+      <c r="AL17" s="131"/>
+      <c r="AM17" s="131"/>
+      <c r="AN17" s="131"/>
+      <c r="AO17" s="131"/>
+      <c r="AP17" s="131"/>
+      <c r="AQ17" s="131"/>
+      <c r="AR17" s="131"/>
+      <c r="AS17" s="131"/>
+      <c r="AT17" s="131"/>
+      <c r="AU17" s="131"/>
+      <c r="AV17" s="131"/>
+      <c r="AW17" s="131"/>
+      <c r="AX17" s="131"/>
+      <c r="AY17" s="131"/>
+      <c r="AZ17" s="131"/>
+      <c r="BA17" s="131"/>
+      <c r="BB17" s="131"/>
+      <c r="BC17" s="131"/>
+      <c r="BD17" s="131"/>
+      <c r="BE17" s="131"/>
+      <c r="BF17" s="131"/>
+      <c r="BG17" s="131"/>
+      <c r="BH17" s="131"/>
+      <c r="BI17" s="131"/>
+      <c r="BJ17" s="131"/>
+      <c r="BK17" s="131"/>
+      <c r="BL17" s="131"/>
+      <c r="BM17" s="131"/>
+      <c r="BN17" s="131"/>
+      <c r="BO17" s="132"/>
     </row>
     <row r="18" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A18" s="119"/>
+      <c r="A18" s="128"/>
       <c r="B18" s="85" t="s">
         <v>124</v>
       </c>
@@ -4641,13 +4684,13 @@
       <c r="BO18" s="55"/>
     </row>
     <row r="19" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A19" s="119"/>
+      <c r="A19" s="128"/>
       <c r="B19" s="86" t="s">
         <v>87</v>
       </c>
       <c r="C19" s="73" t="str">
         <f ca="1">IF(F19=E19, IF(TODAY()&gt;F19, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F19) - E19) / (F19 - E19) * 100, 1) &amp; "%")</f>
-        <v>93.8%</v>
+        <v>100%</v>
       </c>
       <c r="D19" s="74" t="str">
         <f>IF(AND(F19&lt;&gt;"", E19&lt;&gt;""), F19 - E19 + 1 &amp; "일", "")</f>
@@ -4724,7 +4767,7 @@
       <c r="BO19" s="60"/>
     </row>
     <row r="20" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A20" s="119"/>
+      <c r="A20" s="128"/>
       <c r="B20" s="87" t="s">
         <v>113</v>
       </c>
@@ -4807,87 +4850,87 @@
       <c r="BO20" s="60"/>
     </row>
     <row r="21" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A21" s="119"/>
-      <c r="B21" s="132" t="s">
+      <c r="A21" s="128"/>
+      <c r="B21" s="141" t="s">
         <v>115</v>
       </c>
-      <c r="C21" s="132"/>
-      <c r="D21" s="132"/>
-      <c r="E21" s="132"/>
-      <c r="F21" s="132"/>
-      <c r="G21" s="132"/>
-      <c r="H21" s="121"/>
-      <c r="I21" s="122"/>
-      <c r="J21" s="122"/>
-      <c r="K21" s="122"/>
-      <c r="L21" s="122"/>
-      <c r="M21" s="122"/>
-      <c r="N21" s="122"/>
-      <c r="O21" s="122"/>
-      <c r="P21" s="122"/>
-      <c r="Q21" s="122"/>
-      <c r="R21" s="122"/>
-      <c r="S21" s="122"/>
-      <c r="T21" s="122"/>
-      <c r="U21" s="122"/>
-      <c r="V21" s="122"/>
-      <c r="W21" s="122"/>
-      <c r="X21" s="122"/>
-      <c r="Y21" s="122"/>
-      <c r="Z21" s="122"/>
-      <c r="AA21" s="122"/>
-      <c r="AB21" s="122"/>
-      <c r="AC21" s="122"/>
-      <c r="AD21" s="122"/>
-      <c r="AE21" s="122"/>
-      <c r="AF21" s="122"/>
-      <c r="AG21" s="122"/>
-      <c r="AH21" s="122"/>
-      <c r="AI21" s="122"/>
-      <c r="AJ21" s="122"/>
-      <c r="AK21" s="122"/>
-      <c r="AL21" s="122"/>
-      <c r="AM21" s="122"/>
-      <c r="AN21" s="122"/>
-      <c r="AO21" s="122"/>
-      <c r="AP21" s="122"/>
-      <c r="AQ21" s="122"/>
-      <c r="AR21" s="122"/>
-      <c r="AS21" s="122"/>
-      <c r="AT21" s="122"/>
-      <c r="AU21" s="122"/>
-      <c r="AV21" s="122"/>
-      <c r="AW21" s="122"/>
-      <c r="AX21" s="122"/>
-      <c r="AY21" s="122"/>
-      <c r="AZ21" s="122"/>
-      <c r="BA21" s="122"/>
-      <c r="BB21" s="122"/>
-      <c r="BC21" s="122"/>
-      <c r="BD21" s="122"/>
-      <c r="BE21" s="122"/>
-      <c r="BF21" s="122"/>
-      <c r="BG21" s="122"/>
-      <c r="BH21" s="122"/>
-      <c r="BI21" s="122"/>
-      <c r="BJ21" s="122"/>
-      <c r="BK21" s="122"/>
-      <c r="BL21" s="122"/>
-      <c r="BM21" s="122"/>
-      <c r="BN21" s="122"/>
-      <c r="BO21" s="123"/>
+      <c r="C21" s="141"/>
+      <c r="D21" s="141"/>
+      <c r="E21" s="141"/>
+      <c r="F21" s="141"/>
+      <c r="G21" s="141"/>
+      <c r="H21" s="130"/>
+      <c r="I21" s="131"/>
+      <c r="J21" s="131"/>
+      <c r="K21" s="131"/>
+      <c r="L21" s="131"/>
+      <c r="M21" s="131"/>
+      <c r="N21" s="131"/>
+      <c r="O21" s="131"/>
+      <c r="P21" s="131"/>
+      <c r="Q21" s="131"/>
+      <c r="R21" s="131"/>
+      <c r="S21" s="131"/>
+      <c r="T21" s="131"/>
+      <c r="U21" s="131"/>
+      <c r="V21" s="131"/>
+      <c r="W21" s="131"/>
+      <c r="X21" s="131"/>
+      <c r="Y21" s="131"/>
+      <c r="Z21" s="131"/>
+      <c r="AA21" s="131"/>
+      <c r="AB21" s="131"/>
+      <c r="AC21" s="131"/>
+      <c r="AD21" s="131"/>
+      <c r="AE21" s="131"/>
+      <c r="AF21" s="131"/>
+      <c r="AG21" s="131"/>
+      <c r="AH21" s="131"/>
+      <c r="AI21" s="131"/>
+      <c r="AJ21" s="131"/>
+      <c r="AK21" s="131"/>
+      <c r="AL21" s="131"/>
+      <c r="AM21" s="131"/>
+      <c r="AN21" s="131"/>
+      <c r="AO21" s="131"/>
+      <c r="AP21" s="131"/>
+      <c r="AQ21" s="131"/>
+      <c r="AR21" s="131"/>
+      <c r="AS21" s="131"/>
+      <c r="AT21" s="131"/>
+      <c r="AU21" s="131"/>
+      <c r="AV21" s="131"/>
+      <c r="AW21" s="131"/>
+      <c r="AX21" s="131"/>
+      <c r="AY21" s="131"/>
+      <c r="AZ21" s="131"/>
+      <c r="BA21" s="131"/>
+      <c r="BB21" s="131"/>
+      <c r="BC21" s="131"/>
+      <c r="BD21" s="131"/>
+      <c r="BE21" s="131"/>
+      <c r="BF21" s="131"/>
+      <c r="BG21" s="131"/>
+      <c r="BH21" s="131"/>
+      <c r="BI21" s="131"/>
+      <c r="BJ21" s="131"/>
+      <c r="BK21" s="131"/>
+      <c r="BL21" s="131"/>
+      <c r="BM21" s="131"/>
+      <c r="BN21" s="131"/>
+      <c r="BO21" s="132"/>
     </row>
     <row r="22" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A22" s="119"/>
+      <c r="A22" s="128"/>
       <c r="B22" s="88" t="s">
         <v>125</v>
       </c>
       <c r="C22" s="39" t="str">
-        <f t="shared" ref="C22:C37" ca="1" si="2">IF(F22=E22, IF(TODAY()&gt;F22, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F22) - E22) / (F22 - E22) * 100, 1) &amp; "%")</f>
+        <f t="shared" ref="C22:C39" ca="1" si="2">IF(F22=E22, IF(TODAY()&gt;F22, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F22) - E22) / (F22 - E22) * 100, 1) &amp; "%")</f>
         <v>100%</v>
       </c>
       <c r="D22" s="40" t="str">
-        <f t="shared" ref="D22:D38" si="3">IF(AND(F22&lt;&gt;"", E22&lt;&gt;""), F22 - E22 + 1 &amp; "일", "")</f>
+        <f t="shared" ref="D22:D40" si="3">IF(AND(F22&lt;&gt;"", E22&lt;&gt;""), F22 - E22 + 1 &amp; "일", "")</f>
         <v>2일</v>
       </c>
       <c r="E22" s="41">
@@ -4961,7 +5004,7 @@
       <c r="BO22" s="60"/>
     </row>
     <row r="23" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A23" s="119"/>
+      <c r="A23" s="128"/>
       <c r="B23" s="89" t="s">
         <v>85</v>
       </c>
@@ -5044,9 +5087,9 @@
       <c r="BO23" s="60"/>
     </row>
     <row r="24" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A24" s="119"/>
+      <c r="A24" s="128"/>
       <c r="B24" s="90" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C24" s="39" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -5127,13 +5170,13 @@
       <c r="BO24" s="60"/>
     </row>
     <row r="25" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A25" s="119"/>
+      <c r="A25" s="128"/>
       <c r="B25" s="90" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C25" s="39" t="str">
         <f t="shared" ref="C25" ca="1" si="4">IF(F25=E25, IF(TODAY()&gt;F25, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F25) - E25) / (F25 - E25) * 100, 1) &amp; "%")</f>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="D25" s="40" t="str">
         <f>IF(AND(F25&lt;&gt;"", E25&lt;&gt;""), F25 - E25 + 1 &amp; "일", "")</f>
@@ -5210,25 +5253,27 @@
       <c r="BO25" s="60"/>
     </row>
     <row r="26" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A26" s="119"/>
-      <c r="B26" s="91" t="s">
-        <v>139</v>
-      </c>
-      <c r="C26" s="20" t="str">
+      <c r="A26" s="128"/>
+      <c r="B26" s="85" t="s">
+        <v>153</v>
+      </c>
+      <c r="C26" s="39" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>0%</v>
-      </c>
-      <c r="D26" s="21" t="str">
-        <f t="shared" ref="D26:D28" si="5">IF(AND(F26&lt;&gt;"", E26&lt;&gt;""), F26 - E26 + 1 &amp; "일", "")</f>
-        <v>3일</v>
-      </c>
-      <c r="E26" s="22">
+        <v>100%</v>
+      </c>
+      <c r="D26" s="40" t="str">
+        <f t="shared" ref="D26:D30" si="5">IF(AND(F26&lt;&gt;"", E26&lt;&gt;""), F26 - E26 + 1 &amp; "일", "")</f>
+        <v>2일</v>
+      </c>
+      <c r="E26" s="41">
         <v>45980</v>
       </c>
-      <c r="F26" s="22">
-        <v>45982</v>
-      </c>
-      <c r="G26" s="30"/>
+      <c r="F26" s="41">
+        <v>45981</v>
+      </c>
+      <c r="G26" s="52" t="s">
+        <v>147</v>
+      </c>
       <c r="H26" s="59"/>
       <c r="I26" s="60"/>
       <c r="J26" s="60"/>
@@ -5291,9 +5336,9 @@
       <c r="BO26" s="60"/>
     </row>
     <row r="27" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A27" s="119"/>
-      <c r="B27" s="92" t="s">
-        <v>140</v>
+      <c r="A27" s="128"/>
+      <c r="B27" s="91" t="s">
+        <v>137</v>
       </c>
       <c r="C27" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -5301,15 +5346,17 @@
       </c>
       <c r="D27" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>3일</v>
+        <v>2일</v>
       </c>
       <c r="E27" s="22">
-        <v>45980</v>
+        <v>45981</v>
       </c>
       <c r="F27" s="22">
         <v>45982</v>
       </c>
-      <c r="G27" s="30"/>
+      <c r="G27" s="30" t="s">
+        <v>105</v>
+      </c>
       <c r="H27" s="59"/>
       <c r="I27" s="60"/>
       <c r="J27" s="60"/>
@@ -5372,25 +5419,27 @@
       <c r="BO27" s="60"/>
     </row>
     <row r="28" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A28" s="119"/>
+      <c r="A28" s="128"/>
       <c r="B28" s="92" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C28" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="D28" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>3일</v>
+        <v>1일</v>
       </c>
       <c r="E28" s="22">
         <v>45980</v>
       </c>
       <c r="F28" s="22">
-        <v>45982</v>
-      </c>
-      <c r="G28" s="30"/>
+        <v>45980</v>
+      </c>
+      <c r="G28" s="30" t="s">
+        <v>147</v>
+      </c>
       <c r="H28" s="59"/>
       <c r="I28" s="60"/>
       <c r="J28" s="60"/>
@@ -5453,27 +5502,25 @@
       <c r="BO28" s="60"/>
     </row>
     <row r="29" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A29" s="119"/>
-      <c r="B29" s="93" t="s">
-        <v>104</v>
-      </c>
-      <c r="C29" s="39" t="str">
+      <c r="A29" s="128"/>
+      <c r="B29" s="92" t="s">
+        <v>138</v>
+      </c>
+      <c r="C29" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>100%</v>
-      </c>
-      <c r="D29" s="40" t="str">
-        <f t="shared" si="3"/>
-        <v>7일</v>
-      </c>
-      <c r="E29" s="41">
-        <v>45965</v>
-      </c>
-      <c r="F29" s="41">
-        <v>45971</v>
-      </c>
-      <c r="G29" s="52" t="s">
-        <v>103</v>
-      </c>
+        <v>50%</v>
+      </c>
+      <c r="D29" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>3일</v>
+      </c>
+      <c r="E29" s="22">
+        <v>45980</v>
+      </c>
+      <c r="F29" s="22">
+        <v>45982</v>
+      </c>
+      <c r="G29" s="30"/>
       <c r="H29" s="59"/>
       <c r="I29" s="60"/>
       <c r="J29" s="60"/>
@@ -5488,13 +5535,13 @@
       <c r="S29" s="61"/>
       <c r="T29" s="62"/>
       <c r="U29" s="60"/>
-      <c r="V29" s="63"/>
-      <c r="W29" s="63"/>
-      <c r="X29" s="63"/>
-      <c r="Y29" s="63"/>
-      <c r="Z29" s="63"/>
-      <c r="AA29" s="63"/>
-      <c r="AB29" s="63"/>
+      <c r="V29" s="60"/>
+      <c r="W29" s="60"/>
+      <c r="X29" s="60"/>
+      <c r="Y29" s="60"/>
+      <c r="Z29" s="61"/>
+      <c r="AA29" s="62"/>
+      <c r="AB29" s="60"/>
       <c r="AC29" s="60"/>
       <c r="AD29" s="60"/>
       <c r="AE29" s="60"/>
@@ -5503,9 +5550,9 @@
       <c r="AH29" s="62"/>
       <c r="AI29" s="60"/>
       <c r="AJ29" s="60"/>
-      <c r="AK29" s="60"/>
-      <c r="AL29" s="60"/>
-      <c r="AM29" s="60"/>
+      <c r="AK29" s="63"/>
+      <c r="AL29" s="63"/>
+      <c r="AM29" s="63"/>
       <c r="AN29" s="61"/>
       <c r="AO29" s="62"/>
       <c r="AP29" s="60"/>
@@ -5533,29 +5580,29 @@
       <c r="BL29" s="60"/>
       <c r="BM29" s="60"/>
       <c r="BN29" s="60"/>
-      <c r="BO29" s="28"/>
+      <c r="BO29" s="60"/>
     </row>
     <row r="30" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A30" s="119"/>
-      <c r="B30" s="87" t="s">
-        <v>111</v>
+      <c r="A30" s="128"/>
+      <c r="B30" s="124" t="s">
+        <v>146</v>
       </c>
       <c r="C30" s="39" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>100%</v>
+        <v>50%</v>
       </c>
       <c r="D30" s="40" t="str">
-        <f t="shared" si="3"/>
-        <v>7일</v>
+        <f t="shared" si="5"/>
+        <v>3일</v>
       </c>
       <c r="E30" s="41">
-        <v>45971</v>
+        <v>45980</v>
       </c>
       <c r="F30" s="41">
-        <v>45977</v>
-      </c>
-      <c r="G30" s="43" t="s">
-        <v>117</v>
+        <v>45982</v>
+      </c>
+      <c r="G30" s="52" t="s">
+        <v>102</v>
       </c>
       <c r="H30" s="59"/>
       <c r="I30" s="60"/>
@@ -5577,18 +5624,18 @@
       <c r="Y30" s="60"/>
       <c r="Z30" s="61"/>
       <c r="AA30" s="62"/>
-      <c r="AB30" s="58"/>
-      <c r="AC30" s="58"/>
-      <c r="AD30" s="58"/>
-      <c r="AE30" s="58"/>
-      <c r="AF30" s="58"/>
-      <c r="AG30" s="58"/>
-      <c r="AH30" s="58"/>
+      <c r="AB30" s="60"/>
+      <c r="AC30" s="60"/>
+      <c r="AD30" s="60"/>
+      <c r="AE30" s="60"/>
+      <c r="AF30" s="60"/>
+      <c r="AG30" s="61"/>
+      <c r="AH30" s="62"/>
       <c r="AI30" s="60"/>
       <c r="AJ30" s="60"/>
-      <c r="AK30" s="60"/>
-      <c r="AL30" s="60"/>
-      <c r="AM30" s="60"/>
+      <c r="AK30" s="63"/>
+      <c r="AL30" s="63"/>
+      <c r="AM30" s="63"/>
       <c r="AN30" s="61"/>
       <c r="AO30" s="62"/>
       <c r="AP30" s="60"/>
@@ -5619,12 +5666,12 @@
       <c r="BO30" s="60"/>
     </row>
     <row r="31" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A31" s="119"/>
-      <c r="B31" s="88" t="s">
-        <v>126</v>
+      <c r="A31" s="128"/>
+      <c r="B31" s="93" t="s">
+        <v>104</v>
       </c>
       <c r="C31" s="39" t="str">
-        <f ca="1">IF(F31=E31, IF(TODAY()&gt;F31, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F31) - E31) / (F31 - E31) * 100, 1) &amp; "%")</f>
+        <f t="shared" ca="1" si="2"/>
         <v>100%</v>
       </c>
       <c r="D31" s="40" t="str">
@@ -5632,13 +5679,13 @@
         <v>7일</v>
       </c>
       <c r="E31" s="41">
+        <v>45965</v>
+      </c>
+      <c r="F31" s="41">
         <v>45971</v>
       </c>
-      <c r="F31" s="41">
-        <v>45977</v>
-      </c>
-      <c r="G31" s="43" t="s">
-        <v>117</v>
+      <c r="G31" s="52" t="s">
+        <v>103</v>
       </c>
       <c r="H31" s="59"/>
       <c r="I31" s="60"/>
@@ -5654,19 +5701,19 @@
       <c r="S31" s="61"/>
       <c r="T31" s="62"/>
       <c r="U31" s="60"/>
-      <c r="V31" s="60"/>
-      <c r="W31" s="60"/>
-      <c r="X31" s="60"/>
-      <c r="Y31" s="60"/>
-      <c r="Z31" s="61"/>
-      <c r="AA31" s="62"/>
+      <c r="V31" s="63"/>
+      <c r="W31" s="63"/>
+      <c r="X31" s="63"/>
+      <c r="Y31" s="63"/>
+      <c r="Z31" s="63"/>
+      <c r="AA31" s="63"/>
       <c r="AB31" s="63"/>
-      <c r="AC31" s="63"/>
-      <c r="AD31" s="63"/>
-      <c r="AE31" s="63"/>
-      <c r="AF31" s="63"/>
-      <c r="AG31" s="63"/>
-      <c r="AH31" s="63"/>
+      <c r="AC31" s="60"/>
+      <c r="AD31" s="60"/>
+      <c r="AE31" s="60"/>
+      <c r="AF31" s="60"/>
+      <c r="AG31" s="61"/>
+      <c r="AH31" s="62"/>
       <c r="AI31" s="60"/>
       <c r="AJ31" s="60"/>
       <c r="AK31" s="60"/>
@@ -5699,15 +5746,15 @@
       <c r="BL31" s="60"/>
       <c r="BM31" s="60"/>
       <c r="BN31" s="60"/>
-      <c r="BO31" s="60"/>
+      <c r="BO31" s="28"/>
     </row>
     <row r="32" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A32" s="119"/>
+      <c r="A32" s="128"/>
       <c r="B32" s="87" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C32" s="39" t="str">
-        <f ca="1">IF(F32=E32, IF(TODAY()&gt;F32, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F32) - E32) / (F32 - E32) * 100, 1) &amp; "%")</f>
+        <f t="shared" ca="1" si="2"/>
         <v>100%</v>
       </c>
       <c r="D32" s="40" t="str">
@@ -5785,23 +5832,23 @@
       <c r="BO32" s="60"/>
     </row>
     <row r="33" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A33" s="119"/>
-      <c r="B33" s="100" t="s">
-        <v>143</v>
+      <c r="A33" s="128"/>
+      <c r="B33" s="88" t="s">
+        <v>126</v>
       </c>
       <c r="C33" s="39" t="str">
         <f ca="1">IF(F33=E33, IF(TODAY()&gt;F33, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F33) - E33) / (F33 - E33) * 100, 1) &amp; "%")</f>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="D33" s="40" t="str">
-        <f t="shared" ref="D33" si="6">IF(AND(F33&lt;&gt;"", E33&lt;&gt;""), F33 - E33 + 1 &amp; "일", "")</f>
-        <v>1일</v>
+        <f t="shared" si="3"/>
+        <v>7일</v>
       </c>
       <c r="E33" s="41">
-        <v>45980</v>
+        <v>45971</v>
       </c>
       <c r="F33" s="41">
-        <v>45980</v>
+        <v>45977</v>
       </c>
       <c r="G33" s="43" t="s">
         <v>117</v>
@@ -5826,16 +5873,16 @@
       <c r="Y33" s="60"/>
       <c r="Z33" s="61"/>
       <c r="AA33" s="62"/>
-      <c r="AB33" s="60"/>
-      <c r="AC33" s="60"/>
-      <c r="AD33" s="60"/>
-      <c r="AE33" s="60"/>
-      <c r="AF33" s="60"/>
-      <c r="AG33" s="61"/>
-      <c r="AH33" s="58"/>
-      <c r="AI33" s="58"/>
-      <c r="AJ33" s="58"/>
-      <c r="AK33" s="58"/>
+      <c r="AB33" s="63"/>
+      <c r="AC33" s="63"/>
+      <c r="AD33" s="63"/>
+      <c r="AE33" s="63"/>
+      <c r="AF33" s="63"/>
+      <c r="AG33" s="63"/>
+      <c r="AH33" s="63"/>
+      <c r="AI33" s="60"/>
+      <c r="AJ33" s="60"/>
+      <c r="AK33" s="60"/>
       <c r="AL33" s="60"/>
       <c r="AM33" s="60"/>
       <c r="AN33" s="61"/>
@@ -5868,26 +5915,26 @@
       <c r="BO33" s="60"/>
     </row>
     <row r="34" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A34" s="119"/>
-      <c r="B34" s="100" t="s">
-        <v>146</v>
+      <c r="A34" s="128"/>
+      <c r="B34" s="87" t="s">
+        <v>112</v>
       </c>
       <c r="C34" s="39" t="str">
         <f ca="1">IF(F34=E34, IF(TODAY()&gt;F34, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F34) - E34) / (F34 - E34) * 100, 1) &amp; "%")</f>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="D34" s="40" t="str">
-        <f t="shared" ref="D34" si="7">IF(AND(F34&lt;&gt;"", E34&lt;&gt;""), F34 - E34 + 1 &amp; "일", "")</f>
-        <v>1일</v>
+        <f t="shared" si="3"/>
+        <v>7일</v>
       </c>
       <c r="E34" s="41">
-        <v>45980</v>
+        <v>45971</v>
       </c>
       <c r="F34" s="41">
-        <v>45980</v>
+        <v>45977</v>
       </c>
       <c r="G34" s="43" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H34" s="59"/>
       <c r="I34" s="60"/>
@@ -5909,16 +5956,16 @@
       <c r="Y34" s="60"/>
       <c r="Z34" s="61"/>
       <c r="AA34" s="62"/>
-      <c r="AB34" s="60"/>
-      <c r="AC34" s="60"/>
-      <c r="AD34" s="60"/>
-      <c r="AE34" s="60"/>
-      <c r="AF34" s="60"/>
-      <c r="AG34" s="61"/>
-      <c r="AH34" s="63"/>
-      <c r="AI34" s="63"/>
-      <c r="AJ34" s="63"/>
-      <c r="AK34" s="63"/>
+      <c r="AB34" s="58"/>
+      <c r="AC34" s="58"/>
+      <c r="AD34" s="58"/>
+      <c r="AE34" s="58"/>
+      <c r="AF34" s="58"/>
+      <c r="AG34" s="58"/>
+      <c r="AH34" s="58"/>
+      <c r="AI34" s="60"/>
+      <c r="AJ34" s="60"/>
+      <c r="AK34" s="60"/>
       <c r="AL34" s="60"/>
       <c r="AM34" s="60"/>
       <c r="AN34" s="61"/>
@@ -5951,26 +5998,26 @@
       <c r="BO34" s="60"/>
     </row>
     <row r="35" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A35" s="119"/>
-      <c r="B35" s="117" t="s">
-        <v>121</v>
+      <c r="A35" s="128"/>
+      <c r="B35" s="100" t="s">
+        <v>140</v>
       </c>
       <c r="C35" s="39" t="str">
         <f ca="1">IF(F35=E35, IF(TODAY()&gt;F35, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F35) - E35) / (F35 - E35) * 100, 1) &amp; "%")</f>
         <v>100%</v>
       </c>
       <c r="D35" s="40" t="str">
-        <f t="shared" si="3"/>
-        <v>4일</v>
+        <f t="shared" ref="D35" si="6">IF(AND(F35&lt;&gt;"", E35&lt;&gt;""), F35 - E35 + 1 &amp; "일", "")</f>
+        <v>1일</v>
       </c>
       <c r="E35" s="41">
-        <v>45977</v>
+        <v>45980</v>
       </c>
       <c r="F35" s="41">
         <v>45980</v>
       </c>
       <c r="G35" s="43" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H35" s="59"/>
       <c r="I35" s="60"/>
@@ -6034,26 +6081,26 @@
       <c r="BO35" s="60"/>
     </row>
     <row r="36" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A36" s="119"/>
-      <c r="B36" s="72" t="s">
-        <v>122</v>
+      <c r="A36" s="128"/>
+      <c r="B36" s="100" t="s">
+        <v>142</v>
       </c>
       <c r="C36" s="39" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(F36=E36, IF(TODAY()&gt;F36, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F36) - E36) / (F36 - E36) * 100, 1) &amp; "%")</f>
         <v>100%</v>
       </c>
       <c r="D36" s="40" t="str">
-        <f t="shared" si="3"/>
-        <v>4일</v>
+        <f t="shared" ref="D36" si="7">IF(AND(F36&lt;&gt;"", E36&lt;&gt;""), F36 - E36 + 1 &amp; "일", "")</f>
+        <v>1일</v>
       </c>
       <c r="E36" s="41">
-        <v>45977</v>
+        <v>45980</v>
       </c>
       <c r="F36" s="41">
         <v>45980</v>
       </c>
       <c r="G36" s="43" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H36" s="59"/>
       <c r="I36" s="60"/>
@@ -6117,12 +6164,12 @@
       <c r="BO36" s="60"/>
     </row>
     <row r="37" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A37" s="119"/>
-      <c r="B37" s="72" t="s">
-        <v>133</v>
+      <c r="A37" s="128"/>
+      <c r="B37" s="116" t="s">
+        <v>121</v>
       </c>
       <c r="C37" s="39" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(F37=E37, IF(TODAY()&gt;F37, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F37) - E37) / (F37 - E37) * 100, 1) &amp; "%")</f>
         <v>100%</v>
       </c>
       <c r="D37" s="40" t="str">
@@ -6136,28 +6183,28 @@
         <v>45980</v>
       </c>
       <c r="G37" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="H37" s="54"/>
-      <c r="I37" s="55"/>
-      <c r="J37" s="55"/>
-      <c r="K37" s="55"/>
-      <c r="L37" s="56"/>
-      <c r="M37" s="57"/>
-      <c r="N37" s="55"/>
-      <c r="O37" s="55"/>
-      <c r="P37" s="55"/>
-      <c r="Q37" s="55"/>
-      <c r="R37" s="55"/>
-      <c r="S37" s="56"/>
-      <c r="T37" s="57"/>
-      <c r="U37" s="55"/>
-      <c r="V37" s="55"/>
-      <c r="W37" s="55"/>
-      <c r="X37" s="55"/>
-      <c r="Y37" s="55"/>
-      <c r="Z37" s="56"/>
-      <c r="AA37" s="57"/>
+        <v>116</v>
+      </c>
+      <c r="H37" s="59"/>
+      <c r="I37" s="60"/>
+      <c r="J37" s="60"/>
+      <c r="K37" s="60"/>
+      <c r="L37" s="61"/>
+      <c r="M37" s="62"/>
+      <c r="N37" s="60"/>
+      <c r="O37" s="60"/>
+      <c r="P37" s="60"/>
+      <c r="Q37" s="60"/>
+      <c r="R37" s="60"/>
+      <c r="S37" s="61"/>
+      <c r="T37" s="62"/>
+      <c r="U37" s="60"/>
+      <c r="V37" s="60"/>
+      <c r="W37" s="60"/>
+      <c r="X37" s="60"/>
+      <c r="Y37" s="60"/>
+      <c r="Z37" s="61"/>
+      <c r="AA37" s="62"/>
       <c r="AB37" s="60"/>
       <c r="AC37" s="60"/>
       <c r="AD37" s="60"/>
@@ -6168,44 +6215,44 @@
       <c r="AI37" s="58"/>
       <c r="AJ37" s="58"/>
       <c r="AK37" s="58"/>
-      <c r="AL37" s="55"/>
-      <c r="AM37" s="55"/>
-      <c r="AN37" s="56"/>
-      <c r="AO37" s="57"/>
-      <c r="AP37" s="55"/>
-      <c r="AQ37" s="55"/>
-      <c r="AR37" s="55"/>
-      <c r="AS37" s="55"/>
-      <c r="AT37" s="55"/>
-      <c r="AU37" s="56"/>
-      <c r="AV37" s="57"/>
-      <c r="AW37" s="55"/>
-      <c r="AX37" s="55"/>
-      <c r="AY37" s="55"/>
-      <c r="AZ37" s="55"/>
-      <c r="BA37" s="55"/>
-      <c r="BB37" s="56"/>
-      <c r="BC37" s="57"/>
-      <c r="BD37" s="55"/>
-      <c r="BE37" s="55"/>
-      <c r="BF37" s="55"/>
-      <c r="BG37" s="55"/>
-      <c r="BH37" s="55"/>
-      <c r="BI37" s="56"/>
-      <c r="BJ37" s="57"/>
-      <c r="BK37" s="55"/>
-      <c r="BL37" s="55"/>
-      <c r="BM37" s="55"/>
-      <c r="BN37" s="55"/>
+      <c r="AL37" s="60"/>
+      <c r="AM37" s="60"/>
+      <c r="AN37" s="61"/>
+      <c r="AO37" s="62"/>
+      <c r="AP37" s="60"/>
+      <c r="AQ37" s="60"/>
+      <c r="AR37" s="60"/>
+      <c r="AS37" s="60"/>
+      <c r="AT37" s="60"/>
+      <c r="AU37" s="61"/>
+      <c r="AV37" s="62"/>
+      <c r="AW37" s="60"/>
+      <c r="AX37" s="60"/>
+      <c r="AY37" s="60"/>
+      <c r="AZ37" s="60"/>
+      <c r="BA37" s="60"/>
+      <c r="BB37" s="61"/>
+      <c r="BC37" s="62"/>
+      <c r="BD37" s="60"/>
+      <c r="BE37" s="60"/>
+      <c r="BF37" s="60"/>
+      <c r="BG37" s="60"/>
+      <c r="BH37" s="60"/>
+      <c r="BI37" s="61"/>
+      <c r="BJ37" s="62"/>
+      <c r="BK37" s="60"/>
+      <c r="BL37" s="60"/>
+      <c r="BM37" s="60"/>
+      <c r="BN37" s="60"/>
       <c r="BO37" s="60"/>
     </row>
     <row r="38" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A38" s="119"/>
-      <c r="B38" s="88" t="s">
-        <v>142</v>
+      <c r="A38" s="128"/>
+      <c r="B38" s="72" t="s">
+        <v>122</v>
       </c>
       <c r="C38" s="39" t="str">
-        <f t="shared" ref="C38" ca="1" si="8">IF(F38=E38, IF(TODAY()&gt;F38, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F38) - E38) / (F38 - E38) * 100, 1) &amp; "%")</f>
+        <f t="shared" ca="1" si="2"/>
         <v>100%</v>
       </c>
       <c r="D38" s="40" t="str">
@@ -6219,7 +6266,7 @@
         <v>45980</v>
       </c>
       <c r="G38" s="43" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H38" s="59"/>
       <c r="I38" s="60"/>
@@ -6283,97 +6330,109 @@
       <c r="BO38" s="60"/>
     </row>
     <row r="39" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A39" s="119"/>
-      <c r="B39" s="133" t="s">
-        <v>114</v>
-      </c>
-      <c r="C39" s="133"/>
-      <c r="D39" s="133"/>
-      <c r="E39" s="133"/>
-      <c r="F39" s="133"/>
-      <c r="G39" s="133"/>
-      <c r="H39" s="121"/>
-      <c r="I39" s="122"/>
-      <c r="J39" s="122"/>
-      <c r="K39" s="122"/>
-      <c r="L39" s="122"/>
-      <c r="M39" s="122"/>
-      <c r="N39" s="122"/>
-      <c r="O39" s="122"/>
-      <c r="P39" s="122"/>
-      <c r="Q39" s="122"/>
-      <c r="R39" s="122"/>
-      <c r="S39" s="122"/>
-      <c r="T39" s="122"/>
-      <c r="U39" s="122"/>
-      <c r="V39" s="122"/>
-      <c r="W39" s="122"/>
-      <c r="X39" s="122"/>
-      <c r="Y39" s="122"/>
-      <c r="Z39" s="122"/>
-      <c r="AA39" s="122"/>
-      <c r="AB39" s="122"/>
-      <c r="AC39" s="122"/>
-      <c r="AD39" s="122"/>
-      <c r="AE39" s="122"/>
-      <c r="AF39" s="122"/>
-      <c r="AG39" s="122"/>
-      <c r="AH39" s="122"/>
-      <c r="AI39" s="122"/>
-      <c r="AJ39" s="122"/>
-      <c r="AK39" s="122"/>
-      <c r="AL39" s="122"/>
-      <c r="AM39" s="122"/>
-      <c r="AN39" s="122"/>
-      <c r="AO39" s="122"/>
-      <c r="AP39" s="122"/>
-      <c r="AQ39" s="122"/>
-      <c r="AR39" s="122"/>
-      <c r="AS39" s="122"/>
-      <c r="AT39" s="122"/>
-      <c r="AU39" s="122"/>
-      <c r="AV39" s="122"/>
-      <c r="AW39" s="122"/>
-      <c r="AX39" s="122"/>
-      <c r="AY39" s="122"/>
-      <c r="AZ39" s="122"/>
-      <c r="BA39" s="122"/>
-      <c r="BB39" s="122"/>
-      <c r="BC39" s="122"/>
-      <c r="BD39" s="122"/>
-      <c r="BE39" s="122"/>
-      <c r="BF39" s="122"/>
-      <c r="BG39" s="122"/>
-      <c r="BH39" s="122"/>
-      <c r="BI39" s="122"/>
-      <c r="BJ39" s="122"/>
-      <c r="BK39" s="122"/>
-      <c r="BL39" s="122"/>
-      <c r="BM39" s="122"/>
-      <c r="BN39" s="122"/>
-      <c r="BO39" s="123"/>
+      <c r="A39" s="128"/>
+      <c r="B39" s="72" t="s">
+        <v>132</v>
+      </c>
+      <c r="C39" s="39" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>100%</v>
+      </c>
+      <c r="D39" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v>4일</v>
+      </c>
+      <c r="E39" s="41">
+        <v>45977</v>
+      </c>
+      <c r="F39" s="41">
+        <v>45980</v>
+      </c>
+      <c r="G39" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="H39" s="54"/>
+      <c r="I39" s="55"/>
+      <c r="J39" s="55"/>
+      <c r="K39" s="55"/>
+      <c r="L39" s="56"/>
+      <c r="M39" s="57"/>
+      <c r="N39" s="55"/>
+      <c r="O39" s="55"/>
+      <c r="P39" s="55"/>
+      <c r="Q39" s="55"/>
+      <c r="R39" s="55"/>
+      <c r="S39" s="56"/>
+      <c r="T39" s="57"/>
+      <c r="U39" s="55"/>
+      <c r="V39" s="55"/>
+      <c r="W39" s="55"/>
+      <c r="X39" s="55"/>
+      <c r="Y39" s="55"/>
+      <c r="Z39" s="56"/>
+      <c r="AA39" s="57"/>
+      <c r="AB39" s="60"/>
+      <c r="AC39" s="60"/>
+      <c r="AD39" s="60"/>
+      <c r="AE39" s="60"/>
+      <c r="AF39" s="60"/>
+      <c r="AG39" s="61"/>
+      <c r="AH39" s="58"/>
+      <c r="AI39" s="58"/>
+      <c r="AJ39" s="58"/>
+      <c r="AK39" s="58"/>
+      <c r="AL39" s="55"/>
+      <c r="AM39" s="55"/>
+      <c r="AN39" s="56"/>
+      <c r="AO39" s="57"/>
+      <c r="AP39" s="55"/>
+      <c r="AQ39" s="55"/>
+      <c r="AR39" s="55"/>
+      <c r="AS39" s="55"/>
+      <c r="AT39" s="55"/>
+      <c r="AU39" s="56"/>
+      <c r="AV39" s="57"/>
+      <c r="AW39" s="55"/>
+      <c r="AX39" s="55"/>
+      <c r="AY39" s="55"/>
+      <c r="AZ39" s="55"/>
+      <c r="BA39" s="55"/>
+      <c r="BB39" s="56"/>
+      <c r="BC39" s="57"/>
+      <c r="BD39" s="55"/>
+      <c r="BE39" s="55"/>
+      <c r="BF39" s="55"/>
+      <c r="BG39" s="55"/>
+      <c r="BH39" s="55"/>
+      <c r="BI39" s="56"/>
+      <c r="BJ39" s="57"/>
+      <c r="BK39" s="55"/>
+      <c r="BL39" s="55"/>
+      <c r="BM39" s="55"/>
+      <c r="BN39" s="55"/>
+      <c r="BO39" s="60"/>
     </row>
     <row r="40" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A40" s="119"/>
-      <c r="B40" s="87" t="s">
-        <v>110</v>
+      <c r="A40" s="128"/>
+      <c r="B40" s="88" t="s">
+        <v>139</v>
       </c>
       <c r="C40" s="39" t="str">
-        <f t="shared" ref="C40:C50" ca="1" si="9">IF(F40=E40, IF(TODAY()&gt;F40, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F40) - E40) / (F40 - E40) * 100, 1) &amp; "%")</f>
+        <f t="shared" ref="C40" ca="1" si="8">IF(F40=E40, IF(TODAY()&gt;F40, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F40) - E40) / (F40 - E40) * 100, 1) &amp; "%")</f>
         <v>100%</v>
       </c>
       <c r="D40" s="40" t="str">
-        <f t="shared" ref="D40:D43" si="10">IF(AND(F40&lt;&gt;"", E40&lt;&gt;""), F40 - E40 + 1 &amp; "일", "")</f>
-        <v>7일</v>
+        <f t="shared" si="3"/>
+        <v>4일</v>
       </c>
       <c r="E40" s="41">
-        <v>45971</v>
+        <v>45977</v>
       </c>
       <c r="F40" s="41">
-        <v>45977</v>
+        <v>45980</v>
       </c>
       <c r="G40" s="43" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H40" s="59"/>
       <c r="I40" s="60"/>
@@ -6395,16 +6454,16 @@
       <c r="Y40" s="60"/>
       <c r="Z40" s="61"/>
       <c r="AA40" s="62"/>
-      <c r="AB40" s="58"/>
-      <c r="AC40" s="58"/>
-      <c r="AD40" s="58"/>
-      <c r="AE40" s="58"/>
-      <c r="AF40" s="58"/>
-      <c r="AG40" s="58"/>
-      <c r="AH40" s="58"/>
-      <c r="AI40" s="60"/>
-      <c r="AJ40" s="60"/>
-      <c r="AK40" s="60"/>
+      <c r="AB40" s="60"/>
+      <c r="AC40" s="60"/>
+      <c r="AD40" s="60"/>
+      <c r="AE40" s="60"/>
+      <c r="AF40" s="60"/>
+      <c r="AG40" s="61"/>
+      <c r="AH40" s="63"/>
+      <c r="AI40" s="63"/>
+      <c r="AJ40" s="63"/>
+      <c r="AK40" s="63"/>
       <c r="AL40" s="60"/>
       <c r="AM40" s="60"/>
       <c r="AN40" s="61"/>
@@ -6437,106 +6496,94 @@
       <c r="BO40" s="60"/>
     </row>
     <row r="41" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A41" s="119"/>
-      <c r="B41" s="88" t="s">
-        <v>127</v>
-      </c>
-      <c r="C41" s="39" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>100%</v>
-      </c>
-      <c r="D41" s="40" t="str">
-        <f t="shared" si="10"/>
-        <v>7일</v>
-      </c>
-      <c r="E41" s="41">
-        <v>45971</v>
-      </c>
-      <c r="F41" s="41">
-        <v>45977</v>
-      </c>
-      <c r="G41" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="H41" s="59"/>
-      <c r="I41" s="60"/>
-      <c r="J41" s="60"/>
-      <c r="K41" s="60"/>
-      <c r="L41" s="61"/>
-      <c r="M41" s="62"/>
-      <c r="N41" s="60"/>
-      <c r="O41" s="60"/>
-      <c r="P41" s="60"/>
-      <c r="Q41" s="60"/>
-      <c r="R41" s="60"/>
-      <c r="S41" s="61"/>
-      <c r="T41" s="62"/>
-      <c r="U41" s="60"/>
-      <c r="V41" s="60"/>
-      <c r="W41" s="60"/>
-      <c r="X41" s="60"/>
-      <c r="Y41" s="60"/>
-      <c r="Z41" s="61"/>
-      <c r="AA41" s="62"/>
-      <c r="AB41" s="63"/>
-      <c r="AC41" s="63"/>
-      <c r="AD41" s="63"/>
-      <c r="AE41" s="63"/>
-      <c r="AF41" s="63"/>
-      <c r="AG41" s="63"/>
-      <c r="AH41" s="63"/>
-      <c r="AI41" s="60"/>
-      <c r="AJ41" s="60"/>
-      <c r="AK41" s="60"/>
-      <c r="AL41" s="60"/>
-      <c r="AM41" s="60"/>
-      <c r="AN41" s="61"/>
-      <c r="AO41" s="62"/>
-      <c r="AP41" s="60"/>
-      <c r="AQ41" s="60"/>
-      <c r="AR41" s="60"/>
-      <c r="AS41" s="60"/>
-      <c r="AT41" s="60"/>
-      <c r="AU41" s="61"/>
-      <c r="AV41" s="62"/>
-      <c r="AW41" s="60"/>
-      <c r="AX41" s="60"/>
-      <c r="AY41" s="60"/>
-      <c r="AZ41" s="60"/>
-      <c r="BA41" s="60"/>
-      <c r="BB41" s="61"/>
-      <c r="BC41" s="62"/>
-      <c r="BD41" s="60"/>
-      <c r="BE41" s="60"/>
-      <c r="BF41" s="60"/>
-      <c r="BG41" s="60"/>
-      <c r="BH41" s="60"/>
-      <c r="BI41" s="61"/>
-      <c r="BJ41" s="62"/>
-      <c r="BK41" s="60"/>
-      <c r="BL41" s="60"/>
-      <c r="BM41" s="60"/>
-      <c r="BN41" s="60"/>
-      <c r="BO41" s="60"/>
+      <c r="A41" s="128"/>
+      <c r="B41" s="142" t="s">
+        <v>114</v>
+      </c>
+      <c r="C41" s="142"/>
+      <c r="D41" s="142"/>
+      <c r="E41" s="142"/>
+      <c r="F41" s="142"/>
+      <c r="G41" s="142"/>
+      <c r="H41" s="130"/>
+      <c r="I41" s="131"/>
+      <c r="J41" s="131"/>
+      <c r="K41" s="131"/>
+      <c r="L41" s="131"/>
+      <c r="M41" s="131"/>
+      <c r="N41" s="131"/>
+      <c r="O41" s="131"/>
+      <c r="P41" s="131"/>
+      <c r="Q41" s="131"/>
+      <c r="R41" s="131"/>
+      <c r="S41" s="131"/>
+      <c r="T41" s="131"/>
+      <c r="U41" s="131"/>
+      <c r="V41" s="131"/>
+      <c r="W41" s="131"/>
+      <c r="X41" s="131"/>
+      <c r="Y41" s="131"/>
+      <c r="Z41" s="131"/>
+      <c r="AA41" s="131"/>
+      <c r="AB41" s="131"/>
+      <c r="AC41" s="131"/>
+      <c r="AD41" s="131"/>
+      <c r="AE41" s="131"/>
+      <c r="AF41" s="131"/>
+      <c r="AG41" s="131"/>
+      <c r="AH41" s="131"/>
+      <c r="AI41" s="131"/>
+      <c r="AJ41" s="131"/>
+      <c r="AK41" s="131"/>
+      <c r="AL41" s="131"/>
+      <c r="AM41" s="131"/>
+      <c r="AN41" s="131"/>
+      <c r="AO41" s="131"/>
+      <c r="AP41" s="131"/>
+      <c r="AQ41" s="131"/>
+      <c r="AR41" s="131"/>
+      <c r="AS41" s="131"/>
+      <c r="AT41" s="131"/>
+      <c r="AU41" s="131"/>
+      <c r="AV41" s="131"/>
+      <c r="AW41" s="131"/>
+      <c r="AX41" s="131"/>
+      <c r="AY41" s="131"/>
+      <c r="AZ41" s="131"/>
+      <c r="BA41" s="131"/>
+      <c r="BB41" s="131"/>
+      <c r="BC41" s="131"/>
+      <c r="BD41" s="131"/>
+      <c r="BE41" s="131"/>
+      <c r="BF41" s="131"/>
+      <c r="BG41" s="131"/>
+      <c r="BH41" s="131"/>
+      <c r="BI41" s="131"/>
+      <c r="BJ41" s="131"/>
+      <c r="BK41" s="131"/>
+      <c r="BL41" s="131"/>
+      <c r="BM41" s="131"/>
+      <c r="BN41" s="131"/>
+      <c r="BO41" s="132"/>
     </row>
     <row r="42" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A42" s="119"/>
-      <c r="B42" s="88" t="s">
-        <v>134</v>
+      <c r="A42" s="128"/>
+      <c r="B42" s="87" t="s">
+        <v>110</v>
       </c>
       <c r="C42" s="39" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ref="C42:C48" ca="1" si="9">IF(F42=E42, IF(TODAY()&gt;F42, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F42) - E42) / (F42 - E42) * 100, 1) &amp; "%")</f>
         <v>100%</v>
       </c>
       <c r="D42" s="40" t="str">
-        <f t="shared" si="10"/>
-        <v>10일</v>
+        <f t="shared" ref="D42:D47" si="10">IF(AND(F42&lt;&gt;"", E42&lt;&gt;""), F42 - E42 + 1 &amp; "일", "")</f>
+        <v>7일</v>
       </c>
       <c r="E42" s="41">
         <v>45971</v>
       </c>
       <c r="F42" s="41">
-        <v>45980</v>
+        <v>45977</v>
       </c>
       <c r="G42" s="43" t="s">
         <v>119</v>
@@ -6603,26 +6650,26 @@
       <c r="BO42" s="60"/>
     </row>
     <row r="43" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A43" s="119"/>
-      <c r="B43" s="93" t="s">
-        <v>136</v>
+      <c r="A43" s="128"/>
+      <c r="B43" s="88" t="s">
+        <v>127</v>
       </c>
       <c r="C43" s="39" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="D43" s="40" t="str">
         <f t="shared" si="10"/>
-        <v>1일</v>
+        <v>7일</v>
       </c>
       <c r="E43" s="41">
-        <v>45980</v>
+        <v>45971</v>
       </c>
       <c r="F43" s="41">
-        <v>45980</v>
-      </c>
-      <c r="G43" s="52" t="s">
-        <v>105</v>
+        <v>45977</v>
+      </c>
+      <c r="G43" s="43" t="s">
+        <v>119</v>
       </c>
       <c r="H43" s="59"/>
       <c r="I43" s="60"/>
@@ -6644,16 +6691,16 @@
       <c r="Y43" s="60"/>
       <c r="Z43" s="61"/>
       <c r="AA43" s="62"/>
-      <c r="AB43" s="60"/>
-      <c r="AC43" s="60"/>
-      <c r="AD43" s="60"/>
-      <c r="AE43" s="60"/>
-      <c r="AF43" s="60"/>
-      <c r="AG43" s="61"/>
-      <c r="AH43" s="62"/>
+      <c r="AB43" s="63"/>
+      <c r="AC43" s="63"/>
+      <c r="AD43" s="63"/>
+      <c r="AE43" s="63"/>
+      <c r="AF43" s="63"/>
+      <c r="AG43" s="63"/>
+      <c r="AH43" s="63"/>
       <c r="AI43" s="60"/>
       <c r="AJ43" s="60"/>
-      <c r="AK43" s="63"/>
+      <c r="AK43" s="60"/>
       <c r="AL43" s="60"/>
       <c r="AM43" s="60"/>
       <c r="AN43" s="61"/>
@@ -6686,26 +6733,26 @@
       <c r="BO43" s="60"/>
     </row>
     <row r="44" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A44" s="119"/>
-      <c r="B44" s="91" t="s">
-        <v>144</v>
-      </c>
-      <c r="C44" s="20" t="str">
-        <f ca="1">IF(F44=E44, IF(TODAY()&gt;F44, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F44) - E44) / (F44 - E44) * 100, 1) &amp; "%")</f>
-        <v>0%</v>
+      <c r="A44" s="128"/>
+      <c r="B44" s="88" t="s">
+        <v>133</v>
+      </c>
+      <c r="C44" s="39" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>100%</v>
       </c>
       <c r="D44" s="40" t="str">
-        <f t="shared" ref="D44:D45" si="11">IF(AND(F44&lt;&gt;"", E44&lt;&gt;""), F44 - E44 + 1 &amp; "일", "")</f>
-        <v>1일</v>
+        <f t="shared" si="10"/>
+        <v>10일</v>
       </c>
       <c r="E44" s="41">
-        <v>45980</v>
+        <v>45971</v>
       </c>
       <c r="F44" s="41">
         <v>45980</v>
       </c>
-      <c r="G44" s="52" t="s">
-        <v>105</v>
+      <c r="G44" s="43" t="s">
+        <v>119</v>
       </c>
       <c r="H44" s="59"/>
       <c r="I44" s="60"/>
@@ -6727,13 +6774,13 @@
       <c r="Y44" s="60"/>
       <c r="Z44" s="61"/>
       <c r="AA44" s="62"/>
-      <c r="AB44" s="60"/>
-      <c r="AC44" s="60"/>
-      <c r="AD44" s="60"/>
-      <c r="AE44" s="60"/>
-      <c r="AF44" s="60"/>
-      <c r="AG44" s="61"/>
-      <c r="AH44" s="62"/>
+      <c r="AB44" s="58"/>
+      <c r="AC44" s="58"/>
+      <c r="AD44" s="58"/>
+      <c r="AE44" s="58"/>
+      <c r="AF44" s="58"/>
+      <c r="AG44" s="58"/>
+      <c r="AH44" s="58"/>
       <c r="AI44" s="60"/>
       <c r="AJ44" s="60"/>
       <c r="AK44" s="60"/>
@@ -6769,25 +6816,25 @@
       <c r="BO44" s="60"/>
     </row>
     <row r="45" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A45" s="119"/>
-      <c r="B45" s="91" t="s">
-        <v>138</v>
-      </c>
-      <c r="C45" s="20" t="str">
+      <c r="A45" s="128"/>
+      <c r="B45" s="93" t="s">
+        <v>135</v>
+      </c>
+      <c r="C45" s="39" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>0%</v>
-      </c>
-      <c r="D45" s="21" t="str">
-        <f t="shared" si="11"/>
+        <v>100%</v>
+      </c>
+      <c r="D45" s="40" t="str">
+        <f t="shared" si="10"/>
         <v>1일</v>
       </c>
-      <c r="E45" s="22">
+      <c r="E45" s="41">
         <v>45980</v>
       </c>
-      <c r="F45" s="22">
+      <c r="F45" s="41">
         <v>45980</v>
       </c>
-      <c r="G45" s="30" t="s">
+      <c r="G45" s="52" t="s">
         <v>105</v>
       </c>
       <c r="H45" s="59"/>
@@ -6819,7 +6866,7 @@
       <c r="AH45" s="62"/>
       <c r="AI45" s="60"/>
       <c r="AJ45" s="60"/>
-      <c r="AK45" s="60"/>
+      <c r="AK45" s="63"/>
       <c r="AL45" s="60"/>
       <c r="AM45" s="60"/>
       <c r="AN45" s="61"/>
@@ -6852,26 +6899,26 @@
       <c r="BO45" s="60"/>
     </row>
     <row r="46" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A46" s="119"/>
-      <c r="B46" s="92" t="s">
-        <v>154</v>
-      </c>
-      <c r="C46" s="20" t="str">
-        <f t="shared" ref="C46" ca="1" si="12">IF(F46=E46, IF(TODAY()&gt;F46, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F46) - E46) / (F46 - E46) * 100, 1) &amp; "%")</f>
-        <v>0%</v>
-      </c>
-      <c r="D46" s="21" t="str">
-        <f t="shared" ref="D46:D50" si="13">IF(AND(F46&lt;&gt;"", E46&lt;&gt;""), F46 - E46 + 1 &amp; "일", "")</f>
-        <v>1일</v>
-      </c>
-      <c r="E46" s="22">
+      <c r="A46" s="128"/>
+      <c r="B46" s="125" t="s">
+        <v>152</v>
+      </c>
+      <c r="C46" s="73" t="str">
+        <f ca="1">IF(F46=E46, IF(TODAY()&gt;F46, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F46) - E46) / (F46 - E46) * 100, 1) &amp; "%")</f>
+        <v>50%</v>
+      </c>
+      <c r="D46" s="74" t="str">
+        <f t="shared" si="10"/>
+        <v>3일</v>
+      </c>
+      <c r="E46" s="75">
         <v>45980</v>
       </c>
-      <c r="F46" s="22">
-        <v>45980</v>
-      </c>
-      <c r="G46" s="30" t="s">
-        <v>153</v>
+      <c r="F46" s="75">
+        <v>45982</v>
+      </c>
+      <c r="G46" s="76" t="s">
+        <v>105</v>
       </c>
       <c r="H46" s="59"/>
       <c r="I46" s="60"/>
@@ -6935,18 +6982,27 @@
       <c r="BO46" s="60"/>
     </row>
     <row r="47" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A47" s="119"/>
-      <c r="B47" s="91" t="s">
-        <v>148</v>
-      </c>
-      <c r="C47" s="20" t="str">
+      <c r="A47" s="128"/>
+      <c r="B47" s="85" t="s">
+        <v>155</v>
+      </c>
+      <c r="C47" s="39" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>100%</v>
-      </c>
-      <c r="D47" s="21"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="30"/>
+        <v>0%</v>
+      </c>
+      <c r="D47" s="40" t="str">
+        <f t="shared" si="10"/>
+        <v>1일</v>
+      </c>
+      <c r="E47" s="41">
+        <v>45981</v>
+      </c>
+      <c r="F47" s="41">
+        <v>45981</v>
+      </c>
+      <c r="G47" s="52" t="s">
+        <v>154</v>
+      </c>
       <c r="H47" s="59"/>
       <c r="I47" s="60"/>
       <c r="J47" s="60"/>
@@ -7009,16 +7065,16 @@
       <c r="BO47" s="60"/>
     </row>
     <row r="48" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A48" s="119"/>
+      <c r="A48" s="128"/>
       <c r="B48" s="92" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C48" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
         <v>100%</v>
       </c>
       <c r="D48" s="21" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="D48" si="11">IF(AND(F48&lt;&gt;"", E48&lt;&gt;""), F48 - E48 + 1 &amp; "일", "")</f>
         <v/>
       </c>
       <c r="E48" s="22"/>
@@ -7083,101 +7139,101 @@
       <c r="BL48" s="60"/>
       <c r="BM48" s="60"/>
       <c r="BN48" s="60"/>
-      <c r="BO48" s="60"/>
+      <c r="BO48" s="29"/>
     </row>
-    <row r="49" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A49" s="119"/>
-      <c r="B49" s="92" t="s">
-        <v>149</v>
-      </c>
-      <c r="C49" s="20" t="str">
-        <f t="shared" ref="C49" ca="1" si="14">IF(F49=E49, IF(TODAY()&gt;F49, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F49) - E49) / (F49 - E49) * 100, 1) &amp; "%")</f>
+    <row r="49" spans="1:67" ht="15.75" thickBot="1">
+      <c r="A49" s="128"/>
+      <c r="B49" s="142" t="s">
+        <v>109</v>
+      </c>
+      <c r="C49" s="142"/>
+      <c r="D49" s="142"/>
+      <c r="E49" s="142"/>
+      <c r="F49" s="142"/>
+      <c r="G49" s="142"/>
+      <c r="H49" s="130"/>
+      <c r="I49" s="131"/>
+      <c r="J49" s="131"/>
+      <c r="K49" s="131"/>
+      <c r="L49" s="131"/>
+      <c r="M49" s="131"/>
+      <c r="N49" s="131"/>
+      <c r="O49" s="131"/>
+      <c r="P49" s="131"/>
+      <c r="Q49" s="131"/>
+      <c r="R49" s="131"/>
+      <c r="S49" s="131"/>
+      <c r="T49" s="131"/>
+      <c r="U49" s="131"/>
+      <c r="V49" s="131"/>
+      <c r="W49" s="131"/>
+      <c r="X49" s="131"/>
+      <c r="Y49" s="131"/>
+      <c r="Z49" s="131"/>
+      <c r="AA49" s="131"/>
+      <c r="AB49" s="131"/>
+      <c r="AC49" s="131"/>
+      <c r="AD49" s="131"/>
+      <c r="AE49" s="131"/>
+      <c r="AF49" s="131"/>
+      <c r="AG49" s="131"/>
+      <c r="AH49" s="131"/>
+      <c r="AI49" s="131"/>
+      <c r="AJ49" s="131"/>
+      <c r="AK49" s="131"/>
+      <c r="AL49" s="131"/>
+      <c r="AM49" s="131"/>
+      <c r="AN49" s="131"/>
+      <c r="AO49" s="131"/>
+      <c r="AP49" s="131"/>
+      <c r="AQ49" s="131"/>
+      <c r="AR49" s="131"/>
+      <c r="AS49" s="131"/>
+      <c r="AT49" s="131"/>
+      <c r="AU49" s="131"/>
+      <c r="AV49" s="131"/>
+      <c r="AW49" s="131"/>
+      <c r="AX49" s="131"/>
+      <c r="AY49" s="131"/>
+      <c r="AZ49" s="131"/>
+      <c r="BA49" s="131"/>
+      <c r="BB49" s="131"/>
+      <c r="BC49" s="131"/>
+      <c r="BD49" s="131"/>
+      <c r="BE49" s="131"/>
+      <c r="BF49" s="131"/>
+      <c r="BG49" s="131"/>
+      <c r="BH49" s="131"/>
+      <c r="BI49" s="131"/>
+      <c r="BJ49" s="131"/>
+      <c r="BK49" s="131"/>
+      <c r="BL49" s="131"/>
+      <c r="BM49" s="131"/>
+      <c r="BN49" s="131"/>
+      <c r="BO49" s="132"/>
+    </row>
+    <row r="50" spans="1:67" ht="15.75" thickBot="1">
+      <c r="A50" s="128"/>
+      <c r="B50" s="101" t="s">
+        <v>128</v>
+      </c>
+      <c r="C50" s="44" t="str">
+        <f t="shared" ref="C50:C68" ca="1" si="12">IF(F50=E50, IF(TODAY()&gt;F50, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F50) - E50) / (F50 - E50) * 100, 1) &amp; "%")</f>
         <v>100%</v>
       </c>
-      <c r="D49" s="21" t="str">
-        <f t="shared" ref="D49" si="15">IF(AND(F49&lt;&gt;"", E49&lt;&gt;""), F49 - E49 + 1 &amp; "일", "")</f>
-        <v/>
-      </c>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="54"/>
-      <c r="I49" s="55"/>
-      <c r="J49" s="55"/>
-      <c r="K49" s="55"/>
-      <c r="L49" s="56"/>
-      <c r="M49" s="57"/>
-      <c r="N49" s="55"/>
-      <c r="O49" s="55"/>
-      <c r="P49" s="55"/>
-      <c r="Q49" s="55"/>
-      <c r="R49" s="55"/>
-      <c r="S49" s="56"/>
-      <c r="T49" s="57"/>
-      <c r="U49" s="55"/>
-      <c r="V49" s="55"/>
-      <c r="W49" s="55"/>
-      <c r="X49" s="55"/>
-      <c r="Y49" s="55"/>
-      <c r="Z49" s="56"/>
-      <c r="AA49" s="57"/>
-      <c r="AB49" s="60"/>
-      <c r="AC49" s="60"/>
-      <c r="AD49" s="60"/>
-      <c r="AE49" s="60"/>
-      <c r="AF49" s="60"/>
-      <c r="AG49" s="61"/>
-      <c r="AH49" s="62"/>
-      <c r="AI49" s="55"/>
-      <c r="AJ49" s="55"/>
-      <c r="AK49" s="55"/>
-      <c r="AL49" s="55"/>
-      <c r="AM49" s="55"/>
-      <c r="AN49" s="56"/>
-      <c r="AO49" s="57"/>
-      <c r="AP49" s="55"/>
-      <c r="AQ49" s="55"/>
-      <c r="AR49" s="55"/>
-      <c r="AS49" s="55"/>
-      <c r="AT49" s="55"/>
-      <c r="AU49" s="56"/>
-      <c r="AV49" s="57"/>
-      <c r="AW49" s="55"/>
-      <c r="AX49" s="55"/>
-      <c r="AY49" s="55"/>
-      <c r="AZ49" s="55"/>
-      <c r="BA49" s="55"/>
-      <c r="BB49" s="56"/>
-      <c r="BC49" s="57"/>
-      <c r="BD49" s="55"/>
-      <c r="BE49" s="55"/>
-      <c r="BF49" s="55"/>
-      <c r="BG49" s="55"/>
-      <c r="BH49" s="55"/>
-      <c r="BI49" s="56"/>
-      <c r="BJ49" s="57"/>
-      <c r="BK49" s="55"/>
-      <c r="BL49" s="55"/>
-      <c r="BM49" s="55"/>
-      <c r="BN49" s="55"/>
-      <c r="BO49" s="60"/>
-    </row>
-    <row r="50" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A50" s="119"/>
-      <c r="B50" s="92" t="s">
-        <v>150</v>
-      </c>
-      <c r="C50" s="20" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>100%</v>
-      </c>
-      <c r="D50" s="21" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="30"/>
+      <c r="D50" s="104" t="str">
+        <f t="shared" ref="D50:D68" si="13">IF(AND(F50&lt;&gt;"", E50&lt;&gt;""), F50 - E50 + 1 &amp; "일", "")</f>
+        <v>7일</v>
+      </c>
+      <c r="E50" s="45">
+        <v>45971</v>
+      </c>
+      <c r="F50" s="45">
+        <v>45977</v>
+      </c>
+      <c r="G50" s="102" t="s">
+        <v>101</v>
+      </c>
       <c r="H50" s="59"/>
       <c r="I50" s="60"/>
       <c r="J50" s="60"/>
@@ -7237,102 +7293,114 @@
       <c r="BL50" s="60"/>
       <c r="BM50" s="60"/>
       <c r="BN50" s="60"/>
-      <c r="BO50" s="29"/>
+      <c r="BO50" s="60"/>
     </row>
     <row r="51" spans="1:67" ht="15.75" thickBot="1">
-      <c r="A51" s="119"/>
-      <c r="B51" s="133" t="s">
-        <v>109</v>
-      </c>
-      <c r="C51" s="133"/>
-      <c r="D51" s="133"/>
-      <c r="E51" s="133"/>
-      <c r="F51" s="133"/>
-      <c r="G51" s="133"/>
-      <c r="H51" s="121"/>
-      <c r="I51" s="122"/>
-      <c r="J51" s="122"/>
-      <c r="K51" s="122"/>
-      <c r="L51" s="122"/>
-      <c r="M51" s="122"/>
-      <c r="N51" s="122"/>
-      <c r="O51" s="122"/>
-      <c r="P51" s="122"/>
-      <c r="Q51" s="122"/>
-      <c r="R51" s="122"/>
-      <c r="S51" s="122"/>
-      <c r="T51" s="122"/>
-      <c r="U51" s="122"/>
-      <c r="V51" s="122"/>
-      <c r="W51" s="122"/>
-      <c r="X51" s="122"/>
-      <c r="Y51" s="122"/>
-      <c r="Z51" s="122"/>
-      <c r="AA51" s="122"/>
-      <c r="AB51" s="122"/>
-      <c r="AC51" s="122"/>
-      <c r="AD51" s="122"/>
-      <c r="AE51" s="122"/>
-      <c r="AF51" s="122"/>
-      <c r="AG51" s="122"/>
-      <c r="AH51" s="122"/>
-      <c r="AI51" s="122"/>
-      <c r="AJ51" s="122"/>
-      <c r="AK51" s="122"/>
-      <c r="AL51" s="122"/>
-      <c r="AM51" s="122"/>
-      <c r="AN51" s="122"/>
-      <c r="AO51" s="122"/>
-      <c r="AP51" s="122"/>
-      <c r="AQ51" s="122"/>
-      <c r="AR51" s="122"/>
-      <c r="AS51" s="122"/>
-      <c r="AT51" s="122"/>
-      <c r="AU51" s="122"/>
-      <c r="AV51" s="122"/>
-      <c r="AW51" s="122"/>
-      <c r="AX51" s="122"/>
-      <c r="AY51" s="122"/>
-      <c r="AZ51" s="122"/>
-      <c r="BA51" s="122"/>
-      <c r="BB51" s="122"/>
-      <c r="BC51" s="122"/>
-      <c r="BD51" s="122"/>
-      <c r="BE51" s="122"/>
-      <c r="BF51" s="122"/>
-      <c r="BG51" s="122"/>
-      <c r="BH51" s="122"/>
-      <c r="BI51" s="122"/>
-      <c r="BJ51" s="122"/>
-      <c r="BK51" s="122"/>
-      <c r="BL51" s="122"/>
-      <c r="BM51" s="122"/>
-      <c r="BN51" s="122"/>
-      <c r="BO51" s="123"/>
+      <c r="A51" s="145"/>
+      <c r="B51" s="126" t="s">
+        <v>151</v>
+      </c>
+      <c r="C51" s="111" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>100%</v>
+      </c>
+      <c r="D51" s="112" t="str">
+        <f t="shared" si="13"/>
+        <v>9일</v>
+      </c>
+      <c r="E51" s="113">
+        <v>45971</v>
+      </c>
+      <c r="F51" s="113">
+        <v>45979</v>
+      </c>
+      <c r="G51" s="115" t="s">
+        <v>103</v>
+      </c>
+      <c r="H51" s="103"/>
+      <c r="I51" s="60"/>
+      <c r="J51" s="60"/>
+      <c r="K51" s="60"/>
+      <c r="L51" s="61"/>
+      <c r="M51" s="62"/>
+      <c r="N51" s="60"/>
+      <c r="O51" s="60"/>
+      <c r="P51" s="60"/>
+      <c r="Q51" s="60"/>
+      <c r="R51" s="60"/>
+      <c r="S51" s="61"/>
+      <c r="T51" s="62"/>
+      <c r="U51" s="60"/>
+      <c r="V51" s="60"/>
+      <c r="W51" s="60"/>
+      <c r="X51" s="60"/>
+      <c r="Y51" s="60"/>
+      <c r="Z51" s="61"/>
+      <c r="AA51" s="62"/>
+      <c r="AB51" s="60"/>
+      <c r="AC51" s="60"/>
+      <c r="AD51" s="60"/>
+      <c r="AE51" s="60"/>
+      <c r="AF51" s="60"/>
+      <c r="AG51" s="61"/>
+      <c r="AH51" s="62"/>
+      <c r="AI51" s="60"/>
+      <c r="AJ51" s="60"/>
+      <c r="AK51" s="60"/>
+      <c r="AL51" s="60"/>
+      <c r="AM51" s="60"/>
+      <c r="AN51" s="61"/>
+      <c r="AO51" s="62"/>
+      <c r="AP51" s="60"/>
+      <c r="AQ51" s="60"/>
+      <c r="AR51" s="60"/>
+      <c r="AS51" s="60"/>
+      <c r="AT51" s="60"/>
+      <c r="AU51" s="61"/>
+      <c r="AV51" s="62"/>
+      <c r="AW51" s="60"/>
+      <c r="AX51" s="60"/>
+      <c r="AY51" s="60"/>
+      <c r="AZ51" s="60"/>
+      <c r="BA51" s="60"/>
+      <c r="BB51" s="61"/>
+      <c r="BC51" s="62"/>
+      <c r="BD51" s="60"/>
+      <c r="BE51" s="60"/>
+      <c r="BF51" s="60"/>
+      <c r="BG51" s="60"/>
+      <c r="BH51" s="60"/>
+      <c r="BI51" s="61"/>
+      <c r="BJ51" s="62"/>
+      <c r="BK51" s="60"/>
+      <c r="BL51" s="60"/>
+      <c r="BM51" s="60"/>
+      <c r="BN51" s="60"/>
+      <c r="BO51" s="60"/>
     </row>
     <row r="52" spans="1:67" ht="15.75" thickBot="1">
-      <c r="A52" s="119"/>
-      <c r="B52" s="101" t="s">
-        <v>128</v>
-      </c>
-      <c r="C52" s="44" t="str">
-        <f t="shared" ref="C52:C70" ca="1" si="16">IF(F52=E52, IF(TODAY()&gt;F52, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F52) - E52) / (F52 - E52) * 100, 1) &amp; "%")</f>
+      <c r="A52" s="145"/>
+      <c r="B52" s="109" t="s">
+        <v>86</v>
+      </c>
+      <c r="C52" s="111" t="str">
+        <f t="shared" ref="C52" ca="1" si="14">IF(F52=E52, IF(TODAY()&gt;F52, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F52) - E52) / (F52 - E52) * 100, 1) &amp; "%")</f>
         <v>100%</v>
       </c>
-      <c r="D52" s="104" t="str">
-        <f t="shared" ref="D52:D70" si="17">IF(AND(F52&lt;&gt;"", E52&lt;&gt;""), F52 - E52 + 1 &amp; "일", "")</f>
-        <v>7일</v>
-      </c>
-      <c r="E52" s="45">
+      <c r="D52" s="112" t="str">
+        <f t="shared" ref="D52:D53" si="15">IF(AND(F52&lt;&gt;"", E52&lt;&gt;""), F52 - E52 + 1 &amp; "일", "")</f>
+        <v>9일</v>
+      </c>
+      <c r="E52" s="113">
         <v>45971</v>
       </c>
-      <c r="F52" s="45">
-        <v>45977</v>
-      </c>
-      <c r="G52" s="102" t="s">
-        <v>101</v>
-      </c>
-      <c r="H52" s="59"/>
+      <c r="F52" s="113">
+        <v>45979</v>
+      </c>
+      <c r="G52" s="115" t="s">
+        <v>103</v>
+      </c>
+      <c r="H52" s="103"/>
       <c r="I52" s="60"/>
       <c r="J52" s="60"/>
       <c r="K52" s="60"/>
@@ -7393,27 +7461,27 @@
       <c r="BN52" s="60"/>
       <c r="BO52" s="60"/>
     </row>
-    <row r="53" spans="1:67" ht="15.75" thickBot="1">
-      <c r="A53" s="136"/>
+    <row r="53" spans="1:67" ht="15" customHeight="1" thickBot="1">
+      <c r="A53" s="145"/>
       <c r="B53" s="110" t="s">
-        <v>86</v>
-      </c>
-      <c r="C53" s="112" t="str">
-        <f t="shared" ref="C53" ca="1" si="18">IF(F53=E53, IF(TODAY()&gt;F53, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F53) - E53) / (F53 - E53) * 100, 1) &amp; "%")</f>
+        <v>141</v>
+      </c>
+      <c r="C53" s="111" t="str">
+        <f t="shared" ca="1" si="12"/>
         <v>100%</v>
       </c>
-      <c r="D53" s="113" t="str">
-        <f t="shared" ref="D53:D54" si="19">IF(AND(F53&lt;&gt;"", E53&lt;&gt;""), F53 - E53 + 1 &amp; "일", "")</f>
-        <v>9일</v>
-      </c>
-      <c r="E53" s="114">
-        <v>45971</v>
-      </c>
-      <c r="F53" s="114">
+      <c r="D53" s="112" t="str">
+        <f t="shared" si="15"/>
+        <v>2일</v>
+      </c>
+      <c r="E53" s="113">
         <v>45979</v>
       </c>
-      <c r="G53" s="116" t="s">
-        <v>103</v>
+      <c r="F53" s="113">
+        <v>45980</v>
+      </c>
+      <c r="G53" s="114" t="s">
+        <v>117</v>
       </c>
       <c r="H53" s="103"/>
       <c r="I53" s="60"/>
@@ -7477,28 +7545,28 @@
       <c r="BO53" s="60"/>
     </row>
     <row r="54" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A54" s="136"/>
-      <c r="B54" s="111" t="s">
-        <v>145</v>
-      </c>
-      <c r="C54" s="112" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v>100%</v>
-      </c>
-      <c r="D54" s="113" t="str">
-        <f t="shared" si="19"/>
-        <v>2일</v>
-      </c>
-      <c r="E54" s="114">
-        <v>45979</v>
-      </c>
-      <c r="F54" s="114">
+      <c r="A54" s="128"/>
+      <c r="B54" s="105" t="s">
+        <v>106</v>
+      </c>
+      <c r="C54" s="32" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>5.6%</v>
+      </c>
+      <c r="D54" s="106" t="str">
+        <f t="shared" si="13"/>
+        <v>19일</v>
+      </c>
+      <c r="E54" s="107">
         <v>45980</v>
       </c>
-      <c r="G54" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="H54" s="103"/>
+      <c r="F54" s="107">
+        <v>45998</v>
+      </c>
+      <c r="G54" s="108" t="s">
+        <v>134</v>
+      </c>
+      <c r="H54" s="59"/>
       <c r="I54" s="60"/>
       <c r="J54" s="60"/>
       <c r="K54" s="60"/>
@@ -7560,26 +7628,26 @@
       <c r="BO54" s="60"/>
     </row>
     <row r="55" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A55" s="119"/>
-      <c r="B55" s="105" t="s">
-        <v>106</v>
-      </c>
-      <c r="C55" s="106" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v>0%</v>
-      </c>
-      <c r="D55" s="107" t="str">
-        <f t="shared" si="17"/>
-        <v>19일</v>
-      </c>
-      <c r="E55" s="108">
+      <c r="A55" s="128"/>
+      <c r="B55" s="121" t="s">
+        <v>150</v>
+      </c>
+      <c r="C55" s="122" t="str">
+        <f t="shared" ref="C55" ca="1" si="16">IF(F55=E55, IF(TODAY()&gt;F55, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F55) - E55) / (F55 - E55) * 100, 1) &amp; "%")</f>
+        <v>100%</v>
+      </c>
+      <c r="D55" s="123" t="str">
+        <f t="shared" ref="D55" si="17">IF(AND(F55&lt;&gt;"", E55&lt;&gt;""), F55 - E55 + 1 &amp; "일", "")</f>
+        <v>2일</v>
+      </c>
+      <c r="E55" s="75">
         <v>45980</v>
       </c>
-      <c r="F55" s="108">
-        <v>45998</v>
-      </c>
-      <c r="G55" s="109" t="s">
-        <v>135</v>
+      <c r="F55" s="75">
+        <v>45981</v>
+      </c>
+      <c r="G55" s="120" t="s">
+        <v>117</v>
       </c>
       <c r="H55" s="59"/>
       <c r="I55" s="60"/>
@@ -7643,25 +7711,25 @@
       <c r="BO55" s="60"/>
     </row>
     <row r="56" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A56" s="119"/>
-      <c r="B56" s="142" t="s">
-        <v>156</v>
-      </c>
-      <c r="C56" s="143" t="str">
-        <f t="shared" ref="C56" ca="1" si="20">IF(F56=E56, IF(TODAY()&gt;F56, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F56) - E56) / (F56 - E56) * 100, 1) &amp; "%")</f>
-        <v>0%</v>
-      </c>
-      <c r="D56" s="144" t="str">
-        <f t="shared" ref="D56" si="21">IF(AND(F56&lt;&gt;"", E56&lt;&gt;""), F56 - E56 + 1 &amp; "일", "")</f>
-        <v>2일</v>
+      <c r="A56" s="128"/>
+      <c r="B56" s="117" t="s">
+        <v>129</v>
+      </c>
+      <c r="C56" s="118" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>50%</v>
+      </c>
+      <c r="D56" s="119" t="str">
+        <f t="shared" si="13"/>
+        <v>3일</v>
       </c>
       <c r="E56" s="75">
         <v>45980</v>
       </c>
       <c r="F56" s="75">
-        <v>45981</v>
-      </c>
-      <c r="G56" s="141" t="s">
+        <v>45982</v>
+      </c>
+      <c r="G56" s="120" t="s">
         <v>117</v>
       </c>
       <c r="H56" s="59"/>
@@ -7726,27 +7794,21 @@
       <c r="BO56" s="60"/>
     </row>
     <row r="57" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A57" s="119"/>
-      <c r="B57" s="138" t="s">
-        <v>129</v>
-      </c>
-      <c r="C57" s="139" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v>0%</v>
-      </c>
-      <c r="D57" s="140" t="str">
-        <f t="shared" si="17"/>
-        <v>2일</v>
-      </c>
-      <c r="E57" s="75">
-        <v>45980</v>
-      </c>
-      <c r="F57" s="75">
-        <v>45981</v>
-      </c>
-      <c r="G57" s="141" t="s">
-        <v>117</v>
-      </c>
+      <c r="A57" s="128"/>
+      <c r="B57" s="94" t="s">
+        <v>130</v>
+      </c>
+      <c r="C57" s="32" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>100%</v>
+      </c>
+      <c r="D57" s="21" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="69"/>
       <c r="H57" s="59"/>
       <c r="I57" s="60"/>
       <c r="J57" s="60"/>
@@ -7808,17 +7870,17 @@
       <c r="BN57" s="60"/>
       <c r="BO57" s="60"/>
     </row>
-    <row r="58" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A58" s="119"/>
+    <row r="58" spans="1:67" ht="15.75" thickBot="1">
+      <c r="A58" s="128"/>
       <c r="B58" s="94" t="s">
-        <v>130</v>
-      </c>
-      <c r="C58" s="32" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <v>131</v>
+      </c>
+      <c r="C58" s="20" t="str">
+        <f t="shared" ca="1" si="12"/>
         <v>100%</v>
       </c>
       <c r="D58" s="21" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="E58" s="22"/>
@@ -7886,21 +7948,27 @@
       <c r="BO58" s="60"/>
     </row>
     <row r="59" spans="1:67" ht="15.75" thickBot="1">
-      <c r="A59" s="119"/>
-      <c r="B59" s="94" t="s">
-        <v>131</v>
+      <c r="A59" s="128"/>
+      <c r="B59" s="95" t="s">
+        <v>149</v>
       </c>
       <c r="C59" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v>100%</v>
+        <f t="shared" ref="C59" ca="1" si="18">IF(F59=E59, IF(TODAY()&gt;F59, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F59) - E59) / (F59 - E59) * 100, 1) &amp; "%")</f>
+        <v>0%</v>
       </c>
       <c r="D59" s="21" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="E59" s="22"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="69"/>
+        <f>IF(AND(F59&lt;&gt;"", E59&lt;&gt;""), F59 - E59 + 1 &amp; "일", "")</f>
+        <v>10일</v>
+      </c>
+      <c r="E59" s="22">
+        <v>45989</v>
+      </c>
+      <c r="F59" s="22">
+        <v>45998</v>
+      </c>
+      <c r="G59" s="68" t="s">
+        <v>117</v>
+      </c>
       <c r="H59" s="59"/>
       <c r="I59" s="60"/>
       <c r="J59" s="60"/>
@@ -7963,21 +8031,23 @@
       <c r="BO59" s="60"/>
     </row>
     <row r="60" spans="1:67" ht="15.75" thickBot="1">
-      <c r="A60" s="119"/>
-      <c r="B60" s="94" t="s">
-        <v>132</v>
+      <c r="A60" s="146"/>
+      <c r="B60" s="95" t="s">
+        <v>136</v>
       </c>
       <c r="C60" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="12"/>
         <v>100%</v>
       </c>
       <c r="D60" s="21" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="E60" s="22"/>
       <c r="F60" s="22"/>
-      <c r="G60" s="69"/>
+      <c r="G60" s="68" t="s">
+        <v>134</v>
+      </c>
       <c r="H60" s="59"/>
       <c r="I60" s="60"/>
       <c r="J60" s="60"/>
@@ -8037,29 +8107,27 @@
       <c r="BL60" s="60"/>
       <c r="BM60" s="60"/>
       <c r="BN60" s="60"/>
-      <c r="BO60" s="60"/>
+      <c r="BO60" s="29"/>
     </row>
-    <row r="61" spans="1:67" ht="15.75" thickBot="1">
-      <c r="A61" s="119"/>
-      <c r="B61" s="95" t="s">
-        <v>155</v>
+    <row r="61" spans="1:67" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A61" s="127" t="s">
+        <v>90</v>
+      </c>
+      <c r="B61" s="96" t="s">
+        <v>2</v>
       </c>
       <c r="C61" s="20" t="str">
-        <f t="shared" ref="C61" ca="1" si="22">IF(F61=E61, IF(TODAY()&gt;F61, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F61) - E61) / (F61 - E61) * 100, 1) &amp; "%")</f>
-        <v>0%</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>100%</v>
       </c>
       <c r="D61" s="21" t="str">
-        <f>IF(AND(F61&lt;&gt;"", E61&lt;&gt;""), F61 - E61 + 1 &amp; "일", "")</f>
-        <v>10일</v>
-      </c>
-      <c r="E61" s="22">
-        <v>45989</v>
-      </c>
-      <c r="F61" s="22">
-        <v>45998</v>
-      </c>
-      <c r="G61" s="68" t="s">
-        <v>117</v>
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="70" t="s">
+        <v>100</v>
       </c>
       <c r="H61" s="59"/>
       <c r="I61" s="60"/>
@@ -8123,22 +8191,22 @@
       <c r="BO61" s="60"/>
     </row>
     <row r="62" spans="1:67" ht="15.75" thickBot="1">
-      <c r="A62" s="137"/>
-      <c r="B62" s="95" t="s">
-        <v>137</v>
-      </c>
-      <c r="C62" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
+      <c r="A62" s="128"/>
+      <c r="B62" s="97" t="s">
+        <v>88</v>
+      </c>
+      <c r="C62" s="31" t="str">
+        <f t="shared" ref="C62" ca="1" si="19">IF(F62=E62, IF(TODAY()&gt;F62, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F62) - E62) / (F62 - E62) * 100, 1) &amp; "%")</f>
         <v>100%</v>
       </c>
       <c r="D62" s="21" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="E62" s="22"/>
       <c r="F62" s="22"/>
-      <c r="G62" s="68" t="s">
-        <v>135</v>
+      <c r="G62" s="70" t="s">
+        <v>100</v>
       </c>
       <c r="H62" s="59"/>
       <c r="I62" s="60"/>
@@ -8199,21 +8267,16 @@
       <c r="BL62" s="60"/>
       <c r="BM62" s="60"/>
       <c r="BN62" s="60"/>
-      <c r="BO62" s="29"/>
+      <c r="BO62" s="60"/>
     </row>
-    <row r="63" spans="1:67" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A63" s="118" t="s">
-        <v>90</v>
-      </c>
-      <c r="B63" s="96" t="s">
-        <v>2</v>
-      </c>
-      <c r="C63" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v>100%</v>
-      </c>
+    <row r="63" spans="1:67" ht="15.75" thickBot="1">
+      <c r="A63" s="128"/>
+      <c r="B63" s="97" t="s">
+        <v>89</v>
+      </c>
+      <c r="C63" s="67"/>
       <c r="D63" s="21" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="E63" s="22"/>
@@ -8283,22 +8346,26 @@
       <c r="BO63" s="60"/>
     </row>
     <row r="64" spans="1:67" ht="15.75" thickBot="1">
-      <c r="A64" s="119"/>
-      <c r="B64" s="97" t="s">
-        <v>88</v>
-      </c>
-      <c r="C64" s="31" t="str">
-        <f t="shared" ref="C64" ca="1" si="23">IF(F64=E64, IF(TODAY()&gt;F64, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F64) - E64) / (F64 - E64) * 100, 1) &amp; "%")</f>
-        <v>100%</v>
-      </c>
-      <c r="D64" s="21" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="E64" s="22"/>
-      <c r="F64" s="22"/>
-      <c r="G64" s="70" t="s">
-        <v>100</v>
+      <c r="A64" s="128"/>
+      <c r="B64" s="81" t="s">
+        <v>90</v>
+      </c>
+      <c r="C64" s="35" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>0%</v>
+      </c>
+      <c r="D64" s="71" t="str">
+        <f t="shared" si="13"/>
+        <v>12일</v>
+      </c>
+      <c r="E64" s="36">
+        <v>45999</v>
+      </c>
+      <c r="F64" s="36">
+        <v>46010</v>
+      </c>
+      <c r="G64" s="37" t="s">
+        <v>98</v>
       </c>
       <c r="H64" s="59"/>
       <c r="I64" s="60"/>
@@ -8361,20 +8428,27 @@
       <c r="BN64" s="60"/>
       <c r="BO64" s="60"/>
     </row>
-    <row r="65" spans="1:67" ht="15.75" thickBot="1">
-      <c r="A65" s="119"/>
-      <c r="B65" s="97" t="s">
-        <v>89</v>
-      </c>
-      <c r="C65" s="67"/>
+    <row r="65" spans="1:67" ht="15" customHeight="1" thickBot="1">
+      <c r="A65" s="128"/>
+      <c r="B65" s="98" t="s">
+        <v>91</v>
+      </c>
+      <c r="C65" s="32" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>0%</v>
+      </c>
       <c r="D65" s="21" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="E65" s="22"/>
-      <c r="F65" s="22"/>
-      <c r="G65" s="70" t="s">
-        <v>100</v>
+        <f t="shared" si="13"/>
+        <v>10일</v>
+      </c>
+      <c r="E65" s="33">
+        <v>45999</v>
+      </c>
+      <c r="F65" s="33">
+        <v>46008</v>
+      </c>
+      <c r="G65" s="34" t="s">
+        <v>98</v>
       </c>
       <c r="H65" s="59"/>
       <c r="I65" s="60"/>
@@ -8437,26 +8511,26 @@
       <c r="BN65" s="60"/>
       <c r="BO65" s="60"/>
     </row>
-    <row r="66" spans="1:67" ht="15.75" thickBot="1">
-      <c r="A66" s="119"/>
-      <c r="B66" s="81" t="s">
-        <v>90</v>
-      </c>
-      <c r="C66" s="35" t="str">
-        <f t="shared" ca="1" si="16"/>
+    <row r="66" spans="1:67" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A66" s="128"/>
+      <c r="B66" s="95" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" s="20" t="str">
+        <f t="shared" ca="1" si="12"/>
         <v>0%</v>
       </c>
-      <c r="D66" s="71" t="str">
-        <f t="shared" si="17"/>
-        <v>12일</v>
-      </c>
-      <c r="E66" s="36">
+      <c r="D66" s="21" t="str">
+        <f t="shared" si="13"/>
+        <v>10일</v>
+      </c>
+      <c r="E66" s="22">
         <v>45999</v>
       </c>
-      <c r="F66" s="36">
-        <v>46010</v>
-      </c>
-      <c r="G66" s="37" t="s">
+      <c r="F66" s="22">
+        <v>46008</v>
+      </c>
+      <c r="G66" s="23" t="s">
         <v>98</v>
       </c>
       <c r="H66" s="59"/>
@@ -8520,26 +8594,26 @@
       <c r="BN66" s="60"/>
       <c r="BO66" s="60"/>
     </row>
-    <row r="67" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A67" s="119"/>
-      <c r="B67" s="98" t="s">
-        <v>91</v>
-      </c>
-      <c r="C67" s="32" t="str">
-        <f t="shared" ca="1" si="16"/>
+    <row r="67" spans="1:67" ht="15.75" thickBot="1">
+      <c r="A67" s="128"/>
+      <c r="B67" s="95" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67" s="20" t="str">
+        <f t="shared" ca="1" si="12"/>
         <v>0%</v>
       </c>
       <c r="D67" s="21" t="str">
-        <f t="shared" si="17"/>
-        <v>10일</v>
-      </c>
-      <c r="E67" s="33">
-        <v>45999</v>
-      </c>
-      <c r="F67" s="33">
-        <v>46008</v>
-      </c>
-      <c r="G67" s="34" t="s">
+        <f t="shared" si="13"/>
+        <v>1일</v>
+      </c>
+      <c r="E67" s="22">
+        <v>46010</v>
+      </c>
+      <c r="F67" s="22">
+        <v>46010</v>
+      </c>
+      <c r="G67" s="23" t="s">
         <v>98</v>
       </c>
       <c r="H67" s="59"/>
@@ -8603,24 +8677,24 @@
       <c r="BN67" s="60"/>
       <c r="BO67" s="60"/>
     </row>
-    <row r="68" spans="1:67" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A68" s="119"/>
+    <row r="68" spans="1:67" ht="15.75" thickBot="1">
+      <c r="A68" s="129"/>
       <c r="B68" s="95" t="s">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="C68" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0%</v>
       </c>
       <c r="D68" s="21" t="str">
-        <f t="shared" si="17"/>
-        <v>10일</v>
+        <f t="shared" si="13"/>
+        <v>1일</v>
       </c>
       <c r="E68" s="22">
-        <v>45999</v>
+        <v>46010</v>
       </c>
       <c r="F68" s="22">
-        <v>46008</v>
+        <v>46010</v>
       </c>
       <c r="G68" s="23" t="s">
         <v>98</v>
@@ -8686,175 +8760,15 @@
       <c r="BN68" s="60"/>
       <c r="BO68" s="60"/>
     </row>
-    <row r="69" spans="1:67" ht="15.75" thickBot="1">
-      <c r="A69" s="119"/>
-      <c r="B69" s="95" t="s">
-        <v>92</v>
-      </c>
-      <c r="C69" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v>0%</v>
-      </c>
-      <c r="D69" s="21" t="str">
-        <f t="shared" si="17"/>
-        <v>1일</v>
-      </c>
-      <c r="E69" s="22">
-        <v>46010</v>
-      </c>
-      <c r="F69" s="22">
-        <v>46010</v>
-      </c>
-      <c r="G69" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="H69" s="59"/>
-      <c r="I69" s="60"/>
-      <c r="J69" s="60"/>
-      <c r="K69" s="60"/>
-      <c r="L69" s="61"/>
-      <c r="M69" s="62"/>
-      <c r="N69" s="60"/>
-      <c r="O69" s="60"/>
-      <c r="P69" s="60"/>
-      <c r="Q69" s="60"/>
-      <c r="R69" s="60"/>
-      <c r="S69" s="61"/>
-      <c r="T69" s="62"/>
-      <c r="U69" s="60"/>
-      <c r="V69" s="60"/>
-      <c r="W69" s="60"/>
-      <c r="X69" s="60"/>
-      <c r="Y69" s="60"/>
-      <c r="Z69" s="61"/>
-      <c r="AA69" s="62"/>
-      <c r="AB69" s="60"/>
-      <c r="AC69" s="60"/>
-      <c r="AD69" s="60"/>
-      <c r="AE69" s="60"/>
-      <c r="AF69" s="60"/>
-      <c r="AG69" s="61"/>
-      <c r="AH69" s="62"/>
-      <c r="AI69" s="60"/>
-      <c r="AJ69" s="60"/>
-      <c r="AK69" s="60"/>
-      <c r="AL69" s="60"/>
-      <c r="AM69" s="60"/>
-      <c r="AN69" s="61"/>
-      <c r="AO69" s="62"/>
-      <c r="AP69" s="60"/>
-      <c r="AQ69" s="60"/>
-      <c r="AR69" s="60"/>
-      <c r="AS69" s="60"/>
-      <c r="AT69" s="60"/>
-      <c r="AU69" s="61"/>
-      <c r="AV69" s="62"/>
-      <c r="AW69" s="60"/>
-      <c r="AX69" s="60"/>
-      <c r="AY69" s="60"/>
-      <c r="AZ69" s="60"/>
-      <c r="BA69" s="60"/>
-      <c r="BB69" s="61"/>
-      <c r="BC69" s="62"/>
-      <c r="BD69" s="60"/>
-      <c r="BE69" s="60"/>
-      <c r="BF69" s="60"/>
-      <c r="BG69" s="60"/>
-      <c r="BH69" s="60"/>
-      <c r="BI69" s="61"/>
-      <c r="BJ69" s="62"/>
-      <c r="BK69" s="60"/>
-      <c r="BL69" s="60"/>
-      <c r="BM69" s="60"/>
-      <c r="BN69" s="60"/>
-      <c r="BO69" s="60"/>
+    <row r="69" spans="1:67">
+      <c r="E69" s="7"/>
+      <c r="F69" s="1"/>
+      <c r="I69" s="3"/>
     </row>
-    <row r="70" spans="1:67" ht="15.75" thickBot="1">
-      <c r="A70" s="120"/>
-      <c r="B70" s="95" t="s">
-        <v>93</v>
-      </c>
-      <c r="C70" s="20" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v>0%</v>
-      </c>
-      <c r="D70" s="21" t="str">
-        <f t="shared" si="17"/>
-        <v>1일</v>
-      </c>
-      <c r="E70" s="22">
-        <v>46010</v>
-      </c>
-      <c r="F70" s="22">
-        <v>46010</v>
-      </c>
-      <c r="G70" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="H70" s="59"/>
-      <c r="I70" s="60"/>
-      <c r="J70" s="60"/>
-      <c r="K70" s="60"/>
-      <c r="L70" s="61"/>
-      <c r="M70" s="62"/>
-      <c r="N70" s="60"/>
-      <c r="O70" s="60"/>
-      <c r="P70" s="60"/>
-      <c r="Q70" s="60"/>
-      <c r="R70" s="60"/>
-      <c r="S70" s="61"/>
-      <c r="T70" s="62"/>
-      <c r="U70" s="60"/>
-      <c r="V70" s="60"/>
-      <c r="W70" s="60"/>
-      <c r="X70" s="60"/>
-      <c r="Y70" s="60"/>
-      <c r="Z70" s="61"/>
-      <c r="AA70" s="62"/>
-      <c r="AB70" s="60"/>
-      <c r="AC70" s="60"/>
-      <c r="AD70" s="60"/>
-      <c r="AE70" s="60"/>
-      <c r="AF70" s="60"/>
-      <c r="AG70" s="61"/>
-      <c r="AH70" s="62"/>
-      <c r="AI70" s="60"/>
-      <c r="AJ70" s="60"/>
-      <c r="AK70" s="60"/>
-      <c r="AL70" s="60"/>
-      <c r="AM70" s="60"/>
-      <c r="AN70" s="61"/>
-      <c r="AO70" s="62"/>
-      <c r="AP70" s="60"/>
-      <c r="AQ70" s="60"/>
-      <c r="AR70" s="60"/>
-      <c r="AS70" s="60"/>
-      <c r="AT70" s="60"/>
-      <c r="AU70" s="61"/>
-      <c r="AV70" s="62"/>
-      <c r="AW70" s="60"/>
-      <c r="AX70" s="60"/>
-      <c r="AY70" s="60"/>
-      <c r="AZ70" s="60"/>
-      <c r="BA70" s="60"/>
-      <c r="BB70" s="61"/>
-      <c r="BC70" s="62"/>
-      <c r="BD70" s="60"/>
-      <c r="BE70" s="60"/>
-      <c r="BF70" s="60"/>
-      <c r="BG70" s="60"/>
-      <c r="BH70" s="60"/>
-      <c r="BI70" s="61"/>
-      <c r="BJ70" s="62"/>
-      <c r="BK70" s="60"/>
-      <c r="BL70" s="60"/>
-      <c r="BM70" s="60"/>
-      <c r="BN70" s="60"/>
-      <c r="BO70" s="60"/>
+    <row r="70" spans="1:67">
+      <c r="I70" s="3"/>
     </row>
     <row r="71" spans="1:67">
-      <c r="E71" s="7"/>
-      <c r="F71" s="1"/>
       <c r="I71" s="3"/>
     </row>
     <row r="72" spans="1:67">
@@ -8864,85 +8778,79 @@
       <c r="I73" s="3"/>
     </row>
     <row r="74" spans="1:67">
-      <c r="I74" s="3"/>
+      <c r="B74" s="8" t="s">
+        <v>94</v>
+      </c>
     </row>
-    <row r="75" spans="1:67">
-      <c r="I75" s="3"/>
+    <row r="75" spans="1:67" ht="16.5">
+      <c r="B75" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" s="3"/>
     </row>
     <row r="76" spans="1:67">
-      <c r="B76" s="8" t="s">
-        <v>94</v>
+      <c r="B76" s="10" t="s">
+        <v>96</v>
       </c>
     </row>
-    <row r="77" spans="1:67" ht="16.5">
-      <c r="B77" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E77" s="2"/>
-      <c r="F77" s="3"/>
+    <row r="77" spans="1:67">
+      <c r="C77" s="3"/>
     </row>
     <row r="78" spans="1:67">
-      <c r="B78" s="10" t="s">
-        <v>96</v>
-      </c>
+      <c r="C78" s="3"/>
     </row>
-    <row r="79" spans="1:67">
-      <c r="C79" s="3"/>
+    <row r="79" spans="1:67"/>
+    <row r="80" spans="1:67"/>
+    <row r="81" spans="2:8" ht="16.5">
+      <c r="B81" s="2"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
     </row>
-    <row r="80" spans="1:67">
-      <c r="C80" s="3"/>
+    <row r="82" spans="2:8">
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
     </row>
-    <row r="81" spans="2:8"/>
-    <row r="82" spans="2:8"/>
     <row r="83" spans="2:8" ht="16.5">
       <c r="B83" s="2"/>
-      <c r="C83" s="3"/>
       <c r="D83" s="3"/>
     </row>
     <row r="84" spans="2:8">
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
     </row>
-    <row r="85" spans="2:8" ht="16.5">
-      <c r="B85" s="2"/>
+    <row r="85" spans="2:8">
+      <c r="C85" s="3"/>
       <c r="D85" s="3"/>
     </row>
     <row r="86" spans="2:8">
-      <c r="C86" s="3"/>
       <c r="D86" s="3"/>
     </row>
     <row r="87" spans="2:8">
-      <c r="C87" s="3"/>
       <c r="D87" s="3"/>
+      <c r="H87" s="11"/>
     </row>
-    <row r="88" spans="2:8">
+    <row r="88" spans="2:8" ht="15" customHeight="1">
       <c r="D88" s="3"/>
     </row>
-    <row r="89" spans="2:8">
+    <row r="89" spans="2:8" ht="15" customHeight="1">
+      <c r="C89" s="3"/>
       <c r="D89" s="3"/>
-      <c r="H89" s="11"/>
-    </row>
-    <row r="90" spans="2:8" ht="15" customHeight="1">
-      <c r="D90" s="3"/>
-    </row>
-    <row r="91" spans="2:8" ht="15" customHeight="1">
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A63:A70"/>
-    <mergeCell ref="H51:BO51"/>
-    <mergeCell ref="H39:BO39"/>
+    <mergeCell ref="A61:A68"/>
+    <mergeCell ref="H49:BO49"/>
+    <mergeCell ref="H41:BO41"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:W1"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="A4:A11"/>
     <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="B49:G49"/>
     <mergeCell ref="B17:G17"/>
-    <mergeCell ref="A12:A62"/>
+    <mergeCell ref="A12:A60"/>
     <mergeCell ref="H17:BO17"/>
     <mergeCell ref="H21:BO21"/>
   </mergeCells>

--- a/2. WBS/5조_WBS_현대이지웰_최종프로젝트.xlsx
+++ b/2. WBS/5조_WBS_현대이지웰_최종프로젝트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\redgu\OneDrive\Desktop\related_Re_View\Re_View_Doc\2. WBS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D88C988-5A55-4DA9-AA79-A643A42263FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC8A8D1-A363-4BA5-AD96-68C412FF5609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="285" yWindow="555" windowWidth="21315" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="157">
   <si>
     <t>팀명</t>
   </si>
@@ -1330,6 +1330,10 @@
     </r>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
+  <si>
+    <t>전체 페이지</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1338,7 +1342,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="46">
+  <fonts count="43">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1619,27 +1623,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <color rgb="FF00B0F0"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF00B0F0"/>
-      <name val="Malgun Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF00B0F0"/>
-      <name val="Malgun Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <color theme="7"/>
       <name val="Arial"/>
       <family val="3"/>
@@ -1769,7 +1752,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -2232,32 +2215,6 @@
       </right>
       <top/>
       <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -2288,20 +2245,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2627,34 +2575,28 @@
     <xf numFmtId="0" fontId="22" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="27" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="27" fillId="8" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="27" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="27" fillId="8" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="37" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="37" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2663,31 +2605,25 @@
     <xf numFmtId="0" fontId="38" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="42" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2720,9 +2656,6 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2735,11 +2668,14 @@
     <xf numFmtId="0" fontId="20" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2965,10 +2901,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BO89"/>
+  <dimension ref="A1:BO90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -2985,31 +2921,31 @@
       <c r="B1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="133" t="s">
+      <c r="C1" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="135" t="s">
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134"/>
-      <c r="L1" s="134"/>
-      <c r="M1" s="134"/>
-      <c r="N1" s="134"/>
-      <c r="O1" s="134"/>
-      <c r="P1" s="134"/>
-      <c r="Q1" s="134"/>
-      <c r="R1" s="134"/>
-      <c r="S1" s="134"/>
-      <c r="T1" s="134"/>
-      <c r="U1" s="134"/>
-      <c r="V1" s="134"/>
-      <c r="W1" s="134"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
+      <c r="N1" s="130"/>
+      <c r="O1" s="130"/>
+      <c r="P1" s="130"/>
+      <c r="Q1" s="130"/>
+      <c r="R1" s="130"/>
+      <c r="S1" s="130"/>
+      <c r="T1" s="130"/>
+      <c r="U1" s="130"/>
+      <c r="V1" s="130"/>
+      <c r="W1" s="130"/>
       <c r="X1" s="6"/>
       <c r="Y1" s="6"/>
       <c r="Z1" s="6"/>
@@ -3073,7 +3009,7 @@
       <c r="F2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="136" t="s">
+      <c r="G2" s="132" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="15" t="s">
@@ -3264,7 +3200,7 @@
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
-      <c r="G3" s="137"/>
+      <c r="G3" s="133"/>
       <c r="H3" s="24">
         <v>45951</v>
       </c>
@@ -3447,7 +3383,7 @@
       </c>
     </row>
     <row r="4" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="138" t="s">
+      <c r="A4" s="134" t="s">
         <v>71</v>
       </c>
       <c r="B4" s="77" t="s">
@@ -3532,7 +3468,7 @@
       <c r="BO4" s="55"/>
     </row>
     <row r="5" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A5" s="139"/>
+      <c r="A5" s="135"/>
       <c r="B5" s="77" t="s">
         <v>73</v>
       </c>
@@ -3615,7 +3551,7 @@
       <c r="BO5" s="60"/>
     </row>
     <row r="6" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A6" s="139"/>
+      <c r="A6" s="135"/>
       <c r="B6" s="77" t="s">
         <v>74</v>
       </c>
@@ -3698,7 +3634,7 @@
       <c r="BO6" s="60"/>
     </row>
     <row r="7" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A7" s="139"/>
+      <c r="A7" s="135"/>
       <c r="B7" s="78" t="s">
         <v>75</v>
       </c>
@@ -3781,7 +3717,7 @@
       <c r="BO7" s="60"/>
     </row>
     <row r="8" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A8" s="139"/>
+      <c r="A8" s="135"/>
       <c r="B8" s="79" t="s">
         <v>76</v>
       </c>
@@ -3864,7 +3800,7 @@
       <c r="BO8" s="60"/>
     </row>
     <row r="9" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A9" s="139"/>
+      <c r="A9" s="135"/>
       <c r="B9" s="77" t="s">
         <v>77</v>
       </c>
@@ -3947,7 +3883,7 @@
       <c r="BO9" s="60"/>
     </row>
     <row r="10" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A10" s="139"/>
+      <c r="A10" s="135"/>
       <c r="B10" s="78" t="s">
         <v>78</v>
       </c>
@@ -4030,7 +3966,7 @@
       <c r="BO10" s="60"/>
     </row>
     <row r="11" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A11" s="140"/>
+      <c r="A11" s="135"/>
       <c r="B11" s="80" t="s">
         <v>79</v>
       </c>
@@ -4113,7 +4049,7 @@
       <c r="BO11" s="60"/>
     </row>
     <row r="12" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A12" s="127" t="s">
+      <c r="A12" s="140" t="s">
         <v>80</v>
       </c>
       <c r="B12" s="81" t="s">
@@ -4198,7 +4134,7 @@
       <c r="BO12" s="60"/>
     </row>
     <row r="13" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A13" s="128"/>
+      <c r="A13" s="124"/>
       <c r="B13" s="82" t="s">
         <v>82</v>
       </c>
@@ -4281,7 +4217,7 @@
       <c r="BO13" s="60"/>
     </row>
     <row r="14" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A14" s="128"/>
+      <c r="A14" s="124"/>
       <c r="B14" s="83" t="s">
         <v>83</v>
       </c>
@@ -4364,7 +4300,7 @@
       <c r="BO14" s="60"/>
     </row>
     <row r="15" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A15" s="128"/>
+      <c r="A15" s="124"/>
       <c r="B15" s="81" t="s">
         <v>84</v>
       </c>
@@ -4447,7 +4383,7 @@
       <c r="BO15" s="38"/>
     </row>
     <row r="16" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A16" s="128"/>
+      <c r="A16" s="124"/>
       <c r="B16" s="84" t="s">
         <v>123</v>
       </c>
@@ -4530,78 +4466,78 @@
       <c r="BO16" s="53"/>
     </row>
     <row r="17" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A17" s="128"/>
-      <c r="B17" s="143" t="s">
+      <c r="A17" s="124"/>
+      <c r="B17" s="138" t="s">
         <v>118</v>
       </c>
-      <c r="C17" s="143"/>
-      <c r="D17" s="143"/>
-      <c r="E17" s="143"/>
-      <c r="F17" s="143"/>
-      <c r="G17" s="144"/>
-      <c r="H17" s="130"/>
-      <c r="I17" s="131"/>
-      <c r="J17" s="131"/>
-      <c r="K17" s="131"/>
-      <c r="L17" s="131"/>
-      <c r="M17" s="131"/>
-      <c r="N17" s="131"/>
-      <c r="O17" s="131"/>
-      <c r="P17" s="131"/>
-      <c r="Q17" s="131"/>
-      <c r="R17" s="131"/>
-      <c r="S17" s="131"/>
-      <c r="T17" s="131"/>
-      <c r="U17" s="131"/>
-      <c r="V17" s="131"/>
-      <c r="W17" s="131"/>
-      <c r="X17" s="131"/>
-      <c r="Y17" s="131"/>
-      <c r="Z17" s="131"/>
-      <c r="AA17" s="131"/>
-      <c r="AB17" s="131"/>
-      <c r="AC17" s="131"/>
-      <c r="AD17" s="131"/>
-      <c r="AE17" s="131"/>
-      <c r="AF17" s="131"/>
-      <c r="AG17" s="131"/>
-      <c r="AH17" s="131"/>
-      <c r="AI17" s="131"/>
-      <c r="AJ17" s="131"/>
-      <c r="AK17" s="131"/>
-      <c r="AL17" s="131"/>
-      <c r="AM17" s="131"/>
-      <c r="AN17" s="131"/>
-      <c r="AO17" s="131"/>
-      <c r="AP17" s="131"/>
-      <c r="AQ17" s="131"/>
-      <c r="AR17" s="131"/>
-      <c r="AS17" s="131"/>
-      <c r="AT17" s="131"/>
-      <c r="AU17" s="131"/>
-      <c r="AV17" s="131"/>
-      <c r="AW17" s="131"/>
-      <c r="AX17" s="131"/>
-      <c r="AY17" s="131"/>
-      <c r="AZ17" s="131"/>
-      <c r="BA17" s="131"/>
-      <c r="BB17" s="131"/>
-      <c r="BC17" s="131"/>
-      <c r="BD17" s="131"/>
-      <c r="BE17" s="131"/>
-      <c r="BF17" s="131"/>
-      <c r="BG17" s="131"/>
-      <c r="BH17" s="131"/>
-      <c r="BI17" s="131"/>
-      <c r="BJ17" s="131"/>
-      <c r="BK17" s="131"/>
-      <c r="BL17" s="131"/>
-      <c r="BM17" s="131"/>
-      <c r="BN17" s="131"/>
-      <c r="BO17" s="132"/>
+      <c r="C17" s="138"/>
+      <c r="D17" s="138"/>
+      <c r="E17" s="138"/>
+      <c r="F17" s="138"/>
+      <c r="G17" s="139"/>
+      <c r="H17" s="126"/>
+      <c r="I17" s="127"/>
+      <c r="J17" s="127"/>
+      <c r="K17" s="127"/>
+      <c r="L17" s="127"/>
+      <c r="M17" s="127"/>
+      <c r="N17" s="127"/>
+      <c r="O17" s="127"/>
+      <c r="P17" s="127"/>
+      <c r="Q17" s="127"/>
+      <c r="R17" s="127"/>
+      <c r="S17" s="127"/>
+      <c r="T17" s="127"/>
+      <c r="U17" s="127"/>
+      <c r="V17" s="127"/>
+      <c r="W17" s="127"/>
+      <c r="X17" s="127"/>
+      <c r="Y17" s="127"/>
+      <c r="Z17" s="127"/>
+      <c r="AA17" s="127"/>
+      <c r="AB17" s="127"/>
+      <c r="AC17" s="127"/>
+      <c r="AD17" s="127"/>
+      <c r="AE17" s="127"/>
+      <c r="AF17" s="127"/>
+      <c r="AG17" s="127"/>
+      <c r="AH17" s="127"/>
+      <c r="AI17" s="127"/>
+      <c r="AJ17" s="127"/>
+      <c r="AK17" s="127"/>
+      <c r="AL17" s="127"/>
+      <c r="AM17" s="127"/>
+      <c r="AN17" s="127"/>
+      <c r="AO17" s="127"/>
+      <c r="AP17" s="127"/>
+      <c r="AQ17" s="127"/>
+      <c r="AR17" s="127"/>
+      <c r="AS17" s="127"/>
+      <c r="AT17" s="127"/>
+      <c r="AU17" s="127"/>
+      <c r="AV17" s="127"/>
+      <c r="AW17" s="127"/>
+      <c r="AX17" s="127"/>
+      <c r="AY17" s="127"/>
+      <c r="AZ17" s="127"/>
+      <c r="BA17" s="127"/>
+      <c r="BB17" s="127"/>
+      <c r="BC17" s="127"/>
+      <c r="BD17" s="127"/>
+      <c r="BE17" s="127"/>
+      <c r="BF17" s="127"/>
+      <c r="BG17" s="127"/>
+      <c r="BH17" s="127"/>
+      <c r="BI17" s="127"/>
+      <c r="BJ17" s="127"/>
+      <c r="BK17" s="127"/>
+      <c r="BL17" s="127"/>
+      <c r="BM17" s="127"/>
+      <c r="BN17" s="127"/>
+      <c r="BO17" s="128"/>
     </row>
     <row r="18" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A18" s="128"/>
+      <c r="A18" s="124"/>
       <c r="B18" s="85" t="s">
         <v>124</v>
       </c>
@@ -4684,7 +4620,7 @@
       <c r="BO18" s="55"/>
     </row>
     <row r="19" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A19" s="128"/>
+      <c r="A19" s="124"/>
       <c r="B19" s="86" t="s">
         <v>87</v>
       </c>
@@ -4767,7 +4703,7 @@
       <c r="BO19" s="60"/>
     </row>
     <row r="20" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A20" s="128"/>
+      <c r="A20" s="124"/>
       <c r="B20" s="87" t="s">
         <v>113</v>
       </c>
@@ -4850,78 +4786,78 @@
       <c r="BO20" s="60"/>
     </row>
     <row r="21" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A21" s="128"/>
-      <c r="B21" s="141" t="s">
+      <c r="A21" s="124"/>
+      <c r="B21" s="136" t="s">
         <v>115</v>
       </c>
-      <c r="C21" s="141"/>
-      <c r="D21" s="141"/>
-      <c r="E21" s="141"/>
-      <c r="F21" s="141"/>
-      <c r="G21" s="141"/>
-      <c r="H21" s="130"/>
-      <c r="I21" s="131"/>
-      <c r="J21" s="131"/>
-      <c r="K21" s="131"/>
-      <c r="L21" s="131"/>
-      <c r="M21" s="131"/>
-      <c r="N21" s="131"/>
-      <c r="O21" s="131"/>
-      <c r="P21" s="131"/>
-      <c r="Q21" s="131"/>
-      <c r="R21" s="131"/>
-      <c r="S21" s="131"/>
-      <c r="T21" s="131"/>
-      <c r="U21" s="131"/>
-      <c r="V21" s="131"/>
-      <c r="W21" s="131"/>
-      <c r="X21" s="131"/>
-      <c r="Y21" s="131"/>
-      <c r="Z21" s="131"/>
-      <c r="AA21" s="131"/>
-      <c r="AB21" s="131"/>
-      <c r="AC21" s="131"/>
-      <c r="AD21" s="131"/>
-      <c r="AE21" s="131"/>
-      <c r="AF21" s="131"/>
-      <c r="AG21" s="131"/>
-      <c r="AH21" s="131"/>
-      <c r="AI21" s="131"/>
-      <c r="AJ21" s="131"/>
-      <c r="AK21" s="131"/>
-      <c r="AL21" s="131"/>
-      <c r="AM21" s="131"/>
-      <c r="AN21" s="131"/>
-      <c r="AO21" s="131"/>
-      <c r="AP21" s="131"/>
-      <c r="AQ21" s="131"/>
-      <c r="AR21" s="131"/>
-      <c r="AS21" s="131"/>
-      <c r="AT21" s="131"/>
-      <c r="AU21" s="131"/>
-      <c r="AV21" s="131"/>
-      <c r="AW21" s="131"/>
-      <c r="AX21" s="131"/>
-      <c r="AY21" s="131"/>
-      <c r="AZ21" s="131"/>
-      <c r="BA21" s="131"/>
-      <c r="BB21" s="131"/>
-      <c r="BC21" s="131"/>
-      <c r="BD21" s="131"/>
-      <c r="BE21" s="131"/>
-      <c r="BF21" s="131"/>
-      <c r="BG21" s="131"/>
-      <c r="BH21" s="131"/>
-      <c r="BI21" s="131"/>
-      <c r="BJ21" s="131"/>
-      <c r="BK21" s="131"/>
-      <c r="BL21" s="131"/>
-      <c r="BM21" s="131"/>
-      <c r="BN21" s="131"/>
-      <c r="BO21" s="132"/>
+      <c r="C21" s="136"/>
+      <c r="D21" s="136"/>
+      <c r="E21" s="136"/>
+      <c r="F21" s="136"/>
+      <c r="G21" s="136"/>
+      <c r="H21" s="126"/>
+      <c r="I21" s="127"/>
+      <c r="J21" s="127"/>
+      <c r="K21" s="127"/>
+      <c r="L21" s="127"/>
+      <c r="M21" s="127"/>
+      <c r="N21" s="127"/>
+      <c r="O21" s="127"/>
+      <c r="P21" s="127"/>
+      <c r="Q21" s="127"/>
+      <c r="R21" s="127"/>
+      <c r="S21" s="127"/>
+      <c r="T21" s="127"/>
+      <c r="U21" s="127"/>
+      <c r="V21" s="127"/>
+      <c r="W21" s="127"/>
+      <c r="X21" s="127"/>
+      <c r="Y21" s="127"/>
+      <c r="Z21" s="127"/>
+      <c r="AA21" s="127"/>
+      <c r="AB21" s="127"/>
+      <c r="AC21" s="127"/>
+      <c r="AD21" s="127"/>
+      <c r="AE21" s="127"/>
+      <c r="AF21" s="127"/>
+      <c r="AG21" s="127"/>
+      <c r="AH21" s="127"/>
+      <c r="AI21" s="127"/>
+      <c r="AJ21" s="127"/>
+      <c r="AK21" s="127"/>
+      <c r="AL21" s="127"/>
+      <c r="AM21" s="127"/>
+      <c r="AN21" s="127"/>
+      <c r="AO21" s="127"/>
+      <c r="AP21" s="127"/>
+      <c r="AQ21" s="127"/>
+      <c r="AR21" s="127"/>
+      <c r="AS21" s="127"/>
+      <c r="AT21" s="127"/>
+      <c r="AU21" s="127"/>
+      <c r="AV21" s="127"/>
+      <c r="AW21" s="127"/>
+      <c r="AX21" s="127"/>
+      <c r="AY21" s="127"/>
+      <c r="AZ21" s="127"/>
+      <c r="BA21" s="127"/>
+      <c r="BB21" s="127"/>
+      <c r="BC21" s="127"/>
+      <c r="BD21" s="127"/>
+      <c r="BE21" s="127"/>
+      <c r="BF21" s="127"/>
+      <c r="BG21" s="127"/>
+      <c r="BH21" s="127"/>
+      <c r="BI21" s="127"/>
+      <c r="BJ21" s="127"/>
+      <c r="BK21" s="127"/>
+      <c r="BL21" s="127"/>
+      <c r="BM21" s="127"/>
+      <c r="BN21" s="127"/>
+      <c r="BO21" s="128"/>
     </row>
     <row r="22" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A22" s="128"/>
+      <c r="A22" s="124"/>
       <c r="B22" s="88" t="s">
         <v>125</v>
       </c>
@@ -5004,7 +4940,7 @@
       <c r="BO22" s="60"/>
     </row>
     <row r="23" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A23" s="128"/>
+      <c r="A23" s="124"/>
       <c r="B23" s="89" t="s">
         <v>85</v>
       </c>
@@ -5087,7 +5023,7 @@
       <c r="BO23" s="60"/>
     </row>
     <row r="24" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A24" s="128"/>
+      <c r="A24" s="124"/>
       <c r="B24" s="90" t="s">
         <v>145</v>
       </c>
@@ -5170,7 +5106,7 @@
       <c r="BO24" s="60"/>
     </row>
     <row r="25" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A25" s="128"/>
+      <c r="A25" s="124"/>
       <c r="B25" s="90" t="s">
         <v>143</v>
       </c>
@@ -5253,7 +5189,7 @@
       <c r="BO25" s="60"/>
     </row>
     <row r="26" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A26" s="128"/>
+      <c r="A26" s="124"/>
       <c r="B26" s="85" t="s">
         <v>153</v>
       </c>
@@ -5336,13 +5272,13 @@
       <c r="BO26" s="60"/>
     </row>
     <row r="27" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A27" s="128"/>
+      <c r="A27" s="124"/>
       <c r="B27" s="91" t="s">
         <v>137</v>
       </c>
       <c r="C27" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="D27" s="21" t="str">
         <f t="shared" si="5"/>
@@ -5419,7 +5355,7 @@
       <c r="BO27" s="60"/>
     </row>
     <row r="28" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A28" s="128"/>
+      <c r="A28" s="124"/>
       <c r="B28" s="92" t="s">
         <v>148</v>
       </c>
@@ -5502,13 +5438,13 @@
       <c r="BO28" s="60"/>
     </row>
     <row r="29" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A29" s="128"/>
+      <c r="A29" s="124"/>
       <c r="B29" s="92" t="s">
         <v>138</v>
       </c>
       <c r="C29" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>50%</v>
+        <v>100%</v>
       </c>
       <c r="D29" s="21" t="str">
         <f t="shared" si="5"/>
@@ -5583,13 +5519,13 @@
       <c r="BO29" s="60"/>
     </row>
     <row r="30" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A30" s="128"/>
-      <c r="B30" s="124" t="s">
+      <c r="A30" s="124"/>
+      <c r="B30" s="119" t="s">
         <v>146</v>
       </c>
       <c r="C30" s="39" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>50%</v>
+        <v>100%</v>
       </c>
       <c r="D30" s="40" t="str">
         <f t="shared" si="5"/>
@@ -5666,7 +5602,7 @@
       <c r="BO30" s="60"/>
     </row>
     <row r="31" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A31" s="128"/>
+      <c r="A31" s="124"/>
       <c r="B31" s="93" t="s">
         <v>104</v>
       </c>
@@ -5749,7 +5685,7 @@
       <c r="BO31" s="28"/>
     </row>
     <row r="32" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A32" s="128"/>
+      <c r="A32" s="124"/>
       <c r="B32" s="87" t="s">
         <v>111</v>
       </c>
@@ -5832,7 +5768,7 @@
       <c r="BO32" s="60"/>
     </row>
     <row r="33" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A33" s="128"/>
+      <c r="A33" s="124"/>
       <c r="B33" s="88" t="s">
         <v>126</v>
       </c>
@@ -5915,7 +5851,7 @@
       <c r="BO33" s="60"/>
     </row>
     <row r="34" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A34" s="128"/>
+      <c r="A34" s="124"/>
       <c r="B34" s="87" t="s">
         <v>112</v>
       </c>
@@ -5998,7 +5934,7 @@
       <c r="BO34" s="60"/>
     </row>
     <row r="35" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A35" s="128"/>
+      <c r="A35" s="124"/>
       <c r="B35" s="100" t="s">
         <v>140</v>
       </c>
@@ -6081,7 +6017,7 @@
       <c r="BO35" s="60"/>
     </row>
     <row r="36" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A36" s="128"/>
+      <c r="A36" s="124"/>
       <c r="B36" s="100" t="s">
         <v>142</v>
       </c>
@@ -6164,8 +6100,8 @@
       <c r="BO36" s="60"/>
     </row>
     <row r="37" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A37" s="128"/>
-      <c r="B37" s="116" t="s">
+      <c r="A37" s="124"/>
+      <c r="B37" s="114" t="s">
         <v>121</v>
       </c>
       <c r="C37" s="39" t="str">
@@ -6247,7 +6183,7 @@
       <c r="BO37" s="60"/>
     </row>
     <row r="38" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A38" s="128"/>
+      <c r="A38" s="124"/>
       <c r="B38" s="72" t="s">
         <v>122</v>
       </c>
@@ -6330,7 +6266,7 @@
       <c r="BO38" s="60"/>
     </row>
     <row r="39" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A39" s="128"/>
+      <c r="A39" s="124"/>
       <c r="B39" s="72" t="s">
         <v>132</v>
       </c>
@@ -6413,7 +6349,7 @@
       <c r="BO39" s="60"/>
     </row>
     <row r="40" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A40" s="128"/>
+      <c r="A40" s="124"/>
       <c r="B40" s="88" t="s">
         <v>139</v>
       </c>
@@ -6496,78 +6432,78 @@
       <c r="BO40" s="60"/>
     </row>
     <row r="41" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A41" s="128"/>
-      <c r="B41" s="142" t="s">
+      <c r="A41" s="124"/>
+      <c r="B41" s="137" t="s">
         <v>114</v>
       </c>
-      <c r="C41" s="142"/>
-      <c r="D41" s="142"/>
-      <c r="E41" s="142"/>
-      <c r="F41" s="142"/>
-      <c r="G41" s="142"/>
-      <c r="H41" s="130"/>
-      <c r="I41" s="131"/>
-      <c r="J41" s="131"/>
-      <c r="K41" s="131"/>
-      <c r="L41" s="131"/>
-      <c r="M41" s="131"/>
-      <c r="N41" s="131"/>
-      <c r="O41" s="131"/>
-      <c r="P41" s="131"/>
-      <c r="Q41" s="131"/>
-      <c r="R41" s="131"/>
-      <c r="S41" s="131"/>
-      <c r="T41" s="131"/>
-      <c r="U41" s="131"/>
-      <c r="V41" s="131"/>
-      <c r="W41" s="131"/>
-      <c r="X41" s="131"/>
-      <c r="Y41" s="131"/>
-      <c r="Z41" s="131"/>
-      <c r="AA41" s="131"/>
-      <c r="AB41" s="131"/>
-      <c r="AC41" s="131"/>
-      <c r="AD41" s="131"/>
-      <c r="AE41" s="131"/>
-      <c r="AF41" s="131"/>
-      <c r="AG41" s="131"/>
-      <c r="AH41" s="131"/>
-      <c r="AI41" s="131"/>
-      <c r="AJ41" s="131"/>
-      <c r="AK41" s="131"/>
-      <c r="AL41" s="131"/>
-      <c r="AM41" s="131"/>
-      <c r="AN41" s="131"/>
-      <c r="AO41" s="131"/>
-      <c r="AP41" s="131"/>
-      <c r="AQ41" s="131"/>
-      <c r="AR41" s="131"/>
-      <c r="AS41" s="131"/>
-      <c r="AT41" s="131"/>
-      <c r="AU41" s="131"/>
-      <c r="AV41" s="131"/>
-      <c r="AW41" s="131"/>
-      <c r="AX41" s="131"/>
-      <c r="AY41" s="131"/>
-      <c r="AZ41" s="131"/>
-      <c r="BA41" s="131"/>
-      <c r="BB41" s="131"/>
-      <c r="BC41" s="131"/>
-      <c r="BD41" s="131"/>
-      <c r="BE41" s="131"/>
-      <c r="BF41" s="131"/>
-      <c r="BG41" s="131"/>
-      <c r="BH41" s="131"/>
-      <c r="BI41" s="131"/>
-      <c r="BJ41" s="131"/>
-      <c r="BK41" s="131"/>
-      <c r="BL41" s="131"/>
-      <c r="BM41" s="131"/>
-      <c r="BN41" s="131"/>
-      <c r="BO41" s="132"/>
+      <c r="C41" s="137"/>
+      <c r="D41" s="137"/>
+      <c r="E41" s="137"/>
+      <c r="F41" s="137"/>
+      <c r="G41" s="137"/>
+      <c r="H41" s="126"/>
+      <c r="I41" s="127"/>
+      <c r="J41" s="127"/>
+      <c r="K41" s="127"/>
+      <c r="L41" s="127"/>
+      <c r="M41" s="127"/>
+      <c r="N41" s="127"/>
+      <c r="O41" s="127"/>
+      <c r="P41" s="127"/>
+      <c r="Q41" s="127"/>
+      <c r="R41" s="127"/>
+      <c r="S41" s="127"/>
+      <c r="T41" s="127"/>
+      <c r="U41" s="127"/>
+      <c r="V41" s="127"/>
+      <c r="W41" s="127"/>
+      <c r="X41" s="127"/>
+      <c r="Y41" s="127"/>
+      <c r="Z41" s="127"/>
+      <c r="AA41" s="127"/>
+      <c r="AB41" s="127"/>
+      <c r="AC41" s="127"/>
+      <c r="AD41" s="127"/>
+      <c r="AE41" s="127"/>
+      <c r="AF41" s="127"/>
+      <c r="AG41" s="127"/>
+      <c r="AH41" s="127"/>
+      <c r="AI41" s="127"/>
+      <c r="AJ41" s="127"/>
+      <c r="AK41" s="127"/>
+      <c r="AL41" s="127"/>
+      <c r="AM41" s="127"/>
+      <c r="AN41" s="127"/>
+      <c r="AO41" s="127"/>
+      <c r="AP41" s="127"/>
+      <c r="AQ41" s="127"/>
+      <c r="AR41" s="127"/>
+      <c r="AS41" s="127"/>
+      <c r="AT41" s="127"/>
+      <c r="AU41" s="127"/>
+      <c r="AV41" s="127"/>
+      <c r="AW41" s="127"/>
+      <c r="AX41" s="127"/>
+      <c r="AY41" s="127"/>
+      <c r="AZ41" s="127"/>
+      <c r="BA41" s="127"/>
+      <c r="BB41" s="127"/>
+      <c r="BC41" s="127"/>
+      <c r="BD41" s="127"/>
+      <c r="BE41" s="127"/>
+      <c r="BF41" s="127"/>
+      <c r="BG41" s="127"/>
+      <c r="BH41" s="127"/>
+      <c r="BI41" s="127"/>
+      <c r="BJ41" s="127"/>
+      <c r="BK41" s="127"/>
+      <c r="BL41" s="127"/>
+      <c r="BM41" s="127"/>
+      <c r="BN41" s="127"/>
+      <c r="BO41" s="128"/>
     </row>
     <row r="42" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A42" s="128"/>
+      <c r="A42" s="124"/>
       <c r="B42" s="87" t="s">
         <v>110</v>
       </c>
@@ -6650,7 +6586,7 @@
       <c r="BO42" s="60"/>
     </row>
     <row r="43" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A43" s="128"/>
+      <c r="A43" s="124"/>
       <c r="B43" s="88" t="s">
         <v>127</v>
       </c>
@@ -6733,7 +6669,7 @@
       <c r="BO43" s="60"/>
     </row>
     <row r="44" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A44" s="128"/>
+      <c r="A44" s="124"/>
       <c r="B44" s="88" t="s">
         <v>133</v>
       </c>
@@ -6816,7 +6752,7 @@
       <c r="BO44" s="60"/>
     </row>
     <row r="45" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A45" s="128"/>
+      <c r="A45" s="124"/>
       <c r="B45" s="93" t="s">
         <v>135</v>
       </c>
@@ -6899,13 +6835,13 @@
       <c r="BO45" s="60"/>
     </row>
     <row r="46" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A46" s="128"/>
-      <c r="B46" s="125" t="s">
+      <c r="A46" s="124"/>
+      <c r="B46" s="120" t="s">
         <v>152</v>
       </c>
       <c r="C46" s="73" t="str">
         <f ca="1">IF(F46=E46, IF(TODAY()&gt;F46, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F46) - E46) / (F46 - E46) * 100, 1) &amp; "%")</f>
-        <v>50%</v>
+        <v>100%</v>
       </c>
       <c r="D46" s="74" t="str">
         <f t="shared" si="10"/>
@@ -6982,13 +6918,13 @@
       <c r="BO46" s="60"/>
     </row>
     <row r="47" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A47" s="128"/>
+      <c r="A47" s="124"/>
       <c r="B47" s="85" t="s">
         <v>155</v>
       </c>
       <c r="C47" s="39" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="D47" s="40" t="str">
         <f t="shared" si="10"/>
@@ -7065,7 +7001,7 @@
       <c r="BO47" s="60"/>
     </row>
     <row r="48" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A48" s="128"/>
+      <c r="A48" s="124"/>
       <c r="B48" s="92" t="s">
         <v>144</v>
       </c>
@@ -7141,88 +7077,88 @@
       <c r="BN48" s="60"/>
       <c r="BO48" s="29"/>
     </row>
-    <row r="49" spans="1:67" ht="15.75" thickBot="1">
-      <c r="A49" s="128"/>
-      <c r="B49" s="142" t="s">
+    <row r="49" spans="1:67" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A49" s="124"/>
+      <c r="B49" s="137" t="s">
         <v>109</v>
       </c>
-      <c r="C49" s="142"/>
-      <c r="D49" s="142"/>
-      <c r="E49" s="142"/>
-      <c r="F49" s="142"/>
-      <c r="G49" s="142"/>
-      <c r="H49" s="130"/>
-      <c r="I49" s="131"/>
-      <c r="J49" s="131"/>
-      <c r="K49" s="131"/>
-      <c r="L49" s="131"/>
-      <c r="M49" s="131"/>
-      <c r="N49" s="131"/>
-      <c r="O49" s="131"/>
-      <c r="P49" s="131"/>
-      <c r="Q49" s="131"/>
-      <c r="R49" s="131"/>
-      <c r="S49" s="131"/>
-      <c r="T49" s="131"/>
-      <c r="U49" s="131"/>
-      <c r="V49" s="131"/>
-      <c r="W49" s="131"/>
-      <c r="X49" s="131"/>
-      <c r="Y49" s="131"/>
-      <c r="Z49" s="131"/>
-      <c r="AA49" s="131"/>
-      <c r="AB49" s="131"/>
-      <c r="AC49" s="131"/>
-      <c r="AD49" s="131"/>
-      <c r="AE49" s="131"/>
-      <c r="AF49" s="131"/>
-      <c r="AG49" s="131"/>
-      <c r="AH49" s="131"/>
-      <c r="AI49" s="131"/>
-      <c r="AJ49" s="131"/>
-      <c r="AK49" s="131"/>
-      <c r="AL49" s="131"/>
-      <c r="AM49" s="131"/>
-      <c r="AN49" s="131"/>
-      <c r="AO49" s="131"/>
-      <c r="AP49" s="131"/>
-      <c r="AQ49" s="131"/>
-      <c r="AR49" s="131"/>
-      <c r="AS49" s="131"/>
-      <c r="AT49" s="131"/>
-      <c r="AU49" s="131"/>
-      <c r="AV49" s="131"/>
-      <c r="AW49" s="131"/>
-      <c r="AX49" s="131"/>
-      <c r="AY49" s="131"/>
-      <c r="AZ49" s="131"/>
-      <c r="BA49" s="131"/>
-      <c r="BB49" s="131"/>
-      <c r="BC49" s="131"/>
-      <c r="BD49" s="131"/>
-      <c r="BE49" s="131"/>
-      <c r="BF49" s="131"/>
-      <c r="BG49" s="131"/>
-      <c r="BH49" s="131"/>
-      <c r="BI49" s="131"/>
-      <c r="BJ49" s="131"/>
-      <c r="BK49" s="131"/>
-      <c r="BL49" s="131"/>
-      <c r="BM49" s="131"/>
-      <c r="BN49" s="131"/>
-      <c r="BO49" s="132"/>
+      <c r="C49" s="137"/>
+      <c r="D49" s="137"/>
+      <c r="E49" s="137"/>
+      <c r="F49" s="137"/>
+      <c r="G49" s="137"/>
+      <c r="H49" s="126"/>
+      <c r="I49" s="127"/>
+      <c r="J49" s="127"/>
+      <c r="K49" s="127"/>
+      <c r="L49" s="127"/>
+      <c r="M49" s="127"/>
+      <c r="N49" s="127"/>
+      <c r="O49" s="127"/>
+      <c r="P49" s="127"/>
+      <c r="Q49" s="127"/>
+      <c r="R49" s="127"/>
+      <c r="S49" s="127"/>
+      <c r="T49" s="127"/>
+      <c r="U49" s="127"/>
+      <c r="V49" s="127"/>
+      <c r="W49" s="127"/>
+      <c r="X49" s="127"/>
+      <c r="Y49" s="127"/>
+      <c r="Z49" s="127"/>
+      <c r="AA49" s="127"/>
+      <c r="AB49" s="127"/>
+      <c r="AC49" s="127"/>
+      <c r="AD49" s="127"/>
+      <c r="AE49" s="127"/>
+      <c r="AF49" s="127"/>
+      <c r="AG49" s="127"/>
+      <c r="AH49" s="127"/>
+      <c r="AI49" s="127"/>
+      <c r="AJ49" s="127"/>
+      <c r="AK49" s="127"/>
+      <c r="AL49" s="127"/>
+      <c r="AM49" s="127"/>
+      <c r="AN49" s="127"/>
+      <c r="AO49" s="127"/>
+      <c r="AP49" s="127"/>
+      <c r="AQ49" s="127"/>
+      <c r="AR49" s="127"/>
+      <c r="AS49" s="127"/>
+      <c r="AT49" s="127"/>
+      <c r="AU49" s="127"/>
+      <c r="AV49" s="127"/>
+      <c r="AW49" s="127"/>
+      <c r="AX49" s="127"/>
+      <c r="AY49" s="127"/>
+      <c r="AZ49" s="127"/>
+      <c r="BA49" s="127"/>
+      <c r="BB49" s="127"/>
+      <c r="BC49" s="127"/>
+      <c r="BD49" s="127"/>
+      <c r="BE49" s="127"/>
+      <c r="BF49" s="127"/>
+      <c r="BG49" s="127"/>
+      <c r="BH49" s="127"/>
+      <c r="BI49" s="127"/>
+      <c r="BJ49" s="127"/>
+      <c r="BK49" s="127"/>
+      <c r="BL49" s="127"/>
+      <c r="BM49" s="127"/>
+      <c r="BN49" s="127"/>
+      <c r="BO49" s="128"/>
     </row>
-    <row r="50" spans="1:67" ht="15.75" thickBot="1">
-      <c r="A50" s="128"/>
+    <row r="50" spans="1:67" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A50" s="124"/>
       <c r="B50" s="101" t="s">
         <v>128</v>
       </c>
       <c r="C50" s="44" t="str">
-        <f t="shared" ref="C50:C68" ca="1" si="12">IF(F50=E50, IF(TODAY()&gt;F50, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F50) - E50) / (F50 - E50) * 100, 1) &amp; "%")</f>
+        <f t="shared" ref="C50:C69" ca="1" si="12">IF(F50=E50, IF(TODAY()&gt;F50, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F50) - E50) / (F50 - E50) * 100, 1) &amp; "%")</f>
         <v>100%</v>
       </c>
       <c r="D50" s="104" t="str">
-        <f t="shared" ref="D50:D68" si="13">IF(AND(F50&lt;&gt;"", E50&lt;&gt;""), F50 - E50 + 1 &amp; "일", "")</f>
+        <f t="shared" ref="D50:D69" si="13">IF(AND(F50&lt;&gt;"", E50&lt;&gt;""), F50 - E50 + 1 &amp; "일", "")</f>
         <v>7일</v>
       </c>
       <c r="E50" s="45">
@@ -7295,26 +7231,26 @@
       <c r="BN50" s="60"/>
       <c r="BO50" s="60"/>
     </row>
-    <row r="51" spans="1:67" ht="15.75" thickBot="1">
-      <c r="A51" s="145"/>
-      <c r="B51" s="126" t="s">
+    <row r="51" spans="1:67" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A51" s="124"/>
+      <c r="B51" s="121" t="s">
         <v>151</v>
       </c>
-      <c r="C51" s="111" t="str">
+      <c r="C51" s="109" t="str">
         <f t="shared" ca="1" si="12"/>
         <v>100%</v>
       </c>
-      <c r="D51" s="112" t="str">
+      <c r="D51" s="110" t="str">
         <f t="shared" si="13"/>
         <v>9일</v>
       </c>
-      <c r="E51" s="113">
+      <c r="E51" s="111">
         <v>45971</v>
       </c>
-      <c r="F51" s="113">
+      <c r="F51" s="111">
         <v>45979</v>
       </c>
-      <c r="G51" s="115" t="s">
+      <c r="G51" s="113" t="s">
         <v>103</v>
       </c>
       <c r="H51" s="103"/>
@@ -7378,26 +7314,26 @@
       <c r="BN51" s="60"/>
       <c r="BO51" s="60"/>
     </row>
-    <row r="52" spans="1:67" ht="15.75" thickBot="1">
-      <c r="A52" s="145"/>
-      <c r="B52" s="109" t="s">
+    <row r="52" spans="1:67" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A52" s="124"/>
+      <c r="B52" s="122" t="s">
         <v>86</v>
       </c>
-      <c r="C52" s="111" t="str">
+      <c r="C52" s="109" t="str">
         <f t="shared" ref="C52" ca="1" si="14">IF(F52=E52, IF(TODAY()&gt;F52, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F52) - E52) / (F52 - E52) * 100, 1) &amp; "%")</f>
         <v>100%</v>
       </c>
-      <c r="D52" s="112" t="str">
-        <f t="shared" ref="D52:D53" si="15">IF(AND(F52&lt;&gt;"", E52&lt;&gt;""), F52 - E52 + 1 &amp; "일", "")</f>
+      <c r="D52" s="110" t="str">
+        <f t="shared" ref="D52:D55" si="15">IF(AND(F52&lt;&gt;"", E52&lt;&gt;""), F52 - E52 + 1 &amp; "일", "")</f>
         <v>9일</v>
       </c>
-      <c r="E52" s="113">
+      <c r="E52" s="111">
         <v>45971</v>
       </c>
-      <c r="F52" s="113">
+      <c r="F52" s="111">
         <v>45979</v>
       </c>
-      <c r="G52" s="115" t="s">
+      <c r="G52" s="113" t="s">
         <v>103</v>
       </c>
       <c r="H52" s="103"/>
@@ -7461,28 +7397,16 @@
       <c r="BN52" s="60"/>
       <c r="BO52" s="60"/>
     </row>
-    <row r="53" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A53" s="145"/>
-      <c r="B53" s="110" t="s">
-        <v>141</v>
-      </c>
-      <c r="C53" s="111" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>100%</v>
-      </c>
-      <c r="D53" s="112" t="str">
-        <f t="shared" si="15"/>
-        <v>2일</v>
-      </c>
-      <c r="E53" s="113">
-        <v>45979</v>
-      </c>
-      <c r="F53" s="113">
-        <v>45980</v>
-      </c>
-      <c r="G53" s="114" t="s">
-        <v>117</v>
-      </c>
+    <row r="53" spans="1:67" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A53" s="124"/>
+      <c r="B53" s="141" t="s">
+        <v>156</v>
+      </c>
+      <c r="C53" s="141"/>
+      <c r="D53" s="141"/>
+      <c r="E53" s="141"/>
+      <c r="F53" s="141"/>
+      <c r="G53" s="141"/>
       <c r="H53" s="103"/>
       <c r="I53" s="60"/>
       <c r="J53" s="60"/>
@@ -7545,26 +7469,26 @@
       <c r="BO53" s="60"/>
     </row>
     <row r="54" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A54" s="128"/>
-      <c r="B54" s="105" t="s">
-        <v>106</v>
-      </c>
-      <c r="C54" s="32" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>5.6%</v>
-      </c>
-      <c r="D54" s="106" t="str">
-        <f t="shared" si="13"/>
-        <v>19일</v>
-      </c>
-      <c r="E54" s="107">
+      <c r="A54" s="124"/>
+      <c r="B54" s="87" t="s">
+        <v>150</v>
+      </c>
+      <c r="C54" s="47" t="str">
+        <f t="shared" ref="C54" ca="1" si="16">IF(F54=E54, IF(TODAY()&gt;F54, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F54) - E54) / (F54 - E54) * 100, 1) &amp; "%")</f>
+        <v>100%</v>
+      </c>
+      <c r="D54" s="40" t="str">
+        <f t="shared" ref="D54" si="17">IF(AND(F54&lt;&gt;"", E54&lt;&gt;""), F54 - E54 + 1 &amp; "일", "")</f>
+        <v>2일</v>
+      </c>
+      <c r="E54" s="41">
         <v>45980</v>
       </c>
-      <c r="F54" s="107">
-        <v>45998</v>
-      </c>
-      <c r="G54" s="108" t="s">
-        <v>134</v>
+      <c r="F54" s="41">
+        <v>45981</v>
+      </c>
+      <c r="G54" s="142" t="s">
+        <v>117</v>
       </c>
       <c r="H54" s="59"/>
       <c r="I54" s="60"/>
@@ -7628,28 +7552,28 @@
       <c r="BO54" s="60"/>
     </row>
     <row r="55" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A55" s="128"/>
-      <c r="B55" s="121" t="s">
-        <v>150</v>
-      </c>
-      <c r="C55" s="122" t="str">
-        <f t="shared" ref="C55" ca="1" si="16">IF(F55=E55, IF(TODAY()&gt;F55, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F55) - E55) / (F55 - E55) * 100, 1) &amp; "%")</f>
+      <c r="A55" s="124"/>
+      <c r="B55" s="123" t="s">
+        <v>141</v>
+      </c>
+      <c r="C55" s="109" t="str">
+        <f t="shared" ca="1" si="12"/>
         <v>100%</v>
       </c>
-      <c r="D55" s="123" t="str">
-        <f t="shared" ref="D55" si="17">IF(AND(F55&lt;&gt;"", E55&lt;&gt;""), F55 - E55 + 1 &amp; "일", "")</f>
+      <c r="D55" s="110" t="str">
+        <f t="shared" si="15"/>
         <v>2일</v>
       </c>
-      <c r="E55" s="75">
+      <c r="E55" s="111">
+        <v>45979</v>
+      </c>
+      <c r="F55" s="111">
         <v>45980</v>
       </c>
-      <c r="F55" s="75">
-        <v>45981</v>
-      </c>
-      <c r="G55" s="120" t="s">
+      <c r="G55" s="112" t="s">
         <v>117</v>
       </c>
-      <c r="H55" s="59"/>
+      <c r="H55" s="103"/>
       <c r="I55" s="60"/>
       <c r="J55" s="60"/>
       <c r="K55" s="60"/>
@@ -7711,26 +7635,26 @@
       <c r="BO55" s="60"/>
     </row>
     <row r="56" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A56" s="128"/>
-      <c r="B56" s="117" t="s">
-        <v>129</v>
-      </c>
-      <c r="C56" s="118" t="str">
+      <c r="A56" s="124"/>
+      <c r="B56" s="105" t="s">
+        <v>106</v>
+      </c>
+      <c r="C56" s="32" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>50%</v>
-      </c>
-      <c r="D56" s="119" t="str">
+        <v>11.1%</v>
+      </c>
+      <c r="D56" s="106" t="str">
         <f t="shared" si="13"/>
-        <v>3일</v>
-      </c>
-      <c r="E56" s="75">
+        <v>19일</v>
+      </c>
+      <c r="E56" s="107">
         <v>45980</v>
       </c>
-      <c r="F56" s="75">
-        <v>45982</v>
-      </c>
-      <c r="G56" s="120" t="s">
-        <v>117</v>
+      <c r="F56" s="107">
+        <v>45998</v>
+      </c>
+      <c r="G56" s="108" t="s">
+        <v>134</v>
       </c>
       <c r="H56" s="59"/>
       <c r="I56" s="60"/>
@@ -7794,21 +7718,23 @@
       <c r="BO56" s="60"/>
     </row>
     <row r="57" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A57" s="128"/>
-      <c r="B57" s="94" t="s">
-        <v>130</v>
-      </c>
-      <c r="C57" s="32" t="str">
-        <f t="shared" ca="1" si="12"/>
+      <c r="A57" s="124"/>
+      <c r="B57" s="95" t="s">
+        <v>136</v>
+      </c>
+      <c r="C57" s="20" t="str">
+        <f ca="1">IF(F57=E57, IF(TODAY()&gt;F57, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F57) - E57) / (F57 - E57) * 100, 1) &amp; "%")</f>
         <v>100%</v>
       </c>
       <c r="D57" s="21" t="str">
-        <f t="shared" si="13"/>
+        <f>IF(AND(F57&lt;&gt;"", E57&lt;&gt;""), F57 - E57 + 1 &amp; "일", "")</f>
         <v/>
       </c>
       <c r="E57" s="22"/>
       <c r="F57" s="22"/>
-      <c r="G57" s="69"/>
+      <c r="G57" s="68" t="s">
+        <v>134</v>
+      </c>
       <c r="H57" s="59"/>
       <c r="I57" s="60"/>
       <c r="J57" s="60"/>
@@ -7870,22 +7796,28 @@
       <c r="BN57" s="60"/>
       <c r="BO57" s="60"/>
     </row>
-    <row r="58" spans="1:67" ht="15.75" thickBot="1">
-      <c r="A58" s="128"/>
-      <c r="B58" s="94" t="s">
-        <v>131</v>
-      </c>
-      <c r="C58" s="20" t="str">
+    <row r="58" spans="1:67" ht="15" customHeight="1" thickBot="1">
+      <c r="A58" s="124"/>
+      <c r="B58" s="115" t="s">
+        <v>129</v>
+      </c>
+      <c r="C58" s="116" t="str">
         <f t="shared" ca="1" si="12"/>
         <v>100%</v>
       </c>
-      <c r="D58" s="21" t="str">
+      <c r="D58" s="117" t="str">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="E58" s="22"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="69"/>
+        <v>3일</v>
+      </c>
+      <c r="E58" s="75">
+        <v>45980</v>
+      </c>
+      <c r="F58" s="75">
+        <v>45982</v>
+      </c>
+      <c r="G58" s="118" t="s">
+        <v>117</v>
+      </c>
       <c r="H58" s="59"/>
       <c r="I58" s="60"/>
       <c r="J58" s="60"/>
@@ -7947,28 +7879,22 @@
       <c r="BN58" s="60"/>
       <c r="BO58" s="60"/>
     </row>
-    <row r="59" spans="1:67" ht="15.75" thickBot="1">
-      <c r="A59" s="128"/>
-      <c r="B59" s="95" t="s">
-        <v>149</v>
-      </c>
-      <c r="C59" s="20" t="str">
-        <f t="shared" ref="C59" ca="1" si="18">IF(F59=E59, IF(TODAY()&gt;F59, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F59) - E59) / (F59 - E59) * 100, 1) &amp; "%")</f>
-        <v>0%</v>
+    <row r="59" spans="1:67" ht="15" customHeight="1" thickBot="1">
+      <c r="A59" s="124"/>
+      <c r="B59" s="94" t="s">
+        <v>130</v>
+      </c>
+      <c r="C59" s="32" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>100%</v>
       </c>
       <c r="D59" s="21" t="str">
-        <f>IF(AND(F59&lt;&gt;"", E59&lt;&gt;""), F59 - E59 + 1 &amp; "일", "")</f>
-        <v>10일</v>
-      </c>
-      <c r="E59" s="22">
-        <v>45989</v>
-      </c>
-      <c r="F59" s="22">
-        <v>45998</v>
-      </c>
-      <c r="G59" s="68" t="s">
-        <v>117</v>
-      </c>
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="69"/>
       <c r="H59" s="59"/>
       <c r="I59" s="60"/>
       <c r="J59" s="60"/>
@@ -8030,10 +7956,10 @@
       <c r="BN59" s="60"/>
       <c r="BO59" s="60"/>
     </row>
-    <row r="60" spans="1:67" ht="15.75" thickBot="1">
-      <c r="A60" s="146"/>
-      <c r="B60" s="95" t="s">
-        <v>136</v>
+    <row r="60" spans="1:67" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A60" s="124"/>
+      <c r="B60" s="94" t="s">
+        <v>131</v>
       </c>
       <c r="C60" s="20" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -8045,9 +7971,7 @@
       </c>
       <c r="E60" s="22"/>
       <c r="F60" s="22"/>
-      <c r="G60" s="68" t="s">
-        <v>134</v>
-      </c>
+      <c r="G60" s="69"/>
       <c r="H60" s="59"/>
       <c r="I60" s="60"/>
       <c r="J60" s="60"/>
@@ -8107,27 +8031,29 @@
       <c r="BL60" s="60"/>
       <c r="BM60" s="60"/>
       <c r="BN60" s="60"/>
-      <c r="BO60" s="29"/>
+      <c r="BO60" s="60"/>
     </row>
     <row r="61" spans="1:67" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A61" s="127" t="s">
-        <v>90</v>
-      </c>
-      <c r="B61" s="96" t="s">
-        <v>2</v>
+      <c r="A61" s="125"/>
+      <c r="B61" s="95" t="s">
+        <v>149</v>
       </c>
       <c r="C61" s="20" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>100%</v>
+        <f t="shared" ref="C61" ca="1" si="18">IF(F61=E61, IF(TODAY()&gt;F61, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F61) - E61) / (F61 - E61) * 100, 1) &amp; "%")</f>
+        <v>0%</v>
       </c>
       <c r="D61" s="21" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="E61" s="22"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="70" t="s">
-        <v>100</v>
+        <f>IF(AND(F61&lt;&gt;"", E61&lt;&gt;""), F61 - E61 + 1 &amp; "일", "")</f>
+        <v>10일</v>
+      </c>
+      <c r="E61" s="22">
+        <v>45989</v>
+      </c>
+      <c r="F61" s="22">
+        <v>45998</v>
+      </c>
+      <c r="G61" s="68" t="s">
+        <v>117</v>
       </c>
       <c r="H61" s="59"/>
       <c r="I61" s="60"/>
@@ -8190,13 +8116,15 @@
       <c r="BN61" s="60"/>
       <c r="BO61" s="60"/>
     </row>
-    <row r="62" spans="1:67" ht="15.75" thickBot="1">
-      <c r="A62" s="128"/>
-      <c r="B62" s="97" t="s">
-        <v>88</v>
-      </c>
-      <c r="C62" s="31" t="str">
-        <f t="shared" ref="C62" ca="1" si="19">IF(F62=E62, IF(TODAY()&gt;F62, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F62) - E62) / (F62 - E62) * 100, 1) &amp; "%")</f>
+    <row r="62" spans="1:67" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A62" s="124" t="s">
+        <v>90</v>
+      </c>
+      <c r="B62" s="96" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" s="20" t="str">
+        <f t="shared" ca="1" si="12"/>
         <v>100%</v>
       </c>
       <c r="D62" s="21" t="str">
@@ -8270,11 +8198,14 @@
       <c r="BO62" s="60"/>
     </row>
     <row r="63" spans="1:67" ht="15.75" thickBot="1">
-      <c r="A63" s="128"/>
+      <c r="A63" s="124"/>
       <c r="B63" s="97" t="s">
-        <v>89</v>
-      </c>
-      <c r="C63" s="67"/>
+        <v>88</v>
+      </c>
+      <c r="C63" s="31" t="str">
+        <f t="shared" ref="C63" ca="1" si="19">IF(F63=E63, IF(TODAY()&gt;F63, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F63) - E63) / (F63 - E63) * 100, 1) &amp; "%")</f>
+        <v>100%</v>
+      </c>
       <c r="D63" s="21" t="str">
         <f t="shared" si="13"/>
         <v/>
@@ -8346,26 +8277,19 @@
       <c r="BO63" s="60"/>
     </row>
     <row r="64" spans="1:67" ht="15.75" thickBot="1">
-      <c r="A64" s="128"/>
-      <c r="B64" s="81" t="s">
-        <v>90</v>
-      </c>
-      <c r="C64" s="35" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>0%</v>
-      </c>
-      <c r="D64" s="71" t="str">
+      <c r="A64" s="124"/>
+      <c r="B64" s="97" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64" s="67"/>
+      <c r="D64" s="21" t="str">
         <f t="shared" si="13"/>
-        <v>12일</v>
-      </c>
-      <c r="E64" s="36">
-        <v>45999</v>
-      </c>
-      <c r="F64" s="36">
-        <v>46010</v>
-      </c>
-      <c r="G64" s="37" t="s">
-        <v>98</v>
+        <v/>
+      </c>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="70" t="s">
+        <v>100</v>
       </c>
       <c r="H64" s="59"/>
       <c r="I64" s="60"/>
@@ -8428,26 +8352,26 @@
       <c r="BN64" s="60"/>
       <c r="BO64" s="60"/>
     </row>
-    <row r="65" spans="1:67" ht="15" customHeight="1" thickBot="1">
-      <c r="A65" s="128"/>
-      <c r="B65" s="98" t="s">
-        <v>91</v>
-      </c>
-      <c r="C65" s="32" t="str">
+    <row r="65" spans="1:67" ht="15.75" thickBot="1">
+      <c r="A65" s="124"/>
+      <c r="B65" s="81" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65" s="35" t="str">
         <f t="shared" ca="1" si="12"/>
         <v>0%</v>
       </c>
-      <c r="D65" s="21" t="str">
+      <c r="D65" s="71" t="str">
         <f t="shared" si="13"/>
-        <v>10일</v>
-      </c>
-      <c r="E65" s="33">
+        <v>12일</v>
+      </c>
+      <c r="E65" s="36">
         <v>45999</v>
       </c>
-      <c r="F65" s="33">
-        <v>46008</v>
-      </c>
-      <c r="G65" s="34" t="s">
+      <c r="F65" s="36">
+        <v>46010</v>
+      </c>
+      <c r="G65" s="37" t="s">
         <v>98</v>
       </c>
       <c r="H65" s="59"/>
@@ -8511,12 +8435,12 @@
       <c r="BN65" s="60"/>
       <c r="BO65" s="60"/>
     </row>
-    <row r="66" spans="1:67" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A66" s="128"/>
-      <c r="B66" s="95" t="s">
-        <v>3</v>
-      </c>
-      <c r="C66" s="20" t="str">
+    <row r="66" spans="1:67" ht="15" customHeight="1" thickBot="1">
+      <c r="A66" s="124"/>
+      <c r="B66" s="98" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66" s="32" t="str">
         <f t="shared" ca="1" si="12"/>
         <v>0%</v>
       </c>
@@ -8524,13 +8448,13 @@
         <f t="shared" si="13"/>
         <v>10일</v>
       </c>
-      <c r="E66" s="22">
+      <c r="E66" s="33">
         <v>45999</v>
       </c>
-      <c r="F66" s="22">
+      <c r="F66" s="33">
         <v>46008</v>
       </c>
-      <c r="G66" s="23" t="s">
+      <c r="G66" s="34" t="s">
         <v>98</v>
       </c>
       <c r="H66" s="59"/>
@@ -8594,10 +8518,10 @@
       <c r="BN66" s="60"/>
       <c r="BO66" s="60"/>
     </row>
-    <row r="67" spans="1:67" ht="15.75" thickBot="1">
-      <c r="A67" s="128"/>
+    <row r="67" spans="1:67" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A67" s="124"/>
       <c r="B67" s="95" t="s">
-        <v>92</v>
+        <v>3</v>
       </c>
       <c r="C67" s="20" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -8605,13 +8529,13 @@
       </c>
       <c r="D67" s="21" t="str">
         <f t="shared" si="13"/>
-        <v>1일</v>
+        <v>10일</v>
       </c>
       <c r="E67" s="22">
-        <v>46010</v>
+        <v>45999</v>
       </c>
       <c r="F67" s="22">
-        <v>46010</v>
+        <v>46008</v>
       </c>
       <c r="G67" s="23" t="s">
         <v>98</v>
@@ -8678,9 +8602,9 @@
       <c r="BO67" s="60"/>
     </row>
     <row r="68" spans="1:67" ht="15.75" thickBot="1">
-      <c r="A68" s="129"/>
+      <c r="A68" s="124"/>
       <c r="B68" s="95" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C68" s="20" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -8760,12 +8684,92 @@
       <c r="BN68" s="60"/>
       <c r="BO68" s="60"/>
     </row>
-    <row r="69" spans="1:67">
-      <c r="E69" s="7"/>
-      <c r="F69" s="1"/>
-      <c r="I69" s="3"/>
+    <row r="69" spans="1:67" ht="15.75" thickBot="1">
+      <c r="A69" s="125"/>
+      <c r="B69" s="95" t="s">
+        <v>93</v>
+      </c>
+      <c r="C69" s="20" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>0%</v>
+      </c>
+      <c r="D69" s="21" t="str">
+        <f t="shared" si="13"/>
+        <v>1일</v>
+      </c>
+      <c r="E69" s="22">
+        <v>46010</v>
+      </c>
+      <c r="F69" s="22">
+        <v>46010</v>
+      </c>
+      <c r="G69" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="H69" s="59"/>
+      <c r="I69" s="60"/>
+      <c r="J69" s="60"/>
+      <c r="K69" s="60"/>
+      <c r="L69" s="61"/>
+      <c r="M69" s="62"/>
+      <c r="N69" s="60"/>
+      <c r="O69" s="60"/>
+      <c r="P69" s="60"/>
+      <c r="Q69" s="60"/>
+      <c r="R69" s="60"/>
+      <c r="S69" s="61"/>
+      <c r="T69" s="62"/>
+      <c r="U69" s="60"/>
+      <c r="V69" s="60"/>
+      <c r="W69" s="60"/>
+      <c r="X69" s="60"/>
+      <c r="Y69" s="60"/>
+      <c r="Z69" s="61"/>
+      <c r="AA69" s="62"/>
+      <c r="AB69" s="60"/>
+      <c r="AC69" s="60"/>
+      <c r="AD69" s="60"/>
+      <c r="AE69" s="60"/>
+      <c r="AF69" s="60"/>
+      <c r="AG69" s="61"/>
+      <c r="AH69" s="62"/>
+      <c r="AI69" s="60"/>
+      <c r="AJ69" s="60"/>
+      <c r="AK69" s="60"/>
+      <c r="AL69" s="60"/>
+      <c r="AM69" s="60"/>
+      <c r="AN69" s="61"/>
+      <c r="AO69" s="62"/>
+      <c r="AP69" s="60"/>
+      <c r="AQ69" s="60"/>
+      <c r="AR69" s="60"/>
+      <c r="AS69" s="60"/>
+      <c r="AT69" s="60"/>
+      <c r="AU69" s="61"/>
+      <c r="AV69" s="62"/>
+      <c r="AW69" s="60"/>
+      <c r="AX69" s="60"/>
+      <c r="AY69" s="60"/>
+      <c r="AZ69" s="60"/>
+      <c r="BA69" s="60"/>
+      <c r="BB69" s="61"/>
+      <c r="BC69" s="62"/>
+      <c r="BD69" s="60"/>
+      <c r="BE69" s="60"/>
+      <c r="BF69" s="60"/>
+      <c r="BG69" s="60"/>
+      <c r="BH69" s="60"/>
+      <c r="BI69" s="61"/>
+      <c r="BJ69" s="62"/>
+      <c r="BK69" s="60"/>
+      <c r="BL69" s="60"/>
+      <c r="BM69" s="60"/>
+      <c r="BN69" s="60"/>
+      <c r="BO69" s="60"/>
     </row>
     <row r="70" spans="1:67">
+      <c r="E70" s="7"/>
+      <c r="F70" s="1"/>
       <c r="I70" s="3"/>
     </row>
     <row r="71" spans="1:67">
@@ -8778,45 +8782,44 @@
       <c r="I73" s="3"/>
     </row>
     <row r="74" spans="1:67">
-      <c r="B74" s="8" t="s">
+      <c r="I74" s="3"/>
+    </row>
+    <row r="75" spans="1:67">
+      <c r="B75" s="8" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="75" spans="1:67" ht="16.5">
-      <c r="B75" s="9" t="s">
+    <row r="76" spans="1:67" ht="16.5">
+      <c r="B76" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E75" s="2"/>
-      <c r="F75" s="3"/>
-    </row>
-    <row r="76" spans="1:67">
-      <c r="B76" s="10" t="s">
-        <v>96</v>
-      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" s="3"/>
     </row>
     <row r="77" spans="1:67">
-      <c r="C77" s="3"/>
+      <c r="B77" s="10" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="78" spans="1:67">
       <c r="C78" s="3"/>
     </row>
-    <row r="79" spans="1:67"/>
+    <row r="79" spans="1:67">
+      <c r="C79" s="3"/>
+    </row>
     <row r="80" spans="1:67"/>
-    <row r="81" spans="2:8" ht="16.5">
-      <c r="B81" s="2"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-    </row>
-    <row r="82" spans="2:8">
+    <row r="81" spans="2:8"/>
+    <row r="82" spans="2:8" ht="16.5">
+      <c r="B82" s="2"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
     </row>
-    <row r="83" spans="2:8" ht="16.5">
-      <c r="B83" s="2"/>
+    <row r="83" spans="2:8">
+      <c r="C83" s="3"/>
       <c r="D83" s="3"/>
     </row>
-    <row r="84" spans="2:8">
-      <c r="C84" s="3"/>
+    <row r="84" spans="2:8" ht="16.5">
+      <c r="B84" s="2"/>
       <c r="D84" s="3"/>
     </row>
     <row r="85" spans="2:8">
@@ -8824,22 +8827,26 @@
       <c r="D85" s="3"/>
     </row>
     <row r="86" spans="2:8">
+      <c r="C86" s="3"/>
       <c r="D86" s="3"/>
     </row>
     <row r="87" spans="2:8">
       <c r="D87" s="3"/>
-      <c r="H87" s="11"/>
     </row>
-    <row r="88" spans="2:8" ht="15" customHeight="1">
+    <row r="88" spans="2:8">
       <c r="D88" s="3"/>
+      <c r="H88" s="11"/>
     </row>
     <row r="89" spans="2:8" ht="15" customHeight="1">
-      <c r="C89" s="3"/>
       <c r="D89" s="3"/>
     </row>
+    <row r="90" spans="2:8" ht="15" customHeight="1">
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A61:A68"/>
+  <mergeCells count="15">
+    <mergeCell ref="A62:A69"/>
     <mergeCell ref="H49:BO49"/>
     <mergeCell ref="H41:BO41"/>
     <mergeCell ref="C1:E1"/>
@@ -8850,9 +8857,10 @@
     <mergeCell ref="B41:G41"/>
     <mergeCell ref="B49:G49"/>
     <mergeCell ref="B17:G17"/>
-    <mergeCell ref="A12:A60"/>
+    <mergeCell ref="A12:A61"/>
     <mergeCell ref="H17:BO17"/>
     <mergeCell ref="H21:BO21"/>
+    <mergeCell ref="B53:G53"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2. WBS/5조_WBS_현대이지웰_최종프로젝트.xlsx
+++ b/2. WBS/5조_WBS_현대이지웰_최종프로젝트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\redgu\OneDrive\Desktop\related_Re_View\Re_View_Doc\2. WBS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC8A8D1-A363-4BA5-AD96-68C412FF5609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83CF6DD-8ABB-4C8B-ADA1-D4D6475F7FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="285" yWindow="555" windowWidth="21315" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="159">
   <si>
     <t>팀명</t>
   </si>
@@ -1334,6 +1334,32 @@
     <t>전체 페이지</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">바우만 타입 게시판 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>UI</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>바우만 타입 게시판 시스템</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1342,7 +1368,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="43">
+  <fonts count="45">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1633,6 +1659,20 @@
       <color theme="7"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -2249,7 +2289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2674,7 +2714,34 @@
     <xf numFmtId="0" fontId="23" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="21" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="8" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2901,10 +2968,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BO90"/>
+  <dimension ref="A1:BO92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58:G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -7154,11 +7221,11 @@
         <v>128</v>
       </c>
       <c r="C50" s="44" t="str">
-        <f t="shared" ref="C50:C69" ca="1" si="12">IF(F50=E50, IF(TODAY()&gt;F50, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F50) - E50) / (F50 - E50) * 100, 1) &amp; "%")</f>
+        <f t="shared" ref="C50:C71" ca="1" si="12">IF(F50=E50, IF(TODAY()&gt;F50, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F50) - E50) / (F50 - E50) * 100, 1) &amp; "%")</f>
         <v>100%</v>
       </c>
       <c r="D50" s="104" t="str">
-        <f t="shared" ref="D50:D69" si="13">IF(AND(F50&lt;&gt;"", E50&lt;&gt;""), F50 - E50 + 1 &amp; "일", "")</f>
+        <f t="shared" ref="D50:D71" si="13">IF(AND(F50&lt;&gt;"", E50&lt;&gt;""), F50 - E50 + 1 &amp; "일", "")</f>
         <v>7일</v>
       </c>
       <c r="E50" s="45">
@@ -7399,14 +7466,14 @@
     </row>
     <row r="53" spans="1:67" ht="15.75" customHeight="1" thickBot="1">
       <c r="A53" s="124"/>
-      <c r="B53" s="141" t="s">
+      <c r="B53" s="144" t="s">
         <v>156</v>
       </c>
       <c r="C53" s="141"/>
       <c r="D53" s="141"/>
       <c r="E53" s="141"/>
       <c r="F53" s="141"/>
-      <c r="G53" s="141"/>
+      <c r="G53" s="145"/>
       <c r="H53" s="103"/>
       <c r="I53" s="60"/>
       <c r="J53" s="60"/>
@@ -7470,24 +7537,24 @@
     </row>
     <row r="54" spans="1:67" ht="15" customHeight="1" thickBot="1">
       <c r="A54" s="124"/>
-      <c r="B54" s="87" t="s">
+      <c r="B54" s="100" t="s">
         <v>150</v>
       </c>
       <c r="C54" s="47" t="str">
         <f t="shared" ref="C54" ca="1" si="16">IF(F54=E54, IF(TODAY()&gt;F54, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F54) - E54) / (F54 - E54) * 100, 1) &amp; "%")</f>
         <v>100%</v>
       </c>
-      <c r="D54" s="40" t="str">
+      <c r="D54" s="142" t="str">
         <f t="shared" ref="D54" si="17">IF(AND(F54&lt;&gt;"", E54&lt;&gt;""), F54 - E54 + 1 &amp; "일", "")</f>
         <v>2일</v>
       </c>
-      <c r="E54" s="41">
+      <c r="E54" s="48">
         <v>45980</v>
       </c>
-      <c r="F54" s="41">
+      <c r="F54" s="48">
         <v>45981</v>
       </c>
-      <c r="G54" s="142" t="s">
+      <c r="G54" s="143" t="s">
         <v>117</v>
       </c>
       <c r="H54" s="59"/>
@@ -7724,14 +7791,18 @@
       </c>
       <c r="C57" s="20" t="str">
         <f ca="1">IF(F57=E57, IF(TODAY()&gt;F57, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F57) - E57) / (F57 - E57) * 100, 1) &amp; "%")</f>
-        <v>100%</v>
+        <v>0%</v>
       </c>
       <c r="D57" s="21" t="str">
         <f>IF(AND(F57&lt;&gt;"", E57&lt;&gt;""), F57 - E57 + 1 &amp; "일", "")</f>
-        <v/>
-      </c>
-      <c r="E57" s="22"/>
-      <c r="F57" s="22"/>
+        <v>14일</v>
+      </c>
+      <c r="E57" s="22">
+        <v>45985</v>
+      </c>
+      <c r="F57" s="22">
+        <v>45998</v>
+      </c>
       <c r="G57" s="68" t="s">
         <v>134</v>
       </c>
@@ -7798,25 +7869,25 @@
     </row>
     <row r="58" spans="1:67" ht="15" customHeight="1" thickBot="1">
       <c r="A58" s="124"/>
-      <c r="B58" s="115" t="s">
-        <v>129</v>
-      </c>
-      <c r="C58" s="116" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>100%</v>
-      </c>
-      <c r="D58" s="117" t="str">
-        <f t="shared" si="13"/>
-        <v>3일</v>
-      </c>
-      <c r="E58" s="75">
-        <v>45980</v>
-      </c>
-      <c r="F58" s="75">
-        <v>45982</v>
-      </c>
-      <c r="G58" s="118" t="s">
-        <v>117</v>
+      <c r="B58" s="146" t="s">
+        <v>157</v>
+      </c>
+      <c r="C58" s="147" t="str">
+        <f ca="1">IF(F58=E58, IF(TODAY()&gt;F58, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F58) - E58) / (F58 - E58) * 100, 1) &amp; "%")</f>
+        <v>0%</v>
+      </c>
+      <c r="D58" s="148" t="str">
+        <f>IF(AND(F58&lt;&gt;"", E58&lt;&gt;""), F58 - E58 + 1 &amp; "일", "")</f>
+        <v>10일</v>
+      </c>
+      <c r="E58" s="149">
+        <v>45989</v>
+      </c>
+      <c r="F58" s="149">
+        <v>45998</v>
+      </c>
+      <c r="G58" s="150" t="s">
+        <v>108</v>
       </c>
       <c r="H58" s="59"/>
       <c r="I58" s="60"/>
@@ -7881,20 +7952,26 @@
     </row>
     <row r="59" spans="1:67" ht="15" customHeight="1" thickBot="1">
       <c r="A59" s="124"/>
-      <c r="B59" s="94" t="s">
-        <v>130</v>
-      </c>
-      <c r="C59" s="32" t="str">
-        <f t="shared" ca="1" si="12"/>
+      <c r="B59" s="115" t="s">
+        <v>129</v>
+      </c>
+      <c r="C59" s="116" t="str">
+        <f ca="1">IF(F59=E59, IF(TODAY()&gt;F59, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F59) - E59) / (F59 - E59) * 100, 1) &amp; "%")</f>
         <v>100%</v>
       </c>
-      <c r="D59" s="21" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="E59" s="22"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="69"/>
+      <c r="D59" s="117" t="str">
+        <f>IF(AND(F59&lt;&gt;"", E59&lt;&gt;""), F59 - E59 + 1 &amp; "일", "")</f>
+        <v>3일</v>
+      </c>
+      <c r="E59" s="75">
+        <v>45980</v>
+      </c>
+      <c r="F59" s="75">
+        <v>45982</v>
+      </c>
+      <c r="G59" s="118" t="s">
+        <v>117</v>
+      </c>
       <c r="H59" s="59"/>
       <c r="I59" s="60"/>
       <c r="J59" s="60"/>
@@ -7956,22 +8033,28 @@
       <c r="BN59" s="60"/>
       <c r="BO59" s="60"/>
     </row>
-    <row r="60" spans="1:67" ht="15.75" customHeight="1" thickBot="1">
+    <row r="60" spans="1:67" ht="15" customHeight="1" thickBot="1">
       <c r="A60" s="124"/>
       <c r="B60" s="94" t="s">
-        <v>131</v>
-      </c>
-      <c r="C60" s="20" t="str">
+        <v>130</v>
+      </c>
+      <c r="C60" s="32" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>100%</v>
+        <v>0%</v>
       </c>
       <c r="D60" s="21" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="E60" s="22"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="69"/>
+        <f>IF(AND(F60&lt;&gt;"", E60&lt;&gt;""), F60 - E60 + 1 &amp; "일", "")</f>
+        <v>10일</v>
+      </c>
+      <c r="E60" s="22">
+        <v>45989</v>
+      </c>
+      <c r="F60" s="22">
+        <v>45998</v>
+      </c>
+      <c r="G60" s="69" t="s">
+        <v>119</v>
+      </c>
       <c r="H60" s="59"/>
       <c r="I60" s="60"/>
       <c r="J60" s="60"/>
@@ -8033,13 +8116,13 @@
       <c r="BN60" s="60"/>
       <c r="BO60" s="60"/>
     </row>
-    <row r="61" spans="1:67" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A61" s="125"/>
-      <c r="B61" s="95" t="s">
-        <v>149</v>
-      </c>
-      <c r="C61" s="20" t="str">
-        <f t="shared" ref="C61" ca="1" si="18">IF(F61=E61, IF(TODAY()&gt;F61, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F61) - E61) / (F61 - E61) * 100, 1) &amp; "%")</f>
+    <row r="61" spans="1:67" ht="15" customHeight="1" thickBot="1">
+      <c r="A61" s="124"/>
+      <c r="B61" s="151" t="s">
+        <v>158</v>
+      </c>
+      <c r="C61" s="32" t="str">
+        <f t="shared" ca="1" si="12"/>
         <v>0%</v>
       </c>
       <c r="D61" s="21" t="str">
@@ -8052,8 +8135,8 @@
       <c r="F61" s="22">
         <v>45998</v>
       </c>
-      <c r="G61" s="68" t="s">
-        <v>117</v>
+      <c r="G61" s="69" t="s">
+        <v>107</v>
       </c>
       <c r="H61" s="59"/>
       <c r="I61" s="60"/>
@@ -8117,24 +8200,26 @@
       <c r="BO61" s="60"/>
     </row>
     <row r="62" spans="1:67" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A62" s="124" t="s">
-        <v>90</v>
-      </c>
-      <c r="B62" s="96" t="s">
-        <v>2</v>
+      <c r="A62" s="124"/>
+      <c r="B62" s="94" t="s">
+        <v>131</v>
       </c>
       <c r="C62" s="20" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>100%</v>
+        <v>0%</v>
       </c>
       <c r="D62" s="21" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="70" t="s">
-        <v>100</v>
+        <f>IF(AND(F62&lt;&gt;"", E62&lt;&gt;""), F62 - E62 + 1 &amp; "일", "")</f>
+        <v>10일</v>
+      </c>
+      <c r="E62" s="22">
+        <v>45989</v>
+      </c>
+      <c r="F62" s="22">
+        <v>45998</v>
+      </c>
+      <c r="G62" s="69" t="s">
+        <v>116</v>
       </c>
       <c r="H62" s="59"/>
       <c r="I62" s="60"/>
@@ -8197,23 +8282,27 @@
       <c r="BN62" s="60"/>
       <c r="BO62" s="60"/>
     </row>
-    <row r="63" spans="1:67" ht="15.75" thickBot="1">
-      <c r="A63" s="124"/>
-      <c r="B63" s="97" t="s">
-        <v>88</v>
-      </c>
-      <c r="C63" s="31" t="str">
-        <f t="shared" ref="C63" ca="1" si="19">IF(F63=E63, IF(TODAY()&gt;F63, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F63) - E63) / (F63 - E63) * 100, 1) &amp; "%")</f>
-        <v>100%</v>
+    <row r="63" spans="1:67" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A63" s="125"/>
+      <c r="B63" s="95" t="s">
+        <v>149</v>
+      </c>
+      <c r="C63" s="20" t="str">
+        <f t="shared" ref="C63" ca="1" si="18">IF(F63=E63, IF(TODAY()&gt;F63, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F63) - E63) / (F63 - E63) * 100, 1) &amp; "%")</f>
+        <v>0%</v>
       </c>
       <c r="D63" s="21" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="E63" s="22"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="70" t="s">
-        <v>100</v>
+        <f>IF(AND(F63&lt;&gt;"", E63&lt;&gt;""), F63 - E63 + 1 &amp; "일", "")</f>
+        <v>10일</v>
+      </c>
+      <c r="E63" s="22">
+        <v>45989</v>
+      </c>
+      <c r="F63" s="22">
+        <v>45998</v>
+      </c>
+      <c r="G63" s="68" t="s">
+        <v>117</v>
       </c>
       <c r="H63" s="59"/>
       <c r="I63" s="60"/>
@@ -8276,12 +8365,17 @@
       <c r="BN63" s="60"/>
       <c r="BO63" s="60"/>
     </row>
-    <row r="64" spans="1:67" ht="15.75" thickBot="1">
-      <c r="A64" s="124"/>
-      <c r="B64" s="97" t="s">
-        <v>89</v>
-      </c>
-      <c r="C64" s="67"/>
+    <row r="64" spans="1:67" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A64" s="124" t="s">
+        <v>90</v>
+      </c>
+      <c r="B64" s="96" t="s">
+        <v>2</v>
+      </c>
+      <c r="C64" s="20" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>100%</v>
+      </c>
       <c r="D64" s="21" t="str">
         <f t="shared" si="13"/>
         <v/>
@@ -8354,25 +8448,21 @@
     </row>
     <row r="65" spans="1:67" ht="15.75" thickBot="1">
       <c r="A65" s="124"/>
-      <c r="B65" s="81" t="s">
-        <v>90</v>
-      </c>
-      <c r="C65" s="35" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>0%</v>
-      </c>
-      <c r="D65" s="71" t="str">
+      <c r="B65" s="97" t="s">
+        <v>88</v>
+      </c>
+      <c r="C65" s="31" t="str">
+        <f t="shared" ref="C65" ca="1" si="19">IF(F65=E65, IF(TODAY()&gt;F65, "100%", "0%"), ROUND(MAX(0, MIN(TODAY(), F65) - E65) / (F65 - E65) * 100, 1) &amp; "%")</f>
+        <v>100%</v>
+      </c>
+      <c r="D65" s="21" t="str">
         <f t="shared" si="13"/>
-        <v>12일</v>
-      </c>
-      <c r="E65" s="36">
-        <v>45999</v>
-      </c>
-      <c r="F65" s="36">
-        <v>46010</v>
-      </c>
-      <c r="G65" s="37" t="s">
-        <v>98</v>
+        <v/>
+      </c>
+      <c r="E65" s="22"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="70" t="s">
+        <v>100</v>
       </c>
       <c r="H65" s="59"/>
       <c r="I65" s="60"/>
@@ -8435,27 +8525,20 @@
       <c r="BN65" s="60"/>
       <c r="BO65" s="60"/>
     </row>
-    <row r="66" spans="1:67" ht="15" customHeight="1" thickBot="1">
+    <row r="66" spans="1:67" ht="15.75" thickBot="1">
       <c r="A66" s="124"/>
-      <c r="B66" s="98" t="s">
-        <v>91</v>
-      </c>
-      <c r="C66" s="32" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>0%</v>
-      </c>
+      <c r="B66" s="97" t="s">
+        <v>89</v>
+      </c>
+      <c r="C66" s="67"/>
       <c r="D66" s="21" t="str">
         <f t="shared" si="13"/>
-        <v>10일</v>
-      </c>
-      <c r="E66" s="33">
-        <v>45999</v>
-      </c>
-      <c r="F66" s="33">
-        <v>46008</v>
-      </c>
-      <c r="G66" s="34" t="s">
-        <v>98</v>
+        <v/>
+      </c>
+      <c r="E66" s="22"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="70" t="s">
+        <v>100</v>
       </c>
       <c r="H66" s="59"/>
       <c r="I66" s="60"/>
@@ -8518,26 +8601,26 @@
       <c r="BN66" s="60"/>
       <c r="BO66" s="60"/>
     </row>
-    <row r="67" spans="1:67" ht="15.75" customHeight="1" thickBot="1">
+    <row r="67" spans="1:67" ht="15.75" thickBot="1">
       <c r="A67" s="124"/>
-      <c r="B67" s="95" t="s">
-        <v>3</v>
-      </c>
-      <c r="C67" s="20" t="str">
+      <c r="B67" s="81" t="s">
+        <v>90</v>
+      </c>
+      <c r="C67" s="35" t="str">
         <f t="shared" ca="1" si="12"/>
         <v>0%</v>
       </c>
-      <c r="D67" s="21" t="str">
+      <c r="D67" s="71" t="str">
         <f t="shared" si="13"/>
-        <v>10일</v>
-      </c>
-      <c r="E67" s="22">
+        <v>12일</v>
+      </c>
+      <c r="E67" s="36">
         <v>45999</v>
       </c>
-      <c r="F67" s="22">
-        <v>46008</v>
-      </c>
-      <c r="G67" s="23" t="s">
+      <c r="F67" s="36">
+        <v>46010</v>
+      </c>
+      <c r="G67" s="37" t="s">
         <v>98</v>
       </c>
       <c r="H67" s="59"/>
@@ -8601,26 +8684,26 @@
       <c r="BN67" s="60"/>
       <c r="BO67" s="60"/>
     </row>
-    <row r="68" spans="1:67" ht="15.75" thickBot="1">
+    <row r="68" spans="1:67" ht="15" customHeight="1" thickBot="1">
       <c r="A68" s="124"/>
-      <c r="B68" s="95" t="s">
-        <v>92</v>
-      </c>
-      <c r="C68" s="20" t="str">
+      <c r="B68" s="98" t="s">
+        <v>91</v>
+      </c>
+      <c r="C68" s="32" t="str">
         <f t="shared" ca="1" si="12"/>
         <v>0%</v>
       </c>
       <c r="D68" s="21" t="str">
         <f t="shared" si="13"/>
-        <v>1일</v>
-      </c>
-      <c r="E68" s="22">
-        <v>46010</v>
-      </c>
-      <c r="F68" s="22">
-        <v>46010</v>
-      </c>
-      <c r="G68" s="23" t="s">
+        <v>10일</v>
+      </c>
+      <c r="E68" s="33">
+        <v>45999</v>
+      </c>
+      <c r="F68" s="33">
+        <v>46008</v>
+      </c>
+      <c r="G68" s="34" t="s">
         <v>98</v>
       </c>
       <c r="H68" s="59"/>
@@ -8684,10 +8767,10 @@
       <c r="BN68" s="60"/>
       <c r="BO68" s="60"/>
     </row>
-    <row r="69" spans="1:67" ht="15.75" thickBot="1">
-      <c r="A69" s="125"/>
+    <row r="69" spans="1:67" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A69" s="124"/>
       <c r="B69" s="95" t="s">
-        <v>93</v>
+        <v>3</v>
       </c>
       <c r="C69" s="20" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -8695,13 +8778,13 @@
       </c>
       <c r="D69" s="21" t="str">
         <f t="shared" si="13"/>
-        <v>1일</v>
+        <v>10일</v>
       </c>
       <c r="E69" s="22">
-        <v>46010</v>
+        <v>45999</v>
       </c>
       <c r="F69" s="22">
-        <v>46010</v>
+        <v>46008</v>
       </c>
       <c r="G69" s="23" t="s">
         <v>98</v>
@@ -8767,15 +8850,175 @@
       <c r="BN69" s="60"/>
       <c r="BO69" s="60"/>
     </row>
-    <row r="70" spans="1:67">
-      <c r="E70" s="7"/>
-      <c r="F70" s="1"/>
-      <c r="I70" s="3"/>
+    <row r="70" spans="1:67" ht="15.75" thickBot="1">
+      <c r="A70" s="124"/>
+      <c r="B70" s="95" t="s">
+        <v>92</v>
+      </c>
+      <c r="C70" s="20" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>0%</v>
+      </c>
+      <c r="D70" s="21" t="str">
+        <f t="shared" si="13"/>
+        <v>1일</v>
+      </c>
+      <c r="E70" s="22">
+        <v>46010</v>
+      </c>
+      <c r="F70" s="22">
+        <v>46010</v>
+      </c>
+      <c r="G70" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="H70" s="59"/>
+      <c r="I70" s="60"/>
+      <c r="J70" s="60"/>
+      <c r="K70" s="60"/>
+      <c r="L70" s="61"/>
+      <c r="M70" s="62"/>
+      <c r="N70" s="60"/>
+      <c r="O70" s="60"/>
+      <c r="P70" s="60"/>
+      <c r="Q70" s="60"/>
+      <c r="R70" s="60"/>
+      <c r="S70" s="61"/>
+      <c r="T70" s="62"/>
+      <c r="U70" s="60"/>
+      <c r="V70" s="60"/>
+      <c r="W70" s="60"/>
+      <c r="X70" s="60"/>
+      <c r="Y70" s="60"/>
+      <c r="Z70" s="61"/>
+      <c r="AA70" s="62"/>
+      <c r="AB70" s="60"/>
+      <c r="AC70" s="60"/>
+      <c r="AD70" s="60"/>
+      <c r="AE70" s="60"/>
+      <c r="AF70" s="60"/>
+      <c r="AG70" s="61"/>
+      <c r="AH70" s="62"/>
+      <c r="AI70" s="60"/>
+      <c r="AJ70" s="60"/>
+      <c r="AK70" s="60"/>
+      <c r="AL70" s="60"/>
+      <c r="AM70" s="60"/>
+      <c r="AN70" s="61"/>
+      <c r="AO70" s="62"/>
+      <c r="AP70" s="60"/>
+      <c r="AQ70" s="60"/>
+      <c r="AR70" s="60"/>
+      <c r="AS70" s="60"/>
+      <c r="AT70" s="60"/>
+      <c r="AU70" s="61"/>
+      <c r="AV70" s="62"/>
+      <c r="AW70" s="60"/>
+      <c r="AX70" s="60"/>
+      <c r="AY70" s="60"/>
+      <c r="AZ70" s="60"/>
+      <c r="BA70" s="60"/>
+      <c r="BB70" s="61"/>
+      <c r="BC70" s="62"/>
+      <c r="BD70" s="60"/>
+      <c r="BE70" s="60"/>
+      <c r="BF70" s="60"/>
+      <c r="BG70" s="60"/>
+      <c r="BH70" s="60"/>
+      <c r="BI70" s="61"/>
+      <c r="BJ70" s="62"/>
+      <c r="BK70" s="60"/>
+      <c r="BL70" s="60"/>
+      <c r="BM70" s="60"/>
+      <c r="BN70" s="60"/>
+      <c r="BO70" s="60"/>
     </row>
-    <row r="71" spans="1:67">
-      <c r="I71" s="3"/>
+    <row r="71" spans="1:67" ht="15.75" thickBot="1">
+      <c r="A71" s="125"/>
+      <c r="B71" s="95" t="s">
+        <v>93</v>
+      </c>
+      <c r="C71" s="20" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>0%</v>
+      </c>
+      <c r="D71" s="21" t="str">
+        <f t="shared" si="13"/>
+        <v>1일</v>
+      </c>
+      <c r="E71" s="22">
+        <v>46010</v>
+      </c>
+      <c r="F71" s="22">
+        <v>46010</v>
+      </c>
+      <c r="G71" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="H71" s="59"/>
+      <c r="I71" s="60"/>
+      <c r="J71" s="60"/>
+      <c r="K71" s="60"/>
+      <c r="L71" s="61"/>
+      <c r="M71" s="62"/>
+      <c r="N71" s="60"/>
+      <c r="O71" s="60"/>
+      <c r="P71" s="60"/>
+      <c r="Q71" s="60"/>
+      <c r="R71" s="60"/>
+      <c r="S71" s="61"/>
+      <c r="T71" s="62"/>
+      <c r="U71" s="60"/>
+      <c r="V71" s="60"/>
+      <c r="W71" s="60"/>
+      <c r="X71" s="60"/>
+      <c r="Y71" s="60"/>
+      <c r="Z71" s="61"/>
+      <c r="AA71" s="62"/>
+      <c r="AB71" s="60"/>
+      <c r="AC71" s="60"/>
+      <c r="AD71" s="60"/>
+      <c r="AE71" s="60"/>
+      <c r="AF71" s="60"/>
+      <c r="AG71" s="61"/>
+      <c r="AH71" s="62"/>
+      <c r="AI71" s="60"/>
+      <c r="AJ71" s="60"/>
+      <c r="AK71" s="60"/>
+      <c r="AL71" s="60"/>
+      <c r="AM71" s="60"/>
+      <c r="AN71" s="61"/>
+      <c r="AO71" s="62"/>
+      <c r="AP71" s="60"/>
+      <c r="AQ71" s="60"/>
+      <c r="AR71" s="60"/>
+      <c r="AS71" s="60"/>
+      <c r="AT71" s="60"/>
+      <c r="AU71" s="61"/>
+      <c r="AV71" s="62"/>
+      <c r="AW71" s="60"/>
+      <c r="AX71" s="60"/>
+      <c r="AY71" s="60"/>
+      <c r="AZ71" s="60"/>
+      <c r="BA71" s="60"/>
+      <c r="BB71" s="61"/>
+      <c r="BC71" s="62"/>
+      <c r="BD71" s="60"/>
+      <c r="BE71" s="60"/>
+      <c r="BF71" s="60"/>
+      <c r="BG71" s="60"/>
+      <c r="BH71" s="60"/>
+      <c r="BI71" s="61"/>
+      <c r="BJ71" s="62"/>
+      <c r="BK71" s="60"/>
+      <c r="BL71" s="60"/>
+      <c r="BM71" s="60"/>
+      <c r="BN71" s="60"/>
+      <c r="BO71" s="60"/>
     </row>
     <row r="72" spans="1:67">
+      <c r="E72" s="7"/>
+      <c r="F72" s="1"/>
       <c r="I72" s="3"/>
     </row>
     <row r="73" spans="1:67">
@@ -8785,68 +9028,74 @@
       <c r="I74" s="3"/>
     </row>
     <row r="75" spans="1:67">
-      <c r="B75" s="8" t="s">
-        <v>94</v>
-      </c>
+      <c r="I75" s="3"/>
     </row>
-    <row r="76" spans="1:67" ht="16.5">
-      <c r="B76" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E76" s="2"/>
-      <c r="F76" s="3"/>
+    <row r="76" spans="1:67">
+      <c r="I76" s="3"/>
     </row>
     <row r="77" spans="1:67">
-      <c r="B77" s="10" t="s">
-        <v>96</v>
+      <c r="B77" s="8" t="s">
+        <v>94</v>
       </c>
     </row>
-    <row r="78" spans="1:67">
-      <c r="C78" s="3"/>
+    <row r="78" spans="1:67" ht="16.5">
+      <c r="B78" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" s="3"/>
     </row>
     <row r="79" spans="1:67">
-      <c r="C79" s="3"/>
+      <c r="B79" s="10" t="s">
+        <v>96</v>
+      </c>
     </row>
-    <row r="80" spans="1:67"/>
-    <row r="81" spans="2:8"/>
-    <row r="82" spans="2:8" ht="16.5">
-      <c r="B82" s="2"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
+    <row r="80" spans="1:67">
+      <c r="C80" s="3"/>
     </row>
-    <row r="83" spans="2:8">
-      <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
+    <row r="81" spans="2:8">
+      <c r="C81" s="3"/>
     </row>
+    <row r="82" spans="2:8"/>
+    <row r="83" spans="2:8"/>
     <row r="84" spans="2:8" ht="16.5">
       <c r="B84" s="2"/>
+      <c r="C84" s="3"/>
       <c r="D84" s="3"/>
     </row>
     <row r="85" spans="2:8">
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
     </row>
-    <row r="86" spans="2:8">
-      <c r="C86" s="3"/>
+    <row r="86" spans="2:8" ht="16.5">
+      <c r="B86" s="2"/>
       <c r="D86" s="3"/>
     </row>
     <row r="87" spans="2:8">
+      <c r="C87" s="3"/>
       <c r="D87" s="3"/>
     </row>
     <row r="88" spans="2:8">
+      <c r="C88" s="3"/>
       <c r="D88" s="3"/>
-      <c r="H88" s="11"/>
     </row>
-    <row r="89" spans="2:8" ht="15" customHeight="1">
+    <row r="89" spans="2:8">
       <c r="D89" s="3"/>
     </row>
-    <row r="90" spans="2:8" ht="15" customHeight="1">
-      <c r="C90" s="3"/>
+    <row r="90" spans="2:8">
       <c r="D90" s="3"/>
+      <c r="H90" s="11"/>
+    </row>
+    <row r="91" spans="2:8" ht="15" customHeight="1">
+      <c r="D91" s="3"/>
+    </row>
+    <row r="92" spans="2:8" ht="15" customHeight="1">
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A62:A69"/>
+    <mergeCell ref="A64:A71"/>
     <mergeCell ref="H49:BO49"/>
     <mergeCell ref="H41:BO41"/>
     <mergeCell ref="C1:E1"/>
@@ -8857,7 +9106,7 @@
     <mergeCell ref="B41:G41"/>
     <mergeCell ref="B49:G49"/>
     <mergeCell ref="B17:G17"/>
-    <mergeCell ref="A12:A61"/>
+    <mergeCell ref="A12:A63"/>
     <mergeCell ref="H17:BO17"/>
     <mergeCell ref="H21:BO21"/>
     <mergeCell ref="B53:G53"/>
